--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="806" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="806" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,9 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">在 JDK 1.6 之前，synchronized 是重量级锁，效率低下。
+          <t>在 JDK 1.6 之前，synchronized 是重量级锁，效率低下。
 从 JDK 1.6 开始，synchronized 做了很多优化，如偏向锁、轻量级锁、自旋锁、适应性自旋锁、锁消除、锁粗化等技术来减少锁操作的开销。
-</t>
+高效并发是从JDK 1.5到JDK 1.6的重要改进，HotSpot虚拟机开发团队 实现了各种锁优化技术，如 适应性自旋(Adaptive Spinning)、锁清除(Lock Elimination)、锁粗化(Lock Coarsening)、轻量级锁(Lightweight Locking)、偏向锁(Biased Locking)，这些技术是为了在线程间更高效的共享数据，以及解决竞争问题，从而提高程序的执行效率。</t>
         </r>
       </text>
     </comment>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="245">
   <si>
     <t>timeline</t>
   </si>
@@ -194,7 +194,8 @@
     <t>JDK 1.4发布</t>
   </si>
   <si>
-    <t>JDK1.4新增java.nio。</t>
+    <t>JDK1.4新增java.nio。
+JDK1.4.2引入自旋锁，默认关闭，使用-XX:+UseSpinning参数开启。JDK 1.6中默认开启。</t>
   </si>
   <si>
     <t>2002年10月，Rod Johnson发布《Expert One-on-One J2EE设计和开发》一书</t>
@@ -220,7 +221,7 @@
     <t>JDK 6发布</t>
   </si>
   <si>
-    <t>JDK6为synchronized新增了偏向锁、轻量级锁。
+    <t>JDK6引入适应性自旋锁，为synchronized新增了偏向锁、轻量级锁。
 JVM新增了Parallel Old收集器。
 JVM首次提供VisualVM工具。</t>
   </si>
@@ -242,6 +243,12 @@
     <t>Java 8发布</t>
   </si>
   <si>
+    <t>引入 行为参数化 概念。
+新增 Lambda表达式。
+新增 函数式接口@FunctionalInterface，如Predicate\Consumer\Function\Supplier。
+新增 Stream API。</t>
+  </si>
+  <si>
     <t>2013年12月，Spring 4.0发布，支持Java 8</t>
   </si>
   <si>
@@ -320,7 +327,7 @@
     <t>java.lang</t>
   </si>
   <si>
-    <t>Class\Double\Integer\Throwable\Runnable\Thread\ThreadGroup(JDK0)\ThreadLocal\Comparable(JDK2)</t>
+    <t>Class\Double\Integer\Throwable\Runnable\Thread\ThreadGroup(JDK0)\ThreadLocal\Comparable(JDK2)\@FunctionalInterface(JDK8)</t>
   </si>
   <si>
     <t>java.lang.annotation</t>
@@ -438,7 +445,7 @@
     <t>java.util.function</t>
   </si>
   <si>
-    <t>Function\Predicate\Supplier</t>
+    <t>Predicate\Consumer\Function\Supplier</t>
   </si>
   <si>
     <t>java.util.jar</t>
@@ -981,17 +988,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1031,48 +1031,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1085,37 +1046,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1136,23 +1066,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1167,17 +1122,55 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1219,13 +1212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,7 +1224,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,7 +1260,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,115 +1320,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,7 +1344,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,6 +1384,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="43">
     <border>
@@ -1854,6 +1847,24 @@
         <color theme="4"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1868,6 +1879,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1889,68 +1939,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1962,10 +1955,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1974,133 +1967,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2108,52 +2101,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
@@ -2162,13 +2155,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
@@ -2177,25 +2170,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -2228,13 +2221,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -2267,31 +2260,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2396,10 +2389,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2842,8 +2835,8 @@
   <sheetPr/>
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.5"/>
@@ -2851,9 +2844,9 @@
     <col min="1" max="1" width="4.625" style="95" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="95" customWidth="1"/>
     <col min="3" max="3" width="28.75" style="95" customWidth="1"/>
-    <col min="4" max="4" width="70.125" style="95" customWidth="1"/>
-    <col min="5" max="5" width="29.625" style="95" customWidth="1"/>
-    <col min="6" max="6" width="31.75" style="95" customWidth="1"/>
+    <col min="4" max="4" width="90.5" style="95" customWidth="1"/>
+    <col min="5" max="5" width="31.625" style="95" customWidth="1"/>
+    <col min="6" max="6" width="47.25" style="95" customWidth="1"/>
     <col min="7" max="16384" width="12.75" style="95" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2960,7 +2953,7 @@
       <c r="C10" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="107" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="107" t="s">
@@ -3051,14 +3044,16 @@
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" ht="67.5" spans="2:9">
       <c r="B18" s="105">
         <v>41699</v>
       </c>
       <c r="C18" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="106"/>
+      <c r="D18" s="107" t="s">
+        <v>29</v>
+      </c>
       <c r="E18" s="107"/>
       <c r="F18" s="110"/>
       <c r="H18"/>
@@ -3069,7 +3064,7 @@
       <c r="C19" s="109"/>
       <c r="D19" s="109"/>
       <c r="E19" s="103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" s="111"/>
     </row>
@@ -3078,11 +3073,11 @@
         <v>42979</v>
       </c>
       <c r="C20" s="106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" s="106"/>
       <c r="E20" s="107" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F20" s="110"/>
     </row>
@@ -3091,7 +3086,7 @@
         <v>43160</v>
       </c>
       <c r="C21" s="109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="109"/>
       <c r="E21" s="103"/>
@@ -3102,7 +3097,7 @@
         <v>43344</v>
       </c>
       <c r="C22" s="106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="106"/>
       <c r="E22" s="107"/>
@@ -3113,7 +3108,7 @@
         <v>43525</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" s="109"/>
       <c r="E23" s="103"/>
@@ -3124,7 +3119,7 @@
         <v>43709</v>
       </c>
       <c r="C24" s="106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" s="106"/>
       <c r="E24" s="106"/>
@@ -3135,7 +3130,7 @@
         <v>43891</v>
       </c>
       <c r="C25" s="109" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" s="114"/>
       <c r="E25" s="115"/>
@@ -3146,7 +3141,7 @@
         <v>44075</v>
       </c>
       <c r="C26" s="106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D26" s="106"/>
       <c r="E26" s="106"/>
@@ -3190,7 +3185,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ee159a73-a999-4013-988c-d4744c3df69b}</x14:id>
+          <x14:id>{1434219c-6a5c-41d1-a6bc-bc4fd9da7e19}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3204,7 +3199,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7e210dda-1946-4bb5-a0e5-207f98cb1958}</x14:id>
+          <x14:id>{9edeac75-9ca9-4d0c-bc98-b463dbb84cfb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3218,7 +3213,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b1d62f7c-4ef3-4a1b-bef0-46778dd4ae56}</x14:id>
+          <x14:id>{2d8a41a3-26ba-40dd-a04e-b882c1b6bbac}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3232,7 +3227,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{69fa9187-8bb1-41b3-aeed-98031eaf798e}</x14:id>
+          <x14:id>{db7193a8-271f-431d-a032-d378f6006578}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3246,7 +3241,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5e488f12-5378-49c0-95fd-46c05f920606}</x14:id>
+          <x14:id>{52c49450-b3ae-40a3-93f6-e819f28650b4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3260,7 +3255,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{35b89268-9bd1-4744-8292-d783eeae8e3d}</x14:id>
+          <x14:id>{1ec069b2-d4f1-487f-9f16-b849f20fbd57}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3274,7 +3269,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1b5a7792-bb0e-41ff-8002-a9f577b935ff}</x14:id>
+          <x14:id>{2d1ea6d1-4277-473b-a44f-7cf88160e37f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3288,7 +3283,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b96db560-25ed-498d-b964-0393ad7312c4}</x14:id>
+          <x14:id>{4102e814-3dc6-47e6-be31-af9f49cf898e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3300,7 +3295,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ee159a73-a999-4013-988c-d4744c3df69b}">
+          <x14:cfRule type="dataBar" id="{1434219c-6a5c-41d1-a6bc-bc4fd9da7e19}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3311,7 +3306,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7e210dda-1946-4bb5-a0e5-207f98cb1958}">
+          <x14:cfRule type="dataBar" id="{9edeac75-9ca9-4d0c-bc98-b463dbb84cfb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3322,7 +3317,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b1d62f7c-4ef3-4a1b-bef0-46778dd4ae56}">
+          <x14:cfRule type="dataBar" id="{2d8a41a3-26ba-40dd-a04e-b882c1b6bbac}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3333,7 +3328,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{69fa9187-8bb1-41b3-aeed-98031eaf798e}">
+          <x14:cfRule type="dataBar" id="{db7193a8-271f-431d-a032-d378f6006578}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3344,7 +3339,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5e488f12-5378-49c0-95fd-46c05f920606}">
+          <x14:cfRule type="dataBar" id="{52c49450-b3ae-40a3-93f6-e819f28650b4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3355,7 +3350,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{35b89268-9bd1-4744-8292-d783eeae8e3d}">
+          <x14:cfRule type="dataBar" id="{1ec069b2-d4f1-487f-9f16-b849f20fbd57}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3366,7 +3361,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1b5a7792-bb0e-41ff-8002-a9f577b935ff}">
+          <x14:cfRule type="dataBar" id="{2d1ea6d1-4277-473b-a44f-7cf88160e37f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3377,7 +3372,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b96db560-25ed-498d-b964-0393ad7312c4}">
+          <x14:cfRule type="dataBar" id="{4102e814-3dc6-47e6-be31-af9f49cf898e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3415,36 +3410,36 @@
     <row r="1" ht="14.25"/>
     <row r="2" spans="2:6">
       <c r="B2" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E2" s="17"/>
       <c r="F2" s="18"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="23"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
@@ -3452,51 +3447,51 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:6">
       <c r="B7" s="26" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -3525,61 +3520,61 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:5">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" ht="27" spans="2:5">
       <c r="B4" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" ht="27" spans="2:5">
       <c r="B5" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" ht="27" spans="2:5">
       <c r="B6" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="12" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:5">
       <c r="B7" s="13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -3596,7 +3591,7 @@
   <sheetPr/>
   <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -3610,94 +3605,94 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:4">
       <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" ht="27" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" ht="27" spans="2:4">
       <c r="B5" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="6" ht="37.5" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="9" ht="27" spans="2:4">
       <c r="B9" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" ht="27.75" spans="2:4">
       <c r="B10" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3712,7 +3707,7 @@
   <dimension ref="B2:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3726,386 +3721,387 @@
   <sheetData>
     <row r="2" ht="20" customHeight="1" spans="2:2">
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="2:4">
       <c r="B3" s="60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:4">
       <c r="B4" s="63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:4">
       <c r="B5" s="66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:4">
       <c r="B6" s="69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:4">
       <c r="B7" s="72"/>
       <c r="C7" s="70"/>
       <c r="D7" s="71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:4">
       <c r="B8" s="73"/>
       <c r="C8" s="70"/>
       <c r="D8" s="71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:4">
       <c r="B9" s="66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:4">
       <c r="B10" s="74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:4">
       <c r="B11" s="66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:4">
       <c r="B12" s="66" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="68" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="2:4">
       <c r="B13" s="74" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="71" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="2:4">
       <c r="B14" s="66" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="2:4">
       <c r="B15" s="74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D15" s="71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:4">
       <c r="B16" s="66" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:4">
       <c r="B17" s="74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="71" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:4">
       <c r="B18" s="66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D18" s="68" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:4">
       <c r="B19" s="74" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C19" s="70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:4">
       <c r="B20" s="66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D20" s="68" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:4">
       <c r="B21" s="74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="2:4">
       <c r="B22" s="75" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D22" s="68" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="2:4">
       <c r="B23" s="76"/>
       <c r="C23" s="67"/>
       <c r="D23" s="68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="2:4">
       <c r="B24" s="76"/>
       <c r="C24" s="67"/>
       <c r="D24" s="68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="2:4">
       <c r="B25" s="76"/>
       <c r="C25" s="67"/>
       <c r="D25" s="68" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="2:4">
       <c r="B26" s="76"/>
       <c r="C26" s="67"/>
       <c r="D26" s="68" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="2:4">
       <c r="B27" s="77"/>
       <c r="C27" s="67"/>
       <c r="D27" s="68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" ht="67.5" spans="2:4">
       <c r="B28" s="74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="70" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D28" s="78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="2:4">
       <c r="B29" s="66" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="68" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="2:4">
       <c r="B30" s="74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D30" s="71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="2:4">
       <c r="B31" s="66" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31" s="68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1" spans="2:4">
       <c r="B32" s="74" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D32" s="71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="2:4">
       <c r="B33" s="66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D33" s="68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="2:4">
       <c r="B34" s="74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" s="71" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" ht="41.25" spans="2:4">
       <c r="B35" s="79" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" s="80" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D35" s="81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25"/>
+    <row r="37" ht="14.25" spans="2:4">
       <c r="B37" s="82" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C37" s="61"/>
       <c r="D37" s="62"/>
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="83" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" s="84"/>
       <c r="D38" s="85"/>
     </row>
     <row r="39" spans="2:4">
       <c r="B39" s="86" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C39" s="87"/>
       <c r="D39" s="88"/>
     </row>
     <row r="40" spans="2:4">
       <c r="B40" s="89" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C40" s="90"/>
       <c r="D40" s="91"/>
     </row>
     <row r="41" spans="2:4">
       <c r="B41" s="86" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" s="88" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" ht="14.25" spans="2:4">
       <c r="B42" s="92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42" s="93"/>
       <c r="D42" s="94"/>
@@ -4127,7 +4123,7 @@
   <sheetPr/>
   <dimension ref="B2:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -4141,48 +4137,48 @@
   <sheetData>
     <row r="2" spans="2:10">
       <c r="B2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -4213,31 +4209,31 @@
         <v>4</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:3">
       <c r="B3" s="56" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
       <c r="B4" s="56" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" ht="15" spans="2:3">
       <c r="B5" s="58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" s="59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4274,33 +4270,33 @@
     <row r="1" ht="14.25"/>
     <row r="2" ht="14.25" spans="2:6">
       <c r="B2" s="41" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F2" s="43" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" ht="81" spans="2:6">
       <c r="B3" s="44" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F3" s="23"/>
     </row>
@@ -4313,19 +4309,19 @@
     </row>
     <row r="5" ht="81" spans="2:6">
       <c r="B5" s="49" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F5" s="52" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:6">
@@ -4337,16 +4333,16 @@
     </row>
     <row r="7" ht="81" spans="2:6">
       <c r="B7" s="49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F7" s="53"/>
     </row>
@@ -4359,16 +4355,16 @@
     </row>
     <row r="9" ht="94.5" spans="2:6">
       <c r="B9" s="49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F9" s="53"/>
     </row>
@@ -4381,13 +4377,13 @@
     </row>
     <row r="11" ht="40.5" spans="2:6">
       <c r="B11" s="49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D11" s="51" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="53"/>
@@ -4401,13 +4397,13 @@
     </row>
     <row r="13" ht="67.5" spans="2:6">
       <c r="B13" s="49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D13" s="51" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E13" s="51"/>
       <c r="F13" s="53"/>
@@ -4421,7 +4417,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
@@ -4501,106 +4497,106 @@
     <row r="2" ht="14.25" spans="2:9">
       <c r="B2" s="31"/>
       <c r="C2" s="32" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I2" s="38" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:9">
       <c r="B3" s="33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I3" s="39"/>
     </row>
     <row r="4" ht="81" spans="2:9">
       <c r="B4" s="33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D4" s="121" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I4" s="39"/>
     </row>
     <row r="5" ht="54" spans="2:9">
       <c r="B5" s="33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D5" s="121" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I5" s="39"/>
     </row>
     <row r="6" ht="68.25" spans="2:9">
       <c r="B6" s="35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D6" s="122" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G6" s="36"/>
       <c r="H6" s="37" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I6" s="40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="806" activeTab="2"/>
+    <workbookView windowWidth="16725" windowHeight="12270" tabRatio="806"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,18 @@
             <charset val="134"/>
           </rPr>
           <t>G1收集器，使命是替换掉JDK5中推出的CMS收集器。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>当hash冲突时，以前都是用链表存储，在java8里头，当节点个数&gt;=TREEIFY_THRESHOLD - 1时，HashMap将采用红黑树存储，这样最坏的情况下即所有的key都Hash冲突，采用链表的话查找时间为O(n)，而采用红黑树为O(logn)。</t>
         </r>
       </text>
     </comment>
@@ -207,7 +219,7 @@
     <t>JDK 1.5发布</t>
   </si>
   <si>
-    <t>JDK5新增泛型、自动装箱\拆箱。
+    <t>JDK5新增泛型、自动装箱\拆箱、可变参数。
 JDK5新增集合接口：Iterable、foreach循环遍历。
 JDK5新增并发包，含Lock\Condition、Callable\Future、执行器框架(Executor)、并发集合、阻塞队列。
 JDK5新增注解。
@@ -237,6 +249,7 @@
   <si>
     <t>JDK7新增Fork\Join框架、Phaser同步工具。
 JDK7新增java.aio。
+JDK7新增语法：捕获多个异常、try-with-resources。
 JVM推出G1收集器。</t>
   </si>
   <si>
@@ -245,8 +258,11 @@
   <si>
     <t>引入 行为参数化 概念。
 新增 Lambda表达式。
-新增 函数式接口@FunctionalInterface，如Predicate\Consumer\Function\Supplier。
-新增 Stream API。</t>
+新增 函数式接口@FunctionalInterface，如java.util.function包中的Predicate\Consumer\Function\Supplier。
+新增 Stream API，新增 java.util.stream 包。
+新增 java.time 包。
+新增 @Repeatable，支持多重注解。
+JVM的PermGen空间被移除，取代它的是Metaspace。</t>
   </si>
   <si>
     <t>2013年12月，Spring 4.0发布，支持Java 8</t>
@@ -986,9 +1002,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
@@ -1031,14 +1047,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1048,21 +1095,6 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1077,45 +1109,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1138,23 +1131,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1167,6 +1144,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -1174,12 +1159,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1212,19 +1228,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,31 +1300,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,7 +1324,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,25 +1348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,43 +1360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,7 +1372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,13 +1396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1850,35 +1866,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1917,22 +1915,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1947,6 +1930,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1955,10 +1971,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1967,109 +1983,121 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="42" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2078,22 +2106,10 @@
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2835,8 +2851,8 @@
   <sheetPr/>
   <dimension ref="B1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.5"/>
@@ -2970,7 +2986,7 @@
       </c>
       <c r="F11" s="111"/>
     </row>
-    <row r="12" ht="94.5" spans="2:6">
+    <row r="12" ht="81" spans="2:6">
       <c r="B12" s="105">
         <v>38231</v>
       </c>
@@ -3029,7 +3045,7 @@
       <c r="H16"/>
       <c r="I16"/>
     </row>
-    <row r="17" ht="40.5" spans="2:9">
+    <row r="17" ht="54" spans="2:9">
       <c r="B17" s="102">
         <v>40725</v>
       </c>
@@ -3044,7 +3060,7 @@
       <c r="H17"/>
       <c r="I17"/>
     </row>
-    <row r="18" ht="67.5" spans="2:9">
+    <row r="18" ht="108" spans="2:9">
       <c r="B18" s="105">
         <v>41699</v>
       </c>
@@ -3185,7 +3201,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1434219c-6a5c-41d1-a6bc-bc4fd9da7e19}</x14:id>
+          <x14:id>{fc940fd6-519c-46b9-b89d-412874731f7a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3199,7 +3215,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9edeac75-9ca9-4d0c-bc98-b463dbb84cfb}</x14:id>
+          <x14:id>{02637d4e-6435-47d6-aee4-a4e8f298481e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3213,7 +3229,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2d8a41a3-26ba-40dd-a04e-b882c1b6bbac}</x14:id>
+          <x14:id>{7a88dbdf-0f9e-4859-b751-9719a46a4477}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3227,7 +3243,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{db7193a8-271f-431d-a032-d378f6006578}</x14:id>
+          <x14:id>{2fa23b0a-12be-4d10-8b45-1740ce417ad9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3241,7 +3257,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{52c49450-b3ae-40a3-93f6-e819f28650b4}</x14:id>
+          <x14:id>{cdb58830-9e0d-4f89-8c7e-81b1b5fdb072}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3255,7 +3271,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1ec069b2-d4f1-487f-9f16-b849f20fbd57}</x14:id>
+          <x14:id>{079be425-f705-4d06-acd6-5fd66437b0eb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3269,7 +3285,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2d1ea6d1-4277-473b-a44f-7cf88160e37f}</x14:id>
+          <x14:id>{00421f69-6959-4e8f-9ee0-b49612da66b6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3283,7 +3299,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4102e814-3dc6-47e6-be31-af9f49cf898e}</x14:id>
+          <x14:id>{dadbb754-86ee-4e31-b0a9-eeee11bd9c96}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -3295,7 +3311,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1434219c-6a5c-41d1-a6bc-bc4fd9da7e19}">
+          <x14:cfRule type="dataBar" id="{fc940fd6-519c-46b9-b89d-412874731f7a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3306,7 +3322,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9edeac75-9ca9-4d0c-bc98-b463dbb84cfb}">
+          <x14:cfRule type="dataBar" id="{02637d4e-6435-47d6-aee4-a4e8f298481e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3317,7 +3333,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2d8a41a3-26ba-40dd-a04e-b882c1b6bbac}">
+          <x14:cfRule type="dataBar" id="{7a88dbdf-0f9e-4859-b751-9719a46a4477}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3328,7 +3344,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{db7193a8-271f-431d-a032-d378f6006578}">
+          <x14:cfRule type="dataBar" id="{2fa23b0a-12be-4d10-8b45-1740ce417ad9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3339,7 +3355,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{52c49450-b3ae-40a3-93f6-e819f28650b4}">
+          <x14:cfRule type="dataBar" id="{cdb58830-9e0d-4f89-8c7e-81b1b5fdb072}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3350,7 +3366,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1ec069b2-d4f1-487f-9f16-b849f20fbd57}">
+          <x14:cfRule type="dataBar" id="{079be425-f705-4d06-acd6-5fd66437b0eb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3361,7 +3377,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2d1ea6d1-4277-473b-a44f-7cf88160e37f}">
+          <x14:cfRule type="dataBar" id="{00421f69-6959-4e8f-9ee0-b49612da66b6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3372,7 +3388,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4102e814-3dc6-47e6-be31-af9f49cf898e}">
+          <x14:cfRule type="dataBar" id="{dadbb754-86ee-4e31-b0a9-eeee11bd9c96}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3706,8 +3722,8 @@
   <sheetPr/>
   <dimension ref="B2:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4123,7 +4139,7 @@
   <sheetPr/>
   <dimension ref="B2:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>

--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="806"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="728" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="276">
   <si>
     <t>timeline</t>
   </si>
@@ -249,6 +249,9 @@
   </si>
   <si>
     <t>JDK 1.3发布</t>
+  </si>
+  <si>
+    <t>JDK 1.3之后引入了动态代理机制，可以在运行期间，为相应的接口动态生成对应的代理对象。——揭秘</t>
   </si>
   <si>
     <t>JDK 1.4发布</t>
@@ -305,7 +308,9 @@
     <t>2009年12月，Spring 3.0发布</t>
   </si>
   <si>
-    <t>新增了SpEL、OXM、REST、验证/格式化等功能，全面支持Java 5.0。</t>
+    <t>新增了SpEL、OXM、REST、验证/格式化等功能，全面支持Java 5.0。
+新增了JavaConfig。
+Spring3.0基于Java5，全面支持Java6。</t>
   </si>
   <si>
     <t>JDK 7发布</t>
@@ -1588,10 +1593,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1633,29 +1638,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1669,23 +1652,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1716,37 +1684,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1777,6 +1729,59 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1785,12 +1790,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1817,13 +1822,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1841,13 +1948,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1859,73 +1966,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1943,61 +2002,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,11 +2523,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2558,21 +2593,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2595,23 +2615,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2623,10 +2628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2635,137 +2640,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="43" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2904,20 +2909,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2925,9 +2933,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2940,9 +2945,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2950,43 +2952,25 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2995,135 +2979,117 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3133,52 +3099,49 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3306,8 +3269,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3601,58 +3564,57 @@
   <sheetPr/>
   <dimension ref="B1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="118" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="118" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="118" customWidth="1"/>
-    <col min="4" max="4" width="76.125" style="118" customWidth="1"/>
-    <col min="5" max="5" width="26" style="118" customWidth="1"/>
-    <col min="6" max="6" width="55" style="118" customWidth="1"/>
-    <col min="7" max="16384" width="12.75" style="118" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="106" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="106" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="106" customWidth="1"/>
+    <col min="4" max="4" width="76.125" style="106" customWidth="1"/>
+    <col min="5" max="5" width="26" style="106" customWidth="1"/>
+    <col min="6" max="6" width="59" style="106" customWidth="1"/>
+    <col min="7" max="16384" width="12.75" style="106" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="106" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25"/>
-    <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="119"/>
-      <c r="C3" s="120" t="s">
+    <row r="3" spans="2:6">
+      <c r="B3" s="70"/>
+      <c r="C3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="120" t="s">
+      <c r="E3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="108" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:6">
-      <c r="B4" s="122">
+      <c r="B4" s="109">
         <v>33329</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="71"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="66"/>
     </row>
     <row r="5" ht="40.5" spans="2:6">
-      <c r="B5" s="123">
+      <c r="B5" s="110">
         <v>34820</v>
       </c>
       <c r="C5" s="57" t="s">
@@ -3660,491 +3622,492 @@
       </c>
       <c r="D5" s="57"/>
       <c r="E5" s="57"/>
-      <c r="F5" s="65"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" ht="27" spans="2:6">
-      <c r="B6" s="124">
+      <c r="B6" s="111">
         <v>35065</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="73"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="123">
+      <c r="B7" s="110">
         <v>35462</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="57" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="57"/>
-      <c r="F7" s="65"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" ht="54" spans="2:6">
-      <c r="B8" s="124">
+      <c r="B8" s="111">
         <v>36130</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="73"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="123">
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
+    </row>
+    <row r="9" ht="27" spans="2:6">
+      <c r="B9" s="110">
         <v>36647</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="58"/>
+      <c r="D9" s="57" t="s">
+        <v>15</v>
+      </c>
       <c r="E9" s="57"/>
-      <c r="F9" s="65"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" ht="40.5" spans="2:6">
-      <c r="B10" s="124">
+      <c r="B10" s="111">
         <v>37288</v>
       </c>
-      <c r="C10" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="62" t="s">
+      <c r="C10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="D10" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="63"/>
+      <c r="E10" s="60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="61"/>
     </row>
     <row r="11" ht="40.5" spans="2:6">
-      <c r="B11" s="123"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="94.5" spans="2:6">
+      <c r="B12" s="111">
+        <v>38231</v>
+      </c>
+      <c r="C12" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
+    </row>
+    <row r="13" ht="54" spans="2:6">
+      <c r="B13" s="110"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" spans="2:9">
+      <c r="B14" s="111">
+        <v>39052</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+    </row>
+    <row r="16" ht="40.5" spans="2:9">
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+    </row>
+    <row r="17" ht="54" spans="2:9">
+      <c r="B17" s="110">
+        <v>40725</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" ht="108" spans="2:9">
+      <c r="B18" s="111">
+        <v>41699</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+    </row>
+    <row r="19" ht="40.5" spans="2:6">
+      <c r="B19" s="110"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="111">
+        <v>42979</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="61"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="110">
+        <v>43160</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="111">
+        <v>43344</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="110">
+        <v>43525</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="111">
+        <v>43709</v>
+      </c>
+      <c r="C24" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="110">
+        <v>43891</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="111">
+        <v>44075</v>
+      </c>
+      <c r="C26" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="112"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="112"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="113"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="114"/>
+      <c r="C50" s="115" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" ht="24" spans="2:4">
+      <c r="B51" s="117">
+        <v>33329</v>
+      </c>
+      <c r="C51" s="118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="119"/>
+    </row>
+    <row r="52" ht="24" spans="2:4">
+      <c r="B52" s="117">
+        <v>34820</v>
+      </c>
+      <c r="C52" s="118" t="s">
+        <v>46</v>
+      </c>
+      <c r="D52" s="119"/>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53" s="117">
+        <v>35065</v>
+      </c>
+      <c r="C53" s="118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="119"/>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" s="117">
+        <v>35462</v>
+      </c>
+      <c r="C54" s="118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="119"/>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" s="117">
+        <v>36130</v>
+      </c>
+      <c r="C55" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="119"/>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="117">
+        <v>36647</v>
+      </c>
+      <c r="C56" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="119"/>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="117">
+        <v>37288</v>
+      </c>
+      <c r="C57" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" ht="94.5" spans="2:6">
-      <c r="B12" s="124">
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="117"/>
+      <c r="C58" s="118"/>
+      <c r="D58" s="119" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="117">
         <v>38231</v>
       </c>
-      <c r="C12" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="62" t="s">
+      <c r="C59" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
-    </row>
-    <row r="13" ht="54" spans="2:6">
-      <c r="B13" s="123"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" ht="40.5" spans="2:9">
-      <c r="B14" s="124">
+      <c r="D59" s="119"/>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="117"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="119" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61" s="117">
         <v>39052</v>
       </c>
-      <c r="C14" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="62" t="s">
+      <c r="C61" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="H14"/>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="64"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15"/>
-      <c r="I15"/>
-    </row>
-    <row r="16" ht="27" spans="2:9">
-      <c r="B16" s="72"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16"/>
-      <c r="I16"/>
-    </row>
-    <row r="17" ht="54" spans="2:9">
-      <c r="B17" s="123">
+      <c r="D61" s="119"/>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="120"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="119" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63" s="120"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="119" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64" s="117">
         <v>40725</v>
       </c>
-      <c r="C17" s="58" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="57" t="s">
+      <c r="C64" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="59"/>
-      <c r="H17"/>
-      <c r="I17"/>
-    </row>
-    <row r="18" ht="108" spans="2:9">
-      <c r="B18" s="124">
+      <c r="D64" s="119"/>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65" s="117">
         <v>41699</v>
       </c>
-      <c r="C18" s="61" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="62" t="s">
+      <c r="C65" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
-      <c r="H18"/>
-      <c r="I18"/>
-    </row>
-    <row r="19" ht="40.5" spans="2:6">
-      <c r="B19" s="123"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="59" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="124">
+      <c r="D65" s="119"/>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66" s="117"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="119" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="117">
         <v>42979</v>
       </c>
-      <c r="C20" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62" t="s">
+      <c r="C67" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="63"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="123">
+      <c r="D67" s="119" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68" s="117">
         <v>43160</v>
       </c>
-      <c r="C21" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="58" t="s">
+      <c r="C68" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="65"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="124">
+      <c r="D68" s="119"/>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="117">
         <v>43344</v>
       </c>
-      <c r="C22" s="61" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="73"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="123">
+      <c r="C69" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="D69" s="119"/>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="117">
         <v>43525</v>
       </c>
-      <c r="C23" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="65"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="124">
+      <c r="C70" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="119"/>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="121">
         <v>43709</v>
       </c>
-      <c r="C24" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="73"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="123">
-        <v>43891</v>
-      </c>
-      <c r="C25" s="58" t="s">
+      <c r="C71" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="125"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="124">
-        <v>44075</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="73"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="126"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="72"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="73"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="126"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="76"/>
-    </row>
-    <row r="30" ht="14.25" spans="2:6">
-      <c r="B30" s="127"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68"/>
-    </row>
-    <row r="49" ht="14.25"/>
-    <row r="50" ht="14.25" spans="2:4">
-      <c r="B50" s="128"/>
-      <c r="C50" s="129" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="130" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" ht="24" spans="2:4">
-      <c r="B51" s="131">
-        <v>33329</v>
-      </c>
-      <c r="C51" s="132" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="133"/>
-    </row>
-    <row r="52" ht="24" spans="2:4">
-      <c r="B52" s="131">
-        <v>34820</v>
-      </c>
-      <c r="C52" s="132" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="133"/>
-    </row>
-    <row r="53" spans="2:4">
-      <c r="B53" s="131">
-        <v>35065</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="133"/>
-    </row>
-    <row r="54" spans="2:4">
-      <c r="B54" s="131">
-        <v>35462</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="133"/>
-    </row>
-    <row r="55" spans="2:4">
-      <c r="B55" s="131">
-        <v>36130</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="133"/>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="B56" s="131">
-        <v>36647</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="133"/>
-    </row>
-    <row r="57" spans="2:4">
-      <c r="B57" s="131">
-        <v>37288</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D57" s="134" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="131"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="134" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4">
-      <c r="B59" s="131">
-        <v>38231</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="134"/>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="131"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="134" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="131">
-        <v>39052</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="134"/>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="135"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="134" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="135"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="134" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="131">
-        <v>40725</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" s="134"/>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="131">
-        <v>41699</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="134"/>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="131"/>
-      <c r="C66"/>
-      <c r="D66" s="134" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="131">
-        <v>42979</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D67" s="134" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="131">
-        <v>43160</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D68" s="133"/>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="131">
-        <v>43344</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" s="133"/>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70" s="131">
-        <v>43525</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D70" s="133"/>
-    </row>
-    <row r="71" ht="14.25" spans="2:4">
-      <c r="B71" s="136">
-        <v>43709</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D71" s="137"/>
+      <c r="D71" s="123"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:F3">
@@ -4156,7 +4119,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{affb61a7-6009-4398-aad2-4e5b86797137}</x14:id>
+          <x14:id>{2ea6f11f-a9fd-437c-bb20-2ea24684b050}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4170,7 +4133,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5d18be67-a56a-40ed-b4f8-404ba3331205}</x14:id>
+          <x14:id>{24368fd2-8151-4e33-8274-d74a1883b4fc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4184,7 +4147,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f060f4e1-7d68-40d4-8b85-6269e63b4800}</x14:id>
+          <x14:id>{e2cf707a-d663-49d6-826c-54cbe8685fcb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4198,7 +4161,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fde98039-829d-4d3a-859c-f4b7b6cf012c}</x14:id>
+          <x14:id>{569d7997-2163-44ce-9ae7-ae545c0bd189}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4212,7 +4175,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{002d0dfc-fef9-475b-8128-e87f3ca60e32}</x14:id>
+          <x14:id>{a6f81d96-33a4-4c6f-9bc2-4c71a656ff43}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4226,7 +4189,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{faca7e72-f99a-4640-a901-f7448db76874}</x14:id>
+          <x14:id>{8cf91182-ba23-4df7-9aab-1c3015a5fd02}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4240,7 +4203,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{33b0ea70-5ec7-495a-8e45-23e7bb86e843}</x14:id>
+          <x14:id>{bc3a4252-98fa-49fa-a1bb-c64f6322c267}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4254,7 +4217,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6b81a80a-dceb-4c2f-b5a0-adec82179a9a}</x14:id>
+          <x14:id>{24f772e7-8ad2-40b1-8069-af8ec5cf101b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4266,7 +4229,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{affb61a7-6009-4398-aad2-4e5b86797137}">
+          <x14:cfRule type="dataBar" id="{2ea6f11f-a9fd-437c-bb20-2ea24684b050}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4277,7 +4240,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5d18be67-a56a-40ed-b4f8-404ba3331205}">
+          <x14:cfRule type="dataBar" id="{24368fd2-8151-4e33-8274-d74a1883b4fc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4288,7 +4251,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f060f4e1-7d68-40d4-8b85-6269e63b4800}">
+          <x14:cfRule type="dataBar" id="{e2cf707a-d663-49d6-826c-54cbe8685fcb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4299,7 +4262,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fde98039-829d-4d3a-859c-f4b7b6cf012c}">
+          <x14:cfRule type="dataBar" id="{569d7997-2163-44ce-9ae7-ae545c0bd189}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4310,7 +4273,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{002d0dfc-fef9-475b-8128-e87f3ca60e32}">
+          <x14:cfRule type="dataBar" id="{a6f81d96-33a4-4c6f-9bc2-4c71a656ff43}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4321,7 +4284,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{faca7e72-f99a-4640-a901-f7448db76874}">
+          <x14:cfRule type="dataBar" id="{8cf91182-ba23-4df7-9aab-1c3015a5fd02}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4332,7 +4295,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{33b0ea70-5ec7-495a-8e45-23e7bb86e843}">
+          <x14:cfRule type="dataBar" id="{bc3a4252-98fa-49fa-a1bb-c64f6322c267}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4343,7 +4306,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6b81a80a-dceb-4c2f-b5a0-adec82179a9a}">
+          <x14:cfRule type="dataBar" id="{24f772e7-8ad2-40b1-8069-af8ec5cf101b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4397,36 +4360,36 @@
     <row r="1" ht="14.25"/>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="8"/>
@@ -4434,51 +4397,51 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:6">
       <c r="B7" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D7" s="14"/>
       <c r="E7" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -4492,433 +4455,433 @@
   <sheetPr/>
   <dimension ref="B2:D46"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
-    <col min="4" max="4" width="103.75" customWidth="1"/>
-    <col min="5" max="5" width="4.625" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="22.625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="46" customWidth="1"/>
+    <col min="4" max="4" width="103.75" style="46" customWidth="1"/>
+    <col min="5" max="5" width="4.625" style="46" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
     <row r="2" ht="20" customHeight="1" spans="2:2">
-      <c r="B2" t="s">
-        <v>51</v>
+      <c r="B2" s="46" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="2:4">
-      <c r="B3" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="84" t="s">
+      <c r="B3" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="C3" s="74" t="s">
         <v>54</v>
       </c>
+      <c r="D3" s="75" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:4">
-      <c r="B4" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="87" t="s">
+      <c r="B4" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="C4" s="77" t="s">
         <v>57</v>
       </c>
+      <c r="D4" s="78" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:4">
-      <c r="B5" s="89" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="91" t="s">
+      <c r="B5" s="79" t="s">
         <v>59</v>
       </c>
+      <c r="C5" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:4">
-      <c r="B6" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="93" t="s">
+      <c r="B6" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="94" t="s">
+      <c r="C6" s="83" t="s">
         <v>62</v>
       </c>
+      <c r="D6" s="84" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:4">
-      <c r="B7" s="95"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="94" t="s">
-        <v>63</v>
+      <c r="B7" s="85"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="84" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:4">
-      <c r="B8" s="96"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="94" t="s">
-        <v>64</v>
+      <c r="B8" s="86"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="84" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:4">
-      <c r="B9" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="91" t="s">
+      <c r="B9" s="79" t="s">
         <v>66</v>
       </c>
+      <c r="C9" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:4">
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="91" t="s">
-        <v>67</v>
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="81" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:4">
-      <c r="B11" s="97" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="94" t="s">
+      <c r="B11" s="87" t="s">
         <v>69</v>
       </c>
+      <c r="C11" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:4">
-      <c r="B12" s="97"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94" t="s">
-        <v>70</v>
+      <c r="B12" s="87"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="2:4">
-      <c r="B13" s="97"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="94" t="s">
-        <v>71</v>
+      <c r="B13" s="87"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="2:4">
-      <c r="B14" s="89" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="90" t="s">
+      <c r="B14" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="91" t="s">
+      <c r="C14" s="80" t="s">
         <v>74</v>
       </c>
+      <c r="D14" s="81" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="2:4">
-      <c r="B15" s="89" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="90" t="s">
+      <c r="B15" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="91" t="s">
+      <c r="C15" s="80" t="s">
         <v>77</v>
       </c>
+      <c r="D15" s="81" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:4">
-      <c r="B16" s="97" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="94" t="s">
+      <c r="B16" s="87" t="s">
         <v>79</v>
       </c>
+      <c r="C16" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="84" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:4">
-      <c r="B17" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="91" t="s">
+      <c r="B17" s="79" t="s">
         <v>81</v>
       </c>
+      <c r="C17" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:4">
-      <c r="B18" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="93" t="s">
+      <c r="B18" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="C18" s="83" t="s">
         <v>84</v>
       </c>
+      <c r="D18" s="84" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:4">
-      <c r="B19" s="89" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="90" t="s">
+      <c r="B19" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="C19" s="80" t="s">
         <v>87</v>
       </c>
+      <c r="D19" s="81" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:4">
-      <c r="B20" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="94" t="s">
+      <c r="B20" s="87" t="s">
         <v>89</v>
       </c>
+      <c r="C20" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:4">
-      <c r="B21" s="89" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="91" t="s">
+      <c r="B21" s="79" t="s">
         <v>91</v>
       </c>
+      <c r="C21" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="2:4">
-      <c r="B22" s="97" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="94" t="s">
+      <c r="B22" s="87" t="s">
         <v>93</v>
       </c>
+      <c r="C22" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="84" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="2:4">
-      <c r="B23" s="89" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="91" t="s">
+      <c r="B23" s="79" t="s">
         <v>95</v>
       </c>
+      <c r="C23" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="2:4">
-      <c r="B24" s="97" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="93" t="s">
+      <c r="B24" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="94" t="s">
+      <c r="C24" s="83" t="s">
         <v>98</v>
       </c>
+      <c r="D24" s="84" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="2:4">
-      <c r="B25" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="90" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="91" t="s">
+      <c r="B25" s="67" t="s">
         <v>100</v>
       </c>
+      <c r="C25" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="2:4">
-      <c r="B26" s="99"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="91" t="s">
-        <v>101</v>
+      <c r="B26" s="88"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="2:4">
-      <c r="B27" s="99"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91" t="s">
-        <v>102</v>
+      <c r="B27" s="88"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="2:4">
-      <c r="B28" s="99"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="91" t="s">
-        <v>103</v>
+      <c r="B28" s="88"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="2:4">
-      <c r="B29" s="99"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="91" t="s">
-        <v>104</v>
+      <c r="B29" s="88"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="2:4">
-      <c r="B30" s="100"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="91" t="s">
-        <v>105</v>
+      <c r="B30" s="89"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="81" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="31" ht="67.5" spans="2:4">
-      <c r="B31" s="97" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="101" t="s">
+      <c r="B31" s="87" t="s">
         <v>107</v>
       </c>
+      <c r="C31" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="84" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="97"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="101" t="s">
-        <v>108</v>
+      <c r="B32" s="87"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="2:4">
-      <c r="B33" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="91" t="s">
+      <c r="B33" s="79" t="s">
         <v>110</v>
       </c>
+      <c r="C33" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="81" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="2:4">
-      <c r="B34" s="97" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" s="93" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="94" t="s">
+      <c r="B34" s="87" t="s">
         <v>112</v>
       </c>
+      <c r="C34" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="84" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="2:4">
-      <c r="B35" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="90" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="91" t="s">
+      <c r="B35" s="79" t="s">
         <v>114</v>
       </c>
+      <c r="C35" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="81" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="2:4">
-      <c r="B36" s="97" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" s="94" t="s">
+      <c r="B36" s="87" t="s">
         <v>116</v>
       </c>
+      <c r="C36" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="84" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:4">
-      <c r="B37" s="89" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="90" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="91" t="s">
+      <c r="B37" s="79" t="s">
         <v>118</v>
       </c>
+      <c r="C37" s="80" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="81" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="38" ht="20" customHeight="1" spans="2:4">
-      <c r="B38" s="97" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="93" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="94" t="s">
+      <c r="B38" s="87" t="s">
         <v>120</v>
       </c>
+      <c r="C38" s="83" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="84" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="39" ht="41.25" spans="2:4">
-      <c r="B39" s="102" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" s="103" t="s">
-        <v>61</v>
-      </c>
-      <c r="D39" s="104" t="s">
+      <c r="B39" s="90" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" ht="14.25"/>
-    <row r="41" ht="14.25" spans="2:4">
-      <c r="B41" s="105" t="s">
+      <c r="C39" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="84"/>
-      <c r="D41" s="85"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="74"/>
+      <c r="D41" s="75"/>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="106" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="107"/>
-      <c r="D42" s="108"/>
+      <c r="B42" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="95"/>
+      <c r="D42" s="96"/>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="109" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="110"/>
-      <c r="D43" s="111"/>
+      <c r="B43" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="98"/>
+      <c r="D43" s="99"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="112" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="113"/>
-      <c r="D44" s="114"/>
+      <c r="B44" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="101"/>
+      <c r="D44" s="102"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="109" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="110" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" s="111" t="s">
+      <c r="B45" s="97" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="46" ht="14.25" spans="2:4">
-      <c r="B46" s="115" t="s">
+      <c r="C45" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="116"/>
-      <c r="D46" s="117"/>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="103" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="104"/>
+      <c r="D46" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4937,276 +4900,277 @@
   <sheetPr/>
   <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="45" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
-    <col min="3" max="3" width="52.25" customWidth="1"/>
-    <col min="4" max="4" width="37.625" customWidth="1"/>
-    <col min="5" max="7" width="14" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="46" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="46" customWidth="1"/>
+    <col min="5" max="7" width="14" style="46" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="46"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="2:2">
-      <c r="B1" t="s">
-        <v>130</v>
+      <c r="B1" s="46" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="C3" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="D3" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="E3" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="52" t="s">
         <v>136</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>137</v>
       </c>
       <c r="D4" s="53"/>
       <c r="E4" s="54" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F4" s="54"/>
       <c r="G4" s="55"/>
     </row>
     <row r="5" customHeight="1" spans="2:7">
       <c r="B5" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:7">
+      <c r="B6" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="59"/>
-    </row>
-    <row r="6" customHeight="1" spans="2:7">
-      <c r="B6" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="64" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="58" t="s">
+      <c r="B7" s="56" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="65"/>
+      <c r="C7" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="68"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" ht="13.5"/>
     <row r="10" ht="13.5"/>
     <row r="11" ht="13.5"/>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25" spans="2:7">
-      <c r="B13" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="47" t="s">
+      <c r="B13" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47" t="s">
+      <c r="C13" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="F13" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="G13" s="69" t="s">
+      <c r="D13" s="48"/>
+      <c r="E13" s="48" t="s">
         <v>148</v>
       </c>
+      <c r="F13" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="70" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="52" t="s">
+      <c r="B14" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52" t="s">
+      <c r="C14" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="D14" s="53"/>
+      <c r="E14" s="53" t="s">
         <v>152</v>
       </c>
-      <c r="G14" s="71"/>
+      <c r="F14" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="66"/>
     </row>
     <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="64" t="s">
-        <v>153</v>
+      <c r="B15" s="56" t="s">
+        <v>154</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D15" s="57"/>
       <c r="E15" s="57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="G15" s="65"/>
+        <v>153</v>
+      </c>
+      <c r="G15" s="58"/>
     </row>
     <row r="16" ht="68" customHeight="1" spans="2:7">
-      <c r="B16" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C16" s="62" t="s">
+      <c r="B16" s="59" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="G16" s="73" t="s">
+      <c r="C16" s="60" t="s">
         <v>158</v>
       </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="64" t="s">
-        <v>159</v>
+      <c r="B17" s="56" t="s">
+        <v>160</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="57" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F17" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="65" t="s">
         <v>163</v>
       </c>
+      <c r="G17" s="58" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="18" customHeight="1" spans="2:7">
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="G18" s="61" t="s">
         <v>164</v>
-      </c>
-      <c r="C18" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62" t="s">
-        <v>162</v>
-      </c>
-      <c r="G18" s="73" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="19" ht="78" customHeight="1" spans="2:7">
       <c r="B19" s="56" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D19" s="57"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="65" t="s">
-        <v>168</v>
+        <v>163</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:7">
-      <c r="B20" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="C20" s="62" t="s">
+      <c r="B20" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" s="62" t="s">
+      <c r="C20" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="73"/>
-    </row>
-    <row r="21" ht="14.25" spans="2:7">
-      <c r="B21" s="74"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="76"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" s="61"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" customHeight="1" spans="2:7">
-      <c r="B22" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="C22" s="78" t="s">
+      <c r="B22" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="80"/>
-    </row>
-    <row r="23" ht="13.5" spans="2:7">
-      <c r="B23" s="74" t="s">
+      <c r="C22" s="71" t="s">
         <v>174</v>
+      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="67" t="s">
+        <v>175</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="57"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="76"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
     </row>
     <row r="24" ht="14.25" spans="2:7">
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="68"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -5254,48 +5218,48 @@
   <sheetData>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5326,31 +5290,31 @@
         <v>4</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="2:3">
       <c r="B3" s="42" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
       <c r="B4" s="42" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" ht="15" spans="2:3">
       <c r="B5" s="44" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -5387,33 +5351,33 @@
     <row r="1" ht="14.25"/>
     <row r="2" ht="14.25" spans="2:6">
       <c r="B2" s="27" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" ht="81" spans="2:6">
       <c r="B3" s="30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F3" s="9"/>
     </row>
@@ -5426,19 +5390,19 @@
     </row>
     <row r="5" ht="81" spans="2:6">
       <c r="B5" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:6">
@@ -5450,16 +5414,16 @@
     </row>
     <row r="7" ht="81" spans="2:6">
       <c r="B7" s="35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F7" s="39"/>
     </row>
@@ -5472,16 +5436,16 @@
     </row>
     <row r="9" ht="94.5" spans="2:6">
       <c r="B9" s="35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F9" s="39"/>
     </row>
@@ -5494,13 +5458,13 @@
     </row>
     <row r="11" ht="40.5" spans="2:6">
       <c r="B11" s="35" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="39"/>
@@ -5514,13 +5478,13 @@
     </row>
     <row r="13" ht="67.5" spans="2:6">
       <c r="B13" s="35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="39"/>
@@ -5534,7 +5498,7 @@
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="30" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
@@ -5614,106 +5578,106 @@
     <row r="2" ht="14.25" spans="2:9">
       <c r="B2" s="17"/>
       <c r="C2" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" ht="27" spans="2:9">
       <c r="B3" s="19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I3" s="25"/>
     </row>
     <row r="4" ht="81" spans="2:9">
       <c r="B4" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="D4" s="138" t="s">
         <v>237</v>
       </c>
+      <c r="D4" s="124" t="s">
+        <v>238</v>
+      </c>
       <c r="E4" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I4" s="25"/>
     </row>
     <row r="5" ht="54" spans="2:9">
       <c r="B5" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="138" t="s">
         <v>243</v>
       </c>
+      <c r="D5" s="124" t="s">
+        <v>244</v>
+      </c>
       <c r="E5" s="20" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I5" s="25"/>
     </row>
     <row r="6" ht="68.25" spans="2:9">
       <c r="B6" s="21" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="139" t="s">
         <v>249</v>
       </c>
+      <c r="D6" s="125" t="s">
+        <v>250</v>
+      </c>
       <c r="E6" s="23" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="23" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="728" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="13500" tabRatio="728"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
-    <sheet name="JDK" sheetId="10" r:id="rId2"/>
+    <sheet name="JavaAPI" sheetId="10" r:id="rId2"/>
     <sheet name="GC" sheetId="11" r:id="rId3"/>
     <sheet name="Iterable" sheetId="9" r:id="rId4"/>
     <sheet name="Spring" sheetId="2" r:id="rId5"/>
@@ -103,7 +103,7 @@
     <author>123456</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +149,7 @@
     <author>123456</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="1">
+    <comment ref="C10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -200,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="320">
   <si>
     <t>timeline</t>
   </si>
@@ -404,13 +404,13 @@
     <t>JDK0</t>
   </si>
   <si>
-    <t>Applet</t>
+    <t>Applet(JDK0)</t>
   </si>
   <si>
     <t>java.awt</t>
   </si>
   <si>
-    <t>Button\Canvas\Checkbox</t>
+    <t>Button\Canvas\Checkbox\Dialog\Image\Panel(JDK0)</t>
   </si>
   <si>
     <t>java.beans</t>
@@ -419,193 +419,1040 @@
     <t>JDKx</t>
   </si>
   <si>
-    <t>Beans\PropertyEditor\WeakIdentityMap(JDKx)\</t>
-  </si>
-  <si>
-    <t>Encoder\XMLEncoder\XMLDecoder\Statement\Expression(JDK4)\</t>
-  </si>
-  <si>
-    <t>Transient(JDK7)</t>
+    <t>Beans\Introspector\MetaData\PropertyEditor\WeakIdentityMap(JDKx)</t>
+  </si>
+  <si>
+    <t>JDK4</t>
+  </si>
+  <si>
+    <t>Encoder\Expression\Statement\XMLDecoder\XMLEncoder(JDK4)</t>
+  </si>
+  <si>
+    <t>JDK7</t>
+  </si>
+  <si>
+    <t>@Transient(JDK7)</t>
+  </si>
+  <si>
+    <t>java.beans.beancontext</t>
+  </si>
+  <si>
+    <t>JDK2</t>
+  </si>
+  <si>
+    <t>BeanContext(JDK2)</t>
   </si>
   <si>
     <t>java.io</t>
   </si>
   <si>
-    <t>InputStream\OutputStream(JDK0)\</t>
-  </si>
-  <si>
-    <t>Reader\Writer(JDK1)</t>
+    <r>
+      <t>DataInput\DataOutput\EOFException\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>File</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\InputStream\OutputStream\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RandomAccessFile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\StreamTokenizer(JDK0)</t>
+    </r>
+  </si>
+  <si>
+    <t>JDK1</t>
+  </si>
+  <si>
+    <t>ObjectInput\ObjectOutput\Reader\Serializable\Writer(JDK1)</t>
+  </si>
+  <si>
+    <t>JDK5</t>
+  </si>
+  <si>
+    <t>Closeable\Flushable(JDK5)</t>
   </si>
   <si>
     <t>java.lang</t>
   </si>
   <si>
-    <t>Class\Double\Integer\Throwable\Runnable\Thread\ThreadGroup(JDK0)\</t>
-  </si>
-  <si>
-    <t>ThreadLocal\Comparable(JDK2)\</t>
-  </si>
-  <si>
-    <t>@FunctionalInterface(JDK8)</t>
+    <r>
+      <t>Boolean\Character\Class\ClassLoader\Cloneable\Compiler\Double\Error\Exception\Float\Integer\Long\Math\Number\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\@Override\Process\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Runnable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\Runtime\RuntimeException\String\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StringBuffer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thread</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\ThreadGroup\Throwable(JDK0)</t>
+    </r>
+  </si>
+  <si>
+    <t>Byte\Short\Void(JDK1)</t>
+  </si>
+  <si>
+    <r>
+      <t>Comparable\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ThreadLocal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(JDK2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AbstractStringBuilder\Appendable\@Deprecated\Enum\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Iterable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\ProcessBuilder\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StringBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(JDK5)</t>
+    </r>
+  </si>
+  <si>
+    <t>AutoCloseable(JDK7)</t>
+  </si>
+  <si>
+    <t>JDK8</t>
+  </si>
+  <si>
+    <r>
+      <t>@FunctionalInterface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(JDK8)</t>
+    </r>
   </si>
   <si>
     <t>java.lang.annotation</t>
   </si>
   <si>
-    <t>JDK5</t>
-  </si>
-  <si>
-    <t>Annotation\Retention\Target\Inherited</t>
+    <r>
+      <t>Annotation\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Documented</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\@Inherited\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Retention</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\RetentionPolicy\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Target</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(JDK5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>@Native\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@Repeatable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(JDK8)</t>
+    </r>
   </si>
   <si>
     <t>java.lang.ref</t>
   </si>
   <si>
-    <t>JDK2</t>
-  </si>
-  <si>
-    <t>Reference\SoftReference\WeakReference\FinalReference\Finalizer</t>
+    <t>FinalReference\Finalizer(JDKx)</t>
+  </si>
+  <si>
+    <t>Reference\SoftReference\WeakReference\PhantomReference(JDK2)</t>
+  </si>
+  <si>
+    <t>java.lang.refect</t>
+  </si>
+  <si>
+    <t>Constructor\Field\Member\Method(JDKx)</t>
+  </si>
+  <si>
+    <t>JDK3</t>
+  </si>
+  <si>
+    <r>
+      <t>InvocationHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Proxy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(JDK3)</t>
+    </r>
+  </si>
+  <si>
+    <t>ParameterizedType\Type\WildcardType(JDK5)</t>
+  </si>
+  <si>
+    <t>Executable\Parameter(JDK8)</t>
   </si>
   <si>
     <t>java.math</t>
   </si>
   <si>
-    <t>BigDecimal\BigInteger</t>
+    <t>BigInteger(JDK1)</t>
+  </si>
+  <si>
+    <t>BigDecimal(JDKx)</t>
+  </si>
+  <si>
+    <t>RoundingMode(JDK5)</t>
   </si>
   <si>
     <t>java.net</t>
   </si>
   <si>
-    <t>Socket\ServerSocket\URL(JDK0)\URI(JDK4)</t>
+    <t>DatagramPacket\DatagramSocket\InetAddress\ServerSocket\Socket\URL\URLConnection\URLEncoder(JDK0)</t>
+  </si>
+  <si>
+    <r>
+      <t>DatagramSocketImpl\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HttpURLConnection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\MulticastSocket(JDK1)</t>
+    </r>
+  </si>
+  <si>
+    <t>URLClassLoader\URLDecoder(JDK2)</t>
+  </si>
+  <si>
+    <t>Inet4Address\Inet6Address\InetSocketAddress\SocketAddress\URI(JDK4)</t>
+  </si>
+  <si>
+    <t>CacheRequest\CacheResponse\Proxy\ProxySelector(JDK5)</t>
+  </si>
+  <si>
+    <t>JDK6</t>
+  </si>
+  <si>
+    <t>HttpCookie(JDK6)</t>
   </si>
   <si>
     <t>java.nio</t>
   </si>
   <si>
-    <t>JDK4</t>
-  </si>
-  <si>
-    <t>Buffer\MappedByteBuffer\Channel\FileChannel\SocketChannel\ServerSocketChannel(JDK4)</t>
+    <r>
+      <t>Buffer\ByteBuffer\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DirectByteBuffer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MappedByteBuffer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(JDK4)</t>
+    </r>
+  </si>
+  <si>
+    <t>java.nio.channel</t>
+  </si>
+  <si>
+    <r>
+      <t>Channel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\Channels\FileChannel\DatagramChannel\FileChannel\FileLock\Pipe
+SelectableChannel\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SelectionKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Selector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\ServerSocketChannel\SocketChannel(JDK4)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AsynchronousChannel\AsynchronousByteChannel\AsynchronousChannelGroup\AsynchronousFileChannel\AsynchronousServerSocketChannel\AsynchronousSocketChannel\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CompletionHandler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(JDK7)</t>
+    </r>
+  </si>
+  <si>
+    <t>java.nio.channel.spi</t>
+  </si>
+  <si>
+    <t>AbstractSelector(JDK4)</t>
   </si>
   <si>
     <t>java.nio.file</t>
   </si>
   <si>
-    <t>JDK7</t>
-  </si>
-  <si>
-    <t>Path\Paths\Files(JDK7)</t>
-  </si>
-  <si>
-    <t>java.rmi</t>
-  </si>
-  <si>
-    <t>Naming(JDK0)\Remote(JDK1)</t>
-  </si>
-  <si>
-    <t>java.security</t>
-  </si>
-  <si>
-    <t>Security\Signature\Permission\MessageDigest</t>
-  </si>
-  <si>
-    <t>java.sql</t>
-  </si>
-  <si>
-    <t>Driver\DriverManager\Connection\Statement\ResultSet</t>
+    <r>
+      <t>AccessMode\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Path</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Paths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(JDK7)</t>
+    </r>
+  </si>
+  <si>
+    <t>java.rmi(ignore)</t>
+  </si>
+  <si>
+    <t>Naming\Remote(JDK1)</t>
+  </si>
+  <si>
+    <t>java.security(ignore)</t>
+  </si>
+  <si>
+    <t>MessageDigest\Permission\Security\Signature(JDKx)</t>
+  </si>
+  <si>
+    <t>java.sql(ignore)</t>
+  </si>
+  <si>
+    <t>Connection\Driver\DriverManager\ResultSet\Statement(JDKx)
+Savepoint(JDK4)</t>
   </si>
   <si>
     <t>java.text</t>
   </si>
   <si>
-    <t>DateFormat\SimpleDateFormat\DecimalFormat</t>
+    <t>DateFormat\DecimalFormat\NumberFormat\SimpleDateFormat(JDKx)</t>
   </si>
   <si>
     <t>java.time</t>
   </si>
   <si>
-    <t>JDK8</t>
-  </si>
-  <si>
-    <t>LocalDate\LocalTime\LocalDateTime\DateTimeFormatter(JDK8)</t>
+    <t>Duration\LocalDate\LocalDateTime\LocalTime\Period(JDK8)</t>
+  </si>
+  <si>
+    <t>java.time.format</t>
+  </si>
+  <si>
+    <t>DateTimeFormatter(JDK8)</t>
   </si>
   <si>
     <t>java.util</t>
   </si>
   <si>
-    <t>Enumeration\Vector\Stack\Dictionary\Hashtable\Date(JDK0)</t>
-  </si>
-  <si>
-    <t>Iterator\ListIterator\Collection\Map\ArrayList\Arrays\HashMap\Collections\Comparator(JDK2)</t>
+    <r>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\Dictionary\Enumeration\Vector\Stack\Dictionary\Hashtable\Properties\Random\Stack\StringTokenizer\Vector(JDK0)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Calendar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\EventListener\EventObject\GregorianCalendar\TimeZone(JDK1)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AbstractCollection\ArrayList\Arrays\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collection</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\Collections\Comparator\HashMap\HashSet\Iterator\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\ListIterator\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\SortedMap\SortedSet\TreeMap\TreeSet\WeakHashMap(JDK2)</t>
+    </r>
   </si>
   <si>
     <t>Timer\TimerTask(JDK3)</t>
   </si>
   <si>
-    <t>PriorityQueue\UUID(JDK5)</t>
+    <t>IdentityHashMap(JDK4)</t>
+  </si>
+  <si>
+    <t>AbstractQueue\EnumMap\EnumSet\Formattable\Formatter\PriorityQueue\Queue\UUID(JDK5)</t>
+  </si>
+  <si>
+    <t>ArrayDeque\Deque\NavigableMap\NavigableSet(JDK6)</t>
   </si>
   <si>
     <t>Objects(JDK7)</t>
   </si>
   <si>
-    <t>Base64\Optional(JDK8)</t>
+    <t>Base64\Optional\Spliterator(JDK8)</t>
   </si>
   <si>
     <t>java.util.concurrent</t>
   </si>
   <si>
-    <t>AtomicInteger\Lock\ReadWriteLock\
-BlockingQueue\ConcurrentHashMap\
-CountDownLatch\CyclicBarrier\Semaphore\Exchanger\
-Executor\ExecutorService\AbstractExecutorService\ThreadPoolExecutor\Executors\
-Callable\Future\FutureTask(JDK5)\</t>
-  </si>
-  <si>
-    <t>Phaser\Fork\Join(JDK7)</t>
+    <r>
+      <t>AbstractExecutorService\BlockingQueue\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Callable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\ConcurrentHashMap\ConcurrentLinkedQueue\ConcurrentMap\CopyOnWriteArraySet\CopyOnWriteArrayList\CountDownLatch\CyclicBarrier\Exchanger\Executor\Executors\ExecutorService\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Future</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\FutureTask\LinkedBlockingQueue\Semaphore\SynchronousQueue\ThreadFactory\ThreadPoolExecutor\TimeUnit(JDK5)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BlockingDeque\ConcurrentSkipListMap\ConcurrentSkipListSet\LinkedBlockingDeque\</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RunnableFuture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(JDK6)</t>
+    </r>
+  </si>
+  <si>
+    <t>Fork\Join框架
+ConcurrentLinkedDeque\ForkJoinPool\ForkJoinTask\Phaser\RecursiveAction\RecursiveTask(JDK7)</t>
+  </si>
+  <si>
+    <r>
+      <t>CompletableFuture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(JDK8)</t>
+    </r>
+  </si>
+  <si>
+    <t>java.util.concurrent.atomic</t>
+  </si>
+  <si>
+    <t>AtomicBoolean\AtomicInteger\AtomicLong\AtomicReference(JDK5)</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.locks</t>
+  </si>
+  <si>
+    <t>Condition\Lock\ReadWriteLock\ReentrantLock\ReentrantReadWriteLock(JDK5)</t>
+  </si>
+  <si>
+    <t>StampedLock(JDK8)</t>
   </si>
   <si>
     <t>java.util.function</t>
   </si>
   <si>
-    <t>Predicate\Consumer\Function\Supplier</t>
+    <t>Consumer\Function\Predicate\Supplier(JDK8)</t>
   </si>
   <si>
     <t>java.util.jar</t>
   </si>
   <si>
-    <t>Attributes</t>
-  </si>
-  <si>
-    <t>java.util.loggin</t>
-  </si>
-  <si>
-    <t>Logger\Level\LogManager\Logging(JDK4)</t>
+    <t>Attributes(JDK2)</t>
+  </si>
+  <si>
+    <t>java.util.logging</t>
+  </si>
+  <si>
+    <t>Level\Logger\Logging\LogManager(JDK4)</t>
   </si>
   <si>
     <t>java.util.regex</t>
   </si>
   <si>
-    <t>Pattern\Matcher(JDK4)\MatchResult(JDK5)\ASCII</t>
+    <t>ASCII(JDKx)
+Matcher\Pattern(JDK4)
+MatchResult(JDK5)</t>
   </si>
   <si>
     <t>java.util.spi</t>
   </si>
   <si>
-    <t>CalendarDataProvider</t>
+    <t>CalendarDataProvider\CalendarNameProvider(JDK8)</t>
   </si>
   <si>
     <t>java.util.stream</t>
   </si>
   <si>
-    <t>Stream\Streams\Collector\Collectors</t>
+    <t>Collector\Collectors\Sink\Stream\Streams(JDK8)</t>
   </si>
   <si>
     <t>java.util.zip</t>
   </si>
   <si>
-    <t>CheckedInputStream\CheckedOutputStream\GZIPInputStream\GZIPOutputStream\
-ZipFile\ZipInputStream\ZipOutputStream\
-Checksum\CRC32\</t>
+    <t>CheckedInputStream\CheckedOutputStream\Checksum\CRC32\GZIPInputStream\GZIPOutputStream\ZipEntry\ZipFile\ZipInputStream\ZipOutputStream\(JDKx)</t>
   </si>
   <si>
     <t>javax.accessibility</t>
@@ -614,7 +1461,10 @@
     <t>javax.activation</t>
   </si>
   <si>
-    <t>javax.activity</t>
+    <t>javax.annotation</t>
+  </si>
+  <si>
+    <t>PostConstruct\PreDestroy\Resource\Resources</t>
   </si>
   <si>
     <t>javax.transaction</t>
@@ -623,10 +1473,20 @@
     <t>javax.transaction.xa</t>
   </si>
   <si>
-    <t>Xid\XAResource\XAException</t>
+    <t>XAException\XAResource\Xid\</t>
   </si>
   <si>
     <t>javax.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java™ Platform, Standard Edition 8 API Specification
+</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/javase/8/docs/api/</t>
+  </si>
+  <si>
+    <t>https://www.matools.com/api/java8</t>
   </si>
   <si>
     <t>20190711-小组分享</t>
@@ -1593,10 +2453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1637,89 +2497,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1728,7 +2505,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1744,14 +2520,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1775,7 +2574,68 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1790,18 +2650,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1822,7 +2682,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,67 +2706,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1912,7 +2730,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1924,13 +2778,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,66 +2868,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="48">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -2499,50 +3365,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2573,30 +3415,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2620,6 +3438,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2628,10 +3470,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2640,137 +3482,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2909,9 +3751,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2991,6 +3830,81 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2999,94 +3913,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3222,8 +4049,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3240,7 +4067,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11039475" y="425450"/>
+          <a:off x="12744450" y="425450"/>
           <a:ext cx="3609975" cy="8934450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3288,7 +4115,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13039725" y="3695700"/>
-          <a:ext cx="5895975" cy="6067425"/>
+          <a:ext cx="5895975" cy="5676900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3564,550 +4391,552 @@
   <sheetPr/>
   <dimension ref="B1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="106" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="106" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="106" customWidth="1"/>
-    <col min="4" max="4" width="76.125" style="106" customWidth="1"/>
-    <col min="5" max="5" width="26" style="106" customWidth="1"/>
-    <col min="6" max="6" width="59" style="106" customWidth="1"/>
-    <col min="7" max="16384" width="12.75" style="106" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="101" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="101" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="101" customWidth="1"/>
+    <col min="4" max="4" width="76.125" style="101" customWidth="1"/>
+    <col min="5" max="5" width="26" style="101" customWidth="1"/>
+    <col min="6" max="6" width="59" style="101" customWidth="1"/>
+    <col min="7" max="16384" width="12.75" style="101" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="101" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="70"/>
-      <c r="C3" s="107" t="s">
+    <row r="2" ht="14.25"/>
+    <row r="3" ht="14.25" spans="2:6">
+      <c r="B3" s="69"/>
+      <c r="C3" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="107" t="s">
+      <c r="D3" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="107" t="s">
+      <c r="E3" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="108" t="s">
+      <c r="F3" s="103" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:6">
-      <c r="B4" s="109">
+      <c r="B4" s="104">
         <v>33329</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="66"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" ht="40.5" spans="2:6">
-      <c r="B5" s="110">
+      <c r="B5" s="105">
         <v>34820</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" ht="27" spans="2:6">
-      <c r="B6" s="111">
+      <c r="B6" s="106">
         <v>35065</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="60"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="110">
+      <c r="B7" s="105">
         <v>35462</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" ht="54" spans="2:6">
-      <c r="B8" s="111">
+      <c r="B8" s="106">
         <v>36130</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
     </row>
     <row r="9" ht="27" spans="2:6">
-      <c r="B9" s="110">
+      <c r="B9" s="105">
         <v>36647</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" ht="40.5" spans="2:6">
-      <c r="B10" s="111">
+      <c r="B10" s="106">
         <v>37288</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="60"/>
     </row>
     <row r="11" ht="40.5" spans="2:6">
-      <c r="B11" s="110"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:6">
-      <c r="B12" s="111">
+      <c r="B12" s="106">
         <v>38231</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
     </row>
     <row r="13" ht="54" spans="2:6">
-      <c r="B13" s="110"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="57" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="2:9">
-      <c r="B14" s="111">
+      <c r="B14" s="106">
         <v>39052</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57" t="s">
+      <c r="B15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" ht="40.5" spans="2:9">
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60" t="s">
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" ht="54" spans="2:9">
-      <c r="B17" s="110">
+      <c r="B17" s="105">
         <v>40725</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" ht="108" spans="2:9">
-      <c r="B18" s="111">
+      <c r="B18" s="106">
         <v>41699</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" ht="40.5" spans="2:6">
-      <c r="B19" s="110"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57" t="s">
+      <c r="B19" s="105"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="57" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="111">
+      <c r="B20" s="106">
         <v>42979</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60" t="s">
+      <c r="D20" s="59"/>
+      <c r="E20" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="60"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="110">
+      <c r="B21" s="105">
         <v>43160</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="57"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="111">
+      <c r="B22" s="106">
         <v>43344</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="110">
+      <c r="B23" s="105">
         <v>43525</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="111">
+      <c r="B24" s="106">
         <v>43709</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="110">
+      <c r="B25" s="105">
         <v>43891</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="111">
+      <c r="B26" s="106">
         <v>44075</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="112"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
+      <c r="B27" s="107"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="112"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="69"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="113"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
-    </row>
-    <row r="50" spans="2:4">
-      <c r="B50" s="114"/>
-      <c r="C50" s="115" t="s">
+      <c r="B29" s="107"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
+    </row>
+    <row r="30" ht="14.25" spans="2:6">
+      <c r="B30" s="108"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="63"/>
+    </row>
+    <row r="49" ht="14.25"/>
+    <row r="50" ht="14.25" spans="2:4">
+      <c r="B50" s="109"/>
+      <c r="C50" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="116" t="s">
+      <c r="D50" s="111" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" ht="24" spans="2:4">
-      <c r="B51" s="117">
+      <c r="B51" s="112">
         <v>33329</v>
       </c>
-      <c r="C51" s="118" t="s">
+      <c r="C51" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="119"/>
+      <c r="D51" s="114"/>
     </row>
     <row r="52" ht="24" spans="2:4">
-      <c r="B52" s="117">
+      <c r="B52" s="112">
         <v>34820</v>
       </c>
-      <c r="C52" s="118" t="s">
+      <c r="C52" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="119"/>
+      <c r="D52" s="114"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="117">
+      <c r="B53" s="112">
         <v>35065</v>
       </c>
-      <c r="C53" s="118" t="s">
+      <c r="C53" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="119"/>
+      <c r="D53" s="114"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="117">
+      <c r="B54" s="112">
         <v>35462</v>
       </c>
-      <c r="C54" s="118" t="s">
+      <c r="C54" s="113" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="119"/>
+      <c r="D54" s="114"/>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="117">
+      <c r="B55" s="112">
         <v>36130</v>
       </c>
-      <c r="C55" s="118" t="s">
+      <c r="C55" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="119"/>
+      <c r="D55" s="114"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="117">
+      <c r="B56" s="112">
         <v>36647</v>
       </c>
-      <c r="C56" s="118" t="s">
+      <c r="C56" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="119"/>
+      <c r="D56" s="114"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="117">
+      <c r="B57" s="112">
         <v>37288</v>
       </c>
-      <c r="C57" s="118" t="s">
+      <c r="C57" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="119" t="s">
+      <c r="D57" s="114" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="117"/>
-      <c r="C58" s="118"/>
-      <c r="D58" s="119" t="s">
+      <c r="B58" s="112"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="114" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="117">
+      <c r="B59" s="112">
         <v>38231</v>
       </c>
-      <c r="C59" s="118" t="s">
+      <c r="C59" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="119"/>
+      <c r="D59" s="114"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="117"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="119" t="s">
+      <c r="B60" s="112"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="114" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="117">
+      <c r="B61" s="112">
         <v>39052</v>
       </c>
-      <c r="C61" s="118" t="s">
+      <c r="C61" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="119"/>
+      <c r="D61" s="114"/>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="120"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="119" t="s">
+      <c r="B62" s="115"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="114" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="120"/>
-      <c r="C63" s="118"/>
-      <c r="D63" s="119" t="s">
+      <c r="B63" s="115"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="114" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="117">
+      <c r="B64" s="112">
         <v>40725</v>
       </c>
-      <c r="C64" s="118" t="s">
+      <c r="C64" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="119"/>
+      <c r="D64" s="114"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="117">
+      <c r="B65" s="112">
         <v>41699</v>
       </c>
-      <c r="C65" s="118" t="s">
+      <c r="C65" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="119"/>
+      <c r="D65" s="114"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="117"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="119" t="s">
+      <c r="B66" s="112"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="114" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="117">
+      <c r="B67" s="112">
         <v>42979</v>
       </c>
-      <c r="C67" s="118" t="s">
+      <c r="C67" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="119" t="s">
+      <c r="D67" s="114" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="117">
+      <c r="B68" s="112">
         <v>43160</v>
       </c>
-      <c r="C68" s="118" t="s">
+      <c r="C68" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="119"/>
+      <c r="D68" s="114"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="117">
+      <c r="B69" s="112">
         <v>43344</v>
       </c>
-      <c r="C69" s="118" t="s">
+      <c r="C69" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="119"/>
+      <c r="D69" s="114"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="117">
+      <c r="B70" s="112">
         <v>43525</v>
       </c>
-      <c r="C70" s="118" t="s">
+      <c r="C70" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="119"/>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71" s="121">
+      <c r="D70" s="114"/>
+    </row>
+    <row r="71" ht="14.25" spans="2:4">
+      <c r="B71" s="116">
         <v>43709</v>
       </c>
-      <c r="C71" s="122" t="s">
+      <c r="C71" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="123"/>
+      <c r="D71" s="118"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:F3">
@@ -4119,7 +4948,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2ea6f11f-a9fd-437c-bb20-2ea24684b050}</x14:id>
+          <x14:id>{8fd2042b-b3e5-4c2a-afad-bf7e80122cec}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4133,7 +4962,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{24368fd2-8151-4e33-8274-d74a1883b4fc}</x14:id>
+          <x14:id>{50cb7296-5cdd-4aec-a0bb-17ac8a741b7d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4147,7 +4976,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e2cf707a-d663-49d6-826c-54cbe8685fcb}</x14:id>
+          <x14:id>{0f6eb690-21be-4302-b216-43bcd1fecc14}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4161,7 +4990,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{569d7997-2163-44ce-9ae7-ae545c0bd189}</x14:id>
+          <x14:id>{36658ffe-35c3-4ddc-a0e2-9074f771aa55}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4175,7 +5004,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a6f81d96-33a4-4c6f-9bc2-4c71a656ff43}</x14:id>
+          <x14:id>{43fa80f2-c88e-4469-a338-225561e52d84}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4189,7 +5018,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8cf91182-ba23-4df7-9aab-1c3015a5fd02}</x14:id>
+          <x14:id>{13693140-c997-4494-a7ae-f628aaa76714}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4203,7 +5032,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{bc3a4252-98fa-49fa-a1bb-c64f6322c267}</x14:id>
+          <x14:id>{6983064a-d66f-493d-af5b-eb722baa4d0f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4217,7 +5046,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{24f772e7-8ad2-40b1-8069-af8ec5cf101b}</x14:id>
+          <x14:id>{07aa80ce-7b15-4765-a73e-6d61d673edc9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4229,7 +5058,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2ea6f11f-a9fd-437c-bb20-2ea24684b050}">
+          <x14:cfRule type="dataBar" id="{8fd2042b-b3e5-4c2a-afad-bf7e80122cec}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4240,7 +5069,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{24368fd2-8151-4e33-8274-d74a1883b4fc}">
+          <x14:cfRule type="dataBar" id="{50cb7296-5cdd-4aec-a0bb-17ac8a741b7d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4251,7 +5080,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e2cf707a-d663-49d6-826c-54cbe8685fcb}">
+          <x14:cfRule type="dataBar" id="{0f6eb690-21be-4302-b216-43bcd1fecc14}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4262,7 +5091,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{569d7997-2163-44ce-9ae7-ae545c0bd189}">
+          <x14:cfRule type="dataBar" id="{36658ffe-35c3-4ddc-a0e2-9074f771aa55}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4273,7 +5102,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a6f81d96-33a4-4c6f-9bc2-4c71a656ff43}">
+          <x14:cfRule type="dataBar" id="{43fa80f2-c88e-4469-a338-225561e52d84}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4284,7 +5113,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8cf91182-ba23-4df7-9aab-1c3015a5fd02}">
+          <x14:cfRule type="dataBar" id="{13693140-c997-4494-a7ae-f628aaa76714}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4295,7 +5124,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{bc3a4252-98fa-49fa-a1bb-c64f6322c267}">
+          <x14:cfRule type="dataBar" id="{6983064a-d66f-493d-af5b-eb722baa4d0f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4306,7 +5135,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{24f772e7-8ad2-40b1-8069-af8ec5cf101b}">
+          <x14:cfRule type="dataBar" id="{07aa80ce-7b15-4765-a73e-6d61d673edc9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4341,13 +5170,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F7"/>
+  <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
@@ -4357,91 +5186,90 @@
     <col min="6" max="6" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-    </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="5" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>303</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="5" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>267</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="5" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="2:6">
-      <c r="B7" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>275</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="2:6">
+      <c r="B8" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4453,441 +5281,787 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D46"/>
+  <dimension ref="B1:D83"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="46" customWidth="1"/>
-    <col min="4" max="4" width="103.75" style="46" customWidth="1"/>
-    <col min="5" max="5" width="4.625" style="46" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="46"/>
+    <col min="1" max="1" width="4.625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="31" style="20" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="114.625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="20" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="2" ht="20" customHeight="1" spans="2:2">
-      <c r="B2" s="46" t="s">
+    <row r="1" spans="2:2">
+      <c r="B1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
+    <row r="2" ht="20" customHeight="1"/>
     <row r="3" ht="20" customHeight="1" spans="2:4">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="74" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:4">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="77" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:4">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="80" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:4">
-      <c r="B6" s="82" t="s">
+      <c r="B6" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C6" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="83" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:4">
-      <c r="B7" s="85"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="79" t="s">
         <v>64</v>
       </c>
+      <c r="D7" s="80" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:4">
-      <c r="B8" s="86"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="84" t="s">
-        <v>65</v>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:4">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="2:4">
+      <c r="B10" s="85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="2:4">
+      <c r="B11" s="85"/>
+      <c r="C11" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="2:4">
+      <c r="B12" s="85"/>
+      <c r="C12" s="86" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" s="20" customFormat="1" ht="27" spans="2:4">
+      <c r="B14" s="88"/>
+      <c r="C14" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="88"/>
+      <c r="C15" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="2:4">
+      <c r="B16" s="88"/>
+      <c r="C16" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="2:4">
+      <c r="B17" s="88"/>
+      <c r="C17" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="2:4">
+      <c r="B18" s="88"/>
+      <c r="C18" s="82" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="D18" s="83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="2:4">
+      <c r="B19" s="88"/>
+      <c r="C19" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="2:4">
+      <c r="B20" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="2:4">
+      <c r="B21" s="85"/>
+      <c r="C21" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="81" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="2:4">
-      <c r="B10" s="79"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="81" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="2:4">
-      <c r="B11" s="87" t="s">
+      <c r="D22" s="83" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="81"/>
+      <c r="C23" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="D23" s="80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="84" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="2:4">
-      <c r="B12" s="87"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" ht="20" customHeight="1" spans="2:4">
-      <c r="B13" s="87"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="84" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="2:4">
-      <c r="B14" s="79" t="s">
+      <c r="D24" s="83" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="81"/>
+      <c r="C25" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="81"/>
+      <c r="C26" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="81"/>
+      <c r="C27" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="81" t="s">
+      <c r="D28" s="83" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="81"/>
+      <c r="C29" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="81"/>
+      <c r="C30" s="82" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="2:4">
-      <c r="B15" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="2:4">
-      <c r="B16" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="83" t="s">
+      <c r="D30" s="83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" spans="2:4">
+      <c r="B31" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" spans="2:4">
+      <c r="B32" s="88"/>
+      <c r="C32" s="82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="83" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" spans="2:4">
+      <c r="B33" s="88"/>
+      <c r="C33" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" spans="2:4">
+      <c r="B34" s="88"/>
+      <c r="C34" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" spans="2:4">
+      <c r="B35" s="88"/>
+      <c r="C35" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" spans="2:4">
+      <c r="B36" s="88"/>
+      <c r="C36" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="83" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" spans="2:4">
+      <c r="B37" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" s="20" customFormat="1" ht="27" spans="2:4">
+      <c r="B38" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" s="20" customFormat="1" ht="27" spans="2:4">
+      <c r="B39" s="85"/>
+      <c r="C39" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" s="20" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B40" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="2:4">
+      <c r="B41" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" spans="2:4">
+      <c r="B42" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" ht="20" customHeight="1" spans="2:4">
-      <c r="B17" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="80" t="s">
+      <c r="D42" s="83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" spans="2:4">
+      <c r="B43" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="81" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="2:4">
-      <c r="B18" s="87" t="s">
+      <c r="D43" s="80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="2:4">
+      <c r="B44" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" spans="2:4">
+      <c r="B45" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" spans="2:4">
+      <c r="B46" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="84" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" ht="20" customHeight="1" spans="2:4">
-      <c r="B19" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="81" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="2:4">
-      <c r="B20" s="87" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="83" t="s">
+      <c r="D46" s="83" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" s="20" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B47" s="78" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" ht="27" spans="2:4">
+      <c r="B48" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="82" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" spans="2:4">
+      <c r="B49" s="85"/>
+      <c r="C49" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D49" s="89" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" ht="27" spans="2:4">
+      <c r="B50" s="85"/>
+      <c r="C50" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="83" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" spans="2:4">
+      <c r="B51" s="85"/>
+      <c r="C51" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" spans="2:4">
+      <c r="B52" s="85"/>
+      <c r="C52" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="83" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" spans="2:4">
+      <c r="B53" s="85"/>
+      <c r="C53" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" spans="2:4">
+      <c r="B54" s="85"/>
+      <c r="C54" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" spans="2:4">
+      <c r="B55" s="85"/>
+      <c r="C55" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" s="80" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" spans="2:4">
+      <c r="B56" s="85"/>
+      <c r="C56" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="83" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="57" ht="40.5" spans="2:4">
+      <c r="B57" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="88"/>
+      <c r="C58" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="83" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" ht="27" spans="2:4">
+      <c r="B59" s="88"/>
+      <c r="C59" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="88"/>
+      <c r="C60" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" s="20" customFormat="1" ht="27" spans="2:4">
+      <c r="B61" s="90" t="s">
+        <v>145</v>
+      </c>
+      <c r="C61" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" s="20" customFormat="1" spans="2:4">
+      <c r="B62" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="C62" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" s="20" customFormat="1" spans="2:4">
+      <c r="B63" s="85"/>
+      <c r="C63" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" spans="2:4">
+      <c r="B64" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="83" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" spans="2:4">
+      <c r="B65" s="78" t="s">
+        <v>152</v>
+      </c>
+      <c r="C65" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" spans="2:4">
+      <c r="B66" s="92" t="s">
+        <v>154</v>
+      </c>
+      <c r="C66" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" ht="40.5" spans="2:4">
+      <c r="B67" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" spans="2:4">
+      <c r="B68" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1" spans="2:4">
+      <c r="B69" s="90" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" ht="27.75" spans="2:4">
+      <c r="B70" s="94" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="84" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="2:4">
-      <c r="B21" s="79" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" ht="20" customHeight="1" spans="2:4">
-      <c r="B22" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="84" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" ht="20" customHeight="1" spans="2:4">
-      <c r="B23" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="81" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" ht="20" customHeight="1" spans="2:4">
-      <c r="B24" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="C24" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" ht="20" customHeight="1" spans="2:4">
-      <c r="B25" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="80" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="81" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" ht="20" customHeight="1" spans="2:4">
-      <c r="B26" s="88"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="81" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="2:4">
-      <c r="B27" s="88"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" ht="20" customHeight="1" spans="2:4">
-      <c r="B28" s="88"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="81" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" ht="20" customHeight="1" spans="2:4">
-      <c r="B29" s="88"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="81" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" ht="20" customHeight="1" spans="2:4">
-      <c r="B30" s="89"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="81" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" ht="67.5" spans="2:4">
-      <c r="B31" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="84" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="87"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" ht="20" customHeight="1" spans="2:4">
-      <c r="B33" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="81" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="34" ht="20" customHeight="1" spans="2:4">
-      <c r="B34" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" ht="20" customHeight="1" spans="2:4">
-      <c r="B35" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="80" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="81" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" ht="20" customHeight="1" spans="2:4">
-      <c r="B36" s="87" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="83" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" s="84" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" ht="20" customHeight="1" spans="2:4">
-      <c r="B37" s="79" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="80" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="81" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" ht="20" customHeight="1" spans="2:4">
-      <c r="B38" s="87" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="83" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" s="84" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" ht="41.25" spans="2:4">
-      <c r="B39" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
-      <c r="B41" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="75"/>
-    </row>
-    <row r="42" spans="2:4">
-      <c r="B42" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="95"/>
-      <c r="D42" s="96"/>
-    </row>
-    <row r="43" spans="2:4">
-      <c r="B43" s="97" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="98"/>
-      <c r="D43" s="99"/>
-    </row>
-    <row r="44" spans="2:4">
-      <c r="B44" s="100" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="101"/>
-      <c r="D44" s="102"/>
-    </row>
-    <row r="45" spans="2:4">
-      <c r="B45" s="97" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="98" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="99" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="B46" s="103" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="104"/>
-      <c r="D46" s="105"/>
+      <c r="D70" s="96" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" ht="14.25"/>
+    <row r="73" ht="14.25" spans="2:4">
+      <c r="B73" s="97" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="98"/>
+      <c r="D73" s="99"/>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="76"/>
+      <c r="D74" s="77"/>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75" s="78" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="79"/>
+      <c r="D75" s="80" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76" s="92" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="82"/>
+      <c r="D76" s="83"/>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77" s="90" t="s">
+        <v>169</v>
+      </c>
+      <c r="C77" s="79"/>
+      <c r="D77" s="80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" ht="14.25" spans="2:4">
+      <c r="B78" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="95"/>
+      <c r="D78" s="96"/>
+    </row>
+    <row r="81" ht="16" customHeight="1" spans="4:4">
+      <c r="D81" s="20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="100" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="100" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="12">
     <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B48:B56"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B62:B63"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D82" r:id="rId4" display="https://docs.oracle.com/javase/8/docs/api/"/>
+    <hyperlink ref="D83" r:id="rId5" display="https://www.matools.com/api/java8"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <drawing r:id="rId2"/>
@@ -4900,277 +6074,277 @@
   <sheetPr/>
   <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="45" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="46" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="46" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="46" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="46" customWidth="1"/>
-    <col min="5" max="7" width="14" style="46" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="46"/>
+    <col min="1" max="1" width="4.625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="20" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="20" customWidth="1"/>
+    <col min="5" max="7" width="14" style="20" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="2:2">
-      <c r="B1" s="46" t="s">
-        <v>131</v>
+      <c r="B1" s="20" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
+      <c r="B3" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="F3" s="49"/>
+      <c r="G3" s="50"/>
     </row>
     <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="52" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
+      <c r="B4" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" customHeight="1" spans="2:7">
-      <c r="B5" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
+      <c r="B5" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
     </row>
     <row r="6" customHeight="1" spans="2:7">
-      <c r="B6" s="59" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="B6" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="57" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="B7" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
     </row>
     <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="63"/>
     </row>
     <row r="9" ht="13.5"/>
     <row r="10" ht="13.5"/>
     <row r="11" ht="13.5"/>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25" spans="2:7">
-      <c r="B13" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="G13" s="65" t="s">
-        <v>149</v>
+      <c r="B13" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="64" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="53" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="66"/>
+      <c r="B14" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="65"/>
     </row>
     <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="G15" s="58"/>
+      <c r="B15" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="F15" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" s="57"/>
     </row>
     <row r="16" ht="68" customHeight="1" spans="2:7">
-      <c r="B16" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>159</v>
+      <c r="B16" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="G17" s="58" t="s">
-        <v>164</v>
+      <c r="B17" s="55" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="F17" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:7">
-      <c r="B18" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="G18" s="61" t="s">
-        <v>164</v>
+      <c r="B18" s="58" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="19" ht="78" customHeight="1" spans="2:7">
-      <c r="B19" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>168</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="G19" s="58" t="s">
-        <v>169</v>
+      <c r="B19" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:7">
-      <c r="B20" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>172</v>
-      </c>
-      <c r="G20" s="61"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69"/>
+      <c r="B20" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="60"/>
+    </row>
+    <row r="21" ht="14.25" spans="2:7">
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22" customHeight="1" spans="2:7">
-      <c r="B22" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="67" t="s">
-        <v>175</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="69"/>
+      <c r="B22" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="C22" s="70" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="71"/>
+    </row>
+    <row r="23" ht="13.5" spans="2:7">
+      <c r="B23" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="68"/>
     </row>
     <row r="24" ht="14.25" spans="2:7">
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -5218,48 +6392,48 @@
   <sheetData>
     <row r="3" spans="2:10">
       <c r="B3" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>225</v>
       </c>
       <c r="H3" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>227</v>
       </c>
       <c r="J3" t="s">
-        <v>184</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>232</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5271,58 +6445,57 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C5"/>
+  <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="4.375" customWidth="1"/>
     <col min="2" max="2" width="18.25" customWidth="1"/>
     <col min="3" max="3" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
-    <row r="2" ht="14.25" spans="2:3">
-      <c r="B2" s="40" t="s">
+    <row r="3" ht="14.25" spans="2:3">
+      <c r="B3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="2:3">
-      <c r="B3" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>192</v>
+      <c r="C3" s="41" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
       <c r="B4" s="42" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="2:3">
-      <c r="B5" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>196</v>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="2:3">
+      <c r="B5" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="2:3">
+      <c r="B6" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://spring.io/" tooltip="https://spring.io/"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://spring.io/projects/spring-framework" tooltip="https://spring.io/projects/spring-framework"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://spring.io/projects/spring-boot" tooltip="https://spring.io/projects/spring-boot"/>
-    <hyperlink ref="C5" r:id="rId4" display="https://spring.io/projects/spring-cloud" tooltip="https://spring.io/projects/spring-cloud"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://spring.io/" tooltip="https://spring.io/"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://spring.io/projects/spring-framework" tooltip="https://spring.io/projects/spring-framework"/>
+    <hyperlink ref="C5" r:id="rId3" display="https://spring.io/projects/spring-boot" tooltip="https://spring.io/projects/spring-boot"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://spring.io/projects/spring-cloud" tooltip="https://spring.io/projects/spring-cloud"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5332,10 +6505,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:F19"/>
+  <dimension ref="B3:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5348,164 +6521,157 @@
     <col min="6" max="6" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
-    <row r="2" ht="14.25" spans="2:6">
-      <c r="B2" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" ht="81" spans="2:6">
-      <c r="B3" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="31" t="s">
+    <row r="3" spans="2:6">
+      <c r="B3" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" ht="81" spans="2:6">
+      <c r="B4" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="F3" s="9"/>
-    </row>
-    <row r="4" ht="14.25" spans="2:6">
-      <c r="B4" s="33"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="34"/>
-    </row>
-    <row r="5" ht="81" spans="2:6">
-      <c r="B5" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="2:6">
-      <c r="B6" s="33"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="34"/>
-    </row>
-    <row r="7" ht="81" spans="2:6">
-      <c r="B7" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="39"/>
-    </row>
-    <row r="8" ht="14.25" spans="2:6">
-      <c r="B8" s="33"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" ht="94.5" spans="2:6">
-      <c r="B9" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="39"/>
-    </row>
-    <row r="10" ht="14.25" spans="2:6">
-      <c r="B10" s="33"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="34"/>
-    </row>
-    <row r="11" ht="40.5" spans="2:6">
-      <c r="B11" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="39"/>
-    </row>
-    <row r="12" ht="14.25" spans="2:6">
-      <c r="B12" s="33"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" ht="67.5" spans="2:6">
-      <c r="B13" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>222</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="14" ht="14.25" spans="2:6">
-      <c r="B14" s="33"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="34"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="30" t="s">
-        <v>224</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="9"/>
+      <c r="E4" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:6">
+      <c r="B5" s="33"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="34"/>
+    </row>
+    <row r="6" ht="81" spans="2:6">
+      <c r="B6" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="2:6">
+      <c r="B7" s="33"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" ht="81" spans="2:6">
+      <c r="B8" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:6">
+      <c r="B9" s="33"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" ht="94.5" spans="2:6">
+      <c r="B10" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" ht="14.25" spans="2:6">
+      <c r="B11" s="33"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" ht="40.5" spans="2:6">
+      <c r="B12" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="37"/>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" ht="14.25" spans="2:6">
+      <c r="B13" s="33"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" ht="67.5" spans="2:6">
+      <c r="B14" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="37"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" ht="14.25" spans="2:6">
+      <c r="B15" s="33"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="30"/>
+      <c r="B16" s="30" t="s">
+        <v>268</v>
+      </c>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
       <c r="F16" s="9"/>
@@ -5522,12 +6688,18 @@
       <c r="E18" s="31"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" ht="14.25" spans="2:6">
-      <c r="B19" s="33"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="34"/>
+    <row r="19" spans="2:6">
+      <c r="B19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" ht="14.25" spans="2:6">
+      <c r="B20" s="33"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5555,13 +6727,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I6"/>
+  <dimension ref="B3:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="2.875" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
@@ -5574,110 +6746,109 @@
     <col min="9" max="9" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25"/>
-    <row r="2" ht="14.25" spans="2:9">
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" ht="27" spans="2:9">
-      <c r="B3" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="I3" s="25"/>
-    </row>
-    <row r="4" ht="81" spans="2:9">
+    <row r="3" spans="2:9">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="2:9">
       <c r="B4" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="D4" s="124" t="s">
-        <v>238</v>
+        <v>276</v>
+      </c>
+      <c r="C4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" t="s">
+        <v>278</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="I4" s="25"/>
     </row>
-    <row r="5" ht="54" spans="2:9">
+    <row r="5" ht="81" spans="2:9">
       <c r="B5" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="D5" s="124" t="s">
-        <v>244</v>
+        <v>281</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>282</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>246</v>
+        <v>284</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>285</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="I5" s="25"/>
     </row>
-    <row r="6" ht="68.25" spans="2:9">
-      <c r="B6" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" s="125" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>254</v>
+    <row r="6" ht="54" spans="2:9">
+      <c r="B6" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="I6" s="25"/>
+    </row>
+    <row r="7" ht="68.25" spans="2:9">
+      <c r="B7" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D7" s="120" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500" tabRatio="728"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="728" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Component" sheetId="5" r:id="rId9"/>
     <sheet name="MQ" sheetId="6" r:id="rId10"/>
     <sheet name="RocketMQ" sheetId="7" r:id="rId11"/>
+    <sheet name="Netty" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -200,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="345">
   <si>
     <t>timeline</t>
   </si>
@@ -447,6 +448,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>DataInput\DataOutput\EOFException\</t>
     </r>
     <r>
@@ -509,6 +517,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Boolean\Character\Class\ClassLoader\Cloneable\Compiler\Double\Error\Exception\Float\Integer\Long\Math\Number\</t>
     </r>
     <r>
@@ -601,6 +616,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Comparable\</t>
     </r>
     <r>
@@ -627,6 +649,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>AbstractStringBuilder\Appendable\@Deprecated\Enum\</t>
     </r>
     <r>
@@ -680,6 +709,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>@FunctionalInterface</t>
     </r>
     <r>
@@ -698,6 +735,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Annotation\</t>
     </r>
     <r>
@@ -766,6 +810,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>@Native\</t>
     </r>
     <r>
@@ -810,6 +861,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>InvocationHandler</t>
     </r>
     <r>
@@ -870,6 +929,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>DatagramSocketImpl\</t>
     </r>
     <r>
@@ -914,6 +980,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Buffer\ByteBuffer\</t>
     </r>
     <r>
@@ -964,6 +1037,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Channel</t>
     </r>
     <r>
@@ -1022,6 +1103,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>AsynchronousChannel\AsynchronousByteChannel\AsynchronousChannelGroup\AsynchronousFileChannel\AsynchronousServerSocketChannel\AsynchronousSocketChannel\</t>
     </r>
     <r>
@@ -1057,6 +1145,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>AccessMode\</t>
     </r>
     <r>
@@ -1165,6 +1260,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Date</t>
     </r>
     <r>
@@ -1180,6 +1283,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Calendar</t>
     </r>
     <r>
@@ -1195,6 +1306,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>AbstractCollection\ArrayList\Arrays\</t>
     </r>
     <r>
@@ -1305,6 +1423,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>AbstractExecutorService\BlockingQueue\</t>
     </r>
     <r>
@@ -1352,6 +1477,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>BlockingDeque\ConcurrentSkipListMap\ConcurrentSkipListSet\LinkedBlockingDeque\</t>
     </r>
     <r>
@@ -1382,6 +1514,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>CompletableFuture</t>
     </r>
     <r>
@@ -2447,27 +2587,95 @@
   <si>
     <t>Scala语言</t>
   </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>坐标</t>
+  </si>
+  <si>
+    <t>Netty3</t>
+  </si>
+  <si>
+    <t>3.0.0.CR1</t>
+  </si>
+  <si>
+    <t>org.jboss.netty:netty</t>
+  </si>
+  <si>
+    <t>2009-7</t>
+  </si>
+  <si>
+    <t>3.2.10.Final</t>
+  </si>
+  <si>
+    <t>2013-11</t>
+  </si>
+  <si>
+    <t>3.3.0.Final</t>
+  </si>
+  <si>
+    <t>io.netty:netty</t>
+  </si>
+  <si>
+    <t>2012-1</t>
+  </si>
+  <si>
+    <t>3.10.6.Final</t>
+  </si>
+  <si>
+    <t>2016-6</t>
+  </si>
+  <si>
+    <t>4.0.0.Alpha8</t>
+  </si>
+  <si>
+    <t>2012-12</t>
+  </si>
+  <si>
+    <t>Netty4</t>
+  </si>
+  <si>
+    <t>4.0.0.Beta1</t>
+  </si>
+  <si>
+    <t>io.netty:netty-all</t>
+  </si>
+  <si>
+    <t>2013-2</t>
+  </si>
+  <si>
+    <t>4.1.54.Final</t>
+  </si>
+  <si>
+    <t>2020-11</t>
+  </si>
+  <si>
+    <t>Netty5</t>
+  </si>
+  <si>
+    <t>5.0.0.Alpha1</t>
+  </si>
+  <si>
+    <t>2013-12</t>
+  </si>
+  <si>
+    <t>2015-3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2505,31 +2713,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2543,8 +2736,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2573,8 +2775,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2587,24 +2818,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2618,24 +2849,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2661,12 +2876,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor theme="9" tint="0.799981688894314"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2682,13 +2909,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2700,7 +3005,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2712,168 +3089,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -2885,77 +3106,297 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -3013,12 +3454,41 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -3038,32 +3508,53 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top style="medium">
         <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4"/>
+      <left style="medium">
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3105,36 +3596,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="4"/>
       </left>
@@ -3155,126 +3616,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
       <bottom style="thin">
         <color theme="4"/>
       </bottom>
@@ -3367,6 +3708,41 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -3390,32 +3766,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3426,15 +3776,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3457,8 +3798,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3470,10 +3811,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3482,228 +3823,294 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -3712,268 +4119,250 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="5" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4047,10 +4436,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>493395</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>20955</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4068,7 +4457,49 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12744450" y="425450"/>
-          <a:ext cx="3609975" cy="8934450"/>
+          <a:ext cx="2550795" cy="6313805"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12744450" y="6972300"/>
+          <a:ext cx="8439150" cy="2838450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4391,552 +4822,552 @@
   <sheetPr/>
   <dimension ref="B1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="101" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="101" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="101" customWidth="1"/>
-    <col min="4" max="4" width="76.125" style="101" customWidth="1"/>
-    <col min="5" max="5" width="26" style="101" customWidth="1"/>
-    <col min="6" max="6" width="59" style="101" customWidth="1"/>
-    <col min="7" max="16384" width="12.75" style="101" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="117" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="117" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="117" customWidth="1"/>
+    <col min="4" max="4" width="76.125" style="117" customWidth="1"/>
+    <col min="5" max="5" width="26" style="117" customWidth="1"/>
+    <col min="6" max="6" width="59" style="117" customWidth="1"/>
+    <col min="7" max="16384" width="12.75" style="117" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="117" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="69"/>
-      <c r="C3" s="102" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="102" t="s">
+      <c r="E3" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="119" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:6">
-      <c r="B4" s="104">
+      <c r="B4" s="120">
         <v>33329</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="65"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="88"/>
     </row>
     <row r="5" ht="40.5" spans="2:6">
-      <c r="B5" s="105">
+      <c r="B5" s="121">
         <v>34820</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="57"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80"/>
     </row>
     <row r="6" ht="27" spans="2:6">
-      <c r="B6" s="106">
+      <c r="B6" s="122">
         <v>35065</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="83"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="105">
+      <c r="B7" s="121">
         <v>35462</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="57"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
     </row>
     <row r="8" ht="54" spans="2:6">
-      <c r="B8" s="106">
+      <c r="B8" s="122">
         <v>36130</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83"/>
     </row>
     <row r="9" ht="27" spans="2:6">
-      <c r="B9" s="105">
+      <c r="B9" s="121">
         <v>36647</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="56"/>
-      <c r="F9" s="57"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
     </row>
     <row r="10" ht="40.5" spans="2:6">
-      <c r="B10" s="106">
+      <c r="B10" s="122">
         <v>37288</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="60"/>
+      <c r="F10" s="83"/>
     </row>
     <row r="11" ht="40.5" spans="2:6">
-      <c r="B11" s="105"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56" t="s">
+      <c r="B11" s="121"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="80" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:6">
-      <c r="B12" s="106">
+      <c r="B12" s="122">
         <v>38231</v>
       </c>
-      <c r="C12" s="59" t="s">
+      <c r="C12" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
     </row>
     <row r="13" ht="54" spans="2:6">
-      <c r="B13" s="105"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56" t="s">
+      <c r="B13" s="121"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="80" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="2:9">
-      <c r="B14" s="106">
+      <c r="B14" s="122">
         <v>39052</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56" t="s">
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" ht="40.5" spans="2:9">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59" t="s">
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" ht="54" spans="2:9">
-      <c r="B17" s="105">
+      <c r="B17" s="121">
         <v>40725</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="57"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" ht="108" spans="2:9">
-      <c r="B18" s="106">
+      <c r="B18" s="122">
         <v>41699</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="60"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="83"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" ht="40.5" spans="2:6">
-      <c r="B19" s="105"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56" t="s">
+      <c r="B19" s="121"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="80" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="106">
+      <c r="B20" s="122">
         <v>42979</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59" t="s">
+      <c r="D20" s="82"/>
+      <c r="E20" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="60"/>
+      <c r="F20" s="83"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="105">
+      <c r="B21" s="121">
         <v>43160</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="106">
+      <c r="B22" s="122">
         <v>43344</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="60"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="83"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="105">
+      <c r="B23" s="121">
         <v>43525</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="80"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="106">
+      <c r="B24" s="122">
         <v>43709</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="105">
+      <c r="B25" s="121">
         <v>43891</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="91"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="106">
+      <c r="B26" s="122">
         <v>44075</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="60"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="83"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="107"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="68"/>
+      <c r="B27" s="123"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="91"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="58"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="60"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="83"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="107"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68"/>
+      <c r="B29" s="123"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="91"/>
     </row>
     <row r="30" ht="14.25" spans="2:6">
-      <c r="B30" s="108"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="63"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
     </row>
     <row r="49" ht="14.25"/>
     <row r="50" ht="14.25" spans="2:4">
-      <c r="B50" s="109"/>
-      <c r="C50" s="110" t="s">
+      <c r="B50" s="125"/>
+      <c r="C50" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="111" t="s">
+      <c r="D50" s="127" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" ht="24" spans="2:4">
-      <c r="B51" s="112">
+      <c r="B51" s="128">
         <v>33329</v>
       </c>
-      <c r="C51" s="113" t="s">
+      <c r="C51" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="114"/>
+      <c r="D51" s="130"/>
     </row>
     <row r="52" ht="24" spans="2:4">
-      <c r="B52" s="112">
+      <c r="B52" s="128">
         <v>34820</v>
       </c>
-      <c r="C52" s="113" t="s">
+      <c r="C52" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="114"/>
+      <c r="D52" s="130"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="112">
+      <c r="B53" s="128">
         <v>35065</v>
       </c>
-      <c r="C53" s="113" t="s">
+      <c r="C53" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="114"/>
+      <c r="D53" s="130"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="112">
+      <c r="B54" s="128">
         <v>35462</v>
       </c>
-      <c r="C54" s="113" t="s">
+      <c r="C54" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="114"/>
+      <c r="D54" s="130"/>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="112">
+      <c r="B55" s="128">
         <v>36130</v>
       </c>
-      <c r="C55" s="113" t="s">
+      <c r="C55" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="114"/>
+      <c r="D55" s="130"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="112">
+      <c r="B56" s="128">
         <v>36647</v>
       </c>
-      <c r="C56" s="113" t="s">
+      <c r="C56" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="114"/>
+      <c r="D56" s="130"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="112">
+      <c r="B57" s="128">
         <v>37288</v>
       </c>
-      <c r="C57" s="113" t="s">
+      <c r="C57" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="114" t="s">
+      <c r="D57" s="130" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="112"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="114" t="s">
+      <c r="B58" s="128"/>
+      <c r="C58" s="129"/>
+      <c r="D58" s="130" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="112">
+      <c r="B59" s="128">
         <v>38231</v>
       </c>
-      <c r="C59" s="113" t="s">
+      <c r="C59" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="114"/>
+      <c r="D59" s="130"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="112"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="114" t="s">
+      <c r="B60" s="128"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="130" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="112">
+      <c r="B61" s="128">
         <v>39052</v>
       </c>
-      <c r="C61" s="113" t="s">
+      <c r="C61" s="129" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="114"/>
+      <c r="D61" s="130"/>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="115"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="114" t="s">
+      <c r="B62" s="131"/>
+      <c r="C62" s="129"/>
+      <c r="D62" s="130" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="115"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="114" t="s">
+      <c r="B63" s="131"/>
+      <c r="C63" s="129"/>
+      <c r="D63" s="130" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="112">
+      <c r="B64" s="128">
         <v>40725</v>
       </c>
-      <c r="C64" s="113" t="s">
+      <c r="C64" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="114"/>
+      <c r="D64" s="130"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="112">
+      <c r="B65" s="128">
         <v>41699</v>
       </c>
-      <c r="C65" s="113" t="s">
+      <c r="C65" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="114"/>
+      <c r="D65" s="130"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="112"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="114" t="s">
+      <c r="B66" s="128"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="130" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="112">
+      <c r="B67" s="128">
         <v>42979</v>
       </c>
-      <c r="C67" s="113" t="s">
+      <c r="C67" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="114" t="s">
+      <c r="D67" s="130" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="112">
+      <c r="B68" s="128">
         <v>43160</v>
       </c>
-      <c r="C68" s="113" t="s">
+      <c r="C68" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="114"/>
+      <c r="D68" s="130"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="112">
+      <c r="B69" s="128">
         <v>43344</v>
       </c>
-      <c r="C69" s="113" t="s">
+      <c r="C69" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="114"/>
+      <c r="D69" s="130"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="112">
+      <c r="B70" s="128">
         <v>43525</v>
       </c>
-      <c r="C70" s="113" t="s">
+      <c r="C70" s="129" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="114"/>
+      <c r="D70" s="130"/>
     </row>
     <row r="71" ht="14.25" spans="2:4">
-      <c r="B71" s="116">
+      <c r="B71" s="132">
         <v>43709</v>
       </c>
-      <c r="C71" s="117" t="s">
+      <c r="C71" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="118"/>
+      <c r="D71" s="134"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:F3">
@@ -4948,7 +5379,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8fd2042b-b3e5-4c2a-afad-bf7e80122cec}</x14:id>
+          <x14:id>{c24cac6f-0bae-4e54-b2f6-840eb46b081e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4962,7 +5393,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{50cb7296-5cdd-4aec-a0bb-17ac8a741b7d}</x14:id>
+          <x14:id>{dbaa2239-f54e-47bb-b8a1-e2a749f6e3f9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4976,7 +5407,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0f6eb690-21be-4302-b216-43bcd1fecc14}</x14:id>
+          <x14:id>{c3581637-5788-4d9a-8931-611155c08f23}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4990,7 +5421,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{36658ffe-35c3-4ddc-a0e2-9074f771aa55}</x14:id>
+          <x14:id>{fb8b58a2-67c4-4bb7-8f03-25afe3189c14}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5004,7 +5435,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{43fa80f2-c88e-4469-a338-225561e52d84}</x14:id>
+          <x14:id>{832a72bb-6c17-474d-9e61-8dd69b33fb10}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5018,7 +5449,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{13693140-c997-4494-a7ae-f628aaa76714}</x14:id>
+          <x14:id>{046336eb-511f-4298-b030-c5cf5e8d4208}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5032,7 +5463,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6983064a-d66f-493d-af5b-eb722baa4d0f}</x14:id>
+          <x14:id>{b60b868f-a814-4761-be32-17b604b7c0c0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5046,7 +5477,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{07aa80ce-7b15-4765-a73e-6d61d673edc9}</x14:id>
+          <x14:id>{6ebaee38-0a09-4cd1-b1bb-2bb9254626fa}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5058,7 +5489,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8fd2042b-b3e5-4c2a-afad-bf7e80122cec}">
+          <x14:cfRule type="dataBar" id="{c24cac6f-0bae-4e54-b2f6-840eb46b081e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5069,7 +5500,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{50cb7296-5cdd-4aec-a0bb-17ac8a741b7d}">
+          <x14:cfRule type="dataBar" id="{dbaa2239-f54e-47bb-b8a1-e2a749f6e3f9}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5080,7 +5511,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0f6eb690-21be-4302-b216-43bcd1fecc14}">
+          <x14:cfRule type="dataBar" id="{c3581637-5788-4d9a-8931-611155c08f23}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5091,7 +5522,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{36658ffe-35c3-4ddc-a0e2-9074f771aa55}">
+          <x14:cfRule type="dataBar" id="{fb8b58a2-67c4-4bb7-8f03-25afe3189c14}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5102,7 +5533,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{43fa80f2-c88e-4469-a338-225561e52d84}">
+          <x14:cfRule type="dataBar" id="{832a72bb-6c17-474d-9e61-8dd69b33fb10}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5113,7 +5544,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{13693140-c997-4494-a7ae-f628aaa76714}">
+          <x14:cfRule type="dataBar" id="{046336eb-511f-4298-b030-c5cf5e8d4208}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5124,7 +5555,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6983064a-d66f-493d-af5b-eb722baa4d0f}">
+          <x14:cfRule type="dataBar" id="{b60b868f-a814-4761-be32-17b604b7c0c0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5135,7 +5566,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{07aa80ce-7b15-4765-a73e-6d61d673edc9}">
+          <x14:cfRule type="dataBar" id="{6ebaee38-0a09-4cd1-b1bb-2bb9254626fa}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5173,106 +5604,267 @@
   <dimension ref="B3:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="38.375" customWidth="1"/>
-    <col min="5" max="5" width="8.375" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="44.125" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="3" ht="14.25" spans="2:6">
+      <c r="B3" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="2:6">
+      <c r="B8" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" s="36"/>
+      <c r="E8" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="14.25" spans="2:5">
       <c r="B3" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>309</v>
+    </row>
+    <row r="4" ht="14.25" spans="2:5">
+      <c r="B4" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="2:5">
+      <c r="B5" s="4"/>
+      <c r="C5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="2:5">
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>310</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="2:5">
+      <c r="B7" s="4"/>
+      <c r="C7" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="2:6">
-      <c r="B8" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>319</v>
+        <v>329</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="4"/>
+      <c r="C8" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="11"/>
+      <c r="C10" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="2:5">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>344</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" display="5.0.0.Alpha1" tooltip="https://mvnrepository.com/artifact/io.netty/netty-all/5.0.0.Alpha1"/>
+    <hyperlink ref="C12" r:id="rId1" display="5.0.0.Alpha1" tooltip="https://mvnrepository.com/artifact/io.netty/netty-all/5.0.0.Alpha1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -5283,56 +5875,56 @@
   <sheetPr/>
   <dimension ref="B1:D83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="31" style="20" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="20" customWidth="1"/>
-    <col min="4" max="4" width="114.625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="20" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="4.625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="31" style="42" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="42" customWidth="1"/>
+    <col min="4" max="4" width="114.625" style="42" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="42" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1"/>
     <row r="3" ht="20" customHeight="1" spans="2:4">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="87" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:4">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="97" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:4">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="100" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5340,153 +5932,153 @@
       <c r="B6" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="83" t="s">
+      <c r="D6" s="102" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:4">
       <c r="B7" s="81"/>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="100" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:4">
       <c r="B8" s="81"/>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="83" t="s">
+      <c r="D8" s="102" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:4">
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="100" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:4">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="103" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="102" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:4">
-      <c r="B11" s="85"/>
-      <c r="C11" s="87" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="100" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:4">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86" t="s">
+      <c r="B12" s="103"/>
+      <c r="C12" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="83" t="s">
+      <c r="D12" s="102" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="100" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" s="20" customFormat="1" ht="27" spans="2:4">
-      <c r="B14" s="88"/>
-      <c r="C14" s="82" t="s">
+    <row r="14" s="42" customFormat="1" ht="27" spans="2:4">
+      <c r="B14" s="104"/>
+      <c r="C14" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="83" t="s">
+      <c r="D14" s="102" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="88"/>
-      <c r="C15" s="79" t="s">
+      <c r="B15" s="104"/>
+      <c r="C15" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="100" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:4">
-      <c r="B16" s="88"/>
-      <c r="C16" s="82" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="83" t="s">
+      <c r="D16" s="102" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:4">
-      <c r="B17" s="88"/>
-      <c r="C17" s="79" t="s">
+      <c r="B17" s="104"/>
+      <c r="C17" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="100" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:4">
-      <c r="B18" s="88"/>
-      <c r="C18" s="82" t="s">
+      <c r="B18" s="104"/>
+      <c r="C18" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="102" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:4">
-      <c r="B19" s="88"/>
-      <c r="C19" s="79" t="s">
+      <c r="B19" s="104"/>
+      <c r="C19" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="105" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:4">
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="103" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="83" t="s">
+      <c r="D20" s="102" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:4">
-      <c r="B21" s="85"/>
-      <c r="C21" s="79" t="s">
+      <c r="B21" s="103"/>
+      <c r="C21" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="100" t="s">
         <v>87</v>
       </c>
     </row>
@@ -5494,19 +6086,19 @@
       <c r="B22" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="83" t="s">
+      <c r="D22" s="102" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="81"/>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="80" t="s">
+      <c r="D23" s="100" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5514,37 +6106,37 @@
       <c r="B24" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="83" t="s">
+      <c r="D24" s="102" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="81"/>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="89" t="s">
+      <c r="D25" s="105" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="81"/>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="83" t="s">
+      <c r="D26" s="102" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27" s="81"/>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="80" t="s">
+      <c r="D27" s="100" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5552,494 +6144,494 @@
       <c r="B28" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="83" t="s">
+      <c r="D28" s="102" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="81"/>
-      <c r="C29" s="79" t="s">
+      <c r="C29" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="80" t="s">
+      <c r="D29" s="100" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="81"/>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="83" t="s">
+      <c r="D30" s="102" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="2:4">
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="80" t="s">
+      <c r="D31" s="100" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1" spans="2:4">
-      <c r="B32" s="88"/>
-      <c r="C32" s="82" t="s">
+      <c r="B32" s="104"/>
+      <c r="C32" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="102" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="2:4">
-      <c r="B33" s="88"/>
-      <c r="C33" s="79" t="s">
+      <c r="B33" s="104"/>
+      <c r="C33" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="80" t="s">
+      <c r="D33" s="100" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="2:4">
-      <c r="B34" s="88"/>
-      <c r="C34" s="82" t="s">
+      <c r="B34" s="104"/>
+      <c r="C34" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="83" t="s">
+      <c r="D34" s="102" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="2:4">
-      <c r="B35" s="88"/>
-      <c r="C35" s="79" t="s">
+      <c r="B35" s="104"/>
+      <c r="C35" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="80" t="s">
+      <c r="D35" s="100" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="2:4">
-      <c r="B36" s="88"/>
-      <c r="C36" s="82" t="s">
+      <c r="B36" s="104"/>
+      <c r="C36" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="83" t="s">
+      <c r="D36" s="102" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:4">
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="106" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="D37" s="100" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" s="20" customFormat="1" ht="27" spans="2:4">
-      <c r="B38" s="85" t="s">
+    <row r="38" s="42" customFormat="1" ht="27" spans="2:4">
+      <c r="B38" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="91" t="s">
+      <c r="D38" s="107" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" s="20" customFormat="1" ht="27" spans="2:4">
-      <c r="B39" s="85"/>
-      <c r="C39" s="79" t="s">
+    <row r="39" s="42" customFormat="1" ht="27" spans="2:4">
+      <c r="B39" s="103"/>
+      <c r="C39" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="80" t="s">
+      <c r="D39" s="100" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" s="20" customFormat="1" ht="20" customHeight="1" spans="2:4">
-      <c r="B40" s="92" t="s">
+    <row r="40" s="42" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B40" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="82" t="s">
+      <c r="C40" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="83" t="s">
+      <c r="D40" s="102" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="2:4">
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="79" t="s">
+      <c r="C41" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="80" t="s">
+      <c r="D41" s="100" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1" spans="2:4">
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="83" t="s">
+      <c r="D42" s="102" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="2:4">
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="98" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="79" t="s">
+      <c r="C43" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="80" t="s">
+      <c r="D43" s="100" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44" ht="27" spans="2:4">
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="82" t="s">
+      <c r="C44" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="83" t="s">
+      <c r="D44" s="102" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" spans="2:4">
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="79" t="s">
+      <c r="C45" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="80" t="s">
+      <c r="D45" s="100" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="2:4">
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="82" t="s">
+      <c r="C46" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="83" t="s">
+      <c r="D46" s="102" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47" s="20" customFormat="1" ht="20" customHeight="1" spans="2:4">
-      <c r="B47" s="78" t="s">
+    <row r="47" s="42" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B47" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="79" t="s">
+      <c r="C47" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="80" t="s">
+      <c r="D47" s="100" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48" ht="27" spans="2:4">
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="82" t="s">
+      <c r="C48" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="91" t="s">
+      <c r="D48" s="107" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1" spans="2:4">
-      <c r="B49" s="85"/>
-      <c r="C49" s="79" t="s">
+      <c r="B49" s="103"/>
+      <c r="C49" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="89" t="s">
+      <c r="D49" s="105" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" ht="27" spans="2:4">
-      <c r="B50" s="85"/>
-      <c r="C50" s="82" t="s">
+      <c r="B50" s="103"/>
+      <c r="C50" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="83" t="s">
+      <c r="D50" s="102" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="2:4">
-      <c r="B51" s="85"/>
-      <c r="C51" s="79" t="s">
+      <c r="B51" s="103"/>
+      <c r="C51" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="80" t="s">
+      <c r="D51" s="100" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="2:4">
-      <c r="B52" s="85"/>
-      <c r="C52" s="82" t="s">
+      <c r="B52" s="103"/>
+      <c r="C52" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="83" t="s">
+      <c r="D52" s="102" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="2:4">
-      <c r="B53" s="85"/>
-      <c r="C53" s="79" t="s">
+      <c r="B53" s="103"/>
+      <c r="C53" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="80" t="s">
+      <c r="D53" s="100" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="2:4">
-      <c r="B54" s="85"/>
-      <c r="C54" s="82" t="s">
+      <c r="B54" s="103"/>
+      <c r="C54" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="83" t="s">
+      <c r="D54" s="102" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="2:4">
-      <c r="B55" s="85"/>
-      <c r="C55" s="79" t="s">
+      <c r="B55" s="103"/>
+      <c r="C55" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="80" t="s">
+      <c r="D55" s="100" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="2:4">
-      <c r="B56" s="85"/>
-      <c r="C56" s="82" t="s">
+      <c r="B56" s="103"/>
+      <c r="C56" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="83" t="s">
+      <c r="D56" s="102" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="57" ht="40.5" spans="2:4">
-      <c r="B57" s="88" t="s">
+      <c r="B57" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="79" t="s">
+      <c r="C57" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="80" t="s">
+      <c r="D57" s="100" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="88"/>
-      <c r="C58" s="82" t="s">
+      <c r="B58" s="104"/>
+      <c r="C58" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="83" t="s">
+      <c r="D58" s="102" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="59" ht="27" spans="2:4">
-      <c r="B59" s="88"/>
-      <c r="C59" s="79" t="s">
+      <c r="B59" s="104"/>
+      <c r="C59" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="80" t="s">
+      <c r="D59" s="100" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="88"/>
-      <c r="C60" s="82" t="s">
+      <c r="B60" s="104"/>
+      <c r="C60" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="91" t="s">
+      <c r="D60" s="107" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="61" s="20" customFormat="1" ht="27" spans="2:4">
-      <c r="B61" s="90" t="s">
+    <row r="61" s="42" customFormat="1" spans="2:4">
+      <c r="B61" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="79" t="s">
+      <c r="C61" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="80" t="s">
+      <c r="D61" s="100" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="62" s="20" customFormat="1" spans="2:4">
-      <c r="B62" s="85" t="s">
+    <row r="62" s="42" customFormat="1" spans="2:4">
+      <c r="B62" s="103" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="82" t="s">
+      <c r="C62" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="83" t="s">
+      <c r="D62" s="102" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="63" s="20" customFormat="1" spans="2:4">
-      <c r="B63" s="85"/>
-      <c r="C63" s="79" t="s">
+    <row r="63" s="42" customFormat="1" spans="2:4">
+      <c r="B63" s="103"/>
+      <c r="C63" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="80" t="s">
+      <c r="D63" s="100" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:4">
-      <c r="B64" s="93" t="s">
+      <c r="B64" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="C64" s="82" t="s">
+      <c r="C64" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="83" t="s">
+      <c r="D64" s="102" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="2:4">
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="C65" s="79" t="s">
+      <c r="C65" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="80" t="s">
+      <c r="D65" s="100" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="2:4">
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="108" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="82" t="s">
+      <c r="C66" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="83" t="s">
+      <c r="D66" s="102" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="2:4">
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="98" t="s">
         <v>156</v>
       </c>
-      <c r="C67" s="79" t="s">
+      <c r="C67" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="D67" s="80" t="s">
+      <c r="D67" s="100" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1" spans="2:4">
-      <c r="B68" s="92" t="s">
+      <c r="B68" s="108" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="82" t="s">
+      <c r="C68" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="83" t="s">
+      <c r="D68" s="102" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1" spans="2:4">
-      <c r="B69" s="90" t="s">
+      <c r="B69" s="106" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="79" t="s">
+      <c r="C69" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="80" t="s">
+      <c r="D69" s="100" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="70" ht="27.75" spans="2:4">
-      <c r="B70" s="94" t="s">
+      <c r="B70" s="110" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="95" t="s">
+      <c r="C70" s="111" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="96" t="s">
+      <c r="D70" s="112" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="72" ht="14.25"/>
     <row r="73" ht="14.25" spans="2:4">
-      <c r="B73" s="97" t="s">
+      <c r="B73" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="98"/>
-      <c r="D73" s="99"/>
+      <c r="C73" s="114"/>
+      <c r="D73" s="115"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="75" t="s">
+      <c r="B74" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="C74" s="76"/>
-      <c r="D74" s="77"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="97"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="78" t="s">
+      <c r="B75" s="98" t="s">
         <v>166</v>
       </c>
-      <c r="C75" s="79"/>
-      <c r="D75" s="80" t="s">
+      <c r="C75" s="99"/>
+      <c r="D75" s="100" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="92" t="s">
+      <c r="B76" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="C76" s="82"/>
-      <c r="D76" s="83"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="102"/>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="90" t="s">
+      <c r="B77" s="106" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="79"/>
-      <c r="D77" s="80" t="s">
+      <c r="C77" s="99"/>
+      <c r="D77" s="100" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="2:4">
-      <c r="B78" s="94" t="s">
+      <c r="B78" s="110" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="95"/>
-      <c r="D78" s="96"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="112"/>
     </row>
     <row r="81" ht="16" customHeight="1" spans="4:4">
-      <c r="D81" s="20" t="s">
+      <c r="D81" s="42" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="100" t="s">
+      <c r="D82" s="116" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="100" t="s">
+      <c r="D83" s="116" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6080,271 +6672,271 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="45" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="20" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="20" customWidth="1"/>
-    <col min="5" max="7" width="14" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="4.625" style="42" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="42" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="42" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="42" customWidth="1"/>
+    <col min="5" max="7" width="14" style="42" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="2:2">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="42" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="69" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="71" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="49"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
     </row>
     <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="75" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="76" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
     </row>
     <row r="5" customHeight="1" spans="2:7">
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="80"/>
     </row>
     <row r="6" customHeight="1" spans="2:7">
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59" t="s">
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="83"/>
     </row>
     <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="79" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="80"/>
     </row>
     <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="63"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="86"/>
     </row>
     <row r="9" ht="13.5"/>
     <row r="10" ht="13.5"/>
     <row r="11" ht="13.5"/>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25" spans="2:7">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47" t="s">
+      <c r="D13" s="70"/>
+      <c r="E13" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="64" t="s">
+      <c r="G13" s="87" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52" t="s">
+      <c r="D14" s="75"/>
+      <c r="E14" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="75" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="88"/>
     </row>
     <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="78" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56" t="s">
+      <c r="D15" s="79"/>
+      <c r="E15" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="56" t="s">
+      <c r="F15" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="57"/>
+      <c r="G15" s="80"/>
     </row>
     <row r="16" ht="68" customHeight="1" spans="2:7">
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="82" t="s">
         <v>202</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59" t="s">
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="60" t="s">
+      <c r="G16" s="83" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="79" t="s">
         <v>205</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56" t="s">
+      <c r="D17" s="79"/>
+      <c r="E17" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="80" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:7">
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59" t="s">
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82" t="s">
         <v>207</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="G18" s="83" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="19" ht="78" customHeight="1" spans="2:7">
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56" t="s">
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="G19" s="80" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:7">
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="82" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59" t="s">
+      <c r="D20" s="82"/>
+      <c r="E20" s="82" t="s">
         <v>200</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="82" t="s">
         <v>216</v>
       </c>
-      <c r="G20" s="60"/>
+      <c r="G20" s="83"/>
     </row>
     <row r="21" ht="14.25" spans="2:7">
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="68"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
     </row>
     <row r="22" customHeight="1" spans="2:7">
-      <c r="B22" s="69" t="s">
+      <c r="B22" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="93" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="94"/>
     </row>
     <row r="23" ht="13.5" spans="2:7">
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="89" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="68"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
     </row>
     <row r="24" ht="14.25" spans="2:7">
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="63"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -6445,7 +7037,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:C6"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
@@ -6458,35 +7050,36 @@
     <col min="3" max="3" width="48.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:3">
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="64" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="66" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:3">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="66" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:3">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="67" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="68" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6505,7 +7098,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:F20"/>
+  <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -6521,185 +7114,186 @@
     <col min="6" max="6" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
-      <c r="B3" s="27" t="s">
+    <row r="2" ht="14.25"/>
+    <row r="3" ht="14.25" spans="2:6">
+      <c r="B3" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="51" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="4" ht="81" spans="2:6">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="42" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="55"/>
     </row>
     <row r="5" ht="14.25" spans="2:6">
-      <c r="B5" s="33"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="34"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="57"/>
     </row>
     <row r="6" ht="81" spans="2:6">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="59" t="s">
         <v>252</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="61" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:6">
-      <c r="B7" s="33"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="34"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="57"/>
     </row>
     <row r="8" ht="81" spans="2:6">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="62"/>
     </row>
     <row r="9" ht="14.25" spans="2:6">
-      <c r="B9" s="33"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="34"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="57"/>
     </row>
     <row r="10" ht="94.5" spans="2:6">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="62"/>
     </row>
     <row r="11" ht="14.25" spans="2:6">
-      <c r="B11" s="33"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="34"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" ht="40.5" spans="2:6">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="59" t="s">
         <v>263</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" ht="14.25" spans="2:6">
-      <c r="B13" s="33"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" ht="67.5" spans="2:6">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="59" t="s">
         <v>266</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="39"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="62"/>
     </row>
     <row r="15" ht="14.25" spans="2:6">
-      <c r="B15" s="33"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="34"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="52" t="s">
         <v>268</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="9"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="55"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="30"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="52"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="55"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="30"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="55"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="55"/>
     </row>
     <row r="20" ht="14.25" spans="2:6">
-      <c r="B20" s="33"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="34"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6727,7 +7321,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:I7"/>
+  <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -6746,32 +7340,33 @@
     <col min="9" max="9" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9">
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
+    <row r="2" ht="14.25"/>
+    <row r="3" ht="14.25" spans="2:9">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="40" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="40" t="s">
         <v>271</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="40" t="s">
         <v>272</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="46" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="4" ht="27" spans="2:9">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="41" t="s">
         <v>276</v>
       </c>
       <c r="C4" t="s">
@@ -6780,74 +7375,74 @@
       <c r="D4" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="47"/>
     </row>
     <row r="5" ht="81" spans="2:9">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="41" t="s">
         <v>281</v>
       </c>
-      <c r="D5" s="119" t="s">
+      <c r="D5" s="135" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="42" t="s">
         <v>284</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" ht="54" spans="2:9">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="D6" s="119" t="s">
+      <c r="D6" s="135" t="s">
         <v>288</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" ht="68.25" spans="2:9">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="136" t="s">
         <v>294</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="44"/>
+      <c r="H7" s="45" t="s">
         <v>297</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="48" t="s">
         <v>298</v>
       </c>
     </row>

--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="728" activeTab="11"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="728" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -146,6 +146,29 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>123456</author>
+  </authors>
+  <commentList>
+    <comment ref="E25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>https://blog.csdn.net/java_lifeng/article/details/80938123
+https://www.zhihu.com/question/27999759</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>Administrator</author>
     <author>123456</author>
   </authors>
@@ -201,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="388">
   <si>
     <t>timeline</t>
   </si>
@@ -212,7 +235,27 @@
     <t>Java</t>
   </si>
   <si>
-    <t>Java变更</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Java变更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (异常、泛型、集合、多线程、IO、XML、网络编程、JVM)</t>
+    </r>
   </si>
   <si>
     <t>Spring</t>
@@ -2240,13 +2283,16 @@
     <t>集合</t>
   </si>
   <si>
+    <t>JDK</t>
+  </si>
+  <si>
     <t>底层数据结构</t>
   </si>
   <si>
     <t>初始容量</t>
   </si>
   <si>
-    <t>扩容条件</t>
+    <t>扩容条件 (见add()等方法)</t>
   </si>
   <si>
     <t>扩容倍数</t>
@@ -2261,22 +2307,233 @@
     <t>是否有序</t>
   </si>
   <si>
-    <t>是否允许元素重复</t>
+    <t>是否允许重复</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>数组：Object[] elementData;</t>
+  </si>
+  <si>
+    <t>initialCapacity=10，初始容量，默认10。
+capacityIncrement=0，每次扩容个数，默认0。</t>
+  </si>
+  <si>
+    <t>add()方法：
+modCount++;
+若新增后的元素个数 &gt; 数组长度，则扩容。</t>
+  </si>
+  <si>
+    <r>
+      <t>可以扩容capacityIncrement个，若该值未设定，则</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>默认扩容2倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+newCapacity = oldCapacity + ((capacityIncrement &gt; 0) ? capacityIncrement : oldCapacity);
+if (newCapacity - MAX_ARRAY_SIZE &gt; 0)
+    newCapacity = hugeCapacity(minCapacity);</t>
+    </r>
+  </si>
+  <si>
+    <t>Arrays.copyOf()</t>
+  </si>
+  <si>
+    <t>线程安全，synchronized方法</t>
+  </si>
+  <si>
+    <t>有序</t>
+  </si>
+  <si>
+    <t>允许重复</t>
+  </si>
+  <si>
+    <t>Stack 
+继承Vector</t>
+  </si>
+  <si>
+    <t>stack有push()\pop()\peek()\empty()\search()方法。
+继承了vector的add()\remove()\get()\set()方法。</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>双向链表，节点元素如下：
+private static class Node&lt;E&gt; {Node next; Node prev;}</t>
+  </si>
+  <si>
+    <t>没有初始化大小，也没有扩容的机制。</t>
+  </si>
+  <si>
+    <t>add()方法：
+modCount++;</t>
+  </si>
+  <si>
+    <t>非线程安全</t>
   </si>
   <si>
     <t>ArrayList</t>
   </si>
   <si>
-    <t>数组</t>
-  </si>
-  <si>
-    <t>默认的initialCapacity为10</t>
-  </si>
-  <si>
-    <t>扩容1.5倍</t>
-  </si>
-  <si>
-    <t>Arrays.copyOf</t>
+    <t>初始容量0。
+首次调用add()方法时,容量初始化为10：minCapacity = Math.max(DEFAULT_CAPACITY, minCapacity); DEFAULT_CAPACITY=10。</t>
+  </si>
+  <si>
+    <t>add()方法：
+modCount++;
+若 元素个数 &gt; 数组长度，则扩容。</t>
+  </si>
+  <si>
+    <r>
+      <t>扩容1.5倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+newCapacity = oldCapacity + (oldCapacity &gt;&gt; 1);
+if (newCapacity - MAX_ARRAY_SIZE &gt; 0)
+            newCapacity = hugeCapacity(minCapacity);</t>
+    </r>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t>内部用HashMap存储数据：
+HashMap&lt;E,Object&gt; map;</t>
+  </si>
+  <si>
+    <t>add()方法：
+map.put(e, PRESENT)==null;    //PRESENT=new Object();</t>
+  </si>
+  <si>
+    <t>无序</t>
+  </si>
+  <si>
+    <t>不允许重复</t>
+  </si>
+  <si>
+    <t>TreeSet</t>
+  </si>
+  <si>
+    <t>内部用NavigableMap存储数据：
+NavigableMap&lt;E,Object&gt; m;</t>
+  </si>
+  <si>
+    <t>Hashtable</t>
+  </si>
+  <si>
+    <t>链表数组：
+class Entry&lt;K,V&gt; implements Map.Entry&lt;K,V&gt; { }</t>
+  </si>
+  <si>
+    <t>initialCapacity=11;初始容量11。
+loadFactor=0.75f;加载因子0.75。
+threshold=Math.min(initialCapacity * loadFactor, MAX_ARRAY_SIZE + 1);阈值8。</t>
+  </si>
+  <si>
+    <t>put()方法：
+先判断key是否存在，若存在，则返回。否则添加到集合。
+addEntry()方法：
+modCount++;
+若 count &gt;= threshold，则扩容 rehash()。</t>
+  </si>
+  <si>
+    <t>rehash()方法：
+扩容2倍再加1：newCapacity = (oldCapacity &lt;&lt; 1) + 1;
+modCount++;
+threshold = (int)Math.min(newCapacity * loadFactor, MAX_ARRAY_SIZE + 1);
+再重新计算老元素的hash。</t>
+  </si>
+  <si>
+    <t>rehash()</t>
+  </si>
+  <si>
+    <t>线程安全，synchronized方法。
+key、value都不能为null。</t>
+  </si>
+  <si>
+    <t>Properties
+继承Hashtable</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>链表数组：
+class Node&lt;K,V&gt; implements Map.Entry&lt;K,V&gt;{ }</t>
+  </si>
+  <si>
+    <t>loadFactor = DEFAULT_LOAD_FACTOR = 0.75f，加载因子0.75。
+threshold = 12 = 16*0.75f，阈值，超出则扩容。
+DEFAULT_INITIAL_CAPACITY=1&lt;&lt;4，创建长度为16的对象数组。
+tableSizeFor()方法，
+首次调用put()方法，会调用resize()方法。
+newCap = DEFAULT_INITIAL_CAPACITY;
+newThr = (int)(DEFAULT_LOAD_FACTOR * DEFAULT_INITIAL_CAPACITY);</t>
+  </si>
+  <si>
+    <t>put()方法：
+TREEIFY_THRESHOLD=8，树化阈值。若某个链表的长度&gt;8，则树化。
+若 元素个数&gt;threshold，则扩容 resize()。</t>
+  </si>
+  <si>
+    <t>resize()方法：
+size&gt;=threshod时，需扩容。扩容2倍。扩容较繁琐，需要对当前对象数组中的元素重新hash，并填充数组，最后重新设置threshold值。</t>
+  </si>
+  <si>
+    <t>resize()方法：
+newCap = oldCap &lt;&lt; 1
+newThr = oldThr &lt;&lt; 1
+重新计算Hash。</t>
+  </si>
+  <si>
+    <t>非线程安全。
+key、value均可为null。HashMap中只有一条记录可以是一个空的key，但任意数量的条目可以是空的value。</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
+  </si>
+  <si>
+    <t>内部有Comparator comparator属性，
+默认为null。</t>
+  </si>
+  <si>
+    <t>MAX_ARRAY_SIZE = Integer.MAX_VALUE - 8
+ArrayList最大容量为什么是Integer.MAX_VALUE-8？
+PS：数组作为一个对象，需要一定的内存存储对象头信息，对象头信息最大占用内存不可超过8字节。</t>
+  </si>
+  <si>
+    <t>集合中都有一个modCount字段，表示修改次数。
+在快速失败(fail-fast)机制中会用到。</t>
+  </si>
+  <si>
+    <t>MAX_ARRAY_SIZE = Integer.MAX_VALUE - 8</t>
   </si>
   <si>
     <t>https://spring.io/</t>
@@ -2668,10 +2925,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2729,6 +2986,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2736,17 +3001,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2754,7 +3010,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2775,37 +3046,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2819,23 +3070,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2850,7 +3085,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2865,12 +3122,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2909,7 +3166,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2921,13 +3202,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2939,19 +3310,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2969,103 +3328,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3077,24 +3346,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -3559,6 +3816,129 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="4"/>
       </left>
@@ -3591,32 +3971,6 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3661,51 +4015,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3713,30 +4022,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3765,6 +4050,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3776,6 +4070,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3811,10 +4120,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3823,19 +4132,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3844,116 +4153,116 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4011,12 +4320,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4026,12 +4329,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4044,9 +4341,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4059,9 +4353,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -4161,31 +4452,118 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4197,55 +4575,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4257,13 +4635,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4275,22 +4653,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4308,25 +4686,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4547,6 +4925,53 @@
         <a:xfrm>
           <a:off x="13039725" y="3695700"/>
           <a:ext cx="5895975" cy="5676900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1363980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>916940</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11163300" y="11029950"/>
+          <a:ext cx="4765040" cy="1713865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4822,552 +5247,552 @@
   <sheetPr/>
   <dimension ref="B1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="117" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="117" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="117" customWidth="1"/>
-    <col min="4" max="4" width="76.125" style="117" customWidth="1"/>
-    <col min="5" max="5" width="26" style="117" customWidth="1"/>
-    <col min="6" max="6" width="59" style="117" customWidth="1"/>
-    <col min="7" max="16384" width="12.75" style="117" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="140" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="140" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="140" customWidth="1"/>
+    <col min="4" max="4" width="76.125" style="140" customWidth="1"/>
+    <col min="5" max="5" width="26" style="140" customWidth="1"/>
+    <col min="6" max="6" width="59" style="140" customWidth="1"/>
+    <col min="7" max="16384" width="12.75" style="140" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="140" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="92"/>
-      <c r="C3" s="118" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="142" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:6">
-      <c r="B4" s="120">
+      <c r="B4" s="143">
         <v>33329</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="88"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="111"/>
     </row>
     <row r="5" ht="40.5" spans="2:6">
-      <c r="B5" s="121">
+      <c r="B5" s="144">
         <v>34820</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="103"/>
     </row>
     <row r="6" ht="27" spans="2:6">
-      <c r="B6" s="122">
+      <c r="B6" s="145">
         <v>35065</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="83"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="106"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="121">
+      <c r="B7" s="144">
         <v>35462</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="80"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
     </row>
     <row r="8" ht="54" spans="2:6">
-      <c r="B8" s="122">
+      <c r="B8" s="145">
         <v>36130</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="83"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="106"/>
     </row>
     <row r="9" ht="27" spans="2:6">
-      <c r="B9" s="121">
+      <c r="B9" s="144">
         <v>36647</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="80"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="103"/>
     </row>
     <row r="10" ht="40.5" spans="2:6">
-      <c r="B10" s="122">
+      <c r="B10" s="145">
         <v>37288</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="82" t="s">
+      <c r="E10" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="83"/>
+      <c r="F10" s="106"/>
     </row>
     <row r="11" ht="40.5" spans="2:6">
-      <c r="B11" s="121"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79" t="s">
+      <c r="B11" s="144"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="80" t="s">
+      <c r="F11" s="103" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:6">
-      <c r="B12" s="122">
+      <c r="B12" s="145">
         <v>38231</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="82"/>
-      <c r="F12" s="83"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="106"/>
     </row>
     <row r="13" ht="54" spans="2:6">
-      <c r="B13" s="121"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79" t="s">
+      <c r="B13" s="144"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="80" t="s">
+      <c r="F13" s="103" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="2:9">
-      <c r="B14" s="122">
+      <c r="B14" s="145">
         <v>39052</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="82"/>
-      <c r="F14" s="83"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="106"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="78"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79" t="s">
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" ht="40.5" spans="2:9">
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82" t="s">
+      <c r="B16" s="104"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="83" t="s">
+      <c r="F16" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" ht="54" spans="2:9">
-      <c r="B17" s="121">
+      <c r="B17" s="144">
         <v>40725</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="80"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" ht="108" spans="2:9">
-      <c r="B18" s="122">
+      <c r="B18" s="145">
         <v>41699</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="D18" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="82"/>
-      <c r="F18" s="83"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="106"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" ht="40.5" spans="2:6">
-      <c r="B19" s="121"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79" t="s">
+      <c r="B19" s="144"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="80" t="s">
+      <c r="F19" s="103" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="122">
+      <c r="B20" s="145">
         <v>42979</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82" t="s">
+      <c r="D20" s="105"/>
+      <c r="E20" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="83"/>
+      <c r="F20" s="106"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="121">
+      <c r="B21" s="144">
         <v>43160</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="79" t="s">
+      <c r="D21" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="79"/>
-      <c r="F21" s="80"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="103"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="122">
+      <c r="B22" s="145">
         <v>43344</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="83"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="106"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="121">
+      <c r="B23" s="144">
         <v>43525</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="80"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="103"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="122">
+      <c r="B24" s="145">
         <v>43709</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="83"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="106"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="121">
+      <c r="B25" s="144">
         <v>43891</v>
       </c>
-      <c r="C25" s="79" t="s">
+      <c r="C25" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="91"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="122">
+      <c r="B26" s="145">
         <v>44075</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="83"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="106"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="123"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="91"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="114"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="81"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="83"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="105"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="106"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="123"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="91"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="113"/>
+      <c r="D29" s="113"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="114"/>
     </row>
     <row r="30" ht="14.25" spans="2:6">
-      <c r="B30" s="124"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="109"/>
     </row>
     <row r="49" ht="14.25"/>
     <row r="50" ht="14.25" spans="2:4">
-      <c r="B50" s="125"/>
-      <c r="C50" s="126" t="s">
+      <c r="B50" s="148"/>
+      <c r="C50" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="127" t="s">
+      <c r="D50" s="150" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="51" ht="24" spans="2:4">
-      <c r="B51" s="128">
+      <c r="B51" s="151">
         <v>33329</v>
       </c>
-      <c r="C51" s="129" t="s">
+      <c r="C51" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="130"/>
+      <c r="D51" s="153"/>
     </row>
     <row r="52" ht="24" spans="2:4">
-      <c r="B52" s="128">
+      <c r="B52" s="151">
         <v>34820</v>
       </c>
-      <c r="C52" s="129" t="s">
+      <c r="C52" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="130"/>
+      <c r="D52" s="153"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="128">
+      <c r="B53" s="151">
         <v>35065</v>
       </c>
-      <c r="C53" s="129" t="s">
+      <c r="C53" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="130"/>
+      <c r="D53" s="153"/>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="128">
+      <c r="B54" s="151">
         <v>35462</v>
       </c>
-      <c r="C54" s="129" t="s">
+      <c r="C54" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="130"/>
+      <c r="D54" s="153"/>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="128">
+      <c r="B55" s="151">
         <v>36130</v>
       </c>
-      <c r="C55" s="129" t="s">
+      <c r="C55" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="130"/>
+      <c r="D55" s="153"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="128">
+      <c r="B56" s="151">
         <v>36647</v>
       </c>
-      <c r="C56" s="129" t="s">
+      <c r="C56" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="D56" s="130"/>
+      <c r="D56" s="153"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="128">
+      <c r="B57" s="151">
         <v>37288</v>
       </c>
-      <c r="C57" s="129" t="s">
+      <c r="C57" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="130" t="s">
+      <c r="D57" s="153" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="128"/>
-      <c r="C58" s="129"/>
-      <c r="D58" s="130" t="s">
+      <c r="B58" s="151"/>
+      <c r="C58" s="152"/>
+      <c r="D58" s="153" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="128">
+      <c r="B59" s="151">
         <v>38231</v>
       </c>
-      <c r="C59" s="129" t="s">
+      <c r="C59" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="130"/>
+      <c r="D59" s="153"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="128"/>
-      <c r="C60" s="129"/>
-      <c r="D60" s="130" t="s">
+      <c r="B60" s="151"/>
+      <c r="C60" s="152"/>
+      <c r="D60" s="153" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="128">
+      <c r="B61" s="151">
         <v>39052</v>
       </c>
-      <c r="C61" s="129" t="s">
+      <c r="C61" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="130"/>
+      <c r="D61" s="153"/>
     </row>
     <row r="62" spans="2:4">
-      <c r="B62" s="131"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="130" t="s">
+      <c r="B62" s="154"/>
+      <c r="C62" s="152"/>
+      <c r="D62" s="153" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="63" spans="2:4">
-      <c r="B63" s="131"/>
-      <c r="C63" s="129"/>
-      <c r="D63" s="130" t="s">
+      <c r="B63" s="154"/>
+      <c r="C63" s="152"/>
+      <c r="D63" s="153" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="64" spans="2:4">
-      <c r="B64" s="128">
+      <c r="B64" s="151">
         <v>40725</v>
       </c>
-      <c r="C64" s="129" t="s">
+      <c r="C64" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="130"/>
+      <c r="D64" s="153"/>
     </row>
     <row r="65" spans="2:4">
-      <c r="B65" s="128">
+      <c r="B65" s="151">
         <v>41699</v>
       </c>
-      <c r="C65" s="129" t="s">
+      <c r="C65" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D65" s="130"/>
+      <c r="D65" s="153"/>
     </row>
     <row r="66" spans="2:4">
-      <c r="B66" s="128"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="130" t="s">
+      <c r="B66" s="151"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="153" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="67" spans="2:4">
-      <c r="B67" s="128">
+      <c r="B67" s="151">
         <v>42979</v>
       </c>
-      <c r="C67" s="129" t="s">
+      <c r="C67" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D67" s="130" t="s">
+      <c r="D67" s="153" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="68" spans="2:4">
-      <c r="B68" s="128">
+      <c r="B68" s="151">
         <v>43160</v>
       </c>
-      <c r="C68" s="129" t="s">
+      <c r="C68" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="D68" s="130"/>
+      <c r="D68" s="153"/>
     </row>
     <row r="69" spans="2:4">
-      <c r="B69" s="128">
+      <c r="B69" s="151">
         <v>43344</v>
       </c>
-      <c r="C69" s="129" t="s">
+      <c r="C69" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="130"/>
+      <c r="D69" s="153"/>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="128">
+      <c r="B70" s="151">
         <v>43525</v>
       </c>
-      <c r="C70" s="129" t="s">
+      <c r="C70" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="130"/>
+      <c r="D70" s="153"/>
     </row>
     <row r="71" ht="14.25" spans="2:4">
-      <c r="B71" s="132">
+      <c r="B71" s="155">
         <v>43709</v>
       </c>
-      <c r="C71" s="133" t="s">
+      <c r="C71" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="134"/>
+      <c r="D71" s="157"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:F3">
@@ -5379,7 +5804,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c24cac6f-0bae-4e54-b2f6-840eb46b081e}</x14:id>
+          <x14:id>{a9e1f8fe-dc2b-42af-ba29-43c1b0a539c4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5393,7 +5818,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dbaa2239-f54e-47bb-b8a1-e2a749f6e3f9}</x14:id>
+          <x14:id>{f02f0847-29b1-4ece-9baa-f118cd0edd5e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5407,7 +5832,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{c3581637-5788-4d9a-8931-611155c08f23}</x14:id>
+          <x14:id>{5073575b-8018-4bda-8ead-9fec2e31f3d2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5421,7 +5846,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fb8b58a2-67c4-4bb7-8f03-25afe3189c14}</x14:id>
+          <x14:id>{33e54379-f665-47c2-9f8d-ae89c3b622fb}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5435,7 +5860,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{832a72bb-6c17-474d-9e61-8dd69b33fb10}</x14:id>
+          <x14:id>{132f1301-ef46-4132-8168-2414f6f779d1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5449,7 +5874,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{046336eb-511f-4298-b030-c5cf5e8d4208}</x14:id>
+          <x14:id>{776393ae-1c6e-490b-9925-f51d7d09dbdc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5463,7 +5888,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b60b868f-a814-4761-be32-17b604b7c0c0}</x14:id>
+          <x14:id>{7bcf2c50-c10d-41bd-896a-2c68e75f2e89}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5477,7 +5902,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6ebaee38-0a09-4cd1-b1bb-2bb9254626fa}</x14:id>
+          <x14:id>{3d1fbf83-736a-4cee-95f0-c20296344cfc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5489,7 +5914,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c24cac6f-0bae-4e54-b2f6-840eb46b081e}">
+          <x14:cfRule type="dataBar" id="{a9e1f8fe-dc2b-42af-ba29-43c1b0a539c4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5500,7 +5925,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dbaa2239-f54e-47bb-b8a1-e2a749f6e3f9}">
+          <x14:cfRule type="dataBar" id="{f02f0847-29b1-4ece-9baa-f118cd0edd5e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5511,7 +5936,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{c3581637-5788-4d9a-8931-611155c08f23}">
+          <x14:cfRule type="dataBar" id="{5073575b-8018-4bda-8ead-9fec2e31f3d2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5522,7 +5947,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fb8b58a2-67c4-4bb7-8f03-25afe3189c14}">
+          <x14:cfRule type="dataBar" id="{33e54379-f665-47c2-9f8d-ae89c3b622fb}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5533,7 +5958,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{832a72bb-6c17-474d-9e61-8dd69b33fb10}">
+          <x14:cfRule type="dataBar" id="{132f1301-ef46-4132-8168-2414f6f779d1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5544,7 +5969,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{046336eb-511f-4298-b030-c5cf5e8d4208}">
+          <x14:cfRule type="dataBar" id="{776393ae-1c6e-490b-9925-f51d7d09dbdc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5555,7 +5980,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b60b868f-a814-4761-be32-17b604b7c0c0}">
+          <x14:cfRule type="dataBar" id="{7bcf2c50-c10d-41bd-896a-2c68e75f2e89}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5566,7 +5991,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6ebaee38-0a09-4cd1-b1bb-2bb9254626fa}">
+          <x14:cfRule type="dataBar" id="{3d1fbf83-736a-4cee-95f0-c20296344cfc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5601,7 +6026,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:F8"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
@@ -5617,90 +6042,91 @@
     <col min="6" max="6" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:6">
       <c r="B3" s="15" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="18"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="28"/>
+      <c r="B5" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>309</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="F6" s="33" t="s">
-        <v>311</v>
+      <c r="B6" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>313</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>314</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>315</v>
+      <c r="B7" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:6">
-      <c r="B8" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37" t="s">
-        <v>318</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>319</v>
+      <c r="B8" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31" t="s">
+        <v>361</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5712,9 +6138,9 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:E12"/>
+  <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -5727,132 +6153,133 @@
     <col min="5" max="5" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:5">
       <c r="B3" s="1" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:5">
       <c r="B4" s="4" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:5">
       <c r="B5" s="4"/>
       <c r="C5" s="7" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:5">
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:5">
       <c r="B7" s="4"/>
       <c r="C7" s="7" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="4"/>
       <c r="C8" s="9" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="11" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>338</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="11"/>
       <c r="C10" s="9" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>340</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="11" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>343</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:5">
       <c r="B12" s="12"/>
       <c r="C12" s="13" t="s">
-        <v>342</v>
+        <v>385</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>344</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -5875,763 +6302,763 @@
   <sheetPr/>
   <dimension ref="B1:D83"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="31" style="42" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="42" customWidth="1"/>
-    <col min="4" max="4" width="114.625" style="42" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="42" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="42"/>
+    <col min="1" max="1" width="4.625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="31" style="36" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="36" customWidth="1"/>
+    <col min="4" max="4" width="114.625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="36" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="36" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1"/>
     <row r="3" ht="20" customHeight="1" spans="2:4">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="92" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="110" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:4">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="118" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="D4" s="120" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:4">
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="121" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="123" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:4">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="101" t="s">
+      <c r="C6" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="125" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:4">
-      <c r="B7" s="81"/>
-      <c r="C7" s="99" t="s">
+      <c r="B7" s="104"/>
+      <c r="C7" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="D7" s="123" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:4">
-      <c r="B8" s="81"/>
-      <c r="C8" s="101" t="s">
+      <c r="B8" s="104"/>
+      <c r="C8" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="125" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:4">
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="99" t="s">
+      <c r="C9" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="123" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:4">
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="125" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:4">
-      <c r="B11" s="103"/>
-      <c r="C11" s="79" t="s">
+      <c r="B11" s="126"/>
+      <c r="C11" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="123" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:4">
-      <c r="B12" s="103"/>
-      <c r="C12" s="82" t="s">
+      <c r="B12" s="126"/>
+      <c r="C12" s="105" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="125" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="100" t="s">
+      <c r="D13" s="123" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" s="42" customFormat="1" ht="27" spans="2:4">
-      <c r="B14" s="104"/>
-      <c r="C14" s="101" t="s">
+    <row r="14" s="36" customFormat="1" ht="27" spans="2:4">
+      <c r="B14" s="127"/>
+      <c r="C14" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="125" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="104"/>
-      <c r="C15" s="99" t="s">
+      <c r="B15" s="127"/>
+      <c r="C15" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="100" t="s">
+      <c r="D15" s="123" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:4">
-      <c r="B16" s="104"/>
-      <c r="C16" s="101" t="s">
+      <c r="B16" s="127"/>
+      <c r="C16" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="125" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:4">
-      <c r="B17" s="104"/>
-      <c r="C17" s="99" t="s">
+      <c r="B17" s="127"/>
+      <c r="C17" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="100" t="s">
+      <c r="D17" s="123" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:4">
-      <c r="B18" s="104"/>
-      <c r="C18" s="101" t="s">
+      <c r="B18" s="127"/>
+      <c r="C18" s="124" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="125" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:4">
-      <c r="B19" s="104"/>
-      <c r="C19" s="99" t="s">
+      <c r="B19" s="127"/>
+      <c r="C19" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="105" t="s">
+      <c r="D19" s="128" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:4">
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="126" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="102" t="s">
+      <c r="D20" s="125" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:4">
-      <c r="B21" s="103"/>
-      <c r="C21" s="99" t="s">
+      <c r="B21" s="126"/>
+      <c r="C21" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="100" t="s">
+      <c r="D21" s="123" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="104" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="101" t="s">
+      <c r="C22" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="125" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="81"/>
-      <c r="C23" s="99" t="s">
+      <c r="B23" s="104"/>
+      <c r="C23" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="123" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="125" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="81"/>
-      <c r="C25" s="99" t="s">
+      <c r="B25" s="104"/>
+      <c r="C25" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="105" t="s">
+      <c r="D25" s="128" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="81"/>
-      <c r="C26" s="101" t="s">
+      <c r="B26" s="104"/>
+      <c r="C26" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="125" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="81"/>
-      <c r="C27" s="99" t="s">
+      <c r="B27" s="104"/>
+      <c r="C27" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="100" t="s">
+      <c r="D27" s="123" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="104" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="125" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="81"/>
-      <c r="C29" s="99" t="s">
+      <c r="B29" s="104"/>
+      <c r="C29" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="100" t="s">
+      <c r="D29" s="123" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="81"/>
-      <c r="C30" s="101" t="s">
+      <c r="B30" s="104"/>
+      <c r="C30" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="102" t="s">
+      <c r="D30" s="125" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="2:4">
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="127" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="123" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1" spans="2:4">
-      <c r="B32" s="104"/>
-      <c r="C32" s="101" t="s">
+      <c r="B32" s="127"/>
+      <c r="C32" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="102" t="s">
+      <c r="D32" s="125" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="2:4">
-      <c r="B33" s="104"/>
-      <c r="C33" s="99" t="s">
+      <c r="B33" s="127"/>
+      <c r="C33" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="100" t="s">
+      <c r="D33" s="123" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="2:4">
-      <c r="B34" s="104"/>
-      <c r="C34" s="101" t="s">
+      <c r="B34" s="127"/>
+      <c r="C34" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="102" t="s">
+      <c r="D34" s="125" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="2:4">
-      <c r="B35" s="104"/>
-      <c r="C35" s="99" t="s">
+      <c r="B35" s="127"/>
+      <c r="C35" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="100" t="s">
+      <c r="D35" s="123" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="2:4">
-      <c r="B36" s="104"/>
-      <c r="C36" s="101" t="s">
+      <c r="B36" s="127"/>
+      <c r="C36" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="102" t="s">
+      <c r="D36" s="125" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:4">
-      <c r="B37" s="106" t="s">
+      <c r="B37" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="99" t="s">
+      <c r="C37" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="100" t="s">
+      <c r="D37" s="123" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" s="42" customFormat="1" ht="27" spans="2:4">
-      <c r="B38" s="103" t="s">
+    <row r="38" s="36" customFormat="1" ht="27" spans="2:4">
+      <c r="B38" s="126" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="101" t="s">
+      <c r="C38" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="107" t="s">
+      <c r="D38" s="130" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" s="42" customFormat="1" ht="27" spans="2:4">
-      <c r="B39" s="103"/>
-      <c r="C39" s="99" t="s">
+    <row r="39" s="36" customFormat="1" ht="27" spans="2:4">
+      <c r="B39" s="126"/>
+      <c r="C39" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="100" t="s">
+      <c r="D39" s="123" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" s="42" customFormat="1" ht="20" customHeight="1" spans="2:4">
-      <c r="B40" s="108" t="s">
+    <row r="40" s="36" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B40" s="131" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="101" t="s">
+      <c r="C40" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="102" t="s">
+      <c r="D40" s="125" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="2:4">
-      <c r="B41" s="106" t="s">
+      <c r="B41" s="129" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="99" t="s">
+      <c r="C41" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="100" t="s">
+      <c r="D41" s="123" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1" spans="2:4">
-      <c r="B42" s="108" t="s">
+      <c r="B42" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="101" t="s">
+      <c r="C42" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="102" t="s">
+      <c r="D42" s="125" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="2:4">
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="99" t="s">
+      <c r="C43" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="100" t="s">
+      <c r="D43" s="123" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44" ht="27" spans="2:4">
-      <c r="B44" s="108" t="s">
+      <c r="B44" s="131" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="101" t="s">
+      <c r="C44" s="124" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="102" t="s">
+      <c r="D44" s="125" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" spans="2:4">
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="121" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="99" t="s">
+      <c r="C45" s="122" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="100" t="s">
+      <c r="D45" s="123" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="2:4">
-      <c r="B46" s="108" t="s">
+      <c r="B46" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="102" t="s">
+      <c r="D46" s="125" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47" s="42" customFormat="1" ht="20" customHeight="1" spans="2:4">
-      <c r="B47" s="98" t="s">
+    <row r="47" s="36" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B47" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="99" t="s">
+      <c r="C47" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="100" t="s">
+      <c r="D47" s="123" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48" ht="27" spans="2:4">
-      <c r="B48" s="103" t="s">
+      <c r="B48" s="126" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="101" t="s">
+      <c r="C48" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="107" t="s">
+      <c r="D48" s="130" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1" spans="2:4">
-      <c r="B49" s="103"/>
-      <c r="C49" s="99" t="s">
+      <c r="B49" s="126"/>
+      <c r="C49" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="105" t="s">
+      <c r="D49" s="128" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" ht="27" spans="2:4">
-      <c r="B50" s="103"/>
-      <c r="C50" s="101" t="s">
+      <c r="B50" s="126"/>
+      <c r="C50" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="102" t="s">
+      <c r="D50" s="125" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="2:4">
-      <c r="B51" s="103"/>
-      <c r="C51" s="99" t="s">
+      <c r="B51" s="126"/>
+      <c r="C51" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="100" t="s">
+      <c r="D51" s="123" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="2:4">
-      <c r="B52" s="103"/>
-      <c r="C52" s="101" t="s">
+      <c r="B52" s="126"/>
+      <c r="C52" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="102" t="s">
+      <c r="D52" s="125" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="2:4">
-      <c r="B53" s="103"/>
-      <c r="C53" s="99" t="s">
+      <c r="B53" s="126"/>
+      <c r="C53" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="100" t="s">
+      <c r="D53" s="123" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="2:4">
-      <c r="B54" s="103"/>
-      <c r="C54" s="101" t="s">
+      <c r="B54" s="126"/>
+      <c r="C54" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="102" t="s">
+      <c r="D54" s="125" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="2:4">
-      <c r="B55" s="103"/>
-      <c r="C55" s="99" t="s">
+      <c r="B55" s="126"/>
+      <c r="C55" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="100" t="s">
+      <c r="D55" s="123" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="2:4">
-      <c r="B56" s="103"/>
-      <c r="C56" s="101" t="s">
+      <c r="B56" s="126"/>
+      <c r="C56" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="102" t="s">
+      <c r="D56" s="125" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="57" ht="40.5" spans="2:4">
-      <c r="B57" s="104" t="s">
+      <c r="B57" s="127" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="99" t="s">
+      <c r="C57" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="100" t="s">
+      <c r="D57" s="123" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="104"/>
-      <c r="C58" s="101" t="s">
+      <c r="B58" s="127"/>
+      <c r="C58" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="102" t="s">
+      <c r="D58" s="125" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="59" ht="27" spans="2:4">
-      <c r="B59" s="104"/>
-      <c r="C59" s="99" t="s">
+      <c r="B59" s="127"/>
+      <c r="C59" s="122" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="100" t="s">
+      <c r="D59" s="123" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="104"/>
-      <c r="C60" s="101" t="s">
+      <c r="B60" s="127"/>
+      <c r="C60" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="107" t="s">
+      <c r="D60" s="130" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="61" s="42" customFormat="1" spans="2:4">
-      <c r="B61" s="106" t="s">
+    <row r="61" s="36" customFormat="1" spans="2:4">
+      <c r="B61" s="129" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="99" t="s">
+      <c r="C61" s="122" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="100" t="s">
+      <c r="D61" s="123" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="62" s="42" customFormat="1" spans="2:4">
-      <c r="B62" s="103" t="s">
+    <row r="62" s="36" customFormat="1" spans="2:4">
+      <c r="B62" s="126" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="101" t="s">
+      <c r="C62" s="124" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="102" t="s">
+      <c r="D62" s="125" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="63" s="42" customFormat="1" spans="2:4">
-      <c r="B63" s="103"/>
-      <c r="C63" s="99" t="s">
+    <row r="63" s="36" customFormat="1" spans="2:4">
+      <c r="B63" s="126"/>
+      <c r="C63" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="100" t="s">
+      <c r="D63" s="123" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:4">
-      <c r="B64" s="109" t="s">
+      <c r="B64" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="C64" s="101" t="s">
+      <c r="C64" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="102" t="s">
+      <c r="D64" s="125" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="2:4">
-      <c r="B65" s="98" t="s">
+      <c r="B65" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C65" s="99" t="s">
+      <c r="C65" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="100" t="s">
+      <c r="D65" s="123" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="2:4">
-      <c r="B66" s="108" t="s">
+      <c r="B66" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="101" t="s">
+      <c r="C66" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="102" t="s">
+      <c r="D66" s="125" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="2:4">
-      <c r="B67" s="98" t="s">
+      <c r="B67" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="C67" s="99" t="s">
+      <c r="C67" s="122" t="s">
         <v>64</v>
       </c>
-      <c r="D67" s="100" t="s">
+      <c r="D67" s="123" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1" spans="2:4">
-      <c r="B68" s="108" t="s">
+      <c r="B68" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="101" t="s">
+      <c r="C68" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="102" t="s">
+      <c r="D68" s="125" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1" spans="2:4">
-      <c r="B69" s="106" t="s">
+      <c r="B69" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="99" t="s">
+      <c r="C69" s="122" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="100" t="s">
+      <c r="D69" s="123" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="70" ht="27.75" spans="2:4">
-      <c r="B70" s="110" t="s">
+      <c r="B70" s="133" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="111" t="s">
+      <c r="C70" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="112" t="s">
+      <c r="D70" s="135" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="72" ht="14.25"/>
     <row r="73" ht="14.25" spans="2:4">
-      <c r="B73" s="113" t="s">
+      <c r="B73" s="136" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="114"/>
-      <c r="D73" s="115"/>
+      <c r="C73" s="137"/>
+      <c r="D73" s="138"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="95" t="s">
+      <c r="B74" s="118" t="s">
         <v>165</v>
       </c>
-      <c r="C74" s="96"/>
-      <c r="D74" s="97"/>
+      <c r="C74" s="119"/>
+      <c r="D74" s="120"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="98" t="s">
+      <c r="B75" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="C75" s="99"/>
-      <c r="D75" s="100" t="s">
+      <c r="C75" s="122"/>
+      <c r="D75" s="123" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="108" t="s">
+      <c r="B76" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="C76" s="101"/>
-      <c r="D76" s="102"/>
+      <c r="C76" s="124"/>
+      <c r="D76" s="125"/>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="106" t="s">
+      <c r="B77" s="129" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="99"/>
-      <c r="D77" s="100" t="s">
+      <c r="C77" s="122"/>
+      <c r="D77" s="123" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="2:4">
-      <c r="B78" s="110" t="s">
+      <c r="B78" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="111"/>
-      <c r="D78" s="112"/>
+      <c r="C78" s="134"/>
+      <c r="D78" s="135"/>
     </row>
     <row r="81" ht="16" customHeight="1" spans="4:4">
-      <c r="D81" s="42" t="s">
+      <c r="D81" s="36" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="116" t="s">
+      <c r="D82" s="139" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="116" t="s">
+      <c r="D83" s="139" t="s">
         <v>174</v>
       </c>
     </row>
@@ -6672,271 +7099,271 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="45" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="42" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="42" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="42" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="42" customWidth="1"/>
-    <col min="5" max="7" width="14" style="42" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="42"/>
+    <col min="1" max="1" width="4.625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="36" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="36" customWidth="1"/>
+    <col min="5" max="7" width="14" style="36" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="2:2">
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="36" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="93" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="94" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="96"/>
     </row>
     <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="97" t="s">
         <v>180</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="76" t="s">
+      <c r="D4" s="98"/>
+      <c r="E4" s="99" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
     </row>
     <row r="5" customHeight="1" spans="2:7">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="101" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="102" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="102" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="79" t="s">
+      <c r="E5" s="102" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="79"/>
-      <c r="G5" s="80"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="103"/>
     </row>
     <row r="6" customHeight="1" spans="2:7">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="104" t="s">
         <v>187</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82" t="s">
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="83"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
     </row>
     <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="101" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
     </row>
     <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="86"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
     </row>
     <row r="9" ht="13.5"/>
     <row r="10" ht="13.5"/>
     <row r="11" ht="13.5"/>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25" spans="2:7">
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="92" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="70" t="s">
+      <c r="C13" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="D13" s="93"/>
+      <c r="E13" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="93" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="87" t="s">
+      <c r="G13" s="110" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75" t="s">
+      <c r="D14" s="98"/>
+      <c r="E14" s="98" t="s">
         <v>196</v>
       </c>
-      <c r="F14" s="75" t="s">
+      <c r="F14" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="G14" s="88"/>
+      <c r="G14" s="111"/>
     </row>
     <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="101" t="s">
         <v>198</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79" t="s">
+      <c r="D15" s="102"/>
+      <c r="E15" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="102" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="80"/>
+      <c r="G15" s="103"/>
     </row>
     <row r="16" ht="68" customHeight="1" spans="2:7">
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="105" t="s">
         <v>202</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82" t="s">
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105" t="s">
         <v>197</v>
       </c>
-      <c r="G16" s="83" t="s">
+      <c r="G16" s="106" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="101" t="s">
         <v>204</v>
       </c>
-      <c r="C17" s="79" t="s">
+      <c r="C17" s="102" t="s">
         <v>205</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79" t="s">
+      <c r="D17" s="102"/>
+      <c r="E17" s="102" t="s">
         <v>206</v>
       </c>
-      <c r="F17" s="79" t="s">
+      <c r="F17" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="G17" s="80" t="s">
+      <c r="G17" s="103" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:7">
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="105" t="s">
         <v>210</v>
       </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82" t="s">
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105" t="s">
         <v>207</v>
       </c>
-      <c r="G18" s="83" t="s">
+      <c r="G18" s="106" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="19" ht="78" customHeight="1" spans="2:7">
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="101" t="s">
         <v>211</v>
       </c>
-      <c r="C19" s="79" t="s">
+      <c r="C19" s="102" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79" t="s">
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102" t="s">
         <v>207</v>
       </c>
-      <c r="G19" s="80" t="s">
+      <c r="G19" s="103" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:7">
-      <c r="B20" s="81" t="s">
+      <c r="B20" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="C20" s="82" t="s">
+      <c r="C20" s="105" t="s">
         <v>215</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82" t="s">
+      <c r="D20" s="105"/>
+      <c r="E20" s="105" t="s">
         <v>200</v>
       </c>
-      <c r="F20" s="82" t="s">
+      <c r="F20" s="105" t="s">
         <v>216</v>
       </c>
-      <c r="G20" s="83"/>
+      <c r="G20" s="106"/>
     </row>
     <row r="21" ht="14.25" spans="2:7">
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="114"/>
     </row>
     <row r="22" customHeight="1" spans="2:7">
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="115" t="s">
         <v>217</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="116" t="s">
         <v>218</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="94"/>
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="117"/>
     </row>
     <row r="23" ht="13.5" spans="2:7">
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="112" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="114"/>
     </row>
     <row r="24" ht="14.25" spans="2:7">
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="86"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -6968,69 +7395,398 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:J4"/>
+  <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="27.625" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="1" max="1" width="4.70833333333333" style="36" customWidth="1"/>
+    <col min="2" max="2" width="14.4583333333333" style="36" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="31.6" style="36" customWidth="1"/>
+    <col min="5" max="5" width="44.7083333333333" style="36" customWidth="1"/>
+    <col min="6" max="6" width="46.025" style="36" customWidth="1"/>
+    <col min="7" max="7" width="50.875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="36" customWidth="1"/>
+    <col min="9" max="9" width="25.75" style="36" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="36" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="36" customWidth="1"/>
+    <col min="12" max="32" width="9" style="36"/>
+    <col min="33" max="16384" width="57.6416666666667" style="36"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
-      <c r="B3" t="s">
+    <row r="2" ht="14.25"/>
+    <row r="3" ht="14.25" spans="2:11">
+      <c r="B3" s="63" t="s">
         <v>220</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="64" t="s">
         <v>221</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="64" t="s">
         <v>222</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="64" t="s">
         <v>223</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="64" t="s">
         <v>224</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="64" t="s">
         <v>225</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="64" t="s">
         <v>226</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="64" t="s">
         <v>227</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="64" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" t="s">
+      <c r="K3" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="4" ht="81" spans="2:11">
+      <c r="B4" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="66" t="s">
         <v>232</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F4" s="66" t="s">
         <v>233</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>234</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>235</v>
+      </c>
+      <c r="I4" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>237</v>
+      </c>
+      <c r="K4" s="84" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="2:11">
+      <c r="B5" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="J5" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="K5" s="85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="2:11">
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="86"/>
+    </row>
+    <row r="7" ht="40.5" spans="2:11">
+      <c r="B7" s="71" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="J7" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="K7" s="87" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="2:11">
+      <c r="B8" s="74" t="s">
+        <v>246</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="I8" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="J8" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="K8" s="88" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="2:11">
+      <c r="B9" s="77"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="89"/>
+    </row>
+    <row r="10" ht="40.5" spans="2:11">
+      <c r="B10" s="65" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66" t="s">
+        <v>253</v>
+      </c>
+      <c r="K10" s="84" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="2:11">
+      <c r="B11" s="67" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>256</v>
+      </c>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="K11" s="85" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="2:11">
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="86"/>
+    </row>
+    <row r="13" ht="81" spans="2:11">
+      <c r="B13" s="79" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="80" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="80" t="s">
+        <v>260</v>
+      </c>
+      <c r="G13" s="80" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="I13" s="80" t="s">
+        <v>263</v>
+      </c>
+      <c r="J13" s="80"/>
+      <c r="K13" s="90"/>
+    </row>
+    <row r="14" ht="40.5" spans="2:11">
+      <c r="B14" s="81" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="91"/>
+    </row>
+    <row r="15" ht="148.5" spans="2:11">
+      <c r="B15" s="74" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="F15" s="75" t="s">
+        <v>268</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="H15" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="I15" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="J15" s="75" t="s">
+        <v>253</v>
+      </c>
+      <c r="K15" s="88" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="2:11">
+      <c r="B16" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="68" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68" t="s">
+        <v>237</v>
+      </c>
+      <c r="K16" s="85" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="88"/>
+    </row>
+    <row r="18" ht="14.25" spans="2:11">
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="89"/>
+    </row>
+    <row r="25" ht="67.5" spans="5:7">
+      <c r="E25" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7052,35 +7808,35 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:3">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="64" t="s">
-        <v>234</v>
+      <c r="C3" s="58" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
-      <c r="B4" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>236</v>
+      <c r="B4" s="59" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:3">
-      <c r="B5" s="65" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="66" t="s">
-        <v>238</v>
+      <c r="B5" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:3">
-      <c r="B6" s="67" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>240</v>
+      <c r="B6" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7116,184 +7872,184 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="49" t="s">
-        <v>241</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>242</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" s="51" t="s">
-        <v>245</v>
+      <c r="B3" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="F3" s="45" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="4" ht="81" spans="2:6">
-      <c r="B4" s="52" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="53" t="s">
+      <c r="B4" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D4" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="54" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="55"/>
+      <c r="E4" s="48" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" ht="14.25" spans="2:6">
-      <c r="B5" s="56"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="57"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" ht="81" spans="2:6">
-      <c r="B6" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>253</v>
+      <c r="B6" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:6">
-      <c r="B7" s="56"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="57"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="51"/>
     </row>
     <row r="8" ht="81" spans="2:6">
-      <c r="B8" s="58" t="s">
-        <v>254</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>256</v>
-      </c>
-      <c r="E8" s="59" t="s">
-        <v>257</v>
-      </c>
-      <c r="F8" s="62"/>
+      <c r="B8" s="52" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>299</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" s="56"/>
     </row>
     <row r="9" ht="14.25" spans="2:6">
-      <c r="B9" s="56"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="57"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="51"/>
     </row>
     <row r="10" ht="94.5" spans="2:6">
-      <c r="B10" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="E10" s="59" t="s">
-        <v>261</v>
-      </c>
-      <c r="F10" s="62"/>
+      <c r="B10" s="52" t="s">
+        <v>301</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" ht="14.25" spans="2:6">
-      <c r="B11" s="56"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="57"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="51"/>
     </row>
     <row r="12" ht="40.5" spans="2:6">
-      <c r="B12" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>263</v>
-      </c>
-      <c r="D12" s="60" t="s">
-        <v>264</v>
-      </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="62"/>
+      <c r="B12" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>307</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" ht="14.25" spans="2:6">
-      <c r="B13" s="56"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="57"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="51"/>
     </row>
     <row r="14" ht="67.5" spans="2:6">
-      <c r="B14" s="58" t="s">
-        <v>265</v>
-      </c>
-      <c r="C14" s="59" t="s">
-        <v>266</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="62"/>
+      <c r="B14" s="52" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="56"/>
     </row>
     <row r="15" ht="14.25" spans="2:6">
-      <c r="B15" s="56"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="57"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="51"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="55"/>
+      <c r="B16" s="46" t="s">
+        <v>311</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="55"/>
+      <c r="B17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="55"/>
+      <c r="B18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="55"/>
+      <c r="B19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" ht="14.25" spans="2:6">
-      <c r="B20" s="56"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="57"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7342,108 +8098,108 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:9">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40" t="s">
-        <v>269</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="E3" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>272</v>
-      </c>
-      <c r="G3" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>275</v>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="4" ht="27" spans="2:9">
-      <c r="B4" s="41" t="s">
-        <v>276</v>
+      <c r="B4" s="35" t="s">
+        <v>319</v>
       </c>
       <c r="C4" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>279</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>280</v>
-      </c>
-      <c r="I4" s="47"/>
+        <v>321</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" ht="81" spans="2:9">
-      <c r="B5" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="135" t="s">
-        <v>282</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>284</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>285</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="I5" s="47"/>
+      <c r="B5" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="D5" s="158" t="s">
+        <v>325</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" ht="54" spans="2:9">
-      <c r="B6" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="D6" s="135" t="s">
-        <v>288</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>289</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>291</v>
-      </c>
-      <c r="I6" s="47"/>
+      <c r="B6" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="D6" s="158" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" ht="68.25" spans="2:9">
-      <c r="B7" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>293</v>
-      </c>
-      <c r="D7" s="136" t="s">
-        <v>294</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>298</v>
+      <c r="B7" s="37" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="159" t="s">
+        <v>337</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>339</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="I7" s="42" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>

--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,21 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="728" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="13500" tabRatio="977" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
     <sheet name="JavaAPI" sheetId="10" r:id="rId2"/>
-    <sheet name="GC" sheetId="11" r:id="rId3"/>
-    <sheet name="Iterable" sheetId="9" r:id="rId4"/>
-    <sheet name="Spring" sheetId="2" r:id="rId5"/>
-    <sheet name="Persist" sheetId="3" r:id="rId6"/>
-    <sheet name="DB" sheetId="4" r:id="rId7"/>
-    <sheet name="MySQL" sheetId="8" r:id="rId8"/>
-    <sheet name="Component" sheetId="5" r:id="rId9"/>
-    <sheet name="MQ" sheetId="6" r:id="rId10"/>
-    <sheet name="RocketMQ" sheetId="7" r:id="rId11"/>
-    <sheet name="Netty" sheetId="12" r:id="rId12"/>
+    <sheet name="Iterable" sheetId="9" r:id="rId3"/>
+    <sheet name="Netty" sheetId="12" r:id="rId4"/>
+    <sheet name="GC" sheetId="11" r:id="rId5"/>
+    <sheet name="Spring" sheetId="2" r:id="rId6"/>
+    <sheet name="JPA" sheetId="3" r:id="rId7"/>
+    <sheet name="Dubbo" sheetId="17" r:id="rId8"/>
+    <sheet name="SpringBoot" sheetId="18" r:id="rId9"/>
+    <sheet name="DBMS" sheetId="4" r:id="rId10"/>
+    <sheet name="MySQL" sheetId="8" r:id="rId11"/>
+    <sheet name="MyCat" sheetId="19" r:id="rId12"/>
+    <sheet name="Redis" sheetId="5" r:id="rId13"/>
+    <sheet name="ZooKeeper" sheetId="13" r:id="rId14"/>
+    <sheet name="Server" sheetId="15" r:id="rId15"/>
+    <sheet name="Tomcat" sheetId="14" r:id="rId16"/>
+    <sheet name="JMS" sheetId="6" r:id="rId17"/>
+    <sheet name="RocketMQ" sheetId="7" r:id="rId18"/>
+    <sheet name="ActiveMQ" sheetId="16" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -123,6 +130,29 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>123456</author>
+  </authors>
+  <commentList>
+    <comment ref="E21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>https://blog.csdn.net/java_lifeng/article/details/80938123
+https://www.zhihu.com/question/27999759</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
@@ -136,29 +166,6 @@
           </rPr>
           <t xml:space="preserve">HotSpot开发团队最初赋予它的期望是未来可以替换掉JDK5中发布的CMS收集器。现在这个期望目标已经实现过半了，JDK 9发布之日，G1宣告取代Parallel Scavenge+Parallel Old组合，成为服务端模式下的默认垃圾收集器，而CMS则沦落至被声明为不推荐使用(Deprecate)的收集器。
 </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>123456</author>
-  </authors>
-  <commentList>
-    <comment ref="E25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>https://blog.csdn.net/java_lifeng/article/details/80938123
-https://www.zhihu.com/question/27999759</t>
         </r>
       </text>
     </comment>
@@ -1672,6 +1679,417 @@
     <t>https://www.matools.com/api/java8</t>
   </si>
   <si>
+    <t>集合</t>
+  </si>
+  <si>
+    <t>JDK</t>
+  </si>
+  <si>
+    <t>底层数据结构</t>
+  </si>
+  <si>
+    <t>初始容量</t>
+  </si>
+  <si>
+    <t>扩容条件 (见add()等方法)</t>
+  </si>
+  <si>
+    <t>扩容倍数</t>
+  </si>
+  <si>
+    <t>扩容</t>
+  </si>
+  <si>
+    <t>线程安全</t>
+  </si>
+  <si>
+    <t>是否有序</t>
+  </si>
+  <si>
+    <t>是否允许重复</t>
+  </si>
+  <si>
+    <t>Vector</t>
+  </si>
+  <si>
+    <t>数组：Object[] elementData;</t>
+  </si>
+  <si>
+    <t>initialCapacity=10，初始容量，默认10。
+capacityIncrement=0，每次扩容个数，默认0。</t>
+  </si>
+  <si>
+    <t>add()方法：
+modCount++;
+若新增后的元素个数 &gt; 数组长度，则扩容。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可以扩容capacityIncrement个，若该值未设定，则</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>默认扩容2倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+newCapacity = oldCapacity + ((capacityIncrement &gt; 0) ? capacityIncrement : oldCapacity);
+if (newCapacity - MAX_ARRAY_SIZE &gt; 0)
+    newCapacity = hugeCapacity(minCapacity);</t>
+    </r>
+  </si>
+  <si>
+    <t>Arrays.copyOf()</t>
+  </si>
+  <si>
+    <t>线程安全，synchronized方法</t>
+  </si>
+  <si>
+    <t>有序</t>
+  </si>
+  <si>
+    <t>允许重复</t>
+  </si>
+  <si>
+    <t>Stack 
+继承Vector</t>
+  </si>
+  <si>
+    <t>stack有push()\pop()\peek()\empty()\search()方法。
+继承了vector的add()\remove()\get()\set()方法。</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>双向链表，节点元素如下：
+private static class Node&lt;E&gt; {Node next; Node prev;}</t>
+  </si>
+  <si>
+    <t>没有初始化大小，也没有扩容的机制。</t>
+  </si>
+  <si>
+    <t>add()方法：
+modCount++;</t>
+  </si>
+  <si>
+    <t>非线程安全</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>初始容量0。
+首次调用add()方法时,容量初始化为10：minCapacity = Math.max(DEFAULT_CAPACITY, minCapacity); DEFAULT_CAPACITY=10。</t>
+  </si>
+  <si>
+    <t>add()方法：
+modCount++;
+若 元素个数 &gt; 数组长度，则扩容。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扩容1.5倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。
+newCapacity = oldCapacity + (oldCapacity &gt;&gt; 1);
+if (newCapacity - MAX_ARRAY_SIZE &gt; 0)
+            newCapacity = hugeCapacity(minCapacity);</t>
+    </r>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t>内部用HashMap存储数据：
+HashMap&lt;E,Object&gt; map;</t>
+  </si>
+  <si>
+    <t>add()方法：
+map.put(e, PRESENT)==null;    //PRESENT=new Object();</t>
+  </si>
+  <si>
+    <t>无序</t>
+  </si>
+  <si>
+    <t>不允许重复</t>
+  </si>
+  <si>
+    <t>TreeSet</t>
+  </si>
+  <si>
+    <t>内部用NavigableMap存储数据：
+NavigableMap&lt;E,Object&gt; m;</t>
+  </si>
+  <si>
+    <t>Hashtable</t>
+  </si>
+  <si>
+    <t>链表数组：
+class Entry&lt;K,V&gt; implements Map.Entry&lt;K,V&gt; { }</t>
+  </si>
+  <si>
+    <t>initialCapacity=11;初始容量11。
+loadFactor=0.75f;加载因子0.75。
+threshold=Math.min(initialCapacity * loadFactor, MAX_ARRAY_SIZE + 1);阈值8。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>put()方法：
+先判断key是否存在，若存在，则返回。否则添加到集合。
+addEntry()方法：
+modCount++;
+若 count &gt;= threshold，则扩容 rehash()。
+未采用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>快速失败机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>rehash()方法：
+扩容2倍再加1：newCapacity = (oldCapacity &lt;&lt; 1) + 1;
+modCount++;
+threshold = (int)Math.min(newCapacity * loadFactor, MAX_ARRAY_SIZE + 1);
+再重新计算老元素的hash。</t>
+  </si>
+  <si>
+    <t>rehash()</t>
+  </si>
+  <si>
+    <t>线程安全，synchronized方法。
+key、value都不能为null。</t>
+  </si>
+  <si>
+    <t>Properties
+继承Hashtable</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>链表数组：
+class Node&lt;K,V&gt; implements Map.Entry&lt;K,V&gt;{ }</t>
+  </si>
+  <si>
+    <t>loadFactor = DEFAULT_LOAD_FACTOR = 0.75f，加载因子0.75。
+threshold = 12 = 16*0.75f，阈值，超出则扩容。
+DEFAULT_INITIAL_CAPACITY=1&lt;&lt;4，初始容量16。
+tableSizeFor()方法，
+首次调用put()方法，会调用resize()方法。
+newCap = DEFAULT_INITIAL_CAPACITY;
+newThr = (int)(DEFAULT_LOAD_FACTOR * DEFAULT_INITIAL_CAPACITY);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>put()方法：
+TREEIFY_THRESHOLD=8，树化阈值。若某个链表的长度&gt;8，则树化。
+若 元素个数&gt;threshold，则扩容 resize()。
+采用了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>快速失败机制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>resize()方法：
+size&gt;=threshod时，需扩容。扩容2倍。扩容较繁琐，需要对当前对象数组中的元素重新hash，并填充数组，最后重新设置threshold值。</t>
+  </si>
+  <si>
+    <t>resize()方法：
+newCap = oldCap &lt;&lt; 1
+newThr = oldThr &lt;&lt; 1
+重新计算Hash。</t>
+  </si>
+  <si>
+    <t>非线程安全。
+key、value均可为null。HashMap中只有一条记录可以是一个空的key，但任意数量的条目可以是空的value。</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
+  </si>
+  <si>
+    <t>内部有Comparator comparator属性，
+默认为null。</t>
+  </si>
+  <si>
+    <t>MAX_ARRAY_SIZE = Integer.MAX_VALUE - 8
+ArrayList最大容量为什么是Integer.MAX_VALUE-8？
+PS：数组作为一个对象，需要一定的内存存储对象头信息，对象头信息最大占用内存不可超过8字节。</t>
+  </si>
+  <si>
+    <t>集合中都有一个modCount字段，表示修改次数。
+在快速失败(fail-fast)机制中会用到。</t>
+  </si>
+  <si>
+    <t>MAX_ARRAY_SIZE = Integer.MAX_VALUE - 8</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>坐标</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>Netty3</t>
+  </si>
+  <si>
+    <t>3.0.0.CR1</t>
+  </si>
+  <si>
+    <t>org.jboss.netty:netty</t>
+  </si>
+  <si>
+    <t>2009-7</t>
+  </si>
+  <si>
+    <t>3.2.10.Final</t>
+  </si>
+  <si>
+    <t>2013-11</t>
+  </si>
+  <si>
+    <t>3.3.0.Final</t>
+  </si>
+  <si>
+    <t>io.netty:netty</t>
+  </si>
+  <si>
+    <t>2012-1</t>
+  </si>
+  <si>
+    <t>3.10.6.Final</t>
+  </si>
+  <si>
+    <t>2016-6</t>
+  </si>
+  <si>
+    <t>4.0.0.Alpha8</t>
+  </si>
+  <si>
+    <t>2012-12</t>
+  </si>
+  <si>
+    <t>Netty4</t>
+  </si>
+  <si>
+    <t>4.0.0.Beta1</t>
+  </si>
+  <si>
+    <t>io.netty:netty-all</t>
+  </si>
+  <si>
+    <t>2013-2</t>
+  </si>
+  <si>
+    <t>4.1.54.Final</t>
+  </si>
+  <si>
+    <t>2020-11</t>
+  </si>
+  <si>
+    <t>Netty5</t>
+  </si>
+  <si>
+    <t>5.0.0.Alpha1</t>
+  </si>
+  <si>
+    <t>2013-12</t>
+  </si>
+  <si>
+    <t>2015-3</t>
+  </si>
+  <si>
     <t>20190711-小组分享</t>
   </si>
   <si>
@@ -2278,262 +2696,6 @@
   </si>
   <si>
     <t>ZGC收集器</t>
-  </si>
-  <si>
-    <t>集合</t>
-  </si>
-  <si>
-    <t>JDK</t>
-  </si>
-  <si>
-    <t>底层数据结构</t>
-  </si>
-  <si>
-    <t>初始容量</t>
-  </si>
-  <si>
-    <t>扩容条件 (见add()等方法)</t>
-  </si>
-  <si>
-    <t>扩容倍数</t>
-  </si>
-  <si>
-    <t>扩容</t>
-  </si>
-  <si>
-    <t>线程安全</t>
-  </si>
-  <si>
-    <t>是否有序</t>
-  </si>
-  <si>
-    <t>是否允许重复</t>
-  </si>
-  <si>
-    <t>Vector</t>
-  </si>
-  <si>
-    <t>数组：Object[] elementData;</t>
-  </si>
-  <si>
-    <t>initialCapacity=10，初始容量，默认10。
-capacityIncrement=0，每次扩容个数，默认0。</t>
-  </si>
-  <si>
-    <t>add()方法：
-modCount++;
-若新增后的元素个数 &gt; 数组长度，则扩容。</t>
-  </si>
-  <si>
-    <r>
-      <t>可以扩容capacityIncrement个，若该值未设定，则</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>默认扩容2倍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。
-newCapacity = oldCapacity + ((capacityIncrement &gt; 0) ? capacityIncrement : oldCapacity);
-if (newCapacity - MAX_ARRAY_SIZE &gt; 0)
-    newCapacity = hugeCapacity(minCapacity);</t>
-    </r>
-  </si>
-  <si>
-    <t>Arrays.copyOf()</t>
-  </si>
-  <si>
-    <t>线程安全，synchronized方法</t>
-  </si>
-  <si>
-    <t>有序</t>
-  </si>
-  <si>
-    <t>允许重复</t>
-  </si>
-  <si>
-    <t>Stack 
-继承Vector</t>
-  </si>
-  <si>
-    <t>stack有push()\pop()\peek()\empty()\search()方法。
-继承了vector的add()\remove()\get()\set()方法。</t>
-  </si>
-  <si>
-    <t>LinkedList</t>
-  </si>
-  <si>
-    <t>双向链表，节点元素如下：
-private static class Node&lt;E&gt; {Node next; Node prev;}</t>
-  </si>
-  <si>
-    <t>没有初始化大小，也没有扩容的机制。</t>
-  </si>
-  <si>
-    <t>add()方法：
-modCount++;</t>
-  </si>
-  <si>
-    <t>非线程安全</t>
-  </si>
-  <si>
-    <t>ArrayList</t>
-  </si>
-  <si>
-    <t>初始容量0。
-首次调用add()方法时,容量初始化为10：minCapacity = Math.max(DEFAULT_CAPACITY, minCapacity); DEFAULT_CAPACITY=10。</t>
-  </si>
-  <si>
-    <t>add()方法：
-modCount++;
-若 元素个数 &gt; 数组长度，则扩容。</t>
-  </si>
-  <si>
-    <r>
-      <t>扩容1.5倍</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>。
-newCapacity = oldCapacity + (oldCapacity &gt;&gt; 1);
-if (newCapacity - MAX_ARRAY_SIZE &gt; 0)
-            newCapacity = hugeCapacity(minCapacity);</t>
-    </r>
-  </si>
-  <si>
-    <t>HashSet</t>
-  </si>
-  <si>
-    <t>内部用HashMap存储数据：
-HashMap&lt;E,Object&gt; map;</t>
-  </si>
-  <si>
-    <t>add()方法：
-map.put(e, PRESENT)==null;    //PRESENT=new Object();</t>
-  </si>
-  <si>
-    <t>无序</t>
-  </si>
-  <si>
-    <t>不允许重复</t>
-  </si>
-  <si>
-    <t>TreeSet</t>
-  </si>
-  <si>
-    <t>内部用NavigableMap存储数据：
-NavigableMap&lt;E,Object&gt; m;</t>
-  </si>
-  <si>
-    <t>Hashtable</t>
-  </si>
-  <si>
-    <t>链表数组：
-class Entry&lt;K,V&gt; implements Map.Entry&lt;K,V&gt; { }</t>
-  </si>
-  <si>
-    <t>initialCapacity=11;初始容量11。
-loadFactor=0.75f;加载因子0.75。
-threshold=Math.min(initialCapacity * loadFactor, MAX_ARRAY_SIZE + 1);阈值8。</t>
-  </si>
-  <si>
-    <t>put()方法：
-先判断key是否存在，若存在，则返回。否则添加到集合。
-addEntry()方法：
-modCount++;
-若 count &gt;= threshold，则扩容 rehash()。</t>
-  </si>
-  <si>
-    <t>rehash()方法：
-扩容2倍再加1：newCapacity = (oldCapacity &lt;&lt; 1) + 1;
-modCount++;
-threshold = (int)Math.min(newCapacity * loadFactor, MAX_ARRAY_SIZE + 1);
-再重新计算老元素的hash。</t>
-  </si>
-  <si>
-    <t>rehash()</t>
-  </si>
-  <si>
-    <t>线程安全，synchronized方法。
-key、value都不能为null。</t>
-  </si>
-  <si>
-    <t>Properties
-继承Hashtable</t>
-  </si>
-  <si>
-    <t>HashMap</t>
-  </si>
-  <si>
-    <t>链表数组：
-class Node&lt;K,V&gt; implements Map.Entry&lt;K,V&gt;{ }</t>
-  </si>
-  <si>
-    <t>loadFactor = DEFAULT_LOAD_FACTOR = 0.75f，加载因子0.75。
-threshold = 12 = 16*0.75f，阈值，超出则扩容。
-DEFAULT_INITIAL_CAPACITY=1&lt;&lt;4，创建长度为16的对象数组。
-tableSizeFor()方法，
-首次调用put()方法，会调用resize()方法。
-newCap = DEFAULT_INITIAL_CAPACITY;
-newThr = (int)(DEFAULT_LOAD_FACTOR * DEFAULT_INITIAL_CAPACITY);</t>
-  </si>
-  <si>
-    <t>put()方法：
-TREEIFY_THRESHOLD=8，树化阈值。若某个链表的长度&gt;8，则树化。
-若 元素个数&gt;threshold，则扩容 resize()。</t>
-  </si>
-  <si>
-    <t>resize()方法：
-size&gt;=threshod时，需扩容。扩容2倍。扩容较繁琐，需要对当前对象数组中的元素重新hash，并填充数组，最后重新设置threshold值。</t>
-  </si>
-  <si>
-    <t>resize()方法：
-newCap = oldCap &lt;&lt; 1
-newThr = oldThr &lt;&lt; 1
-重新计算Hash。</t>
-  </si>
-  <si>
-    <t>非线程安全。
-key、value均可为null。HashMap中只有一条记录可以是一个空的key，但任意数量的条目可以是空的value。</t>
-  </si>
-  <si>
-    <t>TreeMap</t>
-  </si>
-  <si>
-    <t>内部有Comparator comparator属性，
-默认为null。</t>
-  </si>
-  <si>
-    <t>MAX_ARRAY_SIZE = Integer.MAX_VALUE - 8
-ArrayList最大容量为什么是Integer.MAX_VALUE-8？
-PS：数组作为一个对象，需要一定的内存存储对象头信息，对象头信息最大占用内存不可超过8字节。</t>
-  </si>
-  <si>
-    <t>集合中都有一个modCount字段，表示修改次数。
-在快速失败(fail-fast)机制中会用到。</t>
-  </si>
-  <si>
-    <t>MAX_ARRAY_SIZE = Integer.MAX_VALUE - 8</t>
   </si>
   <si>
     <t>https://spring.io/</t>
@@ -2782,9 +2944,6 @@
     <t>在MySQL 5.1.29之前，使用 --log-slow-quries[=file_name]</t>
   </si>
   <si>
-    <t>时间</t>
-  </si>
-  <si>
     <t>组件名</t>
   </si>
   <si>
@@ -2843,81 +3002,6 @@
   </si>
   <si>
     <t>Scala语言</t>
-  </si>
-  <si>
-    <t>版本</t>
-  </si>
-  <si>
-    <t>坐标</t>
-  </si>
-  <si>
-    <t>Netty3</t>
-  </si>
-  <si>
-    <t>3.0.0.CR1</t>
-  </si>
-  <si>
-    <t>org.jboss.netty:netty</t>
-  </si>
-  <si>
-    <t>2009-7</t>
-  </si>
-  <si>
-    <t>3.2.10.Final</t>
-  </si>
-  <si>
-    <t>2013-11</t>
-  </si>
-  <si>
-    <t>3.3.0.Final</t>
-  </si>
-  <si>
-    <t>io.netty:netty</t>
-  </si>
-  <si>
-    <t>2012-1</t>
-  </si>
-  <si>
-    <t>3.10.6.Final</t>
-  </si>
-  <si>
-    <t>2016-6</t>
-  </si>
-  <si>
-    <t>4.0.0.Alpha8</t>
-  </si>
-  <si>
-    <t>2012-12</t>
-  </si>
-  <si>
-    <t>Netty4</t>
-  </si>
-  <si>
-    <t>4.0.0.Beta1</t>
-  </si>
-  <si>
-    <t>io.netty:netty-all</t>
-  </si>
-  <si>
-    <t>2013-2</t>
-  </si>
-  <si>
-    <t>4.1.54.Final</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>Netty5</t>
-  </si>
-  <si>
-    <t>5.0.0.Alpha1</t>
-  </si>
-  <si>
-    <t>2013-12</t>
-  </si>
-  <si>
-    <t>2015-3</t>
   </si>
 </sst>
 </file>
@@ -2925,10 +3009,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2977,9 +3061,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2993,16 +3076,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3016,6 +3098,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -3024,8 +3121,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3041,6 +3154,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3063,51 +3191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3122,18 +3206,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3160,13 +3244,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3178,19 +3292,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3202,79 +3394,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3286,67 +3418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3391,7 +3469,22 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4"/>
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
       </left>
       <right style="medium">
         <color auto="1"/>
@@ -3400,7 +3493,7 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3436,12 +3529,42 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4"/>
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="medium">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="thin">
@@ -3466,31 +3589,31 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4"/>
+        <color theme="9"/>
+      </left>
+      <right style="thin">
+        <color theme="9"/>
+      </right>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color theme="4"/>
+        <color theme="9"/>
       </top>
       <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
+        <color theme="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3521,111 +3644,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top style="medium">
-        <color theme="9"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color theme="9"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right style="thin">
-        <color theme="9"/>
-      </right>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3816,129 +3834,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="4"/>
       </left>
@@ -3971,6 +3866,92 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4015,14 +3996,100 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -4050,11 +4117,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4074,17 +4147,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4107,6 +4176,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -4120,10 +4198,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4132,19 +4210,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4153,531 +4231,495 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -4686,13 +4728,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4701,46 +4743,46 @@
     <xf numFmtId="57" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="5" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="5" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="5" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4857,13 +4899,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4877,7 +4919,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12744450" y="6972300"/>
-          <a:ext cx="8439150" cy="2838450"/>
+          <a:ext cx="8410575" cy="3867150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4894,6 +4936,53 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1363980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>916940</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11163300" y="10344150"/>
+          <a:ext cx="4765040" cy="1713865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4925,53 +5014,6 @@
         <a:xfrm>
           <a:off x="13039725" y="3695700"/>
           <a:ext cx="5895975" cy="5676900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1363980</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>916940</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>170815</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11163300" y="11029950"/>
-          <a:ext cx="4765040" cy="1713865"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5245,554 +5287,553 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:I71"/>
+  <dimension ref="B1:I62"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="140" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="140" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="140" customWidth="1"/>
-    <col min="4" max="4" width="76.125" style="140" customWidth="1"/>
-    <col min="5" max="5" width="26" style="140" customWidth="1"/>
-    <col min="6" max="6" width="59" style="140" customWidth="1"/>
-    <col min="7" max="16384" width="12.75" style="140" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="128" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="128" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="128" customWidth="1"/>
+    <col min="4" max="4" width="76.125" style="128" customWidth="1"/>
+    <col min="5" max="5" width="26" style="128" customWidth="1"/>
+    <col min="6" max="6" width="59" style="128" customWidth="1"/>
+    <col min="7" max="16384" width="12.75" style="128" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="128" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="115"/>
-      <c r="C3" s="141" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="141" t="s">
+      <c r="D3" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="141" t="s">
+      <c r="E3" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="130" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:6">
-      <c r="B4" s="143">
+      <c r="B4" s="131">
         <v>33329</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="111"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="74"/>
     </row>
     <row r="5" ht="40.5" spans="2:6">
-      <c r="B5" s="144">
+      <c r="B5" s="132">
         <v>34820</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="102"/>
-      <c r="F5" s="103"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" ht="27" spans="2:6">
-      <c r="B6" s="145">
+      <c r="B6" s="133">
         <v>35065</v>
       </c>
-      <c r="C6" s="105" t="s">
+      <c r="C6" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="105" t="s">
+      <c r="D6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="105"/>
-      <c r="F6" s="106"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="144">
+      <c r="B7" s="132">
         <v>35462</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" ht="54" spans="2:6">
-      <c r="B8" s="145">
+      <c r="B8" s="133">
         <v>36130</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="106"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="69"/>
     </row>
     <row r="9" ht="27" spans="2:6">
-      <c r="B9" s="144">
+      <c r="B9" s="132">
         <v>36647</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="102"/>
-      <c r="F9" s="103"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" ht="40.5" spans="2:6">
-      <c r="B10" s="145">
+      <c r="B10" s="133">
         <v>37288</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="105" t="s">
+      <c r="D10" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="106"/>
+      <c r="F10" s="69"/>
     </row>
     <row r="11" ht="40.5" spans="2:6">
-      <c r="B11" s="144"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102" t="s">
+      <c r="B11" s="132"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="103" t="s">
+      <c r="F11" s="66" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:6">
-      <c r="B12" s="145">
+      <c r="B12" s="133">
         <v>38231</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="105"/>
-      <c r="F12" s="106"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="69"/>
     </row>
     <row r="13" ht="54" spans="2:6">
-      <c r="B13" s="144"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102" t="s">
+      <c r="B13" s="132"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="103" t="s">
+      <c r="F13" s="66" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="2:9">
-      <c r="B14" s="145">
+      <c r="B14" s="133">
         <v>39052</v>
       </c>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="105" t="s">
+      <c r="D14" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="105"/>
-      <c r="F14" s="106"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="101"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102" t="s">
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="103" t="s">
+      <c r="F15" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" ht="40.5" spans="2:9">
-      <c r="B16" s="104"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="106" t="s">
+      <c r="F16" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" ht="54" spans="2:9">
-      <c r="B17" s="144">
+      <c r="B17" s="132">
         <v>40725</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="102"/>
-      <c r="F17" s="103"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" ht="108" spans="2:9">
-      <c r="B18" s="145">
+      <c r="B18" s="133">
         <v>41699</v>
       </c>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="105" t="s">
+      <c r="D18" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="105"/>
-      <c r="F18" s="106"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" ht="40.5" spans="2:6">
-      <c r="B19" s="144"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102" t="s">
+      <c r="B19" s="132"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="103" t="s">
+      <c r="F19" s="66" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="145">
+      <c r="B20" s="133">
         <v>42979</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105" t="s">
+      <c r="D20" s="68"/>
+      <c r="E20" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="106"/>
+      <c r="F20" s="69"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="144">
+      <c r="B21" s="132">
         <v>43160</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="102"/>
-      <c r="F21" s="103"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="66"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="145">
+      <c r="B22" s="133">
         <v>43344</v>
       </c>
-      <c r="C22" s="105" t="s">
+      <c r="C22" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="106"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="144">
+      <c r="B23" s="132">
         <v>43525</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C23" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="103"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="145">
+      <c r="B24" s="133">
         <v>43709</v>
       </c>
-      <c r="C24" s="105" t="s">
+      <c r="C24" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="106"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="144">
+      <c r="B25" s="132">
         <v>43891</v>
       </c>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="114"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="145">
+      <c r="B26" s="133">
         <v>44075</v>
       </c>
-      <c r="C26" s="105" t="s">
+      <c r="C26" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="106"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="146"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="114"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="77"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="104"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="106"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="146"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113"/>
-      <c r="E29" s="113"/>
-      <c r="F29" s="114"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="77"/>
     </row>
     <row r="30" ht="14.25" spans="2:6">
-      <c r="B30" s="147"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="109"/>
-    </row>
-    <row r="49" ht="14.25"/>
-    <row r="50" ht="14.25" spans="2:4">
-      <c r="B50" s="148"/>
-      <c r="C50" s="149" t="s">
+      <c r="B30" s="135"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="72"/>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41" s="136"/>
+      <c r="C41" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="150" t="s">
+      <c r="D41" s="138" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" ht="24" spans="2:4">
-      <c r="B51" s="151">
+    <row r="42" ht="24" spans="2:4">
+      <c r="B42" s="139">
         <v>33329</v>
       </c>
-      <c r="C51" s="152" t="s">
+      <c r="C42" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="153"/>
-    </row>
-    <row r="52" ht="24" spans="2:4">
-      <c r="B52" s="151">
+      <c r="D42" s="141"/>
+    </row>
+    <row r="43" ht="24" spans="2:4">
+      <c r="B43" s="139">
         <v>34820</v>
       </c>
-      <c r="C52" s="152" t="s">
+      <c r="C43" s="140" t="s">
         <v>46</v>
       </c>
-      <c r="D52" s="153"/>
+      <c r="D43" s="141"/>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" s="139">
+        <v>35065</v>
+      </c>
+      <c r="C44" s="140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="141"/>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="139">
+        <v>35462</v>
+      </c>
+      <c r="C45" s="140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="141"/>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" s="139">
+        <v>36130</v>
+      </c>
+      <c r="C46" s="140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="141"/>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="139">
+        <v>36647</v>
+      </c>
+      <c r="C47" s="140" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="141"/>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48" s="139">
+        <v>37288</v>
+      </c>
+      <c r="C48" s="140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" s="139"/>
+      <c r="C49" s="140"/>
+      <c r="D49" s="141" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" s="139">
+        <v>38231</v>
+      </c>
+      <c r="C50" s="140" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="141"/>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" s="139"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="141" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52" s="139">
+        <v>39052</v>
+      </c>
+      <c r="C52" s="140" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="141"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="151">
-        <v>35065</v>
-      </c>
-      <c r="C53" s="152" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="153"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="140"/>
+      <c r="D53" s="141" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="151">
-        <v>35462</v>
-      </c>
-      <c r="C54" s="152" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="153"/>
+      <c r="B54" s="142"/>
+      <c r="C54" s="140"/>
+      <c r="D54" s="141" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="151">
-        <v>36130</v>
-      </c>
-      <c r="C55" s="152" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="153"/>
+      <c r="B55" s="139">
+        <v>40725</v>
+      </c>
+      <c r="C55" s="140" t="s">
+        <v>31</v>
+      </c>
+      <c r="D55" s="141"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="151">
-        <v>36647</v>
-      </c>
-      <c r="C56" s="152" t="s">
-        <v>14</v>
-      </c>
-      <c r="D56" s="153"/>
+      <c r="B56" s="139">
+        <v>41699</v>
+      </c>
+      <c r="C56" s="140" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="141"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="151">
-        <v>37288</v>
-      </c>
-      <c r="C57" s="152" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="153" t="s">
-        <v>18</v>
+      <c r="B57" s="139"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="141" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="151"/>
-      <c r="C58" s="152"/>
-      <c r="D58" s="153" t="s">
-        <v>47</v>
+      <c r="B58" s="139">
+        <v>42979</v>
+      </c>
+      <c r="C58" s="140" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" s="141" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="151">
-        <v>38231</v>
-      </c>
-      <c r="C59" s="152" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59" s="153"/>
+      <c r="B59" s="139">
+        <v>43160</v>
+      </c>
+      <c r="C59" s="140" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="141"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="151"/>
-      <c r="C60" s="152"/>
-      <c r="D60" s="153" t="s">
-        <v>48</v>
-      </c>
+      <c r="B60" s="139">
+        <v>43344</v>
+      </c>
+      <c r="C60" s="140" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="141"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="151">
-        <v>39052</v>
-      </c>
-      <c r="C61" s="152" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" s="153"/>
-    </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="154"/>
-      <c r="C62" s="152"/>
-      <c r="D62" s="153" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="154"/>
-      <c r="C63" s="152"/>
-      <c r="D63" s="153" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="151">
-        <v>40725</v>
-      </c>
-      <c r="C64" s="152" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="153"/>
-    </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="151">
-        <v>41699</v>
-      </c>
-      <c r="C65" s="152" t="s">
-        <v>33</v>
-      </c>
-      <c r="D65" s="153"/>
-    </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="151"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="153" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="151">
-        <v>42979</v>
-      </c>
-      <c r="C67" s="152" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" s="153" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="B68" s="151">
-        <v>43160</v>
-      </c>
-      <c r="C68" s="152" t="s">
-        <v>39</v>
-      </c>
-      <c r="D68" s="153"/>
-    </row>
-    <row r="69" spans="2:4">
-      <c r="B69" s="151">
-        <v>43344</v>
-      </c>
-      <c r="C69" s="152" t="s">
-        <v>41</v>
-      </c>
-      <c r="D69" s="153"/>
-    </row>
-    <row r="70" spans="2:4">
-      <c r="B70" s="151">
+      <c r="B61" s="139">
         <v>43525</v>
       </c>
-      <c r="C70" s="152" t="s">
+      <c r="C61" s="140" t="s">
         <v>42</v>
       </c>
-      <c r="D70" s="153"/>
-    </row>
-    <row r="71" ht="14.25" spans="2:4">
-      <c r="B71" s="155">
+      <c r="D61" s="141"/>
+    </row>
+    <row r="62" ht="14.25" spans="2:4">
+      <c r="B62" s="143">
         <v>43709</v>
       </c>
-      <c r="C71" s="156" t="s">
+      <c r="C62" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="D71" s="157"/>
+      <c r="D62" s="145"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:F3">
@@ -5804,7 +5845,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a9e1f8fe-dc2b-42af-ba29-43c1b0a539c4}</x14:id>
+          <x14:id>{0ee3d020-a1a4-4685-a785-e5b317519df7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5818,7 +5859,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f02f0847-29b1-4ece-9baa-f118cd0edd5e}</x14:id>
+          <x14:id>{fa7ad0e4-b711-4b5b-baa7-7ed2e6fa92c7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5832,7 +5873,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5073575b-8018-4bda-8ead-9fec2e31f3d2}</x14:id>
+          <x14:id>{3f46ecd8-60f7-4628-95c7-d41b58abe475}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5846,7 +5887,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{33e54379-f665-47c2-9f8d-ae89c3b622fb}</x14:id>
+          <x14:id>{75bde258-4552-4d42-8355-5f3d77ccfbd0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5860,7 +5901,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{132f1301-ef46-4132-8168-2414f6f779d1}</x14:id>
+          <x14:id>{0c37ac51-ed29-4aed-b2c5-9814df80ce44}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5874,7 +5915,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{776393ae-1c6e-490b-9925-f51d7d09dbdc}</x14:id>
+          <x14:id>{63ceeb62-4099-47fc-bda6-b7bfb2769402}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5888,7 +5929,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7bcf2c50-c10d-41bd-896a-2c68e75f2e89}</x14:id>
+          <x14:id>{69f46cee-2bea-4b7b-bfc6-870693adeb42}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5902,7 +5943,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3d1fbf83-736a-4cee-95f0-c20296344cfc}</x14:id>
+          <x14:id>{3c2a8cf2-4242-4b70-9a52-e60fc40cdd35}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5914,7 +5955,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a9e1f8fe-dc2b-42af-ba29-43c1b0a539c4}">
+          <x14:cfRule type="dataBar" id="{0ee3d020-a1a4-4685-a785-e5b317519df7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5925,7 +5966,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f02f0847-29b1-4ece-9baa-f118cd0edd5e}">
+          <x14:cfRule type="dataBar" id="{fa7ad0e4-b711-4b5b-baa7-7ed2e6fa92c7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5936,7 +5977,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5073575b-8018-4bda-8ead-9fec2e31f3d2}">
+          <x14:cfRule type="dataBar" id="{3f46ecd8-60f7-4628-95c7-d41b58abe475}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5947,7 +5988,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{33e54379-f665-47c2-9f8d-ae89c3b622fb}">
+          <x14:cfRule type="dataBar" id="{75bde258-4552-4d42-8355-5f3d77ccfbd0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5958,7 +5999,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{132f1301-ef46-4132-8168-2414f6f779d1}">
+          <x14:cfRule type="dataBar" id="{0c37ac51-ed29-4aed-b2c5-9814df80ce44}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5969,7 +6010,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{776393ae-1c6e-490b-9925-f51d7d09dbdc}">
+          <x14:cfRule type="dataBar" id="{63ceeb62-4099-47fc-bda6-b7bfb2769402}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5980,7 +6021,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7bcf2c50-c10d-41bd-896a-2c68e75f2e89}">
+          <x14:cfRule type="dataBar" id="{69f46cee-2bea-4b7b-bfc6-870693adeb42}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5991,7 +6032,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3d1fbf83-736a-4cee-95f0-c20296344cfc}">
+          <x14:cfRule type="dataBar" id="{3c2a8cf2-4242-4b70-9a52-e60fc40cdd35}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6026,6 +6067,237 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B2:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="37.375" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="36.375" customWidth="1"/>
+    <col min="8" max="8" width="40.125" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="14.25"/>
+    <row r="3" ht="14.25" spans="2:9">
+      <c r="B3" s="25"/>
+      <c r="C3" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="2:9">
+      <c r="B4" s="27" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" ht="81" spans="2:9">
+      <c r="B5" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" s="146" t="s">
+        <v>351</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="I5" s="33"/>
+    </row>
+    <row r="6" ht="54" spans="2:9">
+      <c r="B6" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" s="146" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" ht="68.25" spans="2:9">
+      <c r="B7" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="D7" s="147" t="s">
+        <v>363</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6044,89 +6316,89 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="18"/>
+      <c r="B3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
+      <c r="B4" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
+      <c r="B5" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>354</v>
+      <c r="B6" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>358</v>
+      <c r="B7" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:6">
-      <c r="B8" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31" t="s">
-        <v>361</v>
-      </c>
-      <c r="F8" s="32" t="s">
-        <v>362</v>
+      <c r="B8" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -6135,163 +6407,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E12"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="4.625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="26.75" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="14.25"/>
-    <row r="3" ht="14.25" spans="2:5">
-      <c r="B3" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="2:5">
-      <c r="B4" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" spans="2:5">
-      <c r="B5" s="4"/>
-      <c r="C5" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="2:5">
-      <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="2:5">
-      <c r="B7" s="4"/>
-      <c r="C7" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="4"/>
-      <c r="C8" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" s="11"/>
-      <c r="C10" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5">
-      <c r="B11" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="2:5">
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" display="5.0.0.Alpha1" tooltip="https://mvnrepository.com/artifact/io.netty/netty-all/5.0.0.Alpha1"/>
-    <hyperlink ref="C12" r:id="rId1" display="5.0.0.Alpha1" tooltip="https://mvnrepository.com/artifact/io.netty/netty-all/5.0.0.Alpha1"/>
-  </hyperlinks>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6302,763 +6428,763 @@
   <sheetPr/>
   <dimension ref="B1:D83"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A58" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="31" style="36" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="36" customWidth="1"/>
-    <col min="4" max="4" width="114.625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="36" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="36"/>
+    <col min="1" max="1" width="4.625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="31" style="28" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="28" customWidth="1"/>
+    <col min="4" max="4" width="114.625" style="28" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="28" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1"/>
     <row r="3" ht="20" customHeight="1" spans="2:4">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="73" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:4">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="119" t="s">
+      <c r="C4" s="116" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="117" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:4">
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="122" t="s">
+      <c r="C5" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="109" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:4">
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="125" t="s">
+      <c r="D6" s="112" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:4">
-      <c r="B7" s="104"/>
-      <c r="C7" s="122" t="s">
+      <c r="B7" s="67"/>
+      <c r="C7" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="123" t="s">
+      <c r="D7" s="109" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:4">
-      <c r="B8" s="104"/>
-      <c r="C8" s="124" t="s">
+      <c r="B8" s="67"/>
+      <c r="C8" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="125" t="s">
+      <c r="D8" s="112" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:4">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="109" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:4">
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="125" t="s">
+      <c r="D10" s="112" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:4">
-      <c r="B11" s="126"/>
-      <c r="C11" s="102" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="65" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="123" t="s">
+      <c r="D11" s="109" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:4">
-      <c r="B12" s="126"/>
-      <c r="C12" s="105" t="s">
+      <c r="B12" s="118"/>
+      <c r="C12" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="112" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="127" t="s">
+      <c r="B13" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="122" t="s">
+      <c r="C13" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="123" t="s">
+      <c r="D13" s="109" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" s="36" customFormat="1" ht="27" spans="2:4">
-      <c r="B14" s="127"/>
-      <c r="C14" s="124" t="s">
+    <row r="14" s="28" customFormat="1" ht="27" spans="2:4">
+      <c r="B14" s="119"/>
+      <c r="C14" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="125" t="s">
+      <c r="D14" s="112" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="127"/>
-      <c r="C15" s="122" t="s">
+      <c r="B15" s="119"/>
+      <c r="C15" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="123" t="s">
+      <c r="D15" s="109" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:4">
-      <c r="B16" s="127"/>
-      <c r="C16" s="124" t="s">
+      <c r="B16" s="119"/>
+      <c r="C16" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="125" t="s">
+      <c r="D16" s="112" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:4">
-      <c r="B17" s="127"/>
-      <c r="C17" s="122" t="s">
+      <c r="B17" s="119"/>
+      <c r="C17" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="D17" s="123" t="s">
+      <c r="D17" s="109" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:4">
-      <c r="B18" s="127"/>
-      <c r="C18" s="124" t="s">
+      <c r="B18" s="119"/>
+      <c r="C18" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="125" t="s">
+      <c r="D18" s="112" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:4">
-      <c r="B19" s="127"/>
-      <c r="C19" s="122" t="s">
+      <c r="B19" s="119"/>
+      <c r="C19" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="128" t="s">
+      <c r="D19" s="120" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:4">
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="118" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="124" t="s">
+      <c r="C20" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="125" t="s">
+      <c r="D20" s="112" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:4">
-      <c r="B21" s="126"/>
-      <c r="C21" s="122" t="s">
+      <c r="B21" s="118"/>
+      <c r="C21" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="109" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="125" t="s">
+      <c r="D22" s="112" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="104"/>
-      <c r="C23" s="122" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="123" t="s">
+      <c r="D23" s="109" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="124" t="s">
+      <c r="C24" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D24" s="125" t="s">
+      <c r="D24" s="112" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="104"/>
-      <c r="C25" s="122" t="s">
+      <c r="B25" s="67"/>
+      <c r="C25" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="D25" s="128" t="s">
+      <c r="D25" s="120" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="104"/>
-      <c r="C26" s="124" t="s">
+      <c r="B26" s="67"/>
+      <c r="C26" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="125" t="s">
+      <c r="D26" s="112" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="104"/>
-      <c r="C27" s="122" t="s">
+      <c r="B27" s="67"/>
+      <c r="C27" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="109" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="124" t="s">
+      <c r="C28" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="125" t="s">
+      <c r="D28" s="112" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="104"/>
-      <c r="C29" s="122" t="s">
+      <c r="B29" s="67"/>
+      <c r="C29" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="123" t="s">
+      <c r="D29" s="109" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="104"/>
-      <c r="C30" s="124" t="s">
+      <c r="B30" s="67"/>
+      <c r="C30" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="125" t="s">
+      <c r="D30" s="112" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="2:4">
-      <c r="B31" s="127" t="s">
+      <c r="B31" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="122" t="s">
+      <c r="C31" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="123" t="s">
+      <c r="D31" s="109" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1" spans="2:4">
-      <c r="B32" s="127"/>
-      <c r="C32" s="124" t="s">
+      <c r="B32" s="119"/>
+      <c r="C32" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="125" t="s">
+      <c r="D32" s="112" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="2:4">
-      <c r="B33" s="127"/>
-      <c r="C33" s="122" t="s">
+      <c r="B33" s="119"/>
+      <c r="C33" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="123" t="s">
+      <c r="D33" s="109" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="2:4">
-      <c r="B34" s="127"/>
-      <c r="C34" s="124" t="s">
+      <c r="B34" s="119"/>
+      <c r="C34" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="125" t="s">
+      <c r="D34" s="112" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="2:4">
-      <c r="B35" s="127"/>
-      <c r="C35" s="122" t="s">
+      <c r="B35" s="119"/>
+      <c r="C35" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="123" t="s">
+      <c r="D35" s="109" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="2:4">
-      <c r="B36" s="127"/>
-      <c r="C36" s="124" t="s">
+      <c r="B36" s="119"/>
+      <c r="C36" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="125" t="s">
+      <c r="D36" s="112" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:4">
-      <c r="B37" s="129" t="s">
+      <c r="B37" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="C37" s="122" t="s">
+      <c r="C37" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D37" s="123" t="s">
+      <c r="D37" s="109" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" s="36" customFormat="1" ht="27" spans="2:4">
-      <c r="B38" s="126" t="s">
+    <row r="38" s="28" customFormat="1" ht="27" spans="2:4">
+      <c r="B38" s="118" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="124" t="s">
+      <c r="C38" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="130" t="s">
+      <c r="D38" s="122" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="39" s="36" customFormat="1" ht="27" spans="2:4">
-      <c r="B39" s="126"/>
-      <c r="C39" s="122" t="s">
+    <row r="39" s="28" customFormat="1" ht="27" spans="2:4">
+      <c r="B39" s="118"/>
+      <c r="C39" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="123" t="s">
+      <c r="D39" s="109" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="40" s="36" customFormat="1" ht="20" customHeight="1" spans="2:4">
-      <c r="B40" s="131" t="s">
+    <row r="40" s="28" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B40" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="C40" s="124" t="s">
+      <c r="C40" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D40" s="125" t="s">
+      <c r="D40" s="112" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="2:4">
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="121" t="s">
         <v>116</v>
       </c>
-      <c r="C41" s="122" t="s">
+      <c r="C41" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="123" t="s">
+      <c r="D41" s="109" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1" spans="2:4">
-      <c r="B42" s="131" t="s">
+      <c r="B42" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="124" t="s">
+      <c r="C42" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="125" t="s">
+      <c r="D42" s="112" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="2:4">
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="122" t="s">
+      <c r="C43" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="123" t="s">
+      <c r="D43" s="109" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44" ht="27" spans="2:4">
-      <c r="B44" s="131" t="s">
+      <c r="B44" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="124" t="s">
+      <c r="C44" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="125" t="s">
+      <c r="D44" s="112" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" spans="2:4">
-      <c r="B45" s="121" t="s">
+      <c r="B45" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="122" t="s">
+      <c r="C45" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="123" t="s">
+      <c r="D45" s="109" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="2:4">
-      <c r="B46" s="131" t="s">
+      <c r="B46" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="124" t="s">
+      <c r="C46" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="125" t="s">
+      <c r="D46" s="112" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="47" s="36" customFormat="1" ht="20" customHeight="1" spans="2:4">
-      <c r="B47" s="121" t="s">
+    <row r="47" s="28" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B47" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="C47" s="122" t="s">
+      <c r="C47" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="D47" s="123" t="s">
+      <c r="D47" s="109" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="48" ht="27" spans="2:4">
-      <c r="B48" s="126" t="s">
+      <c r="B48" s="118" t="s">
         <v>130</v>
       </c>
-      <c r="C48" s="124" t="s">
+      <c r="C48" s="101" t="s">
         <v>57</v>
       </c>
-      <c r="D48" s="130" t="s">
+      <c r="D48" s="122" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1" spans="2:4">
-      <c r="B49" s="126"/>
-      <c r="C49" s="122" t="s">
+      <c r="B49" s="118"/>
+      <c r="C49" s="94" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="128" t="s">
+      <c r="D49" s="120" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="50" ht="27" spans="2:4">
-      <c r="B50" s="126"/>
-      <c r="C50" s="124" t="s">
+      <c r="B50" s="118"/>
+      <c r="C50" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="125" t="s">
+      <c r="D50" s="112" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="2:4">
-      <c r="B51" s="126"/>
-      <c r="C51" s="122" t="s">
+      <c r="B51" s="118"/>
+      <c r="C51" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="D51" s="123" t="s">
+      <c r="D51" s="109" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="2:4">
-      <c r="B52" s="126"/>
-      <c r="C52" s="124" t="s">
+      <c r="B52" s="118"/>
+      <c r="C52" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="125" t="s">
+      <c r="D52" s="112" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="2:4">
-      <c r="B53" s="126"/>
-      <c r="C53" s="122" t="s">
+      <c r="B53" s="118"/>
+      <c r="C53" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="123" t="s">
+      <c r="D53" s="109" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="2:4">
-      <c r="B54" s="126"/>
-      <c r="C54" s="124" t="s">
+      <c r="B54" s="118"/>
+      <c r="C54" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="D54" s="125" t="s">
+      <c r="D54" s="112" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="2:4">
-      <c r="B55" s="126"/>
-      <c r="C55" s="122" t="s">
+      <c r="B55" s="118"/>
+      <c r="C55" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="123" t="s">
+      <c r="D55" s="109" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="2:4">
-      <c r="B56" s="126"/>
-      <c r="C56" s="124" t="s">
+      <c r="B56" s="118"/>
+      <c r="C56" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D56" s="125" t="s">
+      <c r="D56" s="112" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="57" ht="40.5" spans="2:4">
-      <c r="B57" s="127" t="s">
+      <c r="B57" s="119" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="122" t="s">
+      <c r="C57" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="123" t="s">
+      <c r="D57" s="109" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="127"/>
-      <c r="C58" s="124" t="s">
+      <c r="B58" s="119"/>
+      <c r="C58" s="101" t="s">
         <v>107</v>
       </c>
-      <c r="D58" s="125" t="s">
+      <c r="D58" s="112" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="59" ht="27" spans="2:4">
-      <c r="B59" s="127"/>
-      <c r="C59" s="122" t="s">
+      <c r="B59" s="119"/>
+      <c r="C59" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="123" t="s">
+      <c r="D59" s="109" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="127"/>
-      <c r="C60" s="124" t="s">
+      <c r="B60" s="119"/>
+      <c r="C60" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="130" t="s">
+      <c r="D60" s="122" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="61" s="36" customFormat="1" spans="2:4">
-      <c r="B61" s="129" t="s">
+    <row r="61" s="28" customFormat="1" spans="2:4">
+      <c r="B61" s="121" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="122" t="s">
+      <c r="C61" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="123" t="s">
+      <c r="D61" s="109" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="62" s="36" customFormat="1" spans="2:4">
-      <c r="B62" s="126" t="s">
+    <row r="62" s="28" customFormat="1" spans="2:4">
+      <c r="B62" s="118" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="124" t="s">
+      <c r="C62" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="125" t="s">
+      <c r="D62" s="112" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="63" s="36" customFormat="1" spans="2:4">
-      <c r="B63" s="126"/>
-      <c r="C63" s="122" t="s">
+    <row r="63" s="28" customFormat="1" spans="2:4">
+      <c r="B63" s="118"/>
+      <c r="C63" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="123" t="s">
+      <c r="D63" s="109" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:4">
-      <c r="B64" s="132" t="s">
+      <c r="B64" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="C64" s="124" t="s">
+      <c r="C64" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="125" t="s">
+      <c r="D64" s="112" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="2:4">
-      <c r="B65" s="121" t="s">
+      <c r="B65" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="C65" s="122" t="s">
+      <c r="C65" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="D65" s="123" t="s">
+      <c r="D65" s="109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="2:4">
-      <c r="B66" s="131" t="s">
+      <c r="B66" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="124" t="s">
+      <c r="C66" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="D66" s="125" t="s">
+      <c r="D66" s="112" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="2:4">
-      <c r="B67" s="121" t="s">
+      <c r="B67" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="C67" s="122" t="s">
+      <c r="C67" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="D67" s="123" t="s">
+      <c r="D67" s="109" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1" spans="2:4">
-      <c r="B68" s="131" t="s">
+      <c r="B68" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="C68" s="124" t="s">
+      <c r="C68" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D68" s="125" t="s">
+      <c r="D68" s="112" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1" spans="2:4">
-      <c r="B69" s="129" t="s">
+      <c r="B69" s="121" t="s">
         <v>160</v>
       </c>
-      <c r="C69" s="122" t="s">
+      <c r="C69" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="D69" s="123" t="s">
+      <c r="D69" s="109" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="70" ht="27.75" spans="2:4">
-      <c r="B70" s="133" t="s">
+      <c r="B70" s="95" t="s">
         <v>162</v>
       </c>
-      <c r="C70" s="134" t="s">
+      <c r="C70" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="135" t="s">
+      <c r="D70" s="110" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="72" ht="14.25"/>
     <row r="73" ht="14.25" spans="2:4">
-      <c r="B73" s="136" t="s">
+      <c r="B73" s="124" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="137"/>
-      <c r="D73" s="138"/>
+      <c r="C73" s="125"/>
+      <c r="D73" s="126"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="118" t="s">
+      <c r="B74" s="115" t="s">
         <v>165</v>
       </c>
-      <c r="C74" s="119"/>
-      <c r="D74" s="120"/>
+      <c r="C74" s="116"/>
+      <c r="D74" s="117"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="121" t="s">
+      <c r="B75" s="93" t="s">
         <v>166</v>
       </c>
-      <c r="C75" s="122"/>
-      <c r="D75" s="123" t="s">
+      <c r="C75" s="94"/>
+      <c r="D75" s="109" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="131" t="s">
+      <c r="B76" s="100" t="s">
         <v>168</v>
       </c>
-      <c r="C76" s="124"/>
-      <c r="D76" s="125"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="112"/>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="129" t="s">
+      <c r="B77" s="121" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="122"/>
-      <c r="D77" s="123" t="s">
+      <c r="C77" s="94"/>
+      <c r="D77" s="109" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="2:4">
-      <c r="B78" s="133" t="s">
+      <c r="B78" s="95" t="s">
         <v>171</v>
       </c>
-      <c r="C78" s="134"/>
-      <c r="D78" s="135"/>
+      <c r="C78" s="96"/>
+      <c r="D78" s="110"/>
     </row>
     <row r="81" ht="16" customHeight="1" spans="4:4">
-      <c r="D81" s="36" t="s">
+      <c r="D81" s="28" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="139" t="s">
+      <c r="D82" s="127" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="139" t="s">
+      <c r="D83" s="127" t="s">
         <v>174</v>
       </c>
     </row>
@@ -7091,279 +7217,839 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B2:K21"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="4.70833333333333" style="28" customWidth="1"/>
+    <col min="2" max="2" width="14.4583333333333" style="28" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="31.6" style="28" customWidth="1"/>
+    <col min="5" max="5" width="44.7083333333333" style="28" customWidth="1"/>
+    <col min="6" max="6" width="46.025" style="28" customWidth="1"/>
+    <col min="7" max="7" width="50.875" style="28" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="28" customWidth="1"/>
+    <col min="9" max="9" width="25.75" style="28" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="28" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="28" customWidth="1"/>
+    <col min="12" max="32" width="9" style="28"/>
+    <col min="33" max="16384" width="57.6416666666667" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="14.25"/>
+    <row r="3" ht="14.25" spans="2:11">
+      <c r="B3" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="90" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="90" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="90" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="107" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" ht="81" spans="2:11">
+      <c r="B4" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="J4" s="92" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="108" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="2:11">
+      <c r="B5" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="94" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="K5" s="109" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="2:11">
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="110"/>
+    </row>
+    <row r="7" ht="40.5" spans="2:11">
+      <c r="B7" s="97" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="111" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="2:11">
+      <c r="B8" s="100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="101" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>202</v>
+      </c>
+      <c r="F8" s="101" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="102" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="101" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" s="101" t="s">
+        <v>200</v>
+      </c>
+      <c r="J8" s="101" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="112" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="2:11">
+      <c r="B9" s="103"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="113"/>
+    </row>
+    <row r="10" ht="40.5" spans="2:11">
+      <c r="B10" s="91" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="92" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="108" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="2:11">
+      <c r="B11" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="94" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="109" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="2:11">
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="110"/>
+    </row>
+    <row r="13" ht="108" spans="2:11">
+      <c r="B13" s="105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="106" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="106" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="106" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="106" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="106" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="J13" s="106"/>
+      <c r="K13" s="114"/>
+    </row>
+    <row r="14" ht="27" spans="2:11">
+      <c r="B14" s="105" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="114"/>
+    </row>
+    <row r="15" ht="135" spans="2:11">
+      <c r="B15" s="100" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="101" t="s">
+        <v>221</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>222</v>
+      </c>
+      <c r="F15" s="101" t="s">
+        <v>223</v>
+      </c>
+      <c r="G15" s="101" t="s">
+        <v>224</v>
+      </c>
+      <c r="H15" s="101" t="s">
+        <v>225</v>
+      </c>
+      <c r="I15" s="101" t="s">
+        <v>226</v>
+      </c>
+      <c r="J15" s="101" t="s">
+        <v>208</v>
+      </c>
+      <c r="K15" s="112" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="2:11">
+      <c r="B16" s="93" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>228</v>
+      </c>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="K16" s="109" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="112"/>
+    </row>
+    <row r="18" ht="14.25" spans="2:11">
+      <c r="B18" s="103"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="113"/>
+    </row>
+    <row r="21" ht="67.5" spans="5:7">
+      <c r="E21" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="4.625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="14.25"/>
+    <row r="3" ht="14.25" spans="2:5">
+      <c r="B3" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="83" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="2:5">
+      <c r="B4" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="2:5">
+      <c r="B5" s="5"/>
+      <c r="C5" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="2:5">
+      <c r="B6" s="5"/>
+      <c r="C6" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="2:5">
+      <c r="B7" s="5"/>
+      <c r="C7" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="85" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="5"/>
+      <c r="C8" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="10"/>
+      <c r="C10" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" s="85" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" spans="2:5">
+      <c r="B12" s="87"/>
+      <c r="C12" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C11" r:id="rId1" display="5.0.0.Alpha1" tooltip="https://mvnrepository.com/artifact/io.netty/netty-all/5.0.0.Alpha1"/>
+    <hyperlink ref="C12" r:id="rId1" display="5.0.0.Alpha1" tooltip="https://mvnrepository.com/artifact/io.netty/netty-all/5.0.0.Alpha1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="45" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="36" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="36" customWidth="1"/>
-    <col min="5" max="7" width="14" style="36" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="36"/>
+    <col min="1" max="1" width="4.625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="28" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="28" customWidth="1"/>
+    <col min="5" max="7" width="14" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="2:2">
-      <c r="B1" s="36" t="s">
-        <v>175</v>
+      <c r="B1" s="28" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="94" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>179</v>
-      </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96"/>
+      <c r="B3" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="97" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="98" t="s">
-        <v>181</v>
-      </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="99" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="100"/>
+      <c r="B4" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
     </row>
     <row r="5" customHeight="1" spans="2:7">
-      <c r="B5" s="101" t="s">
-        <v>183</v>
-      </c>
-      <c r="C5" s="102" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="102" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="102" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="102"/>
-      <c r="G5" s="103"/>
+      <c r="B5" s="64" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="65"/>
+      <c r="G5" s="66"/>
     </row>
     <row r="6" customHeight="1" spans="2:7">
-      <c r="B6" s="104" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
+      <c r="B6" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="69"/>
     </row>
     <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="101" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="102" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="103"/>
+      <c r="B7" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="66"/>
     </row>
     <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" ht="13.5"/>
     <row r="10" ht="13.5"/>
     <row r="11" ht="13.5"/>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25" spans="2:7">
-      <c r="B13" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93" t="s">
-        <v>192</v>
-      </c>
-      <c r="F13" s="93" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="110" t="s">
-        <v>193</v>
+      <c r="B13" s="55" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="C14" s="98" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="98" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" s="111"/>
+      <c r="B14" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="61" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="74"/>
     </row>
     <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102" t="s">
-        <v>200</v>
-      </c>
-      <c r="F15" s="102" t="s">
-        <v>197</v>
-      </c>
-      <c r="G15" s="103"/>
+      <c r="B15" s="64" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>280</v>
+      </c>
+      <c r="G15" s="66"/>
     </row>
     <row r="16" ht="68" customHeight="1" spans="2:7">
-      <c r="B16" s="104" t="s">
-        <v>201</v>
-      </c>
-      <c r="C16" s="105" t="s">
-        <v>202</v>
-      </c>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="106" t="s">
-        <v>203</v>
+      <c r="B16" s="67" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68" t="s">
+        <v>280</v>
+      </c>
+      <c r="G16" s="69" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="102" t="s">
-        <v>205</v>
-      </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102" t="s">
-        <v>206</v>
-      </c>
-      <c r="F17" s="102" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="103" t="s">
-        <v>208</v>
+      <c r="B17" s="64" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>290</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:7">
-      <c r="B18" s="104" t="s">
-        <v>209</v>
-      </c>
-      <c r="C18" s="105" t="s">
-        <v>210</v>
-      </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105" t="s">
-        <v>207</v>
-      </c>
-      <c r="G18" s="106" t="s">
-        <v>208</v>
+      <c r="B18" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" s="69" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="19" ht="78" customHeight="1" spans="2:7">
-      <c r="B19" s="101" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="102" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="103" t="s">
-        <v>213</v>
+      <c r="B19" s="64" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="66" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:7">
-      <c r="B20" s="104" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="105" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105" t="s">
-        <v>200</v>
-      </c>
-      <c r="F20" s="105" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="106"/>
+      <c r="B20" s="67" t="s">
+        <v>297</v>
+      </c>
+      <c r="C20" s="68" t="s">
+        <v>298</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="G20" s="69"/>
     </row>
     <row r="21" ht="14.25" spans="2:7">
-      <c r="B21" s="112"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="114"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
     </row>
     <row r="22" customHeight="1" spans="2:7">
-      <c r="B22" s="115" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="116" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="117"/>
+      <c r="B22" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="80"/>
     </row>
     <row r="23" ht="13.5" spans="2:7">
-      <c r="B23" s="112" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="114"/>
+      <c r="B23" s="75" t="s">
+        <v>302</v>
+      </c>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24" ht="14.25" spans="2:7">
-      <c r="B24" s="107"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="109"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -7392,405 +8078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:K25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="4.70833333333333" style="36" customWidth="1"/>
-    <col min="2" max="2" width="14.4583333333333" style="36" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="31.6" style="36" customWidth="1"/>
-    <col min="5" max="5" width="44.7083333333333" style="36" customWidth="1"/>
-    <col min="6" max="6" width="46.025" style="36" customWidth="1"/>
-    <col min="7" max="7" width="50.875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="36" customWidth="1"/>
-    <col min="9" max="9" width="25.75" style="36" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="36" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="36" customWidth="1"/>
-    <col min="12" max="32" width="9" style="36"/>
-    <col min="33" max="16384" width="57.6416666666667" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="14.25"/>
-    <row r="3" ht="14.25" spans="2:11">
-      <c r="B3" s="63" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="64" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="64" t="s">
-        <v>222</v>
-      </c>
-      <c r="E3" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="F3" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="G3" s="64" t="s">
-        <v>225</v>
-      </c>
-      <c r="H3" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="I3" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="J3" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="K3" s="83" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" ht="81" spans="2:11">
-      <c r="B4" s="65" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>231</v>
-      </c>
-      <c r="E4" s="66" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" s="66" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="66" t="s">
-        <v>234</v>
-      </c>
-      <c r="H4" s="66" t="s">
-        <v>235</v>
-      </c>
-      <c r="I4" s="66" t="s">
-        <v>236</v>
-      </c>
-      <c r="J4" s="66" t="s">
-        <v>237</v>
-      </c>
-      <c r="K4" s="84" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" ht="40.5" spans="2:11">
-      <c r="B5" s="67" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="J5" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="K5" s="85" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="2:11">
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="86"/>
-    </row>
-    <row r="7" ht="40.5" spans="2:11">
-      <c r="B7" s="71" t="s">
-        <v>241</v>
-      </c>
-      <c r="C7" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="73" t="s">
-        <v>242</v>
-      </c>
-      <c r="E7" s="72" t="s">
-        <v>243</v>
-      </c>
-      <c r="F7" s="72" t="s">
-        <v>244</v>
-      </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="J7" s="72" t="s">
-        <v>237</v>
-      </c>
-      <c r="K7" s="87" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="8" ht="67.5" spans="2:11">
-      <c r="B8" s="74" t="s">
-        <v>246</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="G8" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="H8" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="I8" s="75" t="s">
-        <v>245</v>
-      </c>
-      <c r="J8" s="75" t="s">
-        <v>237</v>
-      </c>
-      <c r="K8" s="88" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" ht="14.25" spans="2:11">
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="89"/>
-    </row>
-    <row r="10" ht="40.5" spans="2:11">
-      <c r="B10" s="65" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>251</v>
-      </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66" t="s">
-        <v>252</v>
-      </c>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66" t="s">
-        <v>253</v>
-      </c>
-      <c r="K10" s="84" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="2:11">
-      <c r="B11" s="67" t="s">
-        <v>255</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="68" t="s">
-        <v>256</v>
-      </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="K11" s="85" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" spans="2:11">
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="86"/>
-    </row>
-    <row r="13" ht="81" spans="2:11">
-      <c r="B13" s="79" t="s">
-        <v>257</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="80" t="s">
-        <v>258</v>
-      </c>
-      <c r="E13" s="80" t="s">
-        <v>259</v>
-      </c>
-      <c r="F13" s="80" t="s">
-        <v>260</v>
-      </c>
-      <c r="G13" s="80" t="s">
-        <v>261</v>
-      </c>
-      <c r="H13" s="80" t="s">
-        <v>262</v>
-      </c>
-      <c r="I13" s="80" t="s">
-        <v>263</v>
-      </c>
-      <c r="J13" s="80"/>
-      <c r="K13" s="90"/>
-    </row>
-    <row r="14" ht="40.5" spans="2:11">
-      <c r="B14" s="81" t="s">
-        <v>264</v>
-      </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="91"/>
-    </row>
-    <row r="15" ht="148.5" spans="2:11">
-      <c r="B15" s="74" t="s">
-        <v>265</v>
-      </c>
-      <c r="C15" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>267</v>
-      </c>
-      <c r="F15" s="75" t="s">
-        <v>268</v>
-      </c>
-      <c r="G15" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="H15" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="I15" s="75" t="s">
-        <v>271</v>
-      </c>
-      <c r="J15" s="75" t="s">
-        <v>253</v>
-      </c>
-      <c r="K15" s="88" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" ht="40.5" spans="2:11">
-      <c r="B16" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="K16" s="85" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="88"/>
-    </row>
-    <row r="18" ht="14.25" spans="2:11">
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="89"/>
-    </row>
-    <row r="25" ht="67.5" spans="5:7">
-      <c r="E25" s="36" t="s">
-        <v>274</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>276</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:C6"/>
@@ -7808,35 +8096,35 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:3">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>277</v>
+      <c r="C3" s="50" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
-      <c r="B4" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>279</v>
+      <c r="B4" s="51" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:3">
-      <c r="B5" s="59" t="s">
-        <v>280</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>281</v>
+      <c r="B5" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:3">
-      <c r="B6" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>283</v>
+      <c r="B6" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -7851,7 +8139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:F20"/>
@@ -7872,184 +8160,184 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>285</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>286</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>287</v>
-      </c>
-      <c r="F3" s="45" t="s">
-        <v>288</v>
+      <c r="B3" s="35" t="s">
+        <v>310</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>311</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="4" ht="81" spans="2:6">
-      <c r="B4" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="D4" s="47" t="s">
+      <c r="B4" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="F4" s="49"/>
+      <c r="E4" s="40" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" ht="14.25" spans="2:6">
-      <c r="B5" s="50"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="51"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" ht="81" spans="2:6">
-      <c r="B6" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>293</v>
-      </c>
-      <c r="D6" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" s="55" t="s">
-        <v>296</v>
+      <c r="B6" s="44" t="s">
+        <v>318</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>319</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:6">
-      <c r="B7" s="50"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="51"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="43"/>
     </row>
     <row r="8" ht="81" spans="2:6">
-      <c r="B8" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>299</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>300</v>
-      </c>
-      <c r="F8" s="56"/>
+      <c r="B8" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>324</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>326</v>
+      </c>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" ht="14.25" spans="2:6">
-      <c r="B9" s="50"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="51"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" ht="94.5" spans="2:6">
-      <c r="B10" s="52" t="s">
-        <v>301</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>303</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="F10" s="56"/>
+      <c r="B10" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>330</v>
+      </c>
+      <c r="F10" s="48"/>
     </row>
     <row r="11" ht="14.25" spans="2:6">
-      <c r="B11" s="50"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="51"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="43"/>
     </row>
     <row r="12" ht="40.5" spans="2:6">
-      <c r="B12" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>307</v>
-      </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="56"/>
+      <c r="B12" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="48"/>
     </row>
     <row r="13" ht="14.25" spans="2:6">
-      <c r="B13" s="50"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="51"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="43"/>
     </row>
     <row r="14" ht="67.5" spans="2:6">
-      <c r="B14" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="D14" s="54" t="s">
-        <v>310</v>
-      </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="56"/>
+      <c r="B14" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="48"/>
     </row>
     <row r="15" ht="14.25" spans="2:6">
-      <c r="B15" s="50"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="51"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="41"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="46"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="49"/>
+      <c r="B17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="41"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="46"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="49"/>
+      <c r="B18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="41"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="49"/>
+      <c r="B19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="41"/>
     </row>
     <row r="20" ht="14.25" spans="2:6">
-      <c r="B20" s="50"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="51"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8058,157 +8346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
-  <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="37.375" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
-    <col min="6" max="6" width="29.375" customWidth="1"/>
-    <col min="7" max="7" width="36.375" customWidth="1"/>
-    <col min="8" max="8" width="40.125" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="14.25"/>
-    <row r="3" ht="14.25" spans="2:9">
-      <c r="B3" s="33"/>
-      <c r="C3" s="34" t="s">
-        <v>312</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>313</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>316</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="2:9">
-      <c r="B4" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" ht="81" spans="2:9">
-      <c r="B5" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="D5" s="158" t="s">
-        <v>325</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="6" ht="54" spans="2:9">
-      <c r="B6" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="D6" s="158" t="s">
-        <v>331</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" ht="68.25" spans="2:9">
-      <c r="B7" s="37" t="s">
-        <v>335</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="D7" s="159" t="s">
-        <v>337</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="39" t="s">
-        <v>340</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>341</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -8222,4 +8360,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,28 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500" tabRatio="977" activeTab="8"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="977" firstSheet="4" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
-    <sheet name="JavaAPI" sheetId="10" r:id="rId2"/>
-    <sheet name="Iterable" sheetId="9" r:id="rId3"/>
-    <sheet name="Netty" sheetId="12" r:id="rId4"/>
-    <sheet name="GC" sheetId="11" r:id="rId5"/>
-    <sheet name="Spring" sheetId="2" r:id="rId6"/>
-    <sheet name="JPA" sheetId="3" r:id="rId7"/>
-    <sheet name="Dubbo" sheetId="17" r:id="rId8"/>
-    <sheet name="SpringBoot" sheetId="18" r:id="rId9"/>
-    <sheet name="DBMS" sheetId="4" r:id="rId10"/>
-    <sheet name="MySQL" sheetId="8" r:id="rId11"/>
-    <sheet name="MyCat" sheetId="19" r:id="rId12"/>
-    <sheet name="Redis" sheetId="5" r:id="rId13"/>
-    <sheet name="ZooKeeper" sheetId="13" r:id="rId14"/>
-    <sheet name="Server" sheetId="15" r:id="rId15"/>
-    <sheet name="Tomcat" sheetId="14" r:id="rId16"/>
-    <sheet name="JMS" sheetId="6" r:id="rId17"/>
-    <sheet name="RocketMQ" sheetId="7" r:id="rId18"/>
-    <sheet name="ActiveMQ" sheetId="16" r:id="rId19"/>
+    <sheet name="MySQL" sheetId="8" r:id="rId2"/>
+    <sheet name="Redis" sheetId="5" r:id="rId3"/>
+    <sheet name="MyCat" sheetId="19" r:id="rId4"/>
+    <sheet name="JavaAPI" sheetId="10" r:id="rId5"/>
+    <sheet name="Iterable" sheetId="9" r:id="rId6"/>
+    <sheet name="Netty" sheetId="12" r:id="rId7"/>
+    <sheet name="GC" sheetId="11" r:id="rId8"/>
+    <sheet name="Spring" sheetId="2" r:id="rId9"/>
+    <sheet name="JPA" sheetId="3" r:id="rId10"/>
+    <sheet name="ZooKeeper" sheetId="13" r:id="rId11"/>
+    <sheet name="Server" sheetId="15" r:id="rId12"/>
+    <sheet name="Tomcat" sheetId="14" r:id="rId13"/>
+    <sheet name="RocketMQ" sheetId="7" r:id="rId14"/>
+    <sheet name="ActiveMQ" sheetId="16" r:id="rId15"/>
+    <sheet name="Dubbo" sheetId="17" r:id="rId16"/>
+    <sheet name="SpringBoot" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -437,6 +435,112 @@
     <t>2013年12月，Spring 4.0发布，支持Java 8</t>
   </si>
   <si>
+    <t>默认状态</t>
+  </si>
+  <si>
+    <t>启动配置</t>
+  </si>
+  <si>
+    <t>默认配置</t>
+  </si>
+  <si>
+    <t>查看</t>
+  </si>
+  <si>
+    <t>删除</t>
+  </si>
+  <si>
+    <t>记录内容</t>
+  </si>
+  <si>
+    <t>老版本启动配置</t>
+  </si>
+  <si>
+    <t>错误日志</t>
+  </si>
+  <si>
+    <t>默认启动</t>
+  </si>
+  <si>
+    <t>--log-error[=file_name]</t>
+  </si>
+  <si>
+    <t>缺省日志名：host_name.err
+缺省路径：DATADIR</t>
+  </si>
+  <si>
+    <t>错误日志，记录了mysqld启动、停止时，以及服务器运行中发生任何严重错误时的相关信息。</t>
+  </si>
+  <si>
+    <t>二进制日志</t>
+  </si>
+  <si>
+    <t>--log-bin[=file_name]
+--binlog_format=STATEMENT、ROW、MIXED</t>
+  </si>
+  <si>
+    <t>缺省日志名：host-bin
+缺省路径：DATADIR</t>
+  </si>
+  <si>
+    <t>由于日志以二进制方式存储，不能直接读取，需要用mysqlbinlog工具来查看：
+mysqlbinlog log-file</t>
+  </si>
+  <si>
+    <t>1、删除二进制日志：reset master
+2、purge master logs to 'mysql-bin.***' 命令
+3、purge master logs before 'yyyy-mm-dd HH:mm:ss' 命令
+4、设置 --expire_logs_days=#</t>
+  </si>
+  <si>
+    <t>二进制文件(BinLog)，记录了所有DDL、DML语句，但不包括数据查询语句。它描述了数据的更改过程，此日志对灾难时的数据恢复起着极其重要的作用。</t>
+  </si>
+  <si>
+    <t>查询日志</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--log-output[=TABLE、FILE、NONE]
+--general_log[={0|1}]
+--general_log_file=file_name
+</t>
+  </si>
+  <si>
+    <t>默认文件名：host_name.log
+默认路径：DATADIR</t>
+  </si>
+  <si>
+    <t>查询日志记录的格式是纯文本，可以直接进行读取，如 more localhost.log</t>
+  </si>
+  <si>
+    <t>查询日志记录了客户端的所有语句，而二进制日志不包含只查询数据的语句。</t>
+  </si>
+  <si>
+    <t>慢查询日志</t>
+  </si>
+  <si>
+    <t>默认关闭</t>
+  </si>
+  <si>
+    <t>--log-slow-admin-statements
+--log_quries_not_using_indexes
+--slow_query_log[={0|1}]
+--slow_query_log_file[=file_name] 
+--log-output=[table\file\none]</t>
+  </si>
+  <si>
+    <t>默认路径：DATADIR
+默认文件名：host_name-slow.log</t>
+  </si>
+  <si>
+    <t>和错误日志、查询日志一样，慢查询日志记录的格式也是纯文本，可以被直接读取，如 more host-slow.log。</t>
+  </si>
+  <si>
+    <t>慢查询日志记录了所有执行时间超过参数long_query_time(单位：秒)值、且扫描记录数不小于min_examined_row_limit 的所有SQL语句的日志</t>
+  </si>
+  <si>
+    <t>在MySQL 5.1.29之前，使用 --log-slow-quries[=file_name]</t>
+  </si>
+  <si>
     <t>rt.jar</t>
   </si>
   <si>
@@ -2838,112 +2942,6 @@
     <t>Spring Data JPA</t>
   </si>
   <si>
-    <t>默认状态</t>
-  </si>
-  <si>
-    <t>启动配置</t>
-  </si>
-  <si>
-    <t>默认配置</t>
-  </si>
-  <si>
-    <t>查看</t>
-  </si>
-  <si>
-    <t>删除</t>
-  </si>
-  <si>
-    <t>记录内容</t>
-  </si>
-  <si>
-    <t>老版本启动配置</t>
-  </si>
-  <si>
-    <t>错误日志</t>
-  </si>
-  <si>
-    <t>默认启动</t>
-  </si>
-  <si>
-    <t>--log-error[=file_name]</t>
-  </si>
-  <si>
-    <t>缺省日志名：host_name.err
-缺省路径：DATADIR</t>
-  </si>
-  <si>
-    <t>错误日志，记录了mysqld启动、停止时，以及服务器运行中发生任何严重错误时的相关信息。</t>
-  </si>
-  <si>
-    <t>二进制日志</t>
-  </si>
-  <si>
-    <t>--log-bin[=file_name]
---binlog_format=STATEMENT、ROW、MIXED</t>
-  </si>
-  <si>
-    <t>缺省日志名：host-bin
-缺省路径：DATADIR</t>
-  </si>
-  <si>
-    <t>由于日志以二进制方式存储，不能直接读取，需要用mysqlbinlog工具来查看：
-mysqlbinlog log-file</t>
-  </si>
-  <si>
-    <t>1、删除二进制日志：reset master
-2、purge master logs to 'mysql-bin.***' 命令
-3、purge master logs before 'yyyy-mm-dd HH:mm:ss' 命令
-4、设置 --expire_logs_days=#</t>
-  </si>
-  <si>
-    <t>二进制文件(BinLog)，记录了所有DDL、DML语句，但不包括数据查询语句。它描述了数据的更改过程，此日志对灾难时的数据恢复起着极其重要的作用。</t>
-  </si>
-  <si>
-    <t>查询日志</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--log-output[=TABLE、FILE、NONE]
---general_log[={0|1}]
---general_log_file=file_name
-</t>
-  </si>
-  <si>
-    <t>默认文件名：host_name.log
-默认路径：DATADIR</t>
-  </si>
-  <si>
-    <t>查询日志记录的格式是纯文本，可以直接进行读取，如 more localhost.log</t>
-  </si>
-  <si>
-    <t>查询日志记录了客户端的所有语句，而二进制日志不包含只查询数据的语句。</t>
-  </si>
-  <si>
-    <t>慢查询日志</t>
-  </si>
-  <si>
-    <t>默认关闭</t>
-  </si>
-  <si>
-    <t>--log-slow-admin-statements
---log_quries_not_using_indexes
---slow_query_log[={0|1}]
---slow_query_log_file[=file_name] 
---log-output=[table\file\none]</t>
-  </si>
-  <si>
-    <t>默认路径：DATADIR
-默认文件名：host_name-slow.log</t>
-  </si>
-  <si>
-    <t>和错误日志、查询日志一样，慢查询日志记录的格式也是纯文本，可以被直接读取，如 more host-slow.log。</t>
-  </si>
-  <si>
-    <t>慢查询日志记录了所有执行时间超过参数long_query_time(单位：秒)值、且扫描记录数不小于min_examined_row_limit 的所有SQL语句的日志</t>
-  </si>
-  <si>
-    <t>在MySQL 5.1.29之前，使用 --log-slow-quries[=file_name]</t>
-  </si>
-  <si>
     <t>组件名</t>
   </si>
   <si>
@@ -3009,10 +3007,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3062,7 +3060,91 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3077,68 +3159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3166,32 +3187,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3206,12 +3204,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3244,85 +3242,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3340,7 +3260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3352,7 +3278,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3364,7 +3350,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3376,55 +3416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3704,9 +3702,31 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -3734,28 +3754,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -4095,60 +4093,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -4182,6 +4126,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4190,6 +4149,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4198,10 +4196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4210,133 +4208,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="57" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="51" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4416,315 +4414,315 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4755,34 +4753,34 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="5" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="5" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5314,7 +5312,7 @@
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="78"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="129" t="s">
         <v>2</v>
       </c>
@@ -5332,99 +5330,99 @@
       <c r="B4" s="131">
         <v>33329</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="74"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="66"/>
     </row>
     <row r="5" ht="40.5" spans="2:6">
       <c r="B5" s="132">
         <v>34820</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
     </row>
     <row r="6" ht="27" spans="2:6">
       <c r="B6" s="133">
         <v>35065</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="61"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="132">
         <v>35462</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
     </row>
     <row r="8" ht="54" spans="2:6">
       <c r="B8" s="133">
         <v>36130</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="69"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="61"/>
     </row>
     <row r="9" ht="27" spans="2:6">
       <c r="B9" s="132">
         <v>36647</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
     </row>
     <row r="10" ht="40.5" spans="2:6">
       <c r="B10" s="133">
         <v>37288</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="69"/>
+      <c r="F10" s="61"/>
     </row>
     <row r="11" ht="40.5" spans="2:6">
       <c r="B11" s="132"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="58" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5432,23 +5430,23 @@
       <c r="B12" s="133">
         <v>38231</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="69"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="61"/>
     </row>
     <row r="13" ht="54" spans="2:6">
       <c r="B13" s="132"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="66" t="s">
+      <c r="F13" s="58" t="s">
         <v>24</v>
       </c>
     </row>
@@ -5456,81 +5454,81 @@
       <c r="B14" s="133">
         <v>39052</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="61"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="66" t="s">
+      <c r="F15" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" ht="40.5" spans="2:9">
-      <c r="B16" s="67"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" ht="54" spans="2:9">
       <c r="B17" s="132">
         <v>40725</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" ht="108" spans="2:9">
       <c r="B18" s="133">
         <v>41699</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="68" t="s">
+      <c r="D18" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="61"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
     </row>
     <row r="19" ht="40.5" spans="2:6">
       <c r="B19" s="132"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="58" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5538,112 +5536,113 @@
       <c r="B20" s="133">
         <v>42979</v>
       </c>
-      <c r="C20" s="68" t="s">
+      <c r="C20" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68" t="s">
+      <c r="D20" s="60"/>
+      <c r="E20" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="69"/>
+      <c r="F20" s="61"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="132">
         <v>43160</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="133">
         <v>43344</v>
       </c>
-      <c r="C22" s="68" t="s">
+      <c r="C22" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="132">
         <v>43525</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="58"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="133">
         <v>43709</v>
       </c>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="132">
         <v>43891</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="77"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="133">
         <v>44075</v>
       </c>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="61"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="134"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="77"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="67"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="61"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="134"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="77"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
     </row>
     <row r="30" ht="14.25" spans="2:6">
       <c r="B30" s="135"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="72"/>
-    </row>
-    <row r="41" spans="2:4">
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="64"/>
+    </row>
+    <row r="40" ht="14.25"/>
+    <row r="41" ht="14.25" spans="2:4">
       <c r="B41" s="136"/>
       <c r="C41" s="137" t="s">
         <v>2</v>
@@ -5783,7 +5782,7 @@
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="139"/>
-      <c r="C57" s="28"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="141" t="s">
         <v>51</v>
       </c>
@@ -5845,7 +5844,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0ee3d020-a1a4-4685-a785-e5b317519df7}</x14:id>
+          <x14:id>{416431cc-0dca-4d27-8dcb-d4d74bad6f41}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5859,7 +5858,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fa7ad0e4-b711-4b5b-baa7-7ed2e6fa92c7}</x14:id>
+          <x14:id>{7a2547f0-d563-4489-a37b-ad08b9765a3a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5873,7 +5872,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3f46ecd8-60f7-4628-95c7-d41b58abe475}</x14:id>
+          <x14:id>{6c4282bc-9b3c-45e9-9e6c-f78ed2b3f0a8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5887,7 +5886,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{75bde258-4552-4d42-8355-5f3d77ccfbd0}</x14:id>
+          <x14:id>{f9f77fbb-2f90-4df4-aa8d-d34126f2c4cd}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5901,7 +5900,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0c37ac51-ed29-4aed-b2c5-9814df80ce44}</x14:id>
+          <x14:id>{638e4029-b859-4910-9bd9-3b7f162c3414}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5915,7 +5914,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{63ceeb62-4099-47fc-bda6-b7bfb2769402}</x14:id>
+          <x14:id>{e4372983-1279-4375-a7ab-4ea649a337d3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5929,7 +5928,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{69f46cee-2bea-4b7b-bfc6-870693adeb42}</x14:id>
+          <x14:id>{adf8b275-0181-4c00-a094-1885d2717910}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5943,7 +5942,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3c2a8cf2-4242-4b70-9a52-e60fc40cdd35}</x14:id>
+          <x14:id>{028ba4a8-80c6-43ad-a916-c0ed08b3922c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5955,7 +5954,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0ee3d020-a1a4-4685-a785-e5b317519df7}">
+          <x14:cfRule type="dataBar" id="{416431cc-0dca-4d27-8dcb-d4d74bad6f41}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5966,7 +5965,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fa7ad0e4-b711-4b5b-baa7-7ed2e6fa92c7}">
+          <x14:cfRule type="dataBar" id="{7a2547f0-d563-4489-a37b-ad08b9765a3a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5977,7 +5976,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3f46ecd8-60f7-4628-95c7-d41b58abe475}">
+          <x14:cfRule type="dataBar" id="{6c4282bc-9b3c-45e9-9e6c-f78ed2b3f0a8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5988,7 +5987,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{75bde258-4552-4d42-8355-5f3d77ccfbd0}">
+          <x14:cfRule type="dataBar" id="{f9f77fbb-2f90-4df4-aa8d-d34126f2c4cd}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5999,7 +5998,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0c37ac51-ed29-4aed-b2c5-9814df80ce44}">
+          <x14:cfRule type="dataBar" id="{638e4029-b859-4910-9bd9-3b7f162c3414}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6010,7 +6009,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{63ceeb62-4099-47fc-bda6-b7bfb2769402}">
+          <x14:cfRule type="dataBar" id="{e4372983-1279-4375-a7ab-4ea649a337d3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6021,7 +6020,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{69f46cee-2bea-4b7b-bfc6-870693adeb42}">
+          <x14:cfRule type="dataBar" id="{adf8b275-0181-4c00-a094-1885d2717910}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6032,7 +6031,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3c2a8cf2-4242-4b70-9a52-e60fc40cdd35}">
+          <x14:cfRule type="dataBar" id="{028ba4a8-80c6-43ad-a916-c0ed08b3922c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6051,148 +6050,221 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="69.375" customWidth="1"/>
+    <col min="4" max="4" width="59.375" customWidth="1"/>
+    <col min="5" max="5" width="49.875" customWidth="1"/>
+    <col min="6" max="6" width="52.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="14.25"/>
+    <row r="3" ht="14.25" spans="2:6">
+      <c r="B3" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" ht="81" spans="2:6">
+      <c r="B4" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" s="32"/>
+    </row>
+    <row r="5" ht="14.25" spans="2:6">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" ht="81" spans="2:6">
+      <c r="B6" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="2:6">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" ht="81" spans="2:6">
+      <c r="B8" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8" s="40"/>
+    </row>
+    <row r="9" ht="14.25" spans="2:6">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" ht="94.5" spans="2:6">
+      <c r="B10" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>359</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="F10" s="40"/>
+    </row>
+    <row r="11" ht="14.25" spans="2:6">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" ht="40.5" spans="2:6">
+      <c r="B12" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>363</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="40"/>
+    </row>
+    <row r="13" ht="14.25" spans="2:6">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" ht="67.5" spans="2:6">
+      <c r="B14" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="40"/>
+    </row>
+    <row r="15" ht="14.25" spans="2:6">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="28"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="32"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="28"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="28"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="32"/>
+    </row>
+    <row r="20" ht="14.25" spans="2:6">
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:I7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
-  <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="37.375" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
-    <col min="6" max="6" width="29.375" customWidth="1"/>
-    <col min="7" max="7" width="36.375" customWidth="1"/>
-    <col min="8" max="8" width="40.125" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="14.25"/>
-    <row r="3" ht="14.25" spans="2:9">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="2:9">
-      <c r="B4" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4" t="s">
-        <v>346</v>
-      </c>
-      <c r="D4" t="s">
-        <v>347</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>348</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>349</v>
-      </c>
-      <c r="I4" s="33"/>
-    </row>
-    <row r="5" ht="81" spans="2:9">
-      <c r="B5" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="D5" s="146" t="s">
-        <v>351</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>352</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="I5" s="33"/>
-    </row>
-    <row r="6" ht="54" spans="2:9">
-      <c r="B6" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="D6" s="146" t="s">
-        <v>357</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="I6" s="33"/>
-    </row>
-    <row r="7" ht="68.25" spans="2:9">
-      <c r="B7" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="D7" s="147" t="s">
-        <v>363</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="I7" s="34" t="s">
-        <v>367</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6204,13 +6276,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6234,14 +6305,110 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="44.125" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="14.25"/>
+    <row r="3" ht="14.25" spans="2:6">
+      <c r="B3" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="2:6">
+      <c r="B8" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6253,7 +6420,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6284,8 +6451,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6295,110 +6462,132 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F8"/>
+  <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="44.125" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="37.375" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="29.375" customWidth="1"/>
+    <col min="7" max="7" width="36.375" customWidth="1"/>
+    <col min="8" max="8" width="40.125" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25"/>
-    <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>377</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>381</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="2:6">
-      <c r="B8" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>387</v>
+    <row r="3" ht="14.25" spans="2:9">
+      <c r="B3" s="120"/>
+      <c r="C3" s="121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="121" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="121" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="121" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="121" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="125" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="2:9">
+      <c r="B4" s="122" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="126"/>
+    </row>
+    <row r="5" ht="81" spans="2:9">
+      <c r="B5" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="146" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="126"/>
+    </row>
+    <row r="6" ht="54" spans="2:9">
+      <c r="B6" s="122" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="146" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="126"/>
+    </row>
+    <row r="7" ht="68.25" spans="2:9">
+      <c r="B7" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="147" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="127" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -6407,7 +6596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -6423,7 +6612,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:D83"/>
@@ -6434,758 +6640,758 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="31" style="28" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="28" customWidth="1"/>
-    <col min="4" max="4" width="114.625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="4.625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="31" style="29" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="29" customWidth="1"/>
+    <col min="4" max="4" width="114.625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="29" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="28" t="s">
-        <v>52</v>
+      <c r="B1" s="29" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1"/>
     <row r="3" ht="20" customHeight="1" spans="2:4">
-      <c r="B3" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>55</v>
+      <c r="B3" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:4">
-      <c r="B4" s="115" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="116" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="117" t="s">
-        <v>58</v>
+      <c r="B4" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="109" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:4">
-      <c r="B5" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="109" t="s">
-        <v>60</v>
+      <c r="B5" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="101" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:4">
-      <c r="B6" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="101" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="112" t="s">
-        <v>63</v>
+      <c r="B6" s="59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="104" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:4">
-      <c r="B7" s="67"/>
-      <c r="C7" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="109" t="s">
-        <v>65</v>
+      <c r="B7" s="59"/>
+      <c r="C7" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="101" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:4">
-      <c r="B8" s="67"/>
-      <c r="C8" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="112" t="s">
-        <v>67</v>
+      <c r="B8" s="59"/>
+      <c r="C8" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="104" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:4">
-      <c r="B9" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="109" t="s">
-        <v>70</v>
+      <c r="B9" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="101" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:4">
-      <c r="B10" s="118" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="112" t="s">
-        <v>72</v>
+      <c r="B10" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:4">
-      <c r="B11" s="118"/>
-      <c r="C11" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="109" t="s">
-        <v>74</v>
+      <c r="B11" s="110"/>
+      <c r="C11" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:4">
-      <c r="B12" s="118"/>
-      <c r="C12" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="112" t="s">
-        <v>76</v>
+      <c r="B12" s="110"/>
+      <c r="C12" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="104" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="119" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="109" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" s="28" customFormat="1" ht="27" spans="2:4">
-      <c r="B14" s="119"/>
-      <c r="C14" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" s="112" t="s">
-        <v>78</v>
+      <c r="B13" s="111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="101" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" s="29" customFormat="1" ht="27" spans="2:4">
+      <c r="B14" s="111"/>
+      <c r="C14" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="104" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="119"/>
-      <c r="C15" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="109" t="s">
-        <v>79</v>
+      <c r="B15" s="111"/>
+      <c r="C15" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="101" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:4">
-      <c r="B16" s="119"/>
-      <c r="C16" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="112" t="s">
-        <v>80</v>
+      <c r="B16" s="111"/>
+      <c r="C16" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="104" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:4">
-      <c r="B17" s="119"/>
-      <c r="C17" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="109" t="s">
-        <v>81</v>
+      <c r="B17" s="111"/>
+      <c r="C17" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="101" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:4">
-      <c r="B18" s="119"/>
-      <c r="C18" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="112" t="s">
-        <v>82</v>
+      <c r="B18" s="111"/>
+      <c r="C18" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="104" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:4">
-      <c r="B19" s="119"/>
-      <c r="C19" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="120" t="s">
-        <v>84</v>
+      <c r="B19" s="111"/>
+      <c r="C19" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="112" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:4">
-      <c r="B20" s="118" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="112" t="s">
-        <v>86</v>
+      <c r="B20" s="110" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="104" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:4">
-      <c r="B21" s="118"/>
-      <c r="C21" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="109" t="s">
+      <c r="B21" s="110"/>
+      <c r="C21" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="101" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="104" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="59"/>
+      <c r="C23" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="101" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="59"/>
+      <c r="C25" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="112" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="59"/>
+      <c r="C26" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="104" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="59"/>
+      <c r="C27" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" s="101" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="D28" s="104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="59"/>
+      <c r="C29" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="59"/>
+      <c r="C30" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" spans="2:4">
+      <c r="B31" s="111" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="86" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="101" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="112" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="67"/>
-      <c r="C23" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="109" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" s="101" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="112" t="s">
+      <c r="D31" s="101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" spans="2:4">
+      <c r="B32" s="111"/>
+      <c r="C32" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" spans="2:4">
+      <c r="B33" s="111"/>
+      <c r="C33" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" spans="2:4">
+      <c r="B34" s="111"/>
+      <c r="C34" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="104" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" spans="2:4">
+      <c r="B35" s="111"/>
+      <c r="C35" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="101" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" spans="2:4">
+      <c r="B36" s="111"/>
+      <c r="C36" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" spans="2:4">
+      <c r="B37" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="C37" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" s="29" customFormat="1" ht="27" spans="2:4">
+      <c r="B38" s="110" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" s="29" customFormat="1" ht="27" spans="2:4">
+      <c r="B39" s="110"/>
+      <c r="C39" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39" s="101" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="40" s="29" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B40" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="2:4">
+      <c r="B41" s="113" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1" spans="2:4">
+      <c r="B42" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="93" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="67"/>
-      <c r="C25" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="120" t="s">
+      <c r="D42" s="104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1" spans="2:4">
+      <c r="B43" s="85" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D43" s="101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="2:4">
+      <c r="B44" s="92" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="104" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" spans="2:4">
+      <c r="B45" s="85" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="86" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="101" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" ht="20" customHeight="1" spans="2:4">
+      <c r="B46" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" s="29" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B47" s="85" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" s="101" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" ht="27" spans="2:4">
+      <c r="B48" s="110" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="93" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" spans="2:4">
+      <c r="B49" s="110"/>
+      <c r="C49" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" ht="27" spans="2:4">
+      <c r="B50" s="110"/>
+      <c r="C50" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D50" s="104" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1" spans="2:4">
+      <c r="B51" s="110"/>
+      <c r="C51" s="86" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="101" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" spans="2:4">
+      <c r="B52" s="110"/>
+      <c r="C52" s="93" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="67"/>
-      <c r="C26" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="112" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="67"/>
-      <c r="C27" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="109" t="s">
+      <c r="D52" s="104" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1" spans="2:4">
+      <c r="B53" s="110"/>
+      <c r="C53" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="101" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1" spans="2:4">
+      <c r="B54" s="110"/>
+      <c r="C54" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="D54" s="104" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1" spans="2:4">
+      <c r="B55" s="110"/>
+      <c r="C55" s="86" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="67" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="101" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="112" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="67"/>
-      <c r="C29" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="109" t="s">
+      <c r="D55" s="101" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" spans="2:4">
+      <c r="B56" s="110"/>
+      <c r="C56" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="104" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="57" ht="40.5" spans="2:4">
+      <c r="B57" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="101" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="111"/>
+      <c r="C58" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="104" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" ht="27" spans="2:4">
+      <c r="B59" s="111"/>
+      <c r="C59" s="86" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="101" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60" s="111"/>
+      <c r="C60" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="114" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61" s="29" customFormat="1" spans="2:4">
+      <c r="B61" s="113" t="s">
+        <v>175</v>
+      </c>
+      <c r="C61" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" s="101" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" s="29" customFormat="1" spans="2:4">
+      <c r="B62" s="110" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="104" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="63" s="29" customFormat="1" spans="2:4">
+      <c r="B63" s="110"/>
+      <c r="C63" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" s="101" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1" spans="2:4">
+      <c r="B64" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" s="93" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" s="104" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1" spans="2:4">
+      <c r="B65" s="85" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="86" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="67"/>
-      <c r="C30" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="112" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" ht="20" customHeight="1" spans="2:4">
-      <c r="B31" s="119" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="109" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" ht="20" customHeight="1" spans="2:4">
-      <c r="B32" s="119"/>
-      <c r="C32" s="101" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="112" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" ht="20" customHeight="1" spans="2:4">
-      <c r="B33" s="119"/>
-      <c r="C33" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" s="109" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" ht="20" customHeight="1" spans="2:4">
-      <c r="B34" s="119"/>
-      <c r="C34" s="101" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="112" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" ht="20" customHeight="1" spans="2:4">
-      <c r="B35" s="119"/>
-      <c r="C35" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="109" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" ht="20" customHeight="1" spans="2:4">
-      <c r="B36" s="119"/>
-      <c r="C36" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="112" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" ht="20" customHeight="1" spans="2:4">
-      <c r="B37" s="121" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="D37" s="109" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" s="28" customFormat="1" ht="27" spans="2:4">
-      <c r="B38" s="118" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="101" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="122" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" s="28" customFormat="1" ht="27" spans="2:4">
-      <c r="B39" s="118"/>
-      <c r="C39" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="109" t="s">
+      <c r="D65" s="101" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1" spans="2:4">
+      <c r="B66" s="92" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="93" t="s">
+        <v>94</v>
+      </c>
+      <c r="D66" s="104" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="67" ht="40.5" spans="2:4">
+      <c r="B67" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="101" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1" spans="2:4">
+      <c r="B68" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="93" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" s="28" customFormat="1" ht="20" customHeight="1" spans="2:4">
-      <c r="B40" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="101" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="112" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" ht="20" customHeight="1" spans="2:4">
-      <c r="B41" s="121" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="109" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" ht="20" customHeight="1" spans="2:4">
-      <c r="B42" s="100" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="101" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="112" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" ht="20" customHeight="1" spans="2:4">
-      <c r="B43" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43" s="109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" ht="27" spans="2:4">
-      <c r="B44" s="100" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="101" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" ht="20" customHeight="1" spans="2:4">
-      <c r="B45" s="93" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="94" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" ht="20" customHeight="1" spans="2:4">
-      <c r="B46" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="112" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" s="28" customFormat="1" ht="20" customHeight="1" spans="2:4">
-      <c r="B47" s="93" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="109" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" ht="27" spans="2:4">
-      <c r="B48" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="122" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" ht="20" customHeight="1" spans="2:4">
-      <c r="B49" s="118"/>
-      <c r="C49" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="50" ht="27" spans="2:4">
-      <c r="B50" s="118"/>
-      <c r="C50" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="112" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="51" ht="20" customHeight="1" spans="2:4">
-      <c r="B51" s="118"/>
-      <c r="C51" s="94" t="s">
-        <v>93</v>
-      </c>
-      <c r="D51" s="109" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" ht="20" customHeight="1" spans="2:4">
-      <c r="B52" s="118"/>
-      <c r="C52" s="101" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" s="112" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" ht="20" customHeight="1" spans="2:4">
-      <c r="B53" s="118"/>
-      <c r="C53" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="54" ht="20" customHeight="1" spans="2:4">
-      <c r="B54" s="118"/>
-      <c r="C54" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="112" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="55" ht="20" customHeight="1" spans="2:4">
-      <c r="B55" s="118"/>
-      <c r="C55" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="D55" s="109" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" ht="20" customHeight="1" spans="2:4">
-      <c r="B56" s="118"/>
-      <c r="C56" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" s="112" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" ht="40.5" spans="2:4">
-      <c r="B57" s="119" t="s">
-        <v>140</v>
-      </c>
-      <c r="C57" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="109" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4">
-      <c r="B58" s="119"/>
-      <c r="C58" s="101" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" s="112" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="59" ht="27" spans="2:4">
-      <c r="B59" s="119"/>
-      <c r="C59" s="94" t="s">
-        <v>66</v>
-      </c>
-      <c r="D59" s="109" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
-      <c r="B60" s="119"/>
-      <c r="C60" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="122" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="61" s="28" customFormat="1" spans="2:4">
-      <c r="B61" s="121" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="94" t="s">
-        <v>75</v>
-      </c>
-      <c r="D61" s="109" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" s="28" customFormat="1" spans="2:4">
-      <c r="B62" s="118" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="D62" s="112" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="63" s="28" customFormat="1" spans="2:4">
-      <c r="B63" s="118"/>
-      <c r="C63" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" s="109" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" ht="20" customHeight="1" spans="2:4">
-      <c r="B64" s="123" t="s">
-        <v>150</v>
-      </c>
-      <c r="C64" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="112" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="65" ht="20" customHeight="1" spans="2:4">
-      <c r="B65" s="93" t="s">
-        <v>152</v>
-      </c>
-      <c r="C65" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="109" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" ht="20" customHeight="1" spans="2:4">
-      <c r="B66" s="100" t="s">
-        <v>154</v>
-      </c>
-      <c r="C66" s="101" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="112" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" ht="40.5" spans="2:4">
-      <c r="B67" s="93" t="s">
-        <v>156</v>
-      </c>
-      <c r="C67" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="109" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="68" ht="20" customHeight="1" spans="2:4">
-      <c r="B68" s="100" t="s">
-        <v>158</v>
-      </c>
-      <c r="C68" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" s="112" t="s">
-        <v>159</v>
+      <c r="D68" s="104" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1" spans="2:4">
-      <c r="B69" s="121" t="s">
-        <v>160</v>
-      </c>
-      <c r="C69" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" s="109" t="s">
-        <v>161</v>
+      <c r="B69" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="86" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="101" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="70" ht="27.75" spans="2:4">
-      <c r="B70" s="95" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="D70" s="110" t="s">
-        <v>163</v>
+      <c r="B70" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D70" s="102" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="72" ht="14.25"/>
     <row r="73" ht="14.25" spans="2:4">
-      <c r="B73" s="124" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="125"/>
-      <c r="D73" s="126"/>
+      <c r="B73" s="116" t="s">
+        <v>194</v>
+      </c>
+      <c r="C73" s="117"/>
+      <c r="D73" s="118"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="115" t="s">
-        <v>165</v>
-      </c>
-      <c r="C74" s="116"/>
-      <c r="D74" s="117"/>
+      <c r="B74" s="107" t="s">
+        <v>195</v>
+      </c>
+      <c r="C74" s="108"/>
+      <c r="D74" s="109"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="C75" s="94"/>
-      <c r="D75" s="109" t="s">
-        <v>167</v>
+      <c r="B75" s="85" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" s="86"/>
+      <c r="D75" s="101" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="100" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" s="101"/>
-      <c r="D76" s="112"/>
+      <c r="B76" s="92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" s="93"/>
+      <c r="D76" s="104"/>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="121" t="s">
-        <v>169</v>
-      </c>
-      <c r="C77" s="94"/>
-      <c r="D77" s="109" t="s">
-        <v>170</v>
+      <c r="B77" s="113" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="86"/>
+      <c r="D77" s="101" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="2:4">
-      <c r="B78" s="95" t="s">
-        <v>171</v>
-      </c>
-      <c r="C78" s="96"/>
-      <c r="D78" s="110"/>
+      <c r="B78" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="88"/>
+      <c r="D78" s="102"/>
     </row>
     <row r="81" ht="16" customHeight="1" spans="4:4">
-      <c r="D81" s="28" t="s">
-        <v>172</v>
+      <c r="D81" s="29" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="127" t="s">
-        <v>173</v>
+      <c r="D82" s="119" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="127" t="s">
-        <v>174</v>
+      <c r="D83" s="119" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -7214,7 +7420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:K21"/>
@@ -7225,383 +7431,383 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.70833333333333" style="28" customWidth="1"/>
-    <col min="2" max="2" width="14.4583333333333" style="28" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="31.6" style="28" customWidth="1"/>
-    <col min="5" max="5" width="44.7083333333333" style="28" customWidth="1"/>
-    <col min="6" max="6" width="46.025" style="28" customWidth="1"/>
-    <col min="7" max="7" width="50.875" style="28" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="28" customWidth="1"/>
-    <col min="9" max="9" width="25.75" style="28" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="28" customWidth="1"/>
-    <col min="12" max="32" width="9" style="28"/>
-    <col min="33" max="16384" width="57.6416666666667" style="28"/>
+    <col min="1" max="1" width="4.70833333333333" style="29" customWidth="1"/>
+    <col min="2" max="2" width="14.4583333333333" style="29" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="29" customWidth="1"/>
+    <col min="4" max="4" width="31.6" style="29" customWidth="1"/>
+    <col min="5" max="5" width="44.7083333333333" style="29" customWidth="1"/>
+    <col min="6" max="6" width="46.025" style="29" customWidth="1"/>
+    <col min="7" max="7" width="50.875" style="29" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="29" customWidth="1"/>
+    <col min="9" max="9" width="25.75" style="29" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="29" customWidth="1"/>
+    <col min="12" max="32" width="9" style="29"/>
+    <col min="33" max="16384" width="57.6416666666667" style="29"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:11">
-      <c r="B3" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="90" t="s">
-        <v>176</v>
-      </c>
-      <c r="D3" s="90" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="90" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" s="90" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="90" t="s">
-        <v>180</v>
-      </c>
-      <c r="H3" s="90" t="s">
-        <v>181</v>
-      </c>
-      <c r="I3" s="90" t="s">
-        <v>182</v>
-      </c>
-      <c r="J3" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="K3" s="107" t="s">
-        <v>184</v>
+      <c r="B3" s="81" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="H3" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="82" t="s">
+        <v>212</v>
+      </c>
+      <c r="J3" s="82" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="99" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="4" ht="81" spans="2:11">
-      <c r="B4" s="91" t="s">
-        <v>185</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="92" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="92" t="s">
-        <v>187</v>
-      </c>
-      <c r="F4" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="92" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="I4" s="92" t="s">
-        <v>191</v>
-      </c>
-      <c r="J4" s="92" t="s">
-        <v>192</v>
-      </c>
-      <c r="K4" s="108" t="s">
-        <v>193</v>
+      <c r="B4" s="83" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>216</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>219</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" s="84" t="s">
+        <v>221</v>
+      </c>
+      <c r="J4" s="84" t="s">
+        <v>222</v>
+      </c>
+      <c r="K4" s="100" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="2:11">
-      <c r="B5" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="94" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="J5" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="K5" s="109" t="s">
-        <v>193</v>
+      <c r="B5" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>216</v>
+      </c>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="J5" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="K5" s="101" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:11">
-      <c r="B6" s="95"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="110"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="102"/>
     </row>
     <row r="7" ht="40.5" spans="2:11">
-      <c r="B7" s="97" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="E7" s="98" t="s">
-        <v>198</v>
-      </c>
-      <c r="F7" s="98" t="s">
-        <v>199</v>
-      </c>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="J7" s="98" t="s">
-        <v>192</v>
-      </c>
-      <c r="K7" s="111" t="s">
-        <v>193</v>
+      <c r="B7" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="90" t="s">
+        <v>229</v>
+      </c>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="90" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="103" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="2:11">
-      <c r="B8" s="100" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="101" t="s">
-        <v>186</v>
-      </c>
-      <c r="E8" s="101" t="s">
-        <v>202</v>
-      </c>
-      <c r="F8" s="101" t="s">
-        <v>203</v>
-      </c>
-      <c r="G8" s="102" t="s">
-        <v>204</v>
-      </c>
-      <c r="H8" s="101" t="s">
-        <v>190</v>
-      </c>
-      <c r="I8" s="101" t="s">
-        <v>200</v>
-      </c>
-      <c r="J8" s="101" t="s">
-        <v>192</v>
-      </c>
-      <c r="K8" s="112" t="s">
-        <v>193</v>
+      <c r="B8" s="92" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" s="94" t="s">
+        <v>234</v>
+      </c>
+      <c r="H8" s="93" t="s">
+        <v>220</v>
+      </c>
+      <c r="I8" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="J8" s="93" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="104" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:11">
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="113"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="105"/>
     </row>
     <row r="10" ht="40.5" spans="2:11">
-      <c r="B10" s="91" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92" t="s">
-        <v>207</v>
-      </c>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92" t="s">
-        <v>208</v>
-      </c>
-      <c r="K10" s="108" t="s">
-        <v>209</v>
+      <c r="B10" s="83" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="84" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="84" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84" t="s">
+        <v>238</v>
+      </c>
+      <c r="K10" s="100" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="11" ht="27" spans="2:11">
-      <c r="B11" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="C11" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="K11" s="109" t="s">
-        <v>209</v>
+      <c r="B11" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="K11" s="101" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:11">
-      <c r="B12" s="95"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="110"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="102"/>
     </row>
     <row r="13" ht="108" spans="2:11">
-      <c r="B13" s="105" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="106" t="s">
-        <v>213</v>
-      </c>
-      <c r="E13" s="106" t="s">
-        <v>214</v>
-      </c>
-      <c r="F13" s="106" t="s">
-        <v>215</v>
-      </c>
-      <c r="G13" s="106" t="s">
-        <v>216</v>
-      </c>
-      <c r="H13" s="106" t="s">
-        <v>217</v>
-      </c>
-      <c r="I13" s="106" t="s">
-        <v>218</v>
-      </c>
-      <c r="J13" s="106"/>
-      <c r="K13" s="114"/>
+      <c r="B13" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="98" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="F13" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="G13" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="H13" s="98" t="s">
+        <v>247</v>
+      </c>
+      <c r="I13" s="98" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" s="98"/>
+      <c r="K13" s="106"/>
     </row>
     <row r="14" ht="27" spans="2:11">
-      <c r="B14" s="105" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="114"/>
+      <c r="B14" s="97" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="106"/>
     </row>
     <row r="15" ht="135" spans="2:11">
-      <c r="B15" s="100" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="101" t="s">
+      <c r="B15" s="92" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="G15" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="H15" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="I15" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="J15" s="93" t="s">
+        <v>238</v>
+      </c>
+      <c r="K15" s="104" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="2:11">
+      <c r="B16" s="85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C16" s="86" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86" t="s">
         <v>222</v>
       </c>
-      <c r="F15" s="101" t="s">
+      <c r="K16" s="101" t="s">
         <v>223</v>
       </c>
-      <c r="G15" s="101" t="s">
-        <v>224</v>
-      </c>
-      <c r="H15" s="101" t="s">
-        <v>225</v>
-      </c>
-      <c r="I15" s="101" t="s">
-        <v>226</v>
-      </c>
-      <c r="J15" s="101" t="s">
-        <v>208</v>
-      </c>
-      <c r="K15" s="112" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" ht="40.5" spans="2:11">
-      <c r="B16" s="93" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="94" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="94" t="s">
-        <v>228</v>
-      </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="K16" s="109" t="s">
-        <v>193</v>
-      </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="100"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="112"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="104"/>
     </row>
     <row r="18" ht="14.25" spans="2:11">
-      <c r="B18" s="103"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="104"/>
-      <c r="K18" s="113"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="105"/>
     </row>
     <row r="21" ht="67.5" spans="5:7">
-      <c r="E21" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>231</v>
+      <c r="E21" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G21" s="29" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -7612,7 +7818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:E12"/>
@@ -7632,131 +7838,131 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:5">
-      <c r="B3" s="81" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>234</v>
+      <c r="B3" s="73" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="75" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:5">
       <c r="B4" s="5" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="E4" s="84" t="s">
-        <v>238</v>
+        <v>267</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:5">
       <c r="B5" s="5"/>
       <c r="C5" s="11" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="85" t="s">
-        <v>240</v>
+        <v>267</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:5">
       <c r="B6" s="5"/>
       <c r="C6" s="16" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="86" t="s">
-        <v>243</v>
+        <v>272</v>
+      </c>
+      <c r="E6" s="78" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:5">
       <c r="B7" s="5"/>
       <c r="C7" s="11" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="E7" s="85" t="s">
-        <v>245</v>
+        <v>272</v>
+      </c>
+      <c r="E7" s="77" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="5"/>
       <c r="C8" s="16" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="86" t="s">
-        <v>247</v>
+        <v>272</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="10" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E9" s="85" t="s">
-        <v>251</v>
+        <v>280</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="10"/>
       <c r="C10" s="16" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>253</v>
+        <v>280</v>
+      </c>
+      <c r="E10" s="78" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="10" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="E11" s="85" t="s">
-        <v>256</v>
+        <v>280</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:5">
-      <c r="B12" s="87"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="21" t="s">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="E12" s="88" t="s">
-        <v>257</v>
+        <v>280</v>
+      </c>
+      <c r="E12" s="80" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -7774,7 +7980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:G24"/>
@@ -7785,271 +7991,271 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="45" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="28" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="28" customWidth="1"/>
-    <col min="5" max="7" width="14" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="4.625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="29" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="29" customWidth="1"/>
+    <col min="5" max="7" width="14" style="29" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="2:2">
-      <c r="B1" s="28" t="s">
-        <v>258</v>
+      <c r="B1" s="29" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="C3" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>262</v>
-      </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
+      <c r="B3" s="47" t="s">
+        <v>289</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3" s="50"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="60" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>264</v>
-      </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62" t="s">
-        <v>265</v>
-      </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
+      <c r="B4" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="54" t="s">
+        <v>295</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="55"/>
     </row>
     <row r="5" customHeight="1" spans="2:7">
-      <c r="B5" s="64" t="s">
-        <v>266</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="66"/>
+      <c r="B5" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" customHeight="1" spans="2:7">
-      <c r="B6" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68" t="s">
-        <v>265</v>
-      </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69"/>
+      <c r="B6" s="59" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60" t="s">
+        <v>295</v>
+      </c>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
     </row>
     <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="66"/>
+      <c r="B7" s="56" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="58"/>
     </row>
     <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
     </row>
     <row r="9" ht="13.5"/>
     <row r="10" ht="13.5"/>
     <row r="11" ht="13.5"/>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25" spans="2:7">
-      <c r="B13" s="55" t="s">
-        <v>273</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="G13" s="73" t="s">
-        <v>276</v>
+      <c r="B13" s="47" t="s">
+        <v>303</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="60" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="F14" s="61" t="s">
-        <v>280</v>
-      </c>
-      <c r="G14" s="74"/>
+      <c r="B14" s="52" t="s">
+        <v>307</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="G14" s="66"/>
     </row>
     <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="64" t="s">
-        <v>281</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="F15" s="65" t="s">
-        <v>280</v>
-      </c>
-      <c r="G15" s="66"/>
+      <c r="B15" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>312</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>310</v>
+      </c>
+      <c r="G15" s="58"/>
     </row>
     <row r="16" ht="68" customHeight="1" spans="2:7">
-      <c r="B16" s="67" t="s">
-        <v>284</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>285</v>
-      </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68" t="s">
-        <v>280</v>
-      </c>
-      <c r="G16" s="69" t="s">
-        <v>286</v>
+      <c r="B16" s="59" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>315</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="64" t="s">
-        <v>287</v>
-      </c>
-      <c r="C17" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65" t="s">
-        <v>289</v>
-      </c>
-      <c r="F17" s="65" t="s">
-        <v>290</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>291</v>
+      <c r="B17" s="56" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>318</v>
+      </c>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57" t="s">
+        <v>319</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:7">
-      <c r="B18" s="67" t="s">
-        <v>292</v>
-      </c>
-      <c r="C18" s="68" t="s">
-        <v>293</v>
-      </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68" t="s">
-        <v>290</v>
-      </c>
-      <c r="G18" s="69" t="s">
-        <v>291</v>
+      <c r="B18" s="59" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>323</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="19" ht="78" customHeight="1" spans="2:7">
-      <c r="B19" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="C19" s="65" t="s">
-        <v>295</v>
-      </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65" t="s">
-        <v>290</v>
-      </c>
-      <c r="G19" s="66" t="s">
-        <v>296</v>
+      <c r="B19" s="56" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="57" t="s">
+        <v>325</v>
+      </c>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57" t="s">
+        <v>320</v>
+      </c>
+      <c r="G19" s="58" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:7">
-      <c r="B20" s="67" t="s">
-        <v>297</v>
-      </c>
-      <c r="C20" s="68" t="s">
-        <v>298</v>
-      </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68" t="s">
-        <v>283</v>
-      </c>
-      <c r="F20" s="68" t="s">
-        <v>299</v>
-      </c>
-      <c r="G20" s="69"/>
+      <c r="B20" s="59" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="G20" s="61"/>
     </row>
     <row r="21" ht="14.25" spans="2:7">
-      <c r="B21" s="75"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69"/>
     </row>
     <row r="22" customHeight="1" spans="2:7">
-      <c r="B22" s="78" t="s">
-        <v>300</v>
-      </c>
-      <c r="C22" s="79" t="s">
-        <v>301</v>
-      </c>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="80"/>
+      <c r="B22" s="70" t="s">
+        <v>330</v>
+      </c>
+      <c r="C22" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="72"/>
     </row>
     <row r="23" ht="13.5" spans="2:7">
-      <c r="B23" s="75" t="s">
-        <v>302</v>
-      </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
+      <c r="B23" s="67" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
     </row>
     <row r="24" ht="14.25" spans="2:7">
-      <c r="B24" s="70"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="72"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -8078,7 +8284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:C6"/>
@@ -8096,35 +8302,35 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:3">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="50" t="s">
-        <v>303</v>
+      <c r="C3" s="42" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
-      <c r="B4" s="51" t="s">
-        <v>304</v>
-      </c>
-      <c r="C4" s="52" t="s">
-        <v>305</v>
+      <c r="B4" s="43" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:3">
-      <c r="B5" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>307</v>
+      <c r="B5" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:3">
-      <c r="B6" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6" s="54" t="s">
-        <v>309</v>
+      <c r="B6" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -8137,243 +8343,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="69.375" customWidth="1"/>
-    <col min="4" max="4" width="59.375" customWidth="1"/>
-    <col min="5" max="5" width="49.875" customWidth="1"/>
-    <col min="6" max="6" width="52.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="14.25"/>
-    <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" ht="81" spans="2:6">
-      <c r="B4" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="40" t="s">
-        <v>317</v>
-      </c>
-      <c r="F4" s="41"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:6">
-      <c r="B5" s="42"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="43"/>
-    </row>
-    <row r="6" ht="81" spans="2:6">
-      <c r="B6" s="44" t="s">
-        <v>318</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="D6" s="46" t="s">
-        <v>320</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="F6" s="47" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="2:6">
-      <c r="B7" s="42"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="43"/>
-    </row>
-    <row r="8" ht="81" spans="2:6">
-      <c r="B8" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>324</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>326</v>
-      </c>
-      <c r="F8" s="48"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:6">
-      <c r="B9" s="42"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="43"/>
-    </row>
-    <row r="10" ht="94.5" spans="2:6">
-      <c r="B10" s="44" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>329</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="F10" s="48"/>
-    </row>
-    <row r="11" ht="14.25" spans="2:6">
-      <c r="B11" s="42"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="43"/>
-    </row>
-    <row r="12" ht="40.5" spans="2:6">
-      <c r="B12" s="44" t="s">
-        <v>331</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="D12" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="48"/>
-    </row>
-    <row r="13" ht="14.25" spans="2:6">
-      <c r="B13" s="42"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="43"/>
-    </row>
-    <row r="14" ht="67.5" spans="2:6">
-      <c r="B14" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="48"/>
-    </row>
-    <row r="15" ht="14.25" spans="2:6">
-      <c r="B15" s="42"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="43"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="38" t="s">
-        <v>337</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="41"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="38"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="41"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="38"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="41"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="41"/>
-    </row>
-    <row r="20" ht="14.25" spans="2:6">
-      <c r="B20" s="42"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="43"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="977" firstSheet="4" activeTab="16"/>
+    <workbookView windowWidth="28800" windowHeight="13500" tabRatio="977" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="Spring" sheetId="2" r:id="rId9"/>
     <sheet name="JPA" sheetId="3" r:id="rId10"/>
     <sheet name="ZooKeeper" sheetId="13" r:id="rId11"/>
-    <sheet name="Server" sheetId="15" r:id="rId12"/>
-    <sheet name="Tomcat" sheetId="14" r:id="rId13"/>
-    <sheet name="RocketMQ" sheetId="7" r:id="rId14"/>
-    <sheet name="ActiveMQ" sheetId="16" r:id="rId15"/>
-    <sheet name="Dubbo" sheetId="17" r:id="rId16"/>
-    <sheet name="SpringBoot" sheetId="18" r:id="rId17"/>
+    <sheet name="Tomcat" sheetId="14" r:id="rId12"/>
+    <sheet name="RocketMQ" sheetId="7" r:id="rId13"/>
+    <sheet name="ActiveMQ" sheetId="16" r:id="rId14"/>
+    <sheet name="Dubbo" sheetId="17" r:id="rId15"/>
+    <sheet name="SpringBoot" sheetId="18" r:id="rId16"/>
+    <sheet name="Blank" sheetId="20" r:id="rId17"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3007,10 +3007,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3060,13 +3060,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3075,91 +3074,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3181,7 +3096,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3192,6 +3169,29 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3242,7 +3242,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3254,7 +3296,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3266,103 +3410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3374,55 +3422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4093,11 +4093,59 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4113,15 +4161,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4144,47 +4183,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4196,145 +4196,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="57" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5844,7 +5844,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{416431cc-0dca-4d27-8dcb-d4d74bad6f41}</x14:id>
+          <x14:id>{63281722-1314-4cda-a9ff-825182583ab8}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5858,7 +5858,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7a2547f0-d563-4489-a37b-ad08b9765a3a}</x14:id>
+          <x14:id>{0ef9299e-cca9-43c3-a377-9f6bd1b2c072}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5872,7 +5872,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6c4282bc-9b3c-45e9-9e6c-f78ed2b3f0a8}</x14:id>
+          <x14:id>{d9f0dcd6-9948-4acd-823e-ce00f42b8240}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5886,7 +5886,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f9f77fbb-2f90-4df4-aa8d-d34126f2c4cd}</x14:id>
+          <x14:id>{43a05ebf-ff6b-42f7-a68d-1b12466b62fe}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5900,7 +5900,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{638e4029-b859-4910-9bd9-3b7f162c3414}</x14:id>
+          <x14:id>{596d0260-34ab-4943-a6a3-14ebc0f3fc11}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5914,7 +5914,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e4372983-1279-4375-a7ab-4ea649a337d3}</x14:id>
+          <x14:id>{83f21e2b-f3fb-405f-a02f-36120fc2b492}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5928,7 +5928,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{adf8b275-0181-4c00-a094-1885d2717910}</x14:id>
+          <x14:id>{be0a6544-1792-4ebf-89e6-059baa86bdbc}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5942,7 +5942,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{028ba4a8-80c6-43ad-a916-c0ed08b3922c}</x14:id>
+          <x14:id>{043fddb0-cb81-4d42-8ab5-02200a839f61}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5954,7 +5954,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{416431cc-0dca-4d27-8dcb-d4d74bad6f41}">
+          <x14:cfRule type="dataBar" id="{63281722-1314-4cda-a9ff-825182583ab8}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5965,7 +5965,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7a2547f0-d563-4489-a37b-ad08b9765a3a}">
+          <x14:cfRule type="dataBar" id="{0ef9299e-cca9-43c3-a377-9f6bd1b2c072}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5976,7 +5976,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6c4282bc-9b3c-45e9-9e6c-f78ed2b3f0a8}">
+          <x14:cfRule type="dataBar" id="{d9f0dcd6-9948-4acd-823e-ce00f42b8240}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5987,7 +5987,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f9f77fbb-2f90-4df4-aa8d-d34126f2c4cd}">
+          <x14:cfRule type="dataBar" id="{43a05ebf-ff6b-42f7-a68d-1b12466b62fe}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5998,7 +5998,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{638e4029-b859-4910-9bd9-3b7f162c3414}">
+          <x14:cfRule type="dataBar" id="{596d0260-34ab-4943-a6a3-14ebc0f3fc11}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6009,7 +6009,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e4372983-1279-4375-a7ab-4ea649a337d3}">
+          <x14:cfRule type="dataBar" id="{83f21e2b-f3fb-405f-a02f-36120fc2b492}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6020,7 +6020,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{adf8b275-0181-4c00-a094-1885d2717910}">
+          <x14:cfRule type="dataBar" id="{be0a6544-1792-4ebf-89e6-059baa86bdbc}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6031,7 +6031,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{028ba4a8-80c6-43ad-a916-c0ed08b3922c}">
+          <x14:cfRule type="dataBar" id="{043fddb0-cb81-4d42-8ab5-02200a839f61}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6276,7 +6276,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6289,26 +6289,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -6409,6 +6393,22 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6467,7 +6467,7 @@
   <sheetPr/>
   <dimension ref="B2:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -6634,8 +6634,8 @@
   <sheetPr/>
   <dimension ref="B1:D83"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500" tabRatio="977" activeTab="16"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="977" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -3008,9 +3008,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3095,6 +3095,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -3102,16 +3110,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3133,6 +3133,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -3141,24 +3157,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3174,9 +3182,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3184,14 +3192,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3204,12 +3204,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3242,7 +3242,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3254,7 +3332,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3278,55 +3410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3338,91 +3422,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4110,16 +4110,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4131,21 +4131,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4165,6 +4150,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4180,11 +4174,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4196,10 +4196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4208,133 +4208,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="54" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="57" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5844,7 +5844,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{63281722-1314-4cda-a9ff-825182583ab8}</x14:id>
+          <x14:id>{e217ee5c-74b3-4e78-9636-5524e88f0b64}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5858,7 +5858,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0ef9299e-cca9-43c3-a377-9f6bd1b2c072}</x14:id>
+          <x14:id>{d071283f-f586-4810-a5cd-cb9472f575c3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5872,7 +5872,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d9f0dcd6-9948-4acd-823e-ce00f42b8240}</x14:id>
+          <x14:id>{340b3a36-8a83-4dcf-ab71-3fc8d796dc1e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5886,7 +5886,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{43a05ebf-ff6b-42f7-a68d-1b12466b62fe}</x14:id>
+          <x14:id>{813a0950-0433-4980-83aa-122df4fe96a2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5900,7 +5900,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{596d0260-34ab-4943-a6a3-14ebc0f3fc11}</x14:id>
+          <x14:id>{f735bd04-87fd-4f99-828c-735d5958a7e2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5914,7 +5914,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{83f21e2b-f3fb-405f-a02f-36120fc2b492}</x14:id>
+          <x14:id>{0c0f8096-38fb-40da-9c48-78d6a1f0e81d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5928,7 +5928,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{be0a6544-1792-4ebf-89e6-059baa86bdbc}</x14:id>
+          <x14:id>{a53f7e9b-30d6-4bb0-a531-104bae8176d3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5942,7 +5942,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{043fddb0-cb81-4d42-8ab5-02200a839f61}</x14:id>
+          <x14:id>{4e22cc3b-d1c8-4e1b-9fe2-2edb5c9b62f1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5954,7 +5954,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{63281722-1314-4cda-a9ff-825182583ab8}">
+          <x14:cfRule type="dataBar" id="{e217ee5c-74b3-4e78-9636-5524e88f0b64}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5965,7 +5965,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0ef9299e-cca9-43c3-a377-9f6bd1b2c072}">
+          <x14:cfRule type="dataBar" id="{d071283f-f586-4810-a5cd-cb9472f575c3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5976,7 +5976,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d9f0dcd6-9948-4acd-823e-ce00f42b8240}">
+          <x14:cfRule type="dataBar" id="{340b3a36-8a83-4dcf-ab71-3fc8d796dc1e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5987,7 +5987,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{43a05ebf-ff6b-42f7-a68d-1b12466b62fe}">
+          <x14:cfRule type="dataBar" id="{813a0950-0433-4980-83aa-122df4fe96a2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5998,7 +5998,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{596d0260-34ab-4943-a6a3-14ebc0f3fc11}">
+          <x14:cfRule type="dataBar" id="{f735bd04-87fd-4f99-828c-735d5958a7e2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6009,7 +6009,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{83f21e2b-f3fb-405f-a02f-36120fc2b492}">
+          <x14:cfRule type="dataBar" id="{0c0f8096-38fb-40da-9c48-78d6a1f0e81d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6020,7 +6020,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{be0a6544-1792-4ebf-89e6-059baa86bdbc}">
+          <x14:cfRule type="dataBar" id="{a53f7e9b-30d6-4bb0-a531-104bae8176d3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6031,7 +6031,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{043fddb0-cb81-4d42-8ab5-02200a839f61}">
+          <x14:cfRule type="dataBar" id="{4e22cc3b-d1c8-4e1b-9fe2-2edb5c9b62f1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="977" activeTab="16"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="769" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -444,10 +444,7 @@
     <t>默认配置</t>
   </si>
   <si>
-    <t>查看</t>
-  </si>
-  <si>
-    <t>删除</t>
+    <t>查看/删除</t>
   </si>
   <si>
     <t>记录内容</t>
@@ -459,7 +456,8 @@
     <t>错误日志</t>
   </si>
   <si>
-    <t>默认启动</t>
+    <t>默认启动
+无法关闭</t>
   </si>
   <si>
     <t>--log-error[=file_name]</t>
@@ -476,18 +474,20 @@
   </si>
   <si>
     <t>--log-bin[=file_name]
---binlog_format=STATEMENT、ROW、MIXED</t>
+--binlog_format=STATEMENT、ROW、MIXED
+--binlog-do-db=db_name
+--binlog-ignore-db=db_name</t>
   </si>
   <si>
     <t>缺省日志名：host-bin
 缺省路径：DATADIR</t>
   </si>
   <si>
-    <t>由于日志以二进制方式存储，不能直接读取，需要用mysqlbinlog工具来查看：
-mysqlbinlog log-file</t>
-  </si>
-  <si>
-    <t>1、删除二进制日志：reset master
+    <t>查看：
+由于日志以二进制方式存储，不能直接读取，需要用mysqlbinlog工具来查看：
+mysqlbinlog log-file
+删除：
+1、删除二进制日志：reset master
 2、purge master logs to 'mysql-bin.***' 命令
 3、purge master logs before 'yyyy-mm-dd HH:mm:ss' 命令
 4、设置 --expire_logs_days=#</t>
@@ -496,23 +496,34 @@
     <t>二进制文件(BinLog)，记录了所有DDL、DML语句，但不包括数据查询语句。它描述了数据的更改过程，此日志对灾难时的数据恢复起着极其重要的作用。</t>
   </si>
   <si>
+    <t>MySQL 5.5中，二进制日志的格式分为3种：STATEMENT、ROW、MIXED，可在启动时通过 --binlog_format进行设置：
+1、STATEMENT，MySQL 5.1之前版本采用的格式，日志中记录的是语句(statement)。日志记录清晰、日志量小。
+2、ROW，MySQL 5.1.11之后出现的格式，它将每一行的变更记录到日志中。日志量大。
+3、MIXED，MySQL 目前默认的日志格式，混合了 STATEMENT、ROW 两种日志，默认情况采用 STATEMENT，特殊情况下用 ROW 来进行记录。</t>
+  </si>
+  <si>
     <t>查询日志</t>
   </si>
   <si>
-    <t xml:space="preserve">--log-output[=TABLE、FILE、NONE]
---general_log[={0|1}]
+    <t xml:space="preserve">--general_log[={0|1}]
 --general_log_file=file_name
+--log-output[=TABLE、FILE、NONE]
 </t>
   </si>
   <si>
     <t>默认文件名：host_name.log
-默认路径：DATADIR</t>
-  </si>
-  <si>
-    <t>查询日志记录的格式是纯文本，可以直接进行读取，如 more localhost.log</t>
+默认路径：DATADIR
+若保存在表中：mysql.general_log</t>
+  </si>
+  <si>
+    <t>查看：
+查询日志记录的格式是纯文本，可以直接进行读取，如 more localhost.log</t>
   </si>
   <si>
     <t>查询日志记录了客户端的所有语句，而二进制日志不包含只查询数据的语句。</t>
+  </si>
+  <si>
+    <t>在MySQL 5.1.29之前，使用 --log[=file_name] 或 -l[file_name]。</t>
   </si>
   <si>
     <t>慢查询日志</t>
@@ -525,14 +536,16 @@
 --log_quries_not_using_indexes
 --slow_query_log[={0|1}]
 --slow_query_log_file[=file_name] 
---log-output=[table\file\none]</t>
-  </si>
-  <si>
-    <t>默认路径：DATADIR
-默认文件名：host_name-slow.log</t>
-  </si>
-  <si>
-    <t>和错误日志、查询日志一样，慢查询日志记录的格式也是纯文本，可以被直接读取，如 more host-slow.log。</t>
+--log-output[=TABLE、FILE、NONE]</t>
+  </si>
+  <si>
+    <t>默认文件名：host_name-slow.log
+默认路径：DATADIR
+若保存在表中：mysql.slow_log</t>
+  </si>
+  <si>
+    <t>查看：
+和错误日志、查询日志一样，慢查询日志记录的格式也是纯文本，可以被直接读取，如 more host-slow.log。</t>
   </si>
   <si>
     <t>慢查询日志记录了所有执行时间超过参数long_query_time(单位：秒)值、且扫描记录数不小于min_examined_row_limit 的所有SQL语句的日志</t>
@@ -3007,10 +3020,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3060,6 +3073,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3067,9 +3102,41 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3089,29 +3156,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3125,19 +3170,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3157,24 +3193,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3182,14 +3202,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3204,18 +3217,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3236,7 +3249,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3248,55 +3411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3308,19 +3423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3332,49 +3435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3384,50 +3445,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="58">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -3676,8 +3695,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="4"/>
       </left>
       <right style="medium">
         <color auto="1"/>
@@ -3686,28 +3705,49 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="4"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
         <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="medium">
         <color auto="1"/>
@@ -3718,70 +3758,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="medium">
         <color auto="1"/>
@@ -3805,9 +3781,16 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color auto="1"/>
-      </top>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -3817,14 +3800,16 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right style="medium">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -3889,66 +3874,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color theme="4"/>
-      </top>
       <bottom style="thin">
         <color theme="4"/>
       </bottom>
@@ -4091,11 +4016,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4124,17 +4112,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4150,11 +4127,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4174,17 +4177,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4196,10 +4193,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4208,19 +4205,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4229,116 +4226,116 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="56" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="57" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4414,85 +4411,94 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4501,97 +4507,223 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4600,28 +4732,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4630,106 +4750,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4741,46 +4774,49 @@
     <xf numFmtId="57" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="57" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="5" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="5" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="5" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="5" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5287,552 +5323,552 @@
   <sheetPr/>
   <dimension ref="B1:I62"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="128" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="128" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="128" customWidth="1"/>
-    <col min="4" max="4" width="76.125" style="128" customWidth="1"/>
-    <col min="5" max="5" width="26" style="128" customWidth="1"/>
-    <col min="6" max="6" width="59" style="128" customWidth="1"/>
-    <col min="7" max="16384" width="12.75" style="128" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="140" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="140" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="140" customWidth="1"/>
+    <col min="4" max="4" width="76.125" style="140" customWidth="1"/>
+    <col min="5" max="5" width="26" style="140" customWidth="1"/>
+    <col min="6" max="6" width="59" style="140" customWidth="1"/>
+    <col min="7" max="16384" width="12.75" style="140" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="128" t="s">
+      <c r="C1" s="140" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="70"/>
-      <c r="C3" s="129" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="129" t="s">
+      <c r="E3" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="130" t="s">
+      <c r="F3" s="142" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:6">
-      <c r="B4" s="131">
+      <c r="B4" s="143">
         <v>33329</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="66"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="69"/>
     </row>
     <row r="5" ht="40.5" spans="2:6">
-      <c r="B5" s="132">
+      <c r="B5" s="144">
         <v>34820</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61"/>
     </row>
     <row r="6" ht="27" spans="2:6">
-      <c r="B6" s="133">
+      <c r="B6" s="145">
         <v>35065</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="132">
+      <c r="B7" s="144">
         <v>35462</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
     </row>
     <row r="8" ht="54" spans="2:6">
-      <c r="B8" s="133">
+      <c r="B8" s="145">
         <v>36130</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C8" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
     </row>
     <row r="9" ht="27" spans="2:6">
-      <c r="B9" s="132">
+      <c r="B9" s="144">
         <v>36647</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="61"/>
     </row>
     <row r="10" ht="40.5" spans="2:6">
-      <c r="B10" s="133">
+      <c r="B10" s="145">
         <v>37288</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="61"/>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" ht="40.5" spans="2:6">
-      <c r="B11" s="132"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57" t="s">
+      <c r="B11" s="144"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="61" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:6">
-      <c r="B12" s="133">
+      <c r="B12" s="145">
         <v>38231</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C12" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="60" t="s">
+      <c r="D12" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
     </row>
     <row r="13" ht="54" spans="2:6">
-      <c r="B13" s="132"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57" t="s">
+      <c r="B13" s="144"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="61" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="2:9">
-      <c r="B14" s="133">
+      <c r="B14" s="145">
         <v>39052</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C14" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57" t="s">
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" ht="40.5" spans="2:9">
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60" t="s">
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" ht="54" spans="2:9">
-      <c r="B17" s="132">
+      <c r="B17" s="144">
         <v>40725</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="61"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" ht="108" spans="2:9">
-      <c r="B18" s="133">
+      <c r="B18" s="145">
         <v>41699</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D18" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="61"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="64"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
     </row>
     <row r="19" ht="40.5" spans="2:6">
-      <c r="B19" s="132"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57" t="s">
+      <c r="B19" s="144"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="61" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="133">
+      <c r="B20" s="145">
         <v>42979</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60" t="s">
+      <c r="D20" s="63"/>
+      <c r="E20" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="61"/>
+      <c r="F20" s="64"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="132">
+      <c r="B21" s="144">
         <v>43160</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="61"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="133">
+      <c r="B22" s="145">
         <v>43344</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="61"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="64"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="132">
+      <c r="B23" s="144">
         <v>43525</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="58"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="61"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="133">
+      <c r="B24" s="145">
         <v>43709</v>
       </c>
-      <c r="C24" s="60" t="s">
+      <c r="C24" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="64"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="132">
+      <c r="B25" s="144">
         <v>43891</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="72"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="133">
+      <c r="B26" s="145">
         <v>44075</v>
       </c>
-      <c r="C26" s="60" t="s">
+      <c r="C26" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="61"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="64"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="134"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="72"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="59"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="134"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="69"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="72"/>
     </row>
     <row r="30" ht="14.25" spans="2:6">
-      <c r="B30" s="135"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="67"/>
     </row>
     <row r="40" ht="14.25"/>
     <row r="41" ht="14.25" spans="2:4">
-      <c r="B41" s="136"/>
-      <c r="C41" s="137" t="s">
+      <c r="B41" s="148"/>
+      <c r="C41" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="138" t="s">
+      <c r="D41" s="150" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" ht="24" spans="2:4">
-      <c r="B42" s="139">
+      <c r="B42" s="151">
         <v>33329</v>
       </c>
-      <c r="C42" s="140" t="s">
+      <c r="C42" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="141"/>
+      <c r="D42" s="153"/>
     </row>
     <row r="43" ht="24" spans="2:4">
-      <c r="B43" s="139">
+      <c r="B43" s="151">
         <v>34820</v>
       </c>
-      <c r="C43" s="140" t="s">
+      <c r="C43" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="141"/>
+      <c r="D43" s="153"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="139">
+      <c r="B44" s="151">
         <v>35065</v>
       </c>
-      <c r="C44" s="140" t="s">
+      <c r="C44" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="141"/>
+      <c r="D44" s="153"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="139">
+      <c r="B45" s="151">
         <v>35462</v>
       </c>
-      <c r="C45" s="140" t="s">
+      <c r="C45" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="141"/>
+      <c r="D45" s="153"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="139">
+      <c r="B46" s="151">
         <v>36130</v>
       </c>
-      <c r="C46" s="140" t="s">
+      <c r="C46" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="141"/>
+      <c r="D46" s="153"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="139">
+      <c r="B47" s="151">
         <v>36647</v>
       </c>
-      <c r="C47" s="140" t="s">
+      <c r="C47" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="141"/>
+      <c r="D47" s="153"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="139">
+      <c r="B48" s="151">
         <v>37288</v>
       </c>
-      <c r="C48" s="140" t="s">
+      <c r="C48" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="141" t="s">
+      <c r="D48" s="153" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="139"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="141" t="s">
+      <c r="B49" s="151"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="153" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="139">
+      <c r="B50" s="151">
         <v>38231</v>
       </c>
-      <c r="C50" s="140" t="s">
+      <c r="C50" s="152" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="141"/>
+      <c r="D50" s="153"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="139"/>
-      <c r="C51" s="140"/>
-      <c r="D51" s="141" t="s">
+      <c r="B51" s="151"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="153" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="139">
+      <c r="B52" s="151">
         <v>39052</v>
       </c>
-      <c r="C52" s="140" t="s">
+      <c r="C52" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="141"/>
+      <c r="D52" s="153"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="142"/>
-      <c r="C53" s="140"/>
-      <c r="D53" s="141" t="s">
+      <c r="B53" s="154"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="153" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="142"/>
-      <c r="C54" s="140"/>
-      <c r="D54" s="141" t="s">
+      <c r="B54" s="154"/>
+      <c r="C54" s="152"/>
+      <c r="D54" s="153" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="139">
+      <c r="B55" s="151">
         <v>40725</v>
       </c>
-      <c r="C55" s="140" t="s">
+      <c r="C55" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="141"/>
+      <c r="D55" s="153"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="139">
+      <c r="B56" s="151">
         <v>41699</v>
       </c>
-      <c r="C56" s="140" t="s">
+      <c r="C56" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="141"/>
+      <c r="D56" s="153"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="139"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="141" t="s">
+      <c r="B57" s="151"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="153" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="139">
+      <c r="B58" s="151">
         <v>42979</v>
       </c>
-      <c r="C58" s="140" t="s">
+      <c r="C58" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="141" t="s">
+      <c r="D58" s="153" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="139">
+      <c r="B59" s="151">
         <v>43160</v>
       </c>
-      <c r="C59" s="140" t="s">
+      <c r="C59" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="141"/>
+      <c r="D59" s="153"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="139">
+      <c r="B60" s="151">
         <v>43344</v>
       </c>
-      <c r="C60" s="140" t="s">
+      <c r="C60" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="141"/>
+      <c r="D60" s="153"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="139">
+      <c r="B61" s="151">
         <v>43525</v>
       </c>
-      <c r="C61" s="140" t="s">
+      <c r="C61" s="152" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="141"/>
+      <c r="D61" s="153"/>
     </row>
     <row r="62" ht="14.25" spans="2:4">
-      <c r="B62" s="143">
+      <c r="B62" s="155">
         <v>43709</v>
       </c>
-      <c r="C62" s="144" t="s">
+      <c r="C62" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="145"/>
+      <c r="D62" s="157"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:F3">
@@ -5844,7 +5880,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{e217ee5c-74b3-4e78-9636-5524e88f0b64}</x14:id>
+          <x14:id>{ce9cd0ef-7426-429b-94b2-2e18ee185e9c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5858,7 +5894,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d071283f-f586-4810-a5cd-cb9472f575c3}</x14:id>
+          <x14:id>{cda44f90-d73a-4825-81f8-495e71988bb4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5872,7 +5908,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{340b3a36-8a83-4dcf-ab71-3fc8d796dc1e}</x14:id>
+          <x14:id>{462f7a00-c614-4acf-86d5-78265afd1644}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5886,7 +5922,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{813a0950-0433-4980-83aa-122df4fe96a2}</x14:id>
+          <x14:id>{6037a339-0578-4825-bb4d-16ab11ce2778}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5900,7 +5936,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f735bd04-87fd-4f99-828c-735d5958a7e2}</x14:id>
+          <x14:id>{6932dfdc-9579-475b-9539-27c66e4974ce}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5914,7 +5950,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0c0f8096-38fb-40da-9c48-78d6a1f0e81d}</x14:id>
+          <x14:id>{aa704ef2-63c7-455d-89df-e6453a321b43}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5928,7 +5964,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{a53f7e9b-30d6-4bb0-a531-104bae8176d3}</x14:id>
+          <x14:id>{20366e64-6fa5-4159-a833-3f4d444f4ee4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5942,7 +5978,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4e22cc3b-d1c8-4e1b-9fe2-2edb5c9b62f1}</x14:id>
+          <x14:id>{4a387fc6-9f92-4459-8fa7-10db992f3d8e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5954,7 +5990,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{e217ee5c-74b3-4e78-9636-5524e88f0b64}">
+          <x14:cfRule type="dataBar" id="{ce9cd0ef-7426-429b-94b2-2e18ee185e9c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5965,7 +6001,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d071283f-f586-4810-a5cd-cb9472f575c3}">
+          <x14:cfRule type="dataBar" id="{cda44f90-d73a-4825-81f8-495e71988bb4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5976,7 +6012,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{340b3a36-8a83-4dcf-ab71-3fc8d796dc1e}">
+          <x14:cfRule type="dataBar" id="{462f7a00-c614-4acf-86d5-78265afd1644}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5987,7 +6023,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{813a0950-0433-4980-83aa-122df4fe96a2}">
+          <x14:cfRule type="dataBar" id="{6037a339-0578-4825-bb4d-16ab11ce2778}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5998,7 +6034,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f735bd04-87fd-4f99-828c-735d5958a7e2}">
+          <x14:cfRule type="dataBar" id="{6932dfdc-9579-475b-9539-27c66e4974ce}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6009,7 +6045,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0c0f8096-38fb-40da-9c48-78d6a1f0e81d}">
+          <x14:cfRule type="dataBar" id="{aa704ef2-63c7-455d-89df-e6453a321b43}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6020,7 +6056,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{a53f7e9b-30d6-4bb0-a531-104bae8176d3}">
+          <x14:cfRule type="dataBar" id="{20366e64-6fa5-4159-a833-3f4d444f4ee4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6031,7 +6067,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4e22cc3b-d1c8-4e1b-9fe2-2edb5c9b62f1}">
+          <x14:cfRule type="dataBar" id="{4a387fc6-9f92-4459-8fa7-10db992f3d8e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6050,10 +6086,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F20"/>
+  <dimension ref="B3:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6066,7 +6102,6 @@
     <col min="6" max="6" width="52.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:6">
       <c r="B3" s="25" t="s">
         <v>340</v>
@@ -6094,158 +6129,162 @@
       <c r="D4" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" ht="14.25" spans="2:6">
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" ht="81" spans="2:6">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="38" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="2:6">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
+    <row r="7" spans="2:6">
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" ht="81" spans="2:6">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="37" t="s">
         <v>355</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="F8" s="40"/>
-    </row>
-    <row r="9" ht="14.25" spans="2:6">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
+      <c r="F8" s="39"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
     </row>
     <row r="10" ht="94.5" spans="2:6">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="F10" s="40"/>
-    </row>
-    <row r="11" ht="14.25" spans="2:6">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" ht="40.5" spans="2:6">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="40"/>
-    </row>
-    <row r="13" ht="14.25" spans="2:6">
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="39"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
     </row>
     <row r="14" ht="67.5" spans="2:6">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="40"/>
-    </row>
-    <row r="15" ht="14.25" spans="2:6">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="39"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="32"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="39"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="28"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="28"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="32"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="39"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="28"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" ht="14.25" spans="2:6">
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6291,7 +6330,7 @@
   <sheetPr/>
   <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -6465,128 +6504,128 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:I7"/>
+  <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="37.375" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
-    <col min="6" max="6" width="29.375" customWidth="1"/>
-    <col min="7" max="7" width="36.375" customWidth="1"/>
-    <col min="8" max="8" width="40.125" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="1" max="1" width="2.875" style="123" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="123" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="123" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="123" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="123" customWidth="1"/>
+    <col min="6" max="6" width="49.375" style="123" customWidth="1"/>
+    <col min="7" max="7" width="40.125" style="123" customWidth="1"/>
+    <col min="8" max="8" width="48.375" style="123" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="123"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25"/>
-    <row r="3" ht="14.25" spans="2:9">
-      <c r="B3" s="120"/>
-      <c r="C3" s="121" t="s">
+    <row r="3" ht="14.25" spans="2:8">
+      <c r="B3" s="124"/>
+      <c r="C3" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="125" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="121" t="s">
+      <c r="G3" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="121" t="s">
+      <c r="H3" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="125" t="s">
+    </row>
+    <row r="4" ht="27" spans="2:8">
+      <c r="B4" s="127" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" ht="27" spans="2:9">
-      <c r="B4" s="122" t="s">
+      <c r="C4" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="128"/>
+      <c r="G4" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="129"/>
+    </row>
+    <row r="5" ht="135" spans="2:8">
+      <c r="B5" s="130" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="126"/>
-    </row>
-    <row r="5" ht="81" spans="2:9">
-      <c r="B5" s="122" t="s">
+      <c r="C5" s="131"/>
+      <c r="D5" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="E5" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="F5" s="132" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="G5" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="H5" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="29" t="s">
+    </row>
+    <row r="6" ht="54" spans="2:8">
+      <c r="B6" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="126"/>
-    </row>
-    <row r="6" ht="54" spans="2:9">
-      <c r="B6" s="122" t="s">
+      <c r="C6" s="135"/>
+      <c r="D6" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="146" t="s">
+      <c r="E6" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="F6" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="G6" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="126"/>
-    </row>
-    <row r="7" ht="68.25" spans="2:9">
-      <c r="B7" s="123" t="s">
+    </row>
+    <row r="7" ht="68.25" spans="2:8">
+      <c r="B7" s="136" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="147" t="s">
+      <c r="D7" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="124" t="s">
+      <c r="E7" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="124" t="s">
+      <c r="F7" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="124" t="s">
+      <c r="G7" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="127" t="s">
+      <c r="H7" s="139" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6601,7 +6640,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6617,7 +6656,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -6634,763 +6673,763 @@
   <sheetPr/>
   <dimension ref="B1:D83"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="31" style="29" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="29" customWidth="1"/>
-    <col min="4" max="4" width="114.625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="29" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="4.625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="31" style="49" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="49" customWidth="1"/>
+    <col min="4" max="4" width="114.625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="49" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="49" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1"/>
     <row r="3" ht="20" customHeight="1" spans="2:4">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="50" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="68" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:4">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="111" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="112" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:4">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="104" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:4">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="107" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:4">
-      <c r="B7" s="59"/>
-      <c r="C7" s="86" t="s">
+      <c r="B7" s="62"/>
+      <c r="C7" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="104" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:4">
-      <c r="B8" s="59"/>
-      <c r="C8" s="93" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="107" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:4">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="104" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:4">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="107" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:4">
-      <c r="B11" s="110"/>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="113"/>
+      <c r="C11" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="104" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:4">
-      <c r="B12" s="110"/>
-      <c r="C12" s="60" t="s">
+      <c r="B12" s="113"/>
+      <c r="C12" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="107" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="101" t="s">
+      <c r="D13" s="104" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" s="29" customFormat="1" ht="27" spans="2:4">
-      <c r="B14" s="111"/>
-      <c r="C14" s="93" t="s">
+    <row r="14" s="49" customFormat="1" ht="27" spans="2:4">
+      <c r="B14" s="114"/>
+      <c r="C14" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="104" t="s">
+      <c r="D14" s="107" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="111"/>
-      <c r="C15" s="86" t="s">
+      <c r="B15" s="114"/>
+      <c r="C15" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="101" t="s">
+      <c r="D15" s="104" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:4">
-      <c r="B16" s="111"/>
-      <c r="C16" s="93" t="s">
+      <c r="B16" s="114"/>
+      <c r="C16" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="107" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:4">
-      <c r="B17" s="111"/>
-      <c r="C17" s="86" t="s">
+      <c r="B17" s="114"/>
+      <c r="C17" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="104" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:4">
-      <c r="B18" s="111"/>
-      <c r="C18" s="93" t="s">
+      <c r="B18" s="114"/>
+      <c r="C18" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="104" t="s">
+      <c r="D18" s="107" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:4">
-      <c r="B19" s="111"/>
-      <c r="C19" s="86" t="s">
+      <c r="B19" s="114"/>
+      <c r="C19" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="112" t="s">
+      <c r="D19" s="115" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:4">
-      <c r="B20" s="110" t="s">
+      <c r="B20" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="93" t="s">
+      <c r="C20" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="107" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:4">
-      <c r="B21" s="110"/>
-      <c r="C21" s="86" t="s">
+      <c r="B21" s="113"/>
+      <c r="C21" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="104" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="93" t="s">
+      <c r="C22" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="104" t="s">
+      <c r="D22" s="107" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="59"/>
-      <c r="C23" s="86" t="s">
+      <c r="B23" s="62"/>
+      <c r="C23" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="104" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="104" t="s">
+      <c r="D24" s="107" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="59"/>
-      <c r="C25" s="86" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="112" t="s">
+      <c r="D25" s="115" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="59"/>
-      <c r="C26" s="93" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="104" t="s">
+      <c r="D26" s="107" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="59"/>
-      <c r="C27" s="86" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="104" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="93" t="s">
+      <c r="C28" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="104" t="s">
+      <c r="D28" s="107" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="59"/>
-      <c r="C29" s="86" t="s">
+      <c r="B29" s="62"/>
+      <c r="C29" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="104" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="59"/>
-      <c r="C30" s="93" t="s">
+      <c r="B30" s="62"/>
+      <c r="C30" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="104" t="s">
+      <c r="D30" s="107" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="2:4">
-      <c r="B31" s="111" t="s">
+      <c r="B31" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="101" t="s">
+      <c r="D31" s="104" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1" spans="2:4">
-      <c r="B32" s="111"/>
-      <c r="C32" s="93" t="s">
+      <c r="B32" s="114"/>
+      <c r="C32" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="104" t="s">
+      <c r="D32" s="107" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="2:4">
-      <c r="B33" s="111"/>
-      <c r="C33" s="86" t="s">
+      <c r="B33" s="114"/>
+      <c r="C33" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="101" t="s">
+      <c r="D33" s="104" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="2:4">
-      <c r="B34" s="111"/>
-      <c r="C34" s="93" t="s">
+      <c r="B34" s="114"/>
+      <c r="C34" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="104" t="s">
+      <c r="D34" s="107" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="2:4">
-      <c r="B35" s="111"/>
-      <c r="C35" s="86" t="s">
+      <c r="B35" s="114"/>
+      <c r="C35" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="101" t="s">
+      <c r="D35" s="104" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="2:4">
-      <c r="B36" s="111"/>
-      <c r="C36" s="93" t="s">
+      <c r="B36" s="114"/>
+      <c r="C36" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="104" t="s">
+      <c r="D36" s="107" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:4">
-      <c r="B37" s="113" t="s">
+      <c r="B37" s="116" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="104" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" s="29" customFormat="1" ht="27" spans="2:4">
-      <c r="B38" s="110" t="s">
+    <row r="38" s="49" customFormat="1" ht="27" spans="2:4">
+      <c r="B38" s="113" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="114" t="s">
+      <c r="D38" s="117" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" s="29" customFormat="1" ht="27" spans="2:4">
-      <c r="B39" s="110"/>
-      <c r="C39" s="86" t="s">
+    <row r="39" s="49" customFormat="1" ht="27" spans="2:4">
+      <c r="B39" s="113"/>
+      <c r="C39" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="101" t="s">
+      <c r="D39" s="104" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="40" s="29" customFormat="1" ht="20" customHeight="1" spans="2:4">
-      <c r="B40" s="92" t="s">
+    <row r="40" s="49" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B40" s="95" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="93" t="s">
+      <c r="C40" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="104" t="s">
+      <c r="D40" s="107" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="2:4">
-      <c r="B41" s="113" t="s">
+      <c r="B41" s="116" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="101" t="s">
+      <c r="D41" s="104" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1" spans="2:4">
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="93" t="s">
+      <c r="C42" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="104" t="s">
+      <c r="D42" s="107" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="2:4">
-      <c r="B43" s="85" t="s">
+      <c r="B43" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="101" t="s">
+      <c r="D43" s="104" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="44" ht="27" spans="2:4">
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="93" t="s">
+      <c r="C44" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="104" t="s">
+      <c r="D44" s="107" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" spans="2:4">
-      <c r="B45" s="85" t="s">
+      <c r="B45" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="101" t="s">
+      <c r="D45" s="104" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="2:4">
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="95" t="s">
         <v>156</v>
       </c>
-      <c r="C46" s="93" t="s">
+      <c r="C46" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="104" t="s">
+      <c r="D46" s="107" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="47" s="29" customFormat="1" ht="20" customHeight="1" spans="2:4">
-      <c r="B47" s="85" t="s">
+    <row r="47" s="49" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B47" s="88" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="86" t="s">
+      <c r="C47" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="101" t="s">
+      <c r="D47" s="104" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="48" ht="27" spans="2:4">
-      <c r="B48" s="110" t="s">
+      <c r="B48" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="93" t="s">
+      <c r="C48" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="114" t="s">
+      <c r="D48" s="117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1" spans="2:4">
-      <c r="B49" s="110"/>
-      <c r="C49" s="86" t="s">
+      <c r="B49" s="113"/>
+      <c r="C49" s="89" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="112" t="s">
+      <c r="D49" s="115" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="50" ht="27" spans="2:4">
-      <c r="B50" s="110"/>
-      <c r="C50" s="93" t="s">
+      <c r="B50" s="113"/>
+      <c r="C50" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="104" t="s">
+      <c r="D50" s="107" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="2:4">
-      <c r="B51" s="110"/>
-      <c r="C51" s="86" t="s">
+      <c r="B51" s="113"/>
+      <c r="C51" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="101" t="s">
+      <c r="D51" s="104" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="2:4">
-      <c r="B52" s="110"/>
-      <c r="C52" s="93" t="s">
+      <c r="B52" s="113"/>
+      <c r="C52" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="104" t="s">
+      <c r="D52" s="107" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="2:4">
-      <c r="B53" s="110"/>
-      <c r="C53" s="86" t="s">
+      <c r="B53" s="113"/>
+      <c r="C53" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="101" t="s">
+      <c r="D53" s="104" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="2:4">
-      <c r="B54" s="110"/>
-      <c r="C54" s="93" t="s">
+      <c r="B54" s="113"/>
+      <c r="C54" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="104" t="s">
+      <c r="D54" s="107" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="2:4">
-      <c r="B55" s="110"/>
-      <c r="C55" s="86" t="s">
+      <c r="B55" s="113"/>
+      <c r="C55" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="101" t="s">
+      <c r="D55" s="104" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="2:4">
-      <c r="B56" s="110"/>
-      <c r="C56" s="93" t="s">
+      <c r="B56" s="113"/>
+      <c r="C56" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="104" t="s">
+      <c r="D56" s="107" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="57" ht="40.5" spans="2:4">
-      <c r="B57" s="111" t="s">
+      <c r="B57" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="101" t="s">
+      <c r="D57" s="104" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="111"/>
-      <c r="C58" s="93" t="s">
+      <c r="B58" s="114"/>
+      <c r="C58" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="D58" s="104" t="s">
+      <c r="D58" s="107" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="59" ht="27" spans="2:4">
-      <c r="B59" s="111"/>
-      <c r="C59" s="86" t="s">
+      <c r="B59" s="114"/>
+      <c r="C59" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="101" t="s">
+      <c r="D59" s="104" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="111"/>
-      <c r="C60" s="93" t="s">
+      <c r="B60" s="114"/>
+      <c r="C60" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="114" t="s">
+      <c r="D60" s="117" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" s="29" customFormat="1" spans="2:4">
-      <c r="B61" s="113" t="s">
+    <row r="61" s="49" customFormat="1" spans="2:4">
+      <c r="B61" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="C61" s="86" t="s">
+      <c r="C61" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="101" t="s">
+      <c r="D61" s="104" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="62" s="29" customFormat="1" spans="2:4">
-      <c r="B62" s="110" t="s">
+    <row r="62" s="49" customFormat="1" spans="2:4">
+      <c r="B62" s="113" t="s">
         <v>177</v>
       </c>
-      <c r="C62" s="93" t="s">
+      <c r="C62" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="D62" s="104" t="s">
+      <c r="D62" s="107" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="63" s="29" customFormat="1" spans="2:4">
-      <c r="B63" s="110"/>
-      <c r="C63" s="86" t="s">
+    <row r="63" s="49" customFormat="1" spans="2:4">
+      <c r="B63" s="113"/>
+      <c r="C63" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="101" t="s">
+      <c r="D63" s="104" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:4">
-      <c r="B64" s="115" t="s">
+      <c r="B64" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="93" t="s">
+      <c r="C64" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="104" t="s">
+      <c r="D64" s="107" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="2:4">
-      <c r="B65" s="85" t="s">
+      <c r="B65" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="C65" s="86" t="s">
+      <c r="C65" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="D65" s="101" t="s">
+      <c r="D65" s="104" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="2:4">
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="C66" s="93" t="s">
+      <c r="C66" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="104" t="s">
+      <c r="D66" s="107" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="2:4">
-      <c r="B67" s="85" t="s">
+      <c r="B67" s="88" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="86" t="s">
+      <c r="C67" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="D67" s="101" t="s">
+      <c r="D67" s="104" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1" spans="2:4">
-      <c r="B68" s="92" t="s">
+      <c r="B68" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C68" s="93" t="s">
+      <c r="C68" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="D68" s="104" t="s">
+      <c r="D68" s="107" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1" spans="2:4">
-      <c r="B69" s="113" t="s">
+      <c r="B69" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="C69" s="86" t="s">
+      <c r="C69" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="D69" s="101" t="s">
+      <c r="D69" s="104" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="70" ht="27.75" spans="2:4">
-      <c r="B70" s="87" t="s">
+      <c r="B70" s="90" t="s">
         <v>192</v>
       </c>
-      <c r="C70" s="88" t="s">
+      <c r="C70" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="D70" s="102" t="s">
+      <c r="D70" s="105" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="72" ht="14.25"/>
     <row r="73" ht="14.25" spans="2:4">
-      <c r="B73" s="116" t="s">
+      <c r="B73" s="119" t="s">
         <v>194</v>
       </c>
-      <c r="C73" s="117"/>
-      <c r="D73" s="118"/>
+      <c r="C73" s="120"/>
+      <c r="D73" s="121"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="107" t="s">
+      <c r="B74" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="108"/>
-      <c r="D74" s="109"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="112"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="85" t="s">
+      <c r="B75" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="C75" s="86"/>
-      <c r="D75" s="101" t="s">
+      <c r="C75" s="89"/>
+      <c r="D75" s="104" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="92" t="s">
+      <c r="B76" s="95" t="s">
         <v>198</v>
       </c>
-      <c r="C76" s="93"/>
-      <c r="D76" s="104"/>
+      <c r="C76" s="96"/>
+      <c r="D76" s="107"/>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="113" t="s">
+      <c r="B77" s="116" t="s">
         <v>199</v>
       </c>
-      <c r="C77" s="86"/>
-      <c r="D77" s="101" t="s">
+      <c r="C77" s="89"/>
+      <c r="D77" s="104" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="2:4">
-      <c r="B78" s="87" t="s">
+      <c r="B78" s="90" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="88"/>
-      <c r="D78" s="102"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="105"/>
     </row>
     <row r="81" ht="16" customHeight="1" spans="4:4">
-      <c r="D81" s="29" t="s">
+      <c r="D81" s="49" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="119" t="s">
+      <c r="D82" s="122" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="119" t="s">
+      <c r="D83" s="122" t="s">
         <v>204</v>
       </c>
     </row>
@@ -7431,382 +7470,382 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.70833333333333" style="29" customWidth="1"/>
-    <col min="2" max="2" width="14.4583333333333" style="29" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="29" customWidth="1"/>
-    <col min="4" max="4" width="31.6" style="29" customWidth="1"/>
-    <col min="5" max="5" width="44.7083333333333" style="29" customWidth="1"/>
-    <col min="6" max="6" width="46.025" style="29" customWidth="1"/>
-    <col min="7" max="7" width="50.875" style="29" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="29" customWidth="1"/>
-    <col min="9" max="9" width="25.75" style="29" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="29" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="29" customWidth="1"/>
-    <col min="12" max="32" width="9" style="29"/>
-    <col min="33" max="16384" width="57.6416666666667" style="29"/>
+    <col min="1" max="1" width="4.70833333333333" style="49" customWidth="1"/>
+    <col min="2" max="2" width="14.4583333333333" style="49" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="31.6" style="49" customWidth="1"/>
+    <col min="5" max="5" width="44.7083333333333" style="49" customWidth="1"/>
+    <col min="6" max="6" width="46.025" style="49" customWidth="1"/>
+    <col min="7" max="7" width="50.875" style="49" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="49" customWidth="1"/>
+    <col min="9" max="9" width="25.75" style="49" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="49" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="49" customWidth="1"/>
+    <col min="12" max="32" width="9" style="49"/>
+    <col min="33" max="16384" width="57.6416666666667" style="49"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:11">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="82" t="s">
+      <c r="D3" s="85" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="85" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="82" t="s">
+      <c r="H3" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="J3" s="82" t="s">
+      <c r="J3" s="85" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="99" t="s">
+      <c r="K3" s="102" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="4" ht="81" spans="2:11">
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="84" t="s">
+      <c r="G4" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="H4" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="I4" s="84" t="s">
+      <c r="I4" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="84" t="s">
+      <c r="J4" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="103" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="2:11">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="88" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86" t="s">
+      <c r="E5" s="89"/>
+      <c r="F5" s="89" t="s">
         <v>225</v>
       </c>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86" t="s">
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89" t="s">
         <v>221</v>
       </c>
-      <c r="J5" s="86" t="s">
+      <c r="J5" s="89" t="s">
         <v>222</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="104" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:11">
-      <c r="B6" s="87"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="102"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="105"/>
     </row>
     <row r="7" ht="40.5" spans="2:11">
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="92" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="93" t="s">
         <v>228</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="93" t="s">
         <v>229</v>
       </c>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90" t="s">
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="103" t="s">
+      <c r="K7" s="106" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="2:11">
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="95" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="96" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="96" t="s">
         <v>232</v>
       </c>
-      <c r="F8" s="93" t="s">
+      <c r="F8" s="96" t="s">
         <v>233</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="97" t="s">
         <v>234</v>
       </c>
-      <c r="H8" s="93" t="s">
+      <c r="H8" s="96" t="s">
         <v>220</v>
       </c>
-      <c r="I8" s="93" t="s">
+      <c r="I8" s="96" t="s">
         <v>230</v>
       </c>
-      <c r="J8" s="93" t="s">
+      <c r="J8" s="96" t="s">
         <v>222</v>
       </c>
-      <c r="K8" s="104" t="s">
+      <c r="K8" s="107" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:11">
-      <c r="B9" s="95"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="105"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="108"/>
     </row>
     <row r="10" ht="40.5" spans="2:11">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84" t="s">
+      <c r="E10" s="87"/>
+      <c r="F10" s="87" t="s">
         <v>237</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84" t="s">
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87" t="s">
         <v>238</v>
       </c>
-      <c r="K10" s="100" t="s">
+      <c r="K10" s="103" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="11" ht="27" spans="2:11">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89" t="s">
         <v>222</v>
       </c>
-      <c r="K11" s="101" t="s">
+      <c r="K11" s="104" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:11">
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="88"/>
-      <c r="K12" s="102"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="105"/>
     </row>
     <row r="13" ht="108" spans="2:11">
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="100" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="101" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="H13" s="98" t="s">
+      <c r="H13" s="101" t="s">
         <v>247</v>
       </c>
-      <c r="I13" s="98" t="s">
+      <c r="I13" s="101" t="s">
         <v>248</v>
       </c>
-      <c r="J13" s="98"/>
-      <c r="K13" s="106"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="109"/>
     </row>
     <row r="14" ht="27" spans="2:11">
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="106"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="109"/>
     </row>
     <row r="15" ht="135" spans="2:11">
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="95" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="93" t="s">
+      <c r="D15" s="96" t="s">
         <v>251</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="96" t="s">
         <v>252</v>
       </c>
-      <c r="F15" s="93" t="s">
+      <c r="F15" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="G15" s="93" t="s">
+      <c r="G15" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="H15" s="93" t="s">
+      <c r="H15" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="I15" s="93" t="s">
+      <c r="I15" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="J15" s="93" t="s">
+      <c r="J15" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="K15" s="104" t="s">
+      <c r="K15" s="107" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="16" ht="40.5" spans="2:11">
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="88" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="89" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="89" t="s">
         <v>258</v>
       </c>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86" t="s">
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89" t="s">
         <v>222</v>
       </c>
-      <c r="K16" s="101" t="s">
+      <c r="K16" s="104" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="92"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="104"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="107"/>
     </row>
     <row r="18" ht="14.25" spans="2:11">
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="105"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="108"/>
     </row>
     <row r="21" ht="67.5" spans="5:7">
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="49" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7823,7 +7862,7 @@
   <sheetPr/>
   <dimension ref="B2:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -7838,16 +7877,16 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:5">
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="78" t="s">
         <v>264</v>
       </c>
     </row>
@@ -7861,7 +7900,7 @@
       <c r="D4" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="79" t="s">
         <v>268</v>
       </c>
     </row>
@@ -7873,7 +7912,7 @@
       <c r="D5" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="80" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7885,7 +7924,7 @@
       <c r="D6" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="81" t="s">
         <v>273</v>
       </c>
     </row>
@@ -7897,7 +7936,7 @@
       <c r="D7" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="80" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7909,7 +7948,7 @@
       <c r="D8" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="81" t="s">
         <v>277</v>
       </c>
     </row>
@@ -7923,7 +7962,7 @@
       <c r="D9" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="80" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7935,7 +7974,7 @@
       <c r="D10" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="81" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7949,19 +7988,19 @@
       <c r="D11" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="77" t="s">
+      <c r="E11" s="80" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:5">
-      <c r="B12" s="79"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="21" t="s">
         <v>285</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="83" t="s">
         <v>287</v>
       </c>
     </row>
@@ -7991,271 +8030,271 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="45" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="29" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="29" customWidth="1"/>
-    <col min="5" max="7" width="14" style="29" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="4.625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="49" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="49" customWidth="1"/>
+    <col min="5" max="7" width="14" style="49" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="2:2">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="49" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="55" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="54" t="s">
+      <c r="D4" s="56"/>
+      <c r="E4" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
     </row>
     <row r="5" customHeight="1" spans="2:7">
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="60" t="s">
         <v>297</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="60" t="s">
         <v>298</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="60" t="s">
         <v>299</v>
       </c>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="6" customHeight="1" spans="2:7">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="59" t="s">
         <v>301</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="60" t="s">
         <v>302</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="58"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
     </row>
     <row r="9" ht="13.5"/>
     <row r="10" ht="13.5"/>
     <row r="11" ht="13.5"/>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25" spans="2:7">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48" t="s">
+      <c r="D13" s="51"/>
+      <c r="E13" s="51" t="s">
         <v>305</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="68" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53" t="s">
+      <c r="D14" s="56"/>
+      <c r="E14" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="G14" s="66"/>
+      <c r="G14" s="69"/>
     </row>
     <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="59" t="s">
         <v>311</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="60" t="s">
         <v>312</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57" t="s">
+      <c r="D15" s="60"/>
+      <c r="E15" s="60" t="s">
         <v>313</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="G15" s="58"/>
+      <c r="G15" s="61"/>
     </row>
     <row r="16" ht="68" customHeight="1" spans="2:7">
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="62" t="s">
         <v>314</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="63" t="s">
         <v>315</v>
       </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60" t="s">
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="G16" s="61" t="s">
+      <c r="G16" s="64" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="59" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="60" t="s">
         <v>318</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57" t="s">
+      <c r="D17" s="60"/>
+      <c r="E17" s="60" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="61" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:7">
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="62" t="s">
         <v>322</v>
       </c>
-      <c r="C18" s="60" t="s">
+      <c r="C18" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60" t="s">
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63" t="s">
         <v>320</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="64" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="19" ht="78" customHeight="1" spans="2:7">
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="59" t="s">
         <v>324</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="60" t="s">
         <v>325</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57" t="s">
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60" t="s">
         <v>320</v>
       </c>
-      <c r="G19" s="58" t="s">
+      <c r="G19" s="61" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:7">
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="62" t="s">
         <v>327</v>
       </c>
-      <c r="C20" s="60" t="s">
+      <c r="C20" s="63" t="s">
         <v>328</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60" t="s">
+      <c r="D20" s="63"/>
+      <c r="E20" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="60" t="s">
+      <c r="F20" s="63" t="s">
         <v>329</v>
       </c>
-      <c r="G20" s="61"/>
+      <c r="G20" s="64"/>
     </row>
     <row r="21" ht="14.25" spans="2:7">
-      <c r="B21" s="67"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="72"/>
     </row>
     <row r="22" customHeight="1" spans="2:7">
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="73" t="s">
         <v>330</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="74" t="s">
         <v>331</v>
       </c>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
     </row>
     <row r="23" ht="13.5" spans="2:7">
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="70" t="s">
         <v>332</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="69"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="72"/>
     </row>
     <row r="24" ht="14.25" spans="2:7">
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -8289,7 +8328,7 @@
   <sheetPr/>
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -8302,34 +8341,34 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:3">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="44" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="46" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:3">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="46" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:3">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="47" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="48" t="s">
         <v>339</v>
       </c>
     </row>

--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="769" activeTab="16"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="769" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
     <author>123456</author>
   </authors>
   <commentList>
-    <comment ref="E8" authorId="0">
+    <comment ref="E10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="1">
+    <comment ref="C12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="392">
   <si>
     <t>timeline</t>
   </si>
@@ -2857,7 +2857,7 @@
     <t xml:space="preserve">java.lang.Class.forName()
 java.sql.DriverManager
 java.sql.Connection
-java.sql.Statement\PreparedStatement
+java.sql.Statement\PreparedStatement\CallableStatement
 java.sql.ResutSet
 </t>
   </si>
@@ -2867,14 +2867,26 @@
 conn.rollback()</t>
   </si>
   <si>
+    <t>Spring JDBC</t>
+  </si>
+  <si>
+    <t>org.springframework.jdbc.core.JdbcTemplate</t>
+  </si>
+  <si>
+    <t>org.springframework:spring-jdbc.jar</t>
+  </si>
+  <si>
     <t>MyBatis</t>
   </si>
   <si>
-    <t xml:space="preserve">DataSource\TransactionFactory\Environment\Configuration
+    <t xml:space="preserve">org.apache.ibatis.datasource.pooled.PooledDataSource
+org.apache.ibatis.datasource.unpooled.UnpooledDataSource
 org.apache.ibatis.session.SqlSessionFactoryBuilder
 org.apache.ibatis.session.SqlSessionFactory
 org.apache.ibatis.session.SqlSession
 **Mapper
+org.apache.ibatis.mapping.MappedStatement
+TransactionFactory\Environment\Configuration
 </t>
   </si>
   <si>
@@ -2899,6 +2911,7 @@
 org.mybatis.spring.SqlSessionTemplate
 org.mybatis.spring.mapper.MapperFactoryBean
 org.mybatis.spring.mapper.MapperScannerConfigurer
+org.springframework.jdbc.datasource.DataSourceTransactionManager
 </t>
   </si>
   <si>
@@ -2917,6 +2930,7 @@
 org.hibernate.Transaction
 org.hibernate.query.Query
 Session\EntityManagerFactory\EntityManager
+@Entity、@Table、@Id、@Column、@Basic
 </t>
   </si>
   <si>
@@ -2932,6 +2946,7 @@
   </si>
   <si>
     <t xml:space="preserve">org.springframework.orm.hibernate5.LocalSessionFactoryBean
+org.springframework.orm.hibernate5.annotation.AnnotationSessionFactoryBean
 org.springframework.orm.hibernate5.HibernateTransactionManager
 </t>
   </si>
@@ -2939,7 +2954,9 @@
     <t>org.springframework:spring-orm</t>
   </si>
   <si>
-    <t>Hibernate JPA</t>
+    <t>Hibernate JPA
++ Spring
++ SpringBoot</t>
   </si>
   <si>
     <t xml:space="preserve">javax.persistence.Persistence
@@ -2950,6 +2967,9 @@
   </si>
   <si>
     <t>org.hibernate.javax.persistence:hibernate-jpa-2.1-api</t>
+  </si>
+  <si>
+    <t>EntityManager entityManager = session.getEntityManagerFactory().createEntityManager();</t>
   </si>
   <si>
     <t>Spring Data JPA</t>
@@ -3073,6 +3093,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3080,7 +3107,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3094,8 +3121,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3108,9 +3144,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3141,7 +3176,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3156,7 +3199,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3165,44 +3223,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3228,7 +3248,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3249,13 +3269,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3267,7 +3293,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3279,13 +3317,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3297,7 +3329,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3309,19 +3413,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3333,91 +3431,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3435,13 +3449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4091,6 +4105,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -4112,21 +4135,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4138,26 +4146,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4177,6 +4165,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4185,6 +4188,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4193,149 +4207,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4411,6 +4425,153 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4420,159 +4581,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4624,9 +4632,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4657,9 +4662,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4669,9 +4671,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4705,57 +4704,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4780,16 +4731,16 @@
     <xf numFmtId="57" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="5" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="5" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4798,10 +4749,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="5" fillId="5" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="5" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4813,7 +4764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -5323,552 +5274,552 @@
   <sheetPr/>
   <dimension ref="B1:I62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="140" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="140" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="140" customWidth="1"/>
-    <col min="4" max="4" width="76.125" style="140" customWidth="1"/>
-    <col min="5" max="5" width="26" style="140" customWidth="1"/>
-    <col min="6" max="6" width="59" style="140" customWidth="1"/>
-    <col min="7" max="16384" width="12.75" style="140" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="119" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="119" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="119" customWidth="1"/>
+    <col min="4" max="4" width="76.125" style="119" customWidth="1"/>
+    <col min="5" max="5" width="26" style="119" customWidth="1"/>
+    <col min="6" max="6" width="59" style="119" customWidth="1"/>
+    <col min="7" max="16384" width="12.75" style="119" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="119" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="73"/>
-      <c r="C3" s="141" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="141" t="s">
+      <c r="D3" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="141" t="s">
+      <c r="E3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="121" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:6">
-      <c r="B4" s="143">
+      <c r="B4" s="122">
         <v>33329</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="69"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" ht="40.5" spans="2:6">
-      <c r="B5" s="144">
+      <c r="B5" s="123">
         <v>34820</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
     </row>
     <row r="6" ht="27" spans="2:6">
-      <c r="B6" s="145">
+      <c r="B6" s="124">
         <v>35065</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="144">
+      <c r="B7" s="123">
         <v>35462</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
     </row>
     <row r="8" ht="54" spans="2:6">
-      <c r="B8" s="145">
+      <c r="B8" s="124">
         <v>36130</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
     </row>
     <row r="9" ht="27" spans="2:6">
-      <c r="B9" s="144">
+      <c r="B9" s="123">
         <v>36647</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="60" t="s">
+      <c r="D9" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
     </row>
     <row r="10" ht="40.5" spans="2:6">
-      <c r="B10" s="145">
+      <c r="B10" s="124">
         <v>37288</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="64"/>
+      <c r="F10" s="63"/>
     </row>
     <row r="11" ht="40.5" spans="2:6">
-      <c r="B11" s="144"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="60" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:6">
-      <c r="B12" s="145">
+      <c r="B12" s="124">
         <v>38231</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
     </row>
     <row r="13" ht="54" spans="2:6">
-      <c r="B13" s="144"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60" t="s">
+      <c r="B13" s="123"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="61" t="s">
+      <c r="F13" s="60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="2:9">
-      <c r="B14" s="145">
+      <c r="B14" s="124">
         <v>39052</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="63"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="59"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="61" t="s">
+      <c r="F15" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" ht="40.5" spans="2:9">
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63" t="s">
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
     </row>
     <row r="17" ht="54" spans="2:9">
-      <c r="B17" s="144">
+      <c r="B17" s="123">
         <v>40725</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="60"/>
-      <c r="F17" s="61"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" ht="108" spans="2:9">
-      <c r="B18" s="145">
+      <c r="B18" s="124">
         <v>41699</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="63" t="s">
+      <c r="D18" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="64"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" ht="40.5" spans="2:6">
-      <c r="B19" s="144"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60" t="s">
+      <c r="B19" s="123"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="61" t="s">
+      <c r="F19" s="60" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="145">
+      <c r="B20" s="124">
         <v>42979</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63" t="s">
+      <c r="D20" s="62"/>
+      <c r="E20" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="64"/>
+      <c r="F20" s="63"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="144">
+      <c r="B21" s="123">
         <v>43160</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="60"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="145">
+      <c r="B22" s="124">
         <v>43344</v>
       </c>
-      <c r="C22" s="63" t="s">
+      <c r="C22" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="63"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="144">
+      <c r="B23" s="123">
         <v>43525</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="145">
+      <c r="B24" s="124">
         <v>43709</v>
       </c>
-      <c r="C24" s="63" t="s">
+      <c r="C24" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="63"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="144">
+      <c r="B25" s="123">
         <v>43891</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="145">
+      <c r="B26" s="124">
         <v>44075</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="64"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="63"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="146"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="72"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="146"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="72"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
     </row>
     <row r="30" ht="14.25" spans="2:6">
-      <c r="B30" s="147"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="67"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
     </row>
     <row r="40" ht="14.25"/>
     <row r="41" ht="14.25" spans="2:4">
-      <c r="B41" s="148"/>
-      <c r="C41" s="149" t="s">
+      <c r="B41" s="127"/>
+      <c r="C41" s="128" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="150" t="s">
+      <c r="D41" s="129" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" ht="24" spans="2:4">
-      <c r="B42" s="151">
+      <c r="B42" s="130">
         <v>33329</v>
       </c>
-      <c r="C42" s="152" t="s">
+      <c r="C42" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="153"/>
+      <c r="D42" s="132"/>
     </row>
     <row r="43" ht="24" spans="2:4">
-      <c r="B43" s="151">
+      <c r="B43" s="130">
         <v>34820</v>
       </c>
-      <c r="C43" s="152" t="s">
+      <c r="C43" s="131" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="153"/>
+      <c r="D43" s="132"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="151">
+      <c r="B44" s="130">
         <v>35065</v>
       </c>
-      <c r="C44" s="152" t="s">
+      <c r="C44" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="153"/>
+      <c r="D44" s="132"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="151">
+      <c r="B45" s="130">
         <v>35462</v>
       </c>
-      <c r="C45" s="152" t="s">
+      <c r="C45" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="153"/>
+      <c r="D45" s="132"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="151">
+      <c r="B46" s="130">
         <v>36130</v>
       </c>
-      <c r="C46" s="152" t="s">
+      <c r="C46" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="153"/>
+      <c r="D46" s="132"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="151">
+      <c r="B47" s="130">
         <v>36647</v>
       </c>
-      <c r="C47" s="152" t="s">
+      <c r="C47" s="131" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="153"/>
+      <c r="D47" s="132"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="151">
+      <c r="B48" s="130">
         <v>37288</v>
       </c>
-      <c r="C48" s="152" t="s">
+      <c r="C48" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="153" t="s">
+      <c r="D48" s="132" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="151"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="153" t="s">
+      <c r="B49" s="130"/>
+      <c r="C49" s="131"/>
+      <c r="D49" s="132" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="151">
+      <c r="B50" s="130">
         <v>38231</v>
       </c>
-      <c r="C50" s="152" t="s">
+      <c r="C50" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="153"/>
+      <c r="D50" s="132"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="151"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="153" t="s">
+      <c r="B51" s="130"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="132" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="151">
+      <c r="B52" s="130">
         <v>39052</v>
       </c>
-      <c r="C52" s="152" t="s">
+      <c r="C52" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="153"/>
+      <c r="D52" s="132"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="154"/>
-      <c r="C53" s="152"/>
-      <c r="D53" s="153" t="s">
+      <c r="B53" s="133"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="132" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="154"/>
-      <c r="C54" s="152"/>
-      <c r="D54" s="153" t="s">
+      <c r="B54" s="133"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="132" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="151">
+      <c r="B55" s="130">
         <v>40725</v>
       </c>
-      <c r="C55" s="152" t="s">
+      <c r="C55" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="153"/>
+      <c r="D55" s="132"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="151">
+      <c r="B56" s="130">
         <v>41699</v>
       </c>
-      <c r="C56" s="152" t="s">
+      <c r="C56" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="153"/>
+      <c r="D56" s="132"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="151"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="153" t="s">
+      <c r="B57" s="130"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="132" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="151">
+      <c r="B58" s="130">
         <v>42979</v>
       </c>
-      <c r="C58" s="152" t="s">
+      <c r="C58" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="153" t="s">
+      <c r="D58" s="132" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="151">
+      <c r="B59" s="130">
         <v>43160</v>
       </c>
-      <c r="C59" s="152" t="s">
+      <c r="C59" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="153"/>
+      <c r="D59" s="132"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="151">
+      <c r="B60" s="130">
         <v>43344</v>
       </c>
-      <c r="C60" s="152" t="s">
+      <c r="C60" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="153"/>
+      <c r="D60" s="132"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="151">
+      <c r="B61" s="130">
         <v>43525</v>
       </c>
-      <c r="C61" s="152" t="s">
+      <c r="C61" s="131" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="153"/>
+      <c r="D61" s="132"/>
     </row>
     <row r="62" ht="14.25" spans="2:4">
-      <c r="B62" s="155">
+      <c r="B62" s="134">
         <v>43709</v>
       </c>
-      <c r="C62" s="156" t="s">
+      <c r="C62" s="135" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="157"/>
+      <c r="D62" s="136"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:F3">
@@ -5880,7 +5831,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ce9cd0ef-7426-429b-94b2-2e18ee185e9c}</x14:id>
+          <x14:id>{cd407202-5b66-42b0-a54b-066114cbdc92}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5894,7 +5845,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cda44f90-d73a-4825-81f8-495e71988bb4}</x14:id>
+          <x14:id>{9ec963e5-6c9c-484f-bc5a-dcdbb4cbed2d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5908,7 +5859,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{462f7a00-c614-4acf-86d5-78265afd1644}</x14:id>
+          <x14:id>{8765d080-51cc-4daf-bec8-06c022433ffe}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5922,7 +5873,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6037a339-0578-4825-bb4d-16ab11ce2778}</x14:id>
+          <x14:id>{670d0b58-5533-478e-bca7-304177759c97}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5936,7 +5887,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6932dfdc-9579-475b-9539-27c66e4974ce}</x14:id>
+          <x14:id>{b0539953-069d-4d93-a4ef-1bc473d94b25}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5950,7 +5901,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{aa704ef2-63c7-455d-89df-e6453a321b43}</x14:id>
+          <x14:id>{9dc1a977-c1be-4d8c-a4a6-8365973e86c4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5964,7 +5915,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{20366e64-6fa5-4159-a833-3f4d444f4ee4}</x14:id>
+          <x14:id>{4e509d0c-8413-4bff-b215-c4e6a530356e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5978,7 +5929,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4a387fc6-9f92-4459-8fa7-10db992f3d8e}</x14:id>
+          <x14:id>{7212f23b-68e1-4244-931b-9348ee99983c}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5990,7 +5941,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ce9cd0ef-7426-429b-94b2-2e18ee185e9c}">
+          <x14:cfRule type="dataBar" id="{cd407202-5b66-42b0-a54b-066114cbdc92}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6001,7 +5952,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cda44f90-d73a-4825-81f8-495e71988bb4}">
+          <x14:cfRule type="dataBar" id="{9ec963e5-6c9c-484f-bc5a-dcdbb4cbed2d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6012,7 +5963,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{462f7a00-c614-4acf-86d5-78265afd1644}">
+          <x14:cfRule type="dataBar" id="{8765d080-51cc-4daf-bec8-06c022433ffe}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6023,7 +5974,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6037a339-0578-4825-bb4d-16ab11ce2778}">
+          <x14:cfRule type="dataBar" id="{670d0b58-5533-478e-bca7-304177759c97}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6034,7 +5985,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6932dfdc-9579-475b-9539-27c66e4974ce}">
+          <x14:cfRule type="dataBar" id="{b0539953-069d-4d93-a4ef-1bc473d94b25}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6045,7 +5996,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{aa704ef2-63c7-455d-89df-e6453a321b43}">
+          <x14:cfRule type="dataBar" id="{9dc1a977-c1be-4d8c-a4a6-8365973e86c4}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6056,7 +6007,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{20366e64-6fa5-4159-a833-3f4d444f4ee4}">
+          <x14:cfRule type="dataBar" id="{4e509d0c-8413-4bff-b215-c4e6a530356e}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6067,7 +6018,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4a387fc6-9f92-4459-8fa7-10db992f3d8e}">
+          <x14:cfRule type="dataBar" id="{7212f23b-68e1-4244-931b-9348ee99983c}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6086,205 +6037,227 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:F20"/>
+  <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="69.375" customWidth="1"/>
-    <col min="4" max="4" width="59.375" customWidth="1"/>
-    <col min="5" max="5" width="49.875" customWidth="1"/>
-    <col min="6" max="6" width="52.5" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="69.625" style="25" customWidth="1"/>
+    <col min="4" max="5" width="53.625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="52.5" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="28" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="4" ht="81" spans="2:6">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-    </row>
-    <row r="6" ht="81" spans="2:6">
-      <c r="B6" s="35" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="37" t="s">
         <v>349</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="33"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" ht="135" spans="2:6">
+      <c r="B8" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
-    </row>
-    <row r="8" ht="81" spans="2:6">
-      <c r="B8" s="35" t="s">
+      <c r="D8" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="E8" s="37" t="s">
         <v>354</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="F8" s="40" t="s">
         <v>355</v>
       </c>
-      <c r="E8" s="36" t="s">
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" ht="108" spans="2:6">
+      <c r="B10" s="36" t="s">
         <v>356</v>
       </c>
-      <c r="F8" s="39"/>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" ht="94.5" spans="2:6">
-      <c r="B10" s="35" t="s">
+      <c r="C10" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="D10" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="E10" s="37" t="s">
         <v>359</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+    </row>
+    <row r="12" ht="121.5" spans="2:6">
+      <c r="B12" s="36" t="s">
         <v>360</v>
       </c>
-      <c r="F10" s="39"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" ht="40.5" spans="2:6">
-      <c r="B12" s="35" t="s">
+      <c r="C12" s="37" t="s">
         <v>361</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="D12" s="38" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="E12" s="37" t="s">
         <v>363</v>
       </c>
-      <c r="E12" s="37"/>
       <c r="F12" s="39"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
     </row>
     <row r="14" ht="67.5" spans="2:6">
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>364</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="37" t="s">
         <v>365</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="E14" s="37"/>
+      <c r="E14" s="38"/>
       <c r="F14" s="39"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="35" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" ht="67.5" spans="2:6">
+      <c r="B16" s="36" t="s">
         <v>367</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
+      <c r="C16" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>369</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>370</v>
+      </c>
       <c r="F16" s="39"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="35"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="B18" s="36" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="39"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
-    </row>
-    <row r="20" ht="14.25" spans="2:6">
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="36"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6350,33 +6323,33 @@
         <v>264</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="5" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="10" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
@@ -6384,51 +6357,51 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="15" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="10" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:6">
       <c r="B8" s="20" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="23" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -6490,7 +6463,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6512,120 +6485,120 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="123" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="123" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="123" customWidth="1"/>
-    <col min="4" max="4" width="37.375" style="123" customWidth="1"/>
-    <col min="5" max="5" width="29.875" style="123" customWidth="1"/>
-    <col min="6" max="6" width="49.375" style="123" customWidth="1"/>
-    <col min="7" max="7" width="40.125" style="123" customWidth="1"/>
-    <col min="8" max="8" width="48.375" style="123" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="123"/>
+    <col min="1" max="1" width="2.875" style="50" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="50" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="50" customWidth="1"/>
+    <col min="6" max="6" width="49.375" style="50" customWidth="1"/>
+    <col min="7" max="7" width="40.125" style="50" customWidth="1"/>
+    <col min="8" max="8" width="48.375" style="50" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:8">
-      <c r="B3" s="124"/>
-      <c r="C3" s="125" t="s">
+      <c r="B3" s="118"/>
+      <c r="C3" s="115" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="125" t="s">
+      <c r="D3" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="125" t="s">
+      <c r="G3" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="126" t="s">
+      <c r="H3" s="116" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" ht="27" spans="2:8">
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="106" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="128"/>
-      <c r="G4" s="29" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="129"/>
+      <c r="H4" s="107"/>
     </row>
     <row r="5" ht="135" spans="2:8">
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="158" t="s">
+      <c r="C5" s="87"/>
+      <c r="D5" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="132" t="s">
+      <c r="F5" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="132" t="s">
+      <c r="G5" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="133" t="s">
+      <c r="H5" s="101" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" ht="54" spans="2:8">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="159" t="s">
+      <c r="C6" s="37"/>
+      <c r="D6" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="40" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" ht="68.25" spans="2:8">
-      <c r="B7" s="136" t="s">
+      <c r="B7" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="160" t="s">
+      <c r="D7" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="138" t="s">
+      <c r="E7" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="138" t="s">
+      <c r="F7" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="138" t="s">
+      <c r="G7" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="139" t="s">
+      <c r="H7" s="104" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6673,763 +6646,763 @@
   <sheetPr/>
   <dimension ref="B1:D83"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="31" style="49" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="49" customWidth="1"/>
-    <col min="4" max="4" width="114.625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="49" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="49"/>
+    <col min="1" max="1" width="4.625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="31" style="50" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="50" customWidth="1"/>
+    <col min="4" max="4" width="114.625" style="50" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="50" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1"/>
     <row r="3" ht="20" customHeight="1" spans="2:4">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:4">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="106" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="112" t="s">
+      <c r="D4" s="107" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:4">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="101" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:4">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="40" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:4">
-      <c r="B7" s="62"/>
-      <c r="C7" s="89" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="101" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:4">
-      <c r="B8" s="62"/>
-      <c r="C8" s="96" t="s">
+      <c r="B8" s="61"/>
+      <c r="C8" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="107" t="s">
+      <c r="D8" s="40" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:4">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="101" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:4">
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="40" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:4">
-      <c r="B11" s="113"/>
-      <c r="C11" s="60" t="s">
+      <c r="B11" s="108"/>
+      <c r="C11" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="101" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:4">
-      <c r="B12" s="113"/>
-      <c r="C12" s="63" t="s">
+      <c r="B12" s="108"/>
+      <c r="C12" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="40" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="109" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="104" t="s">
+      <c r="D13" s="101" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" s="49" customFormat="1" ht="27" spans="2:4">
-      <c r="B14" s="114"/>
-      <c r="C14" s="96" t="s">
+    <row r="14" s="50" customFormat="1" ht="27" spans="2:4">
+      <c r="B14" s="109"/>
+      <c r="C14" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="40" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="114"/>
-      <c r="C15" s="89" t="s">
+      <c r="B15" s="109"/>
+      <c r="C15" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="104" t="s">
+      <c r="D15" s="101" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:4">
-      <c r="B16" s="114"/>
-      <c r="C16" s="96" t="s">
+      <c r="B16" s="109"/>
+      <c r="C16" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="40" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:4">
-      <c r="B17" s="114"/>
-      <c r="C17" s="89" t="s">
+      <c r="B17" s="109"/>
+      <c r="C17" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="101" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:4">
-      <c r="B18" s="114"/>
-      <c r="C18" s="96" t="s">
+      <c r="B18" s="109"/>
+      <c r="C18" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="107" t="s">
+      <c r="D18" s="40" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:4">
-      <c r="B19" s="114"/>
-      <c r="C19" s="89" t="s">
+      <c r="B19" s="109"/>
+      <c r="C19" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="115" t="s">
+      <c r="D19" s="110" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:4">
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="96" t="s">
+      <c r="C20" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="107" t="s">
+      <c r="D20" s="40" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:4">
-      <c r="B21" s="113"/>
-      <c r="C21" s="89" t="s">
+      <c r="B21" s="108"/>
+      <c r="C21" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="104" t="s">
+      <c r="D21" s="101" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="96" t="s">
+      <c r="C22" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="107" t="s">
+      <c r="D22" s="40" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="62"/>
-      <c r="C23" s="89" t="s">
+      <c r="B23" s="61"/>
+      <c r="C23" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="104" t="s">
+      <c r="D23" s="101" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="107" t="s">
+      <c r="D24" s="40" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="62"/>
-      <c r="C25" s="89" t="s">
+      <c r="B25" s="61"/>
+      <c r="C25" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="110" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="62"/>
-      <c r="C26" s="96" t="s">
+      <c r="B26" s="61"/>
+      <c r="C26" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="107" t="s">
+      <c r="D26" s="40" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="62"/>
-      <c r="C27" s="89" t="s">
+      <c r="B27" s="61"/>
+      <c r="C27" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="104" t="s">
+      <c r="D27" s="101" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="C28" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="107" t="s">
+      <c r="D28" s="40" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="62"/>
-      <c r="C29" s="89" t="s">
+      <c r="B29" s="61"/>
+      <c r="C29" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="104" t="s">
+      <c r="D29" s="101" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="62"/>
-      <c r="C30" s="96" t="s">
+      <c r="B30" s="61"/>
+      <c r="C30" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="107" t="s">
+      <c r="D30" s="40" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="2:4">
-      <c r="B31" s="114" t="s">
+      <c r="B31" s="109" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="104" t="s">
+      <c r="D31" s="101" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1" spans="2:4">
-      <c r="B32" s="114"/>
-      <c r="C32" s="96" t="s">
+      <c r="B32" s="109"/>
+      <c r="C32" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="107" t="s">
+      <c r="D32" s="40" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="2:4">
-      <c r="B33" s="114"/>
-      <c r="C33" s="89" t="s">
+      <c r="B33" s="109"/>
+      <c r="C33" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="104" t="s">
+      <c r="D33" s="101" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="2:4">
-      <c r="B34" s="114"/>
-      <c r="C34" s="96" t="s">
+      <c r="B34" s="109"/>
+      <c r="C34" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="107" t="s">
+      <c r="D34" s="40" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="2:4">
-      <c r="B35" s="114"/>
-      <c r="C35" s="89" t="s">
+      <c r="B35" s="109"/>
+      <c r="C35" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="104" t="s">
+      <c r="D35" s="101" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="2:4">
-      <c r="B36" s="114"/>
-      <c r="C36" s="96" t="s">
+      <c r="B36" s="109"/>
+      <c r="C36" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="107" t="s">
+      <c r="D36" s="40" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:4">
-      <c r="B37" s="116" t="s">
+      <c r="B37" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="89" t="s">
+      <c r="C37" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="104" t="s">
+      <c r="D37" s="101" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" s="49" customFormat="1" ht="27" spans="2:4">
-      <c r="B38" s="113" t="s">
+    <row r="38" s="50" customFormat="1" ht="27" spans="2:4">
+      <c r="B38" s="108" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="96" t="s">
+      <c r="C38" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="117" t="s">
+      <c r="D38" s="112" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" s="49" customFormat="1" ht="27" spans="2:4">
-      <c r="B39" s="113"/>
-      <c r="C39" s="89" t="s">
+    <row r="39" s="50" customFormat="1" ht="27" spans="2:4">
+      <c r="B39" s="108"/>
+      <c r="C39" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="104" t="s">
+      <c r="D39" s="101" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="40" s="49" customFormat="1" ht="20" customHeight="1" spans="2:4">
-      <c r="B40" s="95" t="s">
+    <row r="40" s="50" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B40" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="96" t="s">
+      <c r="C40" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="107" t="s">
+      <c r="D40" s="40" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="2:4">
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="C41" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="104" t="s">
+      <c r="D41" s="101" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1" spans="2:4">
-      <c r="B42" s="95" t="s">
+      <c r="B42" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="96" t="s">
+      <c r="C42" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="107" t="s">
+      <c r="D42" s="40" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="2:4">
-      <c r="B43" s="88" t="s">
+      <c r="B43" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C43" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="104" t="s">
+      <c r="D43" s="101" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="44" ht="27" spans="2:4">
-      <c r="B44" s="95" t="s">
+      <c r="B44" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="96" t="s">
+      <c r="C44" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="107" t="s">
+      <c r="D44" s="40" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" spans="2:4">
-      <c r="B45" s="88" t="s">
+      <c r="B45" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="89" t="s">
+      <c r="C45" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="104" t="s">
+      <c r="D45" s="101" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="2:4">
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="C46" s="96" t="s">
+      <c r="C46" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="107" t="s">
+      <c r="D46" s="40" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="47" s="49" customFormat="1" ht="20" customHeight="1" spans="2:4">
-      <c r="B47" s="88" t="s">
+    <row r="47" s="50" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B47" s="86" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="89" t="s">
+      <c r="C47" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="104" t="s">
+      <c r="D47" s="101" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="48" ht="27" spans="2:4">
-      <c r="B48" s="113" t="s">
+      <c r="B48" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="96" t="s">
+      <c r="C48" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="117" t="s">
+      <c r="D48" s="112" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1" spans="2:4">
-      <c r="B49" s="113"/>
-      <c r="C49" s="89" t="s">
+      <c r="B49" s="108"/>
+      <c r="C49" s="87" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="115" t="s">
+      <c r="D49" s="110" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="50" ht="27" spans="2:4">
-      <c r="B50" s="113"/>
-      <c r="C50" s="96" t="s">
+      <c r="B50" s="108"/>
+      <c r="C50" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="107" t="s">
+      <c r="D50" s="40" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="2:4">
-      <c r="B51" s="113"/>
-      <c r="C51" s="89" t="s">
+      <c r="B51" s="108"/>
+      <c r="C51" s="87" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="104" t="s">
+      <c r="D51" s="101" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="2:4">
-      <c r="B52" s="113"/>
-      <c r="C52" s="96" t="s">
+      <c r="B52" s="108"/>
+      <c r="C52" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="107" t="s">
+      <c r="D52" s="40" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="2:4">
-      <c r="B53" s="113"/>
-      <c r="C53" s="89" t="s">
+      <c r="B53" s="108"/>
+      <c r="C53" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="104" t="s">
+      <c r="D53" s="101" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="2:4">
-      <c r="B54" s="113"/>
-      <c r="C54" s="96" t="s">
+      <c r="B54" s="108"/>
+      <c r="C54" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="107" t="s">
+      <c r="D54" s="40" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="2:4">
-      <c r="B55" s="113"/>
-      <c r="C55" s="89" t="s">
+      <c r="B55" s="108"/>
+      <c r="C55" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="104" t="s">
+      <c r="D55" s="101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="2:4">
-      <c r="B56" s="113"/>
-      <c r="C56" s="96" t="s">
+      <c r="B56" s="108"/>
+      <c r="C56" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="107" t="s">
+      <c r="D56" s="40" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="57" ht="40.5" spans="2:4">
-      <c r="B57" s="114" t="s">
+      <c r="B57" s="109" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="89" t="s">
+      <c r="C57" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="104" t="s">
+      <c r="D57" s="101" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="114"/>
-      <c r="C58" s="96" t="s">
+      <c r="B58" s="109"/>
+      <c r="C58" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="D58" s="107" t="s">
+      <c r="D58" s="40" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="59" ht="27" spans="2:4">
-      <c r="B59" s="114"/>
-      <c r="C59" s="89" t="s">
+      <c r="B59" s="109"/>
+      <c r="C59" s="87" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="104" t="s">
+      <c r="D59" s="101" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="114"/>
-      <c r="C60" s="96" t="s">
+      <c r="B60" s="109"/>
+      <c r="C60" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="117" t="s">
+      <c r="D60" s="112" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" s="49" customFormat="1" spans="2:4">
-      <c r="B61" s="116" t="s">
+    <row r="61" s="50" customFormat="1" spans="2:4">
+      <c r="B61" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="C61" s="89" t="s">
+      <c r="C61" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="104" t="s">
+      <c r="D61" s="101" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="62" s="49" customFormat="1" spans="2:4">
-      <c r="B62" s="113" t="s">
+    <row r="62" s="50" customFormat="1" spans="2:4">
+      <c r="B62" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="C62" s="96" t="s">
+      <c r="C62" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="D62" s="107" t="s">
+      <c r="D62" s="40" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="63" s="49" customFormat="1" spans="2:4">
-      <c r="B63" s="113"/>
-      <c r="C63" s="89" t="s">
+    <row r="63" s="50" customFormat="1" spans="2:4">
+      <c r="B63" s="108"/>
+      <c r="C63" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="104" t="s">
+      <c r="D63" s="101" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:4">
-      <c r="B64" s="118" t="s">
+      <c r="B64" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="96" t="s">
+      <c r="C64" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="107" t="s">
+      <c r="D64" s="40" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="2:4">
-      <c r="B65" s="88" t="s">
+      <c r="B65" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="C65" s="89" t="s">
+      <c r="C65" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D65" s="104" t="s">
+      <c r="D65" s="101" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="2:4">
-      <c r="B66" s="95" t="s">
+      <c r="B66" s="93" t="s">
         <v>184</v>
       </c>
-      <c r="C66" s="96" t="s">
+      <c r="C66" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="107" t="s">
+      <c r="D66" s="40" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="2:4">
-      <c r="B67" s="88" t="s">
+      <c r="B67" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="89" t="s">
+      <c r="C67" s="87" t="s">
         <v>94</v>
       </c>
-      <c r="D67" s="104" t="s">
+      <c r="D67" s="101" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1" spans="2:4">
-      <c r="B68" s="95" t="s">
+      <c r="B68" s="93" t="s">
         <v>188</v>
       </c>
-      <c r="C68" s="96" t="s">
+      <c r="C68" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="D68" s="107" t="s">
+      <c r="D68" s="40" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1" spans="2:4">
-      <c r="B69" s="116" t="s">
+      <c r="B69" s="111" t="s">
         <v>190</v>
       </c>
-      <c r="C69" s="89" t="s">
+      <c r="C69" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D69" s="104" t="s">
+      <c r="D69" s="101" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="70" ht="27.75" spans="2:4">
-      <c r="B70" s="90" t="s">
+      <c r="B70" s="88" t="s">
         <v>192</v>
       </c>
-      <c r="C70" s="91" t="s">
+      <c r="C70" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="D70" s="105" t="s">
+      <c r="D70" s="102" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="72" ht="14.25"/>
     <row r="73" ht="14.25" spans="2:4">
-      <c r="B73" s="119" t="s">
+      <c r="B73" s="114" t="s">
         <v>194</v>
       </c>
-      <c r="C73" s="120"/>
-      <c r="D73" s="121"/>
+      <c r="C73" s="115"/>
+      <c r="D73" s="116"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="110" t="s">
+      <c r="B74" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="C74" s="111"/>
-      <c r="D74" s="112"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="107"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="88" t="s">
+      <c r="B75" s="86" t="s">
         <v>196</v>
       </c>
-      <c r="C75" s="89"/>
-      <c r="D75" s="104" t="s">
+      <c r="C75" s="87"/>
+      <c r="D75" s="101" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="95" t="s">
+      <c r="B76" s="93" t="s">
         <v>198</v>
       </c>
-      <c r="C76" s="96"/>
-      <c r="D76" s="107"/>
+      <c r="C76" s="37"/>
+      <c r="D76" s="40"/>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="116" t="s">
+      <c r="B77" s="111" t="s">
         <v>199</v>
       </c>
-      <c r="C77" s="89"/>
-      <c r="D77" s="104" t="s">
+      <c r="C77" s="87"/>
+      <c r="D77" s="101" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="2:4">
-      <c r="B78" s="90" t="s">
+      <c r="B78" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="91"/>
-      <c r="D78" s="105"/>
+      <c r="C78" s="89"/>
+      <c r="D78" s="102"/>
     </row>
     <row r="81" ht="16" customHeight="1" spans="4:4">
-      <c r="D81" s="49" t="s">
+      <c r="D81" s="50" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="122" t="s">
+      <c r="D82" s="117" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="122" t="s">
+      <c r="D83" s="117" t="s">
         <v>204</v>
       </c>
     </row>
@@ -7470,382 +7443,382 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.70833333333333" style="49" customWidth="1"/>
-    <col min="2" max="2" width="14.4583333333333" style="49" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="31.6" style="49" customWidth="1"/>
-    <col min="5" max="5" width="44.7083333333333" style="49" customWidth="1"/>
-    <col min="6" max="6" width="46.025" style="49" customWidth="1"/>
-    <col min="7" max="7" width="50.875" style="49" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="49" customWidth="1"/>
-    <col min="9" max="9" width="25.75" style="49" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="49" customWidth="1"/>
-    <col min="12" max="32" width="9" style="49"/>
-    <col min="33" max="16384" width="57.6416666666667" style="49"/>
+    <col min="1" max="1" width="4.70833333333333" style="50" customWidth="1"/>
+    <col min="2" max="2" width="14.4583333333333" style="50" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="50" customWidth="1"/>
+    <col min="4" max="4" width="31.6" style="50" customWidth="1"/>
+    <col min="5" max="5" width="44.7083333333333" style="50" customWidth="1"/>
+    <col min="6" max="6" width="46.025" style="50" customWidth="1"/>
+    <col min="7" max="7" width="50.875" style="50" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="50" customWidth="1"/>
+    <col min="9" max="9" width="25.75" style="50" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="50" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="50" customWidth="1"/>
+    <col min="12" max="32" width="9" style="50"/>
+    <col min="33" max="16384" width="57.6416666666667" style="50"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:11">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="83" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="85" t="s">
+      <c r="E3" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="83" t="s">
         <v>209</v>
       </c>
-      <c r="G3" s="85" t="s">
+      <c r="G3" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="83" t="s">
         <v>212</v>
       </c>
-      <c r="J3" s="85" t="s">
+      <c r="J3" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="102" t="s">
+      <c r="K3" s="99" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="4" ht="81" spans="2:11">
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="85" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="85" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="85" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="85" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="100" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="2:11">
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="89" t="s">
+      <c r="C5" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="89" t="s">
+      <c r="D5" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89" t="s">
+      <c r="E5" s="87"/>
+      <c r="F5" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89" t="s">
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="J5" s="89" t="s">
+      <c r="J5" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="K5" s="104" t="s">
+      <c r="K5" s="101" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:11">
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="91"/>
-      <c r="K6" s="105"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="102"/>
     </row>
     <row r="7" ht="40.5" spans="2:11">
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="91" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="94" t="s">
+      <c r="D7" s="92" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="93" t="s">
+      <c r="E7" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="F7" s="93" t="s">
+      <c r="F7" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
-      <c r="I7" s="93" t="s">
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91" t="s">
         <v>230</v>
       </c>
-      <c r="J7" s="93" t="s">
+      <c r="J7" s="91" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="106" t="s">
+      <c r="K7" s="103" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="2:11">
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="93" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="94" t="s">
         <v>234</v>
       </c>
-      <c r="H8" s="96" t="s">
+      <c r="H8" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="I8" s="96" t="s">
+      <c r="I8" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="J8" s="96" t="s">
+      <c r="J8" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="K8" s="107" t="s">
+      <c r="K8" s="40" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:11">
-      <c r="B9" s="98"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="108"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="104"/>
     </row>
     <row r="10" ht="40.5" spans="2:11">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="85" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D10" s="85" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87" t="s">
+      <c r="E10" s="85"/>
+      <c r="F10" s="85" t="s">
         <v>237</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87" t="s">
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="K10" s="103" t="s">
+      <c r="K10" s="100" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="11" ht="27" spans="2:11">
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="C11" s="89" t="s">
+      <c r="C11" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89" t="s">
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="K11" s="104" t="s">
+      <c r="K11" s="101" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:11">
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="105"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="102"/>
     </row>
     <row r="13" ht="108" spans="2:11">
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="101" t="s">
+      <c r="D13" s="98" t="s">
         <v>243</v>
       </c>
-      <c r="E13" s="101" t="s">
+      <c r="E13" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="101" t="s">
+      <c r="F13" s="98" t="s">
         <v>245</v>
       </c>
-      <c r="G13" s="101" t="s">
+      <c r="G13" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="H13" s="101" t="s">
+      <c r="H13" s="98" t="s">
         <v>247</v>
       </c>
-      <c r="I13" s="101" t="s">
+      <c r="I13" s="98" t="s">
         <v>248</v>
       </c>
-      <c r="J13" s="101"/>
-      <c r="K13" s="109"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="105"/>
     </row>
     <row r="14" ht="27" spans="2:11">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="97" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="101"/>
-      <c r="F14" s="101"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="109"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+      <c r="I14" s="98"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="105"/>
     </row>
     <row r="15" ht="135" spans="2:11">
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="96" t="s">
+      <c r="D15" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="F15" s="96" t="s">
+      <c r="F15" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G15" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="H15" s="96" t="s">
+      <c r="H15" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="I15" s="96" t="s">
+      <c r="I15" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="J15" s="96" t="s">
+      <c r="J15" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="K15" s="107" t="s">
+      <c r="K15" s="40" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="16" ht="40.5" spans="2:11">
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="86" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="89" t="s">
+      <c r="C16" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="89" t="s">
+      <c r="D16" s="87" t="s">
         <v>258</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89" t="s">
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="K16" s="104" t="s">
+      <c r="K16" s="101" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="95"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="107"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" ht="14.25" spans="2:11">
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="108"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="104"/>
     </row>
     <row r="21" ht="67.5" spans="5:7">
-      <c r="E21" s="49" t="s">
+      <c r="E21" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="F21" s="49" t="s">
+      <c r="F21" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="G21" s="49" t="s">
+      <c r="G21" s="50" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7877,16 +7850,16 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:5">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="76" t="s">
         <v>264</v>
       </c>
     </row>
@@ -7900,7 +7873,7 @@
       <c r="D4" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="77" t="s">
         <v>268</v>
       </c>
     </row>
@@ -7912,7 +7885,7 @@
       <c r="D5" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="78" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7924,7 +7897,7 @@
       <c r="D6" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="79" t="s">
         <v>273</v>
       </c>
     </row>
@@ -7936,7 +7909,7 @@
       <c r="D7" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="78" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7948,7 +7921,7 @@
       <c r="D8" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="79" t="s">
         <v>277</v>
       </c>
     </row>
@@ -7962,7 +7935,7 @@
       <c r="D9" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="80" t="s">
+      <c r="E9" s="78" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7974,7 +7947,7 @@
       <c r="D10" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="79" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7988,19 +7961,19 @@
       <c r="D11" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="78" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:5">
-      <c r="B12" s="82"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="21" t="s">
         <v>285</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="81" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8030,271 +8003,271 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="45" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="49" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="49" customWidth="1"/>
-    <col min="5" max="7" width="14" style="49" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="49"/>
+    <col min="1" max="1" width="4.625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="50" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="50" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="50" customWidth="1"/>
+    <col min="5" max="7" width="14" style="50" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="50"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="2:2">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
     </row>
     <row r="5" customHeight="1" spans="2:7">
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="59" t="s">
         <v>297</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" customHeight="1" spans="2:7">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63" t="s">
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
     </row>
     <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="59" t="s">
         <v>302</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="66"/>
     </row>
     <row r="9" ht="13.5"/>
     <row r="10" ht="13.5"/>
     <row r="11" ht="13.5"/>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25" spans="2:7">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="F13" s="51" t="s">
+      <c r="F13" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="G13" s="68" t="s">
+      <c r="G13" s="28" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56" t="s">
+      <c r="D14" s="55"/>
+      <c r="E14" s="55" t="s">
         <v>309</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="G14" s="69"/>
+      <c r="G14" s="67"/>
     </row>
     <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="58" t="s">
         <v>311</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="59" t="s">
         <v>312</v>
       </c>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60" t="s">
+      <c r="D15" s="59"/>
+      <c r="E15" s="59" t="s">
         <v>313</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="59" t="s">
         <v>310</v>
       </c>
-      <c r="G15" s="61"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" ht="68" customHeight="1" spans="2:7">
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="62" t="s">
         <v>315</v>
       </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63" t="s">
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="G16" s="64" t="s">
+      <c r="G16" s="63" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="58" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="59" t="s">
         <v>318</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60" t="s">
+      <c r="D17" s="59"/>
+      <c r="E17" s="59" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="G17" s="61" t="s">
+      <c r="G17" s="60" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:7">
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="61" t="s">
         <v>322</v>
       </c>
-      <c r="C18" s="63" t="s">
+      <c r="C18" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63" t="s">
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="G18" s="64" t="s">
+      <c r="G18" s="63" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="19" ht="78" customHeight="1" spans="2:7">
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="58" t="s">
         <v>324</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60" t="s">
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59" t="s">
         <v>320</v>
       </c>
-      <c r="G19" s="61" t="s">
+      <c r="G19" s="60" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:7">
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="C20" s="63" t="s">
+      <c r="C20" s="62" t="s">
         <v>328</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63" t="s">
+      <c r="D20" s="62"/>
+      <c r="E20" s="62" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="63" t="s">
+      <c r="F20" s="62" t="s">
         <v>329</v>
       </c>
-      <c r="G20" s="64"/>
+      <c r="G20" s="63"/>
     </row>
     <row r="21" ht="14.25" spans="2:7">
-      <c r="B21" s="70"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
     </row>
     <row r="22" customHeight="1" spans="2:7">
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="71" t="s">
         <v>330</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="72" t="s">
         <v>331</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="75"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
     </row>
     <row r="23" ht="13.5" spans="2:7">
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="68" t="s">
         <v>332</v>
       </c>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
     </row>
     <row r="24" ht="14.25" spans="2:7">
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="67"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -8341,34 +8314,34 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:3">
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="45" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="47" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:3">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="47" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:3">
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="48" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="49" t="s">
         <v>339</v>
       </c>
     </row>

--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="769" activeTab="9"/>
+    <workbookView windowWidth="13845" windowHeight="11790" tabRatio="769" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,10 @@
     <sheet name="GC" sheetId="11" r:id="rId8"/>
     <sheet name="Spring" sheetId="2" r:id="rId9"/>
     <sheet name="JPA" sheetId="3" r:id="rId10"/>
-    <sheet name="ZooKeeper" sheetId="13" r:id="rId11"/>
-    <sheet name="Tomcat" sheetId="14" r:id="rId12"/>
-    <sheet name="RocketMQ" sheetId="7" r:id="rId13"/>
-    <sheet name="ActiveMQ" sheetId="16" r:id="rId14"/>
+    <sheet name="Tomcat" sheetId="14" r:id="rId11"/>
+    <sheet name="RocketMQ" sheetId="7" r:id="rId12"/>
+    <sheet name="ActiveMQ" sheetId="16" r:id="rId13"/>
+    <sheet name="ZooKeeper" sheetId="13" r:id="rId14"/>
     <sheet name="Dubbo" sheetId="17" r:id="rId15"/>
     <sheet name="SpringBoot" sheetId="18" r:id="rId16"/>
     <sheet name="Blank" sheetId="20" r:id="rId17"/>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="393">
   <si>
     <t>timeline</t>
   </si>
@@ -2945,7 +2945,8 @@
     <t>Hibernate-Spring</t>
   </si>
   <si>
-    <t xml:space="preserve">org.springframework.orm.hibernate5.LocalSessionFactoryBean
+    <t xml:space="preserve">HibernateTemplate
+org.springframework.orm.hibernate5.LocalSessionFactoryBean
 org.springframework.orm.hibernate5.annotation.AnnotationSessionFactoryBean
 org.springframework.orm.hibernate5.HibernateTransactionManager
 </t>
@@ -2963,6 +2964,7 @@
 javax.persistence.EntityManagerFactory
 javax.persistence.EntityManager
 javax.persistence.EntityTransaction
+LocalEntityManagerFactoryBean
 </t>
   </si>
   <si>
@@ -2973,6 +2975,11 @@
   </si>
   <si>
     <t>Spring Data JPA</t>
+  </si>
+  <si>
+    <t>其他：Spring的FactoryBean接口；
+     Spring AOP的织入器ProxyFactory、ProxyFactoryBean。
+     TransactionProxyFactoryBean</t>
   </si>
   <si>
     <t>组件名</t>
@@ -3040,9 +3047,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -3107,14 +3114,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3138,14 +3167,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3167,64 +3220,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3275,31 +3282,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3311,19 +3336,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3341,7 +3360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3359,7 +3390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3371,7 +3402,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3383,49 +3438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3437,25 +3456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4105,8 +4112,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4115,22 +4122,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4165,6 +4157,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4183,19 +4186,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4207,10 +4214,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4219,137 +4226,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="55" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4443,9 +4450,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4464,15 +4468,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4500,9 +4498,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4608,18 +4603,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4629,9 +4612,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4653,12 +4633,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4666,12 +4640,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5274,552 +5242,552 @@
   <sheetPr/>
   <dimension ref="B1:I62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="119" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="119" customWidth="1"/>
-    <col min="3" max="3" width="23.875" style="119" customWidth="1"/>
-    <col min="4" max="4" width="76.125" style="119" customWidth="1"/>
-    <col min="5" max="5" width="26" style="119" customWidth="1"/>
-    <col min="6" max="6" width="59" style="119" customWidth="1"/>
-    <col min="7" max="16384" width="12.75" style="119" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="106" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="106" customWidth="1"/>
+    <col min="3" max="3" width="23.875" style="106" customWidth="1"/>
+    <col min="4" max="4" width="76.125" style="106" customWidth="1"/>
+    <col min="5" max="5" width="26" style="106" customWidth="1"/>
+    <col min="6" max="6" width="59" style="106" customWidth="1"/>
+    <col min="7" max="16384" width="12.75" style="106" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="106" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="71"/>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="120" t="s">
+      <c r="E3" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="108" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:6">
-      <c r="B4" s="122">
+      <c r="B4" s="109">
         <v>33329</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="67"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" ht="40.5" spans="2:6">
-      <c r="B5" s="123">
+      <c r="B5" s="110">
         <v>34820</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="56"/>
     </row>
     <row r="6" ht="27" spans="2:6">
-      <c r="B6" s="124">
+      <c r="B6" s="111">
         <v>35065</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="123">
+      <c r="B7" s="110">
         <v>35462</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
     </row>
     <row r="8" ht="54" spans="2:6">
-      <c r="B8" s="124">
+      <c r="B8" s="111">
         <v>36130</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" ht="27" spans="2:6">
-      <c r="B9" s="123">
+      <c r="B9" s="110">
         <v>36647</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" ht="40.5" spans="2:6">
-      <c r="B10" s="124">
+      <c r="B10" s="111">
         <v>37288</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="62" t="s">
+      <c r="E10" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="63"/>
+      <c r="F10" s="59"/>
     </row>
     <row r="11" ht="40.5" spans="2:6">
-      <c r="B11" s="123"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="60" t="s">
+      <c r="F11" s="56" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:6">
-      <c r="B12" s="124">
+      <c r="B12" s="111">
         <v>38231</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" ht="54" spans="2:6">
-      <c r="B13" s="123"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59" t="s">
+      <c r="B13" s="110"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="56" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="2:9">
-      <c r="B14" s="124">
+      <c r="B14" s="111">
         <v>39052</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" ht="40.5" spans="2:9">
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62" t="s">
+      <c r="B16" s="57"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" ht="54" spans="2:9">
-      <c r="B17" s="123">
+      <c r="B17" s="110">
         <v>40725</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" ht="108" spans="2:9">
-      <c r="B18" s="124">
+      <c r="B18" s="111">
         <v>41699</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" ht="40.5" spans="2:6">
-      <c r="B19" s="123"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59" t="s">
+      <c r="B19" s="110"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="56" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="124">
+      <c r="B20" s="111">
         <v>42979</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62" t="s">
+      <c r="D20" s="58"/>
+      <c r="E20" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="63"/>
+      <c r="F20" s="59"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="123">
+      <c r="B21" s="110">
         <v>43160</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
     </row>
     <row r="22" spans="2:6">
-      <c r="B22" s="124">
+      <c r="B22" s="111">
         <v>43344</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
     </row>
     <row r="23" spans="2:6">
-      <c r="B23" s="123">
+      <c r="B23" s="110">
         <v>43525</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="60"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
     </row>
     <row r="24" spans="2:6">
-      <c r="B24" s="124">
+      <c r="B24" s="111">
         <v>43709</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
     </row>
     <row r="25" spans="2:6">
-      <c r="B25" s="123">
+      <c r="B25" s="110">
         <v>43891</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="66"/>
     </row>
     <row r="26" spans="2:6">
-      <c r="B26" s="124">
+      <c r="B26" s="111">
         <v>44075</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="63"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
     </row>
     <row r="27" spans="2:6">
-      <c r="B27" s="125"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="66"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
     </row>
     <row r="29" spans="2:6">
-      <c r="B29" s="125"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="70"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
     </row>
     <row r="30" ht="14.25" spans="2:6">
-      <c r="B30" s="126"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="66"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
     </row>
     <row r="40" ht="14.25"/>
     <row r="41" ht="14.25" spans="2:4">
-      <c r="B41" s="127"/>
-      <c r="C41" s="128" t="s">
+      <c r="B41" s="114"/>
+      <c r="C41" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="129" t="s">
+      <c r="D41" s="116" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" ht="24" spans="2:4">
-      <c r="B42" s="130">
+      <c r="B42" s="117">
         <v>33329</v>
       </c>
-      <c r="C42" s="131" t="s">
+      <c r="C42" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="132"/>
+      <c r="D42" s="119"/>
     </row>
     <row r="43" ht="24" spans="2:4">
-      <c r="B43" s="130">
+      <c r="B43" s="117">
         <v>34820</v>
       </c>
-      <c r="C43" s="131" t="s">
+      <c r="C43" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="D43" s="132"/>
+      <c r="D43" s="119"/>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="130">
+      <c r="B44" s="117">
         <v>35065</v>
       </c>
-      <c r="C44" s="131" t="s">
+      <c r="C44" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="132"/>
+      <c r="D44" s="119"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="130">
+      <c r="B45" s="117">
         <v>35462</v>
       </c>
-      <c r="C45" s="131" t="s">
+      <c r="C45" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="132"/>
+      <c r="D45" s="119"/>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="130">
+      <c r="B46" s="117">
         <v>36130</v>
       </c>
-      <c r="C46" s="131" t="s">
+      <c r="C46" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="132"/>
+      <c r="D46" s="119"/>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="130">
+      <c r="B47" s="117">
         <v>36647</v>
       </c>
-      <c r="C47" s="131" t="s">
+      <c r="C47" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="132"/>
+      <c r="D47" s="119"/>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="130">
+      <c r="B48" s="117">
         <v>37288</v>
       </c>
-      <c r="C48" s="131" t="s">
+      <c r="C48" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="132" t="s">
+      <c r="D48" s="119" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="130"/>
-      <c r="C49" s="131"/>
-      <c r="D49" s="132" t="s">
+      <c r="B49" s="117"/>
+      <c r="C49" s="118"/>
+      <c r="D49" s="119" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="130">
+      <c r="B50" s="117">
         <v>38231</v>
       </c>
-      <c r="C50" s="131" t="s">
+      <c r="C50" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="132"/>
+      <c r="D50" s="119"/>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="130"/>
-      <c r="C51" s="131"/>
-      <c r="D51" s="132" t="s">
+      <c r="B51" s="117"/>
+      <c r="C51" s="118"/>
+      <c r="D51" s="119" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="130">
+      <c r="B52" s="117">
         <v>39052</v>
       </c>
-      <c r="C52" s="131" t="s">
+      <c r="C52" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="132"/>
+      <c r="D52" s="119"/>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="133"/>
-      <c r="C53" s="131"/>
-      <c r="D53" s="132" t="s">
+      <c r="B53" s="120"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="119" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:4">
-      <c r="B54" s="133"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="132" t="s">
+      <c r="B54" s="120"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="119" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="55" spans="2:4">
-      <c r="B55" s="130">
+      <c r="B55" s="117">
         <v>40725</v>
       </c>
-      <c r="C55" s="131" t="s">
+      <c r="C55" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="D55" s="132"/>
+      <c r="D55" s="119"/>
     </row>
     <row r="56" spans="2:4">
-      <c r="B56" s="130">
+      <c r="B56" s="117">
         <v>41699</v>
       </c>
-      <c r="C56" s="131" t="s">
+      <c r="C56" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="132"/>
+      <c r="D56" s="119"/>
     </row>
     <row r="57" spans="2:4">
-      <c r="B57" s="130"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="132" t="s">
+      <c r="B57" s="117"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="119" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="130">
+      <c r="B58" s="117">
         <v>42979</v>
       </c>
-      <c r="C58" s="131" t="s">
+      <c r="C58" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="D58" s="132" t="s">
+      <c r="D58" s="119" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="2:4">
-      <c r="B59" s="130">
+      <c r="B59" s="117">
         <v>43160</v>
       </c>
-      <c r="C59" s="131" t="s">
+      <c r="C59" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="132"/>
+      <c r="D59" s="119"/>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="130">
+      <c r="B60" s="117">
         <v>43344</v>
       </c>
-      <c r="C60" s="131" t="s">
+      <c r="C60" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="D60" s="132"/>
+      <c r="D60" s="119"/>
     </row>
     <row r="61" spans="2:4">
-      <c r="B61" s="130">
+      <c r="B61" s="117">
         <v>43525</v>
       </c>
-      <c r="C61" s="131" t="s">
+      <c r="C61" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="132"/>
+      <c r="D61" s="119"/>
     </row>
     <row r="62" ht="14.25" spans="2:4">
-      <c r="B62" s="134">
+      <c r="B62" s="121">
         <v>43709</v>
       </c>
-      <c r="C62" s="135" t="s">
+      <c r="C62" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="136"/>
+      <c r="D62" s="123"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:F3">
@@ -5831,7 +5799,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{cd407202-5b66-42b0-a54b-066114cbdc92}</x14:id>
+          <x14:id>{7b802794-9793-40e0-9f7a-b6f076629425}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5845,7 +5813,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9ec963e5-6c9c-484f-bc5a-dcdbb4cbed2d}</x14:id>
+          <x14:id>{dcc34a63-ae9e-409d-9453-f07546008bee}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5859,7 +5827,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8765d080-51cc-4daf-bec8-06c022433ffe}</x14:id>
+          <x14:id>{2a42063f-3090-447d-a2e2-d9365f52101f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5873,7 +5841,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{670d0b58-5533-478e-bca7-304177759c97}</x14:id>
+          <x14:id>{283a7bbc-2592-4230-be0f-6789b775ca18}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5887,7 +5855,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{b0539953-069d-4d93-a4ef-1bc473d94b25}</x14:id>
+          <x14:id>{d2f0ee25-a508-452c-b8ca-de732cd758ec}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5901,7 +5869,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9dc1a977-c1be-4d8c-a4a6-8365973e86c4}</x14:id>
+          <x14:id>{d53fb3e2-9e60-422d-adae-404cd8044fb0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5915,7 +5883,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4e509d0c-8413-4bff-b215-c4e6a530356e}</x14:id>
+          <x14:id>{76a9c596-6b5a-4f20-b92c-d50e78779012}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5929,7 +5897,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7212f23b-68e1-4244-931b-9348ee99983c}</x14:id>
+          <x14:id>{d4afb05a-529b-4bbb-9a02-14bddaece665}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5941,7 +5909,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{cd407202-5b66-42b0-a54b-066114cbdc92}">
+          <x14:cfRule type="dataBar" id="{7b802794-9793-40e0-9f7a-b6f076629425}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5952,7 +5920,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9ec963e5-6c9c-484f-bc5a-dcdbb4cbed2d}">
+          <x14:cfRule type="dataBar" id="{dcc34a63-ae9e-409d-9453-f07546008bee}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5963,7 +5931,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8765d080-51cc-4daf-bec8-06c022433ffe}">
+          <x14:cfRule type="dataBar" id="{2a42063f-3090-447d-a2e2-d9365f52101f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5974,7 +5942,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{670d0b58-5533-478e-bca7-304177759c97}">
+          <x14:cfRule type="dataBar" id="{283a7bbc-2592-4230-be0f-6789b775ca18}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5985,7 +5953,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{b0539953-069d-4d93-a4ef-1bc473d94b25}">
+          <x14:cfRule type="dataBar" id="{d2f0ee25-a508-452c-b8ca-de732cd758ec}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5996,7 +5964,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9dc1a977-c1be-4d8c-a4a6-8365973e86c4}">
+          <x14:cfRule type="dataBar" id="{d53fb3e2-9e60-422d-adae-404cd8044fb0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6007,7 +5975,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4e509d0c-8413-4bff-b215-c4e6a530356e}">
+          <x14:cfRule type="dataBar" id="{76a9c596-6b5a-4f20-b92c-d50e78779012}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6018,7 +5986,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7212f23b-68e1-4244-931b-9348ee99983c}">
+          <x14:cfRule type="dataBar" id="{d4afb05a-529b-4bbb-9a02-14bddaece665}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6037,10 +6005,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:F22"/>
+  <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6053,6 +6021,7 @@
     <col min="7" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
+    <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:6">
       <c r="B3" s="26" t="s">
         <v>340</v>
@@ -6077,187 +6046,192 @@
       <c r="C4" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="30" t="s">
         <v>82</v>
       </c>
       <c r="E4" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="F4" s="32"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="33"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="2:6">
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" ht="135" spans="2:6">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>354</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="37" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="35"/>
-    </row>
-    <row r="10" ht="108" spans="2:6">
-      <c r="B10" s="36" t="s">
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
+    </row>
+    <row r="10" ht="94.5" spans="2:6">
+      <c r="B10" s="35" t="s">
         <v>356</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>359</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="37"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="33"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" ht="121.5" spans="2:6">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="35" t="s">
         <v>360</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>361</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="36" t="s">
         <v>362</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="36" t="s">
         <v>363</v>
       </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-    </row>
-    <row r="14" ht="67.5" spans="2:6">
-      <c r="B14" s="36" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" ht="81" spans="2:6">
+      <c r="B14" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="37"/>
     </row>
     <row r="15" spans="2:6">
-      <c r="B15" s="33"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-    </row>
-    <row r="16" ht="67.5" spans="2:6">
-      <c r="B16" s="36" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" ht="94.5" spans="2:6">
+      <c r="B16" s="35" t="s">
         <v>367</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>368</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="36" t="s">
         <v>369</v>
       </c>
-      <c r="E16" s="38" t="s">
+      <c r="E16" s="36" t="s">
         <v>370</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="37"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
     </row>
     <row r="18" spans="2:6">
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="2:6">
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="2:6">
-      <c r="B20" s="36"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="41"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="43"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+    </row>
+    <row r="22" ht="14.25" spans="2:6">
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+    </row>
+    <row r="24" ht="49" customHeight="1" spans="3:3">
+      <c r="C24" s="25" t="s">
+        <v>372</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6285,22 +6259,6 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -6323,33 +6281,33 @@
         <v>264</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="13"/>
@@ -6357,54 +6315,70 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="10" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" ht="14.25" spans="2:6">
       <c r="B8" s="20" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D8" s="22"/>
       <c r="E8" s="23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -6485,41 +6459,41 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="50" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="50" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="37.375" style="50" customWidth="1"/>
-    <col min="5" max="5" width="29.875" style="50" customWidth="1"/>
-    <col min="6" max="6" width="49.375" style="50" customWidth="1"/>
-    <col min="7" max="7" width="40.125" style="50" customWidth="1"/>
-    <col min="8" max="8" width="48.375" style="50" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="50"/>
+    <col min="1" max="1" width="2.875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="25" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="49.375" style="25" customWidth="1"/>
+    <col min="7" max="7" width="40.125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="48.375" style="25" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:8">
-      <c r="B3" s="118"/>
-      <c r="C3" s="115" t="s">
+      <c r="B3" s="105"/>
+      <c r="C3" s="102" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E3" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="115" t="s">
+      <c r="F3" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="116" t="s">
+      <c r="H3" s="103" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" ht="27" spans="2:8">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="30" t="s">
@@ -6535,70 +6509,70 @@
       <c r="G4" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="107"/>
+      <c r="H4" s="31"/>
     </row>
     <row r="5" ht="135" spans="2:8">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="137" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="124" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="87" t="s">
+      <c r="F5" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="87" t="s">
+      <c r="G5" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="101" t="s">
+      <c r="H5" s="34" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" ht="54" spans="2:8">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="138" t="s">
+      <c r="C6" s="36"/>
+      <c r="D6" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="37" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" ht="68.25" spans="2:8">
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="96" t="s">
+      <c r="C7" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="139" t="s">
+      <c r="D7" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="96" t="s">
+      <c r="E7" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="96" t="s">
+      <c r="G7" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="104" t="s">
+      <c r="H7" s="93" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6652,16 +6626,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="31" style="50" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="50" customWidth="1"/>
-    <col min="4" max="4" width="114.625" style="50" customWidth="1"/>
-    <col min="5" max="5" width="8.5" style="50" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="50"/>
+    <col min="1" max="1" width="4.625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="31" style="25" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="25" customWidth="1"/>
+    <col min="4" max="4" width="114.625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="8.5" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:2">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="25" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6678,731 +6652,731 @@
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:4">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="29" t="s">
         <v>86</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="31" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:4">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="101" t="s">
+      <c r="D5" s="34" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:4">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:4">
-      <c r="B7" s="61"/>
-      <c r="C7" s="87" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="101" t="s">
+      <c r="D7" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:4">
-      <c r="B8" s="61"/>
-      <c r="C8" s="37" t="s">
+      <c r="B8" s="57"/>
+      <c r="C8" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="37" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:4">
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="34" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:4">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="37" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:4">
-      <c r="B11" s="108"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="34" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:4">
-      <c r="B12" s="108"/>
-      <c r="C12" s="62" t="s">
+      <c r="B12" s="95"/>
+      <c r="C12" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="37" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="101" t="s">
+      <c r="D13" s="34" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" s="50" customFormat="1" ht="27" spans="2:4">
-      <c r="B14" s="109"/>
-      <c r="C14" s="37" t="s">
+    <row r="14" s="25" customFormat="1" ht="27" spans="2:4">
+      <c r="B14" s="96"/>
+      <c r="C14" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="37" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="109"/>
-      <c r="C15" s="87" t="s">
+      <c r="B15" s="96"/>
+      <c r="C15" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="101" t="s">
+      <c r="D15" s="34" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:4">
-      <c r="B16" s="109"/>
-      <c r="C16" s="37" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="37" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:4">
-      <c r="B17" s="109"/>
-      <c r="C17" s="87" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="34" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:4">
-      <c r="B18" s="109"/>
-      <c r="C18" s="37" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="40" t="s">
+      <c r="D18" s="37" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:4">
-      <c r="B19" s="109"/>
-      <c r="C19" s="87" t="s">
+      <c r="B19" s="96"/>
+      <c r="C19" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="97" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:4">
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:4">
-      <c r="B21" s="108"/>
-      <c r="C21" s="87" t="s">
+      <c r="B21" s="95"/>
+      <c r="C21" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="101" t="s">
+      <c r="D21" s="34" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="40" t="s">
+      <c r="D22" s="37" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="61"/>
-      <c r="C23" s="87" t="s">
+      <c r="B23" s="57"/>
+      <c r="C23" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="34" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="40" t="s">
+      <c r="D24" s="37" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="61"/>
-      <c r="C25" s="87" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="110" t="s">
+      <c r="D25" s="97" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="61"/>
-      <c r="C26" s="37" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="37" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="61"/>
-      <c r="C27" s="87" t="s">
+      <c r="B27" s="57"/>
+      <c r="C27" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="34" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="37" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="61"/>
-      <c r="C29" s="87" t="s">
+      <c r="B29" s="57"/>
+      <c r="C29" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="34" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="61"/>
-      <c r="C30" s="37" t="s">
+      <c r="B30" s="57"/>
+      <c r="C30" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D30" s="40" t="s">
+      <c r="D30" s="37" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="2:4">
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="87" t="s">
+      <c r="C31" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="101" t="s">
+      <c r="D31" s="34" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1" spans="2:4">
-      <c r="B32" s="109"/>
-      <c r="C32" s="37" t="s">
+      <c r="B32" s="96"/>
+      <c r="C32" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D32" s="40" t="s">
+      <c r="D32" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="2:4">
-      <c r="B33" s="109"/>
-      <c r="C33" s="87" t="s">
+      <c r="B33" s="96"/>
+      <c r="C33" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="101" t="s">
+      <c r="D33" s="34" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="2:4">
-      <c r="B34" s="109"/>
-      <c r="C34" s="37" t="s">
+      <c r="B34" s="96"/>
+      <c r="C34" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D34" s="40" t="s">
+      <c r="D34" s="37" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="2:4">
-      <c r="B35" s="109"/>
-      <c r="C35" s="87" t="s">
+      <c r="B35" s="96"/>
+      <c r="C35" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="101" t="s">
+      <c r="D35" s="34" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="2:4">
-      <c r="B36" s="109"/>
-      <c r="C36" s="37" t="s">
+      <c r="B36" s="96"/>
+      <c r="C36" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="37" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:4">
-      <c r="B37" s="111" t="s">
+      <c r="B37" s="98" t="s">
         <v>139</v>
       </c>
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="34" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" s="50" customFormat="1" ht="27" spans="2:4">
-      <c r="B38" s="108" t="s">
+    <row r="38" s="25" customFormat="1" ht="27" spans="2:4">
+      <c r="B38" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="112" t="s">
+      <c r="D38" s="99" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="39" s="50" customFormat="1" ht="27" spans="2:4">
-      <c r="B39" s="108"/>
-      <c r="C39" s="87" t="s">
+    <row r="39" s="25" customFormat="1" ht="27" spans="2:4">
+      <c r="B39" s="95"/>
+      <c r="C39" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="101" t="s">
+      <c r="D39" s="34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="40" s="50" customFormat="1" ht="20" customHeight="1" spans="2:4">
-      <c r="B40" s="93" t="s">
+    <row r="40" s="25" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B40" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="40" t="s">
+      <c r="D40" s="37" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="2:4">
-      <c r="B41" s="111" t="s">
+      <c r="B41" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="C41" s="87" t="s">
+      <c r="C41" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D41" s="101" t="s">
+      <c r="D41" s="34" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1" spans="2:4">
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="37" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="2:4">
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="87" t="s">
+      <c r="C43" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="101" t="s">
+      <c r="D43" s="34" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="44" ht="27" spans="2:4">
-      <c r="B44" s="93" t="s">
+      <c r="B44" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="37" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" spans="2:4">
-      <c r="B45" s="86" t="s">
+      <c r="B45" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="87" t="s">
+      <c r="C45" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="101" t="s">
+      <c r="D45" s="34" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="2:4">
-      <c r="B46" s="93" t="s">
+      <c r="B46" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="C46" s="37" t="s">
+      <c r="C46" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="47" s="50" customFormat="1" ht="20" customHeight="1" spans="2:4">
-      <c r="B47" s="86" t="s">
+    <row r="47" s="25" customFormat="1" ht="20" customHeight="1" spans="2:4">
+      <c r="B47" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="87" t="s">
+      <c r="C47" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="101" t="s">
+      <c r="D47" s="34" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="48" ht="27" spans="2:4">
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="95" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="112" t="s">
+      <c r="D48" s="99" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1" spans="2:4">
-      <c r="B49" s="108"/>
-      <c r="C49" s="87" t="s">
+      <c r="B49" s="95"/>
+      <c r="C49" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="110" t="s">
+      <c r="D49" s="97" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="50" ht="27" spans="2:4">
-      <c r="B50" s="108"/>
-      <c r="C50" s="37" t="s">
+      <c r="B50" s="95"/>
+      <c r="C50" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="37" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="2:4">
-      <c r="B51" s="108"/>
-      <c r="C51" s="87" t="s">
+      <c r="B51" s="95"/>
+      <c r="C51" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="D51" s="101" t="s">
+      <c r="D51" s="34" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="2:4">
-      <c r="B52" s="108"/>
-      <c r="C52" s="37" t="s">
+      <c r="B52" s="95"/>
+      <c r="C52" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="37" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="2:4">
-      <c r="B53" s="108"/>
-      <c r="C53" s="87" t="s">
+      <c r="B53" s="95"/>
+      <c r="C53" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D53" s="101" t="s">
+      <c r="D53" s="34" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="2:4">
-      <c r="B54" s="108"/>
-      <c r="C54" s="37" t="s">
+      <c r="B54" s="95"/>
+      <c r="C54" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="37" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="2:4">
-      <c r="B55" s="108"/>
-      <c r="C55" s="87" t="s">
+      <c r="B55" s="95"/>
+      <c r="C55" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="101" t="s">
+      <c r="D55" s="34" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="2:4">
-      <c r="B56" s="108"/>
-      <c r="C56" s="37" t="s">
+      <c r="B56" s="95"/>
+      <c r="C56" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="37" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="57" ht="40.5" spans="2:4">
-      <c r="B57" s="109" t="s">
+      <c r="B57" s="96" t="s">
         <v>170</v>
       </c>
-      <c r="C57" s="87" t="s">
+      <c r="C57" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D57" s="101" t="s">
+      <c r="D57" s="34" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="109"/>
-      <c r="C58" s="37" t="s">
+      <c r="B58" s="96"/>
+      <c r="C58" s="36" t="s">
         <v>137</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="37" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="59" ht="27" spans="2:4">
-      <c r="B59" s="109"/>
-      <c r="C59" s="87" t="s">
+      <c r="B59" s="96"/>
+      <c r="C59" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="101" t="s">
+      <c r="D59" s="34" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="109"/>
-      <c r="C60" s="37" t="s">
+      <c r="B60" s="96"/>
+      <c r="C60" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D60" s="112" t="s">
+      <c r="D60" s="99" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="61" s="50" customFormat="1" spans="2:4">
-      <c r="B61" s="111" t="s">
+    <row r="61" s="25" customFormat="1" spans="2:4">
+      <c r="B61" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="C61" s="87" t="s">
+      <c r="C61" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="D61" s="101" t="s">
+      <c r="D61" s="34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="62" s="50" customFormat="1" spans="2:4">
-      <c r="B62" s="108" t="s">
+    <row r="62" s="25" customFormat="1" spans="2:4">
+      <c r="B62" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="C62" s="37" t="s">
+      <c r="C62" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D62" s="40" t="s">
+      <c r="D62" s="37" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="63" s="50" customFormat="1" spans="2:4">
-      <c r="B63" s="108"/>
-      <c r="C63" s="87" t="s">
+    <row r="63" s="25" customFormat="1" spans="2:4">
+      <c r="B63" s="95"/>
+      <c r="C63" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D63" s="101" t="s">
+      <c r="D63" s="34" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:4">
-      <c r="B64" s="113" t="s">
+      <c r="B64" s="100" t="s">
         <v>180</v>
       </c>
-      <c r="C64" s="37" t="s">
+      <c r="C64" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D64" s="37" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="2:4">
-      <c r="B65" s="86" t="s">
+      <c r="B65" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="C65" s="87" t="s">
+      <c r="C65" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D65" s="101" t="s">
+      <c r="D65" s="34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="2:4">
-      <c r="B66" s="93" t="s">
+      <c r="B66" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="C66" s="37" t="s">
+      <c r="C66" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="D66" s="40" t="s">
+      <c r="D66" s="37" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="2:4">
-      <c r="B67" s="86" t="s">
+      <c r="B67" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="87" t="s">
+      <c r="C67" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D67" s="101" t="s">
+      <c r="D67" s="34" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1" spans="2:4">
-      <c r="B68" s="93" t="s">
+      <c r="B68" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="C68" s="37" t="s">
+      <c r="C68" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="D68" s="40" t="s">
+      <c r="D68" s="37" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1" spans="2:4">
-      <c r="B69" s="111" t="s">
+      <c r="B69" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="C69" s="87" t="s">
+      <c r="C69" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="D69" s="101" t="s">
+      <c r="D69" s="34" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="70" ht="27.75" spans="2:4">
-      <c r="B70" s="88" t="s">
+      <c r="B70" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="C70" s="89" t="s">
+      <c r="C70" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="D70" s="102" t="s">
+      <c r="D70" s="40" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="72" ht="14.25"/>
     <row r="73" ht="14.25" spans="2:4">
-      <c r="B73" s="114" t="s">
+      <c r="B73" s="101" t="s">
         <v>194</v>
       </c>
-      <c r="C73" s="115"/>
-      <c r="D73" s="116"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="103"/>
     </row>
     <row r="74" spans="2:4">
-      <c r="B74" s="106" t="s">
+      <c r="B74" s="29" t="s">
         <v>195</v>
       </c>
       <c r="C74" s="30"/>
-      <c r="D74" s="107"/>
+      <c r="D74" s="31"/>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="86" t="s">
+      <c r="B75" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="C75" s="87"/>
-      <c r="D75" s="101" t="s">
+      <c r="C75" s="33"/>
+      <c r="D75" s="34" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="76" spans="2:4">
-      <c r="B76" s="93" t="s">
+      <c r="B76" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="C76" s="37"/>
-      <c r="D76" s="40"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="37"/>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="111" t="s">
+      <c r="B77" s="98" t="s">
         <v>199</v>
       </c>
-      <c r="C77" s="87"/>
-      <c r="D77" s="101" t="s">
+      <c r="C77" s="33"/>
+      <c r="D77" s="34" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="2:4">
-      <c r="B78" s="88" t="s">
+      <c r="B78" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="C78" s="89"/>
-      <c r="D78" s="102"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="40"/>
     </row>
     <row r="81" ht="16" customHeight="1" spans="4:4">
-      <c r="D81" s="50" t="s">
+      <c r="D81" s="25" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="117" t="s">
+      <c r="D82" s="104" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="117" t="s">
+      <c r="D83" s="104" t="s">
         <v>204</v>
       </c>
     </row>
@@ -7443,382 +7417,382 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="4.70833333333333" style="50" customWidth="1"/>
-    <col min="2" max="2" width="14.4583333333333" style="50" customWidth="1"/>
-    <col min="3" max="3" width="4.625" style="50" customWidth="1"/>
-    <col min="4" max="4" width="31.6" style="50" customWidth="1"/>
-    <col min="5" max="5" width="44.7083333333333" style="50" customWidth="1"/>
-    <col min="6" max="6" width="46.025" style="50" customWidth="1"/>
-    <col min="7" max="7" width="50.875" style="50" customWidth="1"/>
-    <col min="8" max="8" width="18.75" style="50" customWidth="1"/>
-    <col min="9" max="9" width="25.75" style="50" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="50" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="50" customWidth="1"/>
-    <col min="12" max="32" width="9" style="50"/>
-    <col min="33" max="16384" width="57.6416666666667" style="50"/>
+    <col min="1" max="1" width="4.70833333333333" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.4583333333333" style="25" customWidth="1"/>
+    <col min="3" max="3" width="4.625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="31.6" style="25" customWidth="1"/>
+    <col min="5" max="5" width="44.7083333333333" style="25" customWidth="1"/>
+    <col min="6" max="6" width="46.025" style="25" customWidth="1"/>
+    <col min="7" max="7" width="50.875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="18.75" style="25" customWidth="1"/>
+    <col min="9" max="9" width="25.75" style="25" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="25" customWidth="1"/>
+    <col min="12" max="32" width="9" style="25"/>
+    <col min="33" max="16384" width="57.6416666666667" style="25"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:11">
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="78" t="s">
         <v>205</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="79" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="83" t="s">
+      <c r="D3" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="E3" s="83" t="s">
+      <c r="E3" s="79" t="s">
         <v>208</v>
       </c>
-      <c r="F3" s="83" t="s">
+      <c r="F3" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="G3" s="83" t="s">
+      <c r="G3" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="79" t="s">
         <v>211</v>
       </c>
-      <c r="I3" s="83" t="s">
+      <c r="I3" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="J3" s="83" t="s">
+      <c r="J3" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="99" t="s">
+      <c r="K3" s="90" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="4" ht="81" spans="2:11">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="80" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="81" t="s">
         <v>216</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="81" t="s">
         <v>219</v>
       </c>
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="81" t="s">
         <v>220</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="81" t="s">
         <v>222</v>
       </c>
-      <c r="K4" s="100" t="s">
+      <c r="K4" s="91" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="2:11">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87" t="s">
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="J5" s="87" t="s">
+      <c r="J5" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="K5" s="101" t="s">
+      <c r="K5" s="34" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:11">
-      <c r="B6" s="88"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="102"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" ht="40.5" spans="2:11">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="83" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="91" t="s">
+      <c r="E7" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="F7" s="91" t="s">
+      <c r="F7" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91" t="s">
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83" t="s">
         <v>230</v>
       </c>
-      <c r="J7" s="91" t="s">
+      <c r="J7" s="83" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="103" t="s">
+      <c r="K7" s="92" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="2:11">
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>216</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>232</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="G8" s="85" t="s">
         <v>234</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="36" t="s">
         <v>222</v>
       </c>
-      <c r="K8" s="40" t="s">
+      <c r="K8" s="37" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:11">
-      <c r="B9" s="95"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="104"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="93"/>
     </row>
     <row r="10" ht="40.5" spans="2:11">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="80" t="s">
         <v>235</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85" t="s">
+      <c r="E10" s="81"/>
+      <c r="F10" s="81" t="s">
         <v>237</v>
       </c>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85" t="s">
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81" t="s">
         <v>238</v>
       </c>
-      <c r="K10" s="100" t="s">
+      <c r="K10" s="91" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="11" ht="27" spans="2:11">
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87" t="s">
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="K11" s="101" t="s">
+      <c r="K11" s="34" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:11">
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="102"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="40"/>
     </row>
     <row r="13" ht="108" spans="2:11">
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="88" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="98" t="s">
+      <c r="D13" s="89" t="s">
         <v>243</v>
       </c>
-      <c r="E13" s="98" t="s">
+      <c r="E13" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="F13" s="98" t="s">
+      <c r="F13" s="89" t="s">
         <v>245</v>
       </c>
-      <c r="G13" s="98" t="s">
+      <c r="G13" s="89" t="s">
         <v>246</v>
       </c>
-      <c r="H13" s="98" t="s">
+      <c r="H13" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="I13" s="98" t="s">
+      <c r="I13" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="J13" s="98"/>
-      <c r="K13" s="105"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="94"/>
     </row>
     <row r="14" ht="27" spans="2:11">
-      <c r="B14" s="97" t="s">
+      <c r="B14" s="88" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="105"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="94"/>
     </row>
     <row r="15" ht="135" spans="2:11">
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="36" t="s">
         <v>252</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="36" t="s">
         <v>253</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="36" t="s">
         <v>255</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="J15" s="37" t="s">
+      <c r="J15" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="K15" s="40" t="s">
+      <c r="K15" s="37" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="16" ht="40.5" spans="2:11">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="87" t="s">
+      <c r="C16" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="33" t="s">
         <v>258</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87" t="s">
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="K16" s="101" t="s">
+      <c r="K16" s="34" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="93"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="40"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" ht="14.25" spans="2:11">
-      <c r="B18" s="95"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="104"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="93"/>
     </row>
     <row r="21" ht="67.5" spans="5:7">
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="25" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7850,16 +7824,16 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:5">
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="70" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="72" t="s">
         <v>264</v>
       </c>
     </row>
@@ -7873,7 +7847,7 @@
       <c r="D4" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="73" t="s">
         <v>268</v>
       </c>
     </row>
@@ -7885,7 +7859,7 @@
       <c r="D5" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="74" t="s">
         <v>270</v>
       </c>
     </row>
@@ -7897,7 +7871,7 @@
       <c r="D6" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E6" s="79" t="s">
+      <c r="E6" s="75" t="s">
         <v>273</v>
       </c>
     </row>
@@ -7909,7 +7883,7 @@
       <c r="D7" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="74" t="s">
         <v>275</v>
       </c>
     </row>
@@ -7921,7 +7895,7 @@
       <c r="D8" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="75" t="s">
         <v>277</v>
       </c>
     </row>
@@ -7935,7 +7909,7 @@
       <c r="D9" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="74" t="s">
         <v>281</v>
       </c>
     </row>
@@ -7947,7 +7921,7 @@
       <c r="D10" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="75" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7961,19 +7935,19 @@
       <c r="D11" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="74" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:5">
-      <c r="B12" s="80"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="21" t="s">
         <v>285</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>280</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="77" t="s">
         <v>287</v>
       </c>
     </row>
@@ -8003,16 +7977,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="45" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="25.625" style="50" customWidth="1"/>
-    <col min="3" max="3" width="52.25" style="50" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="50" customWidth="1"/>
-    <col min="5" max="7" width="14" style="50" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="50"/>
+    <col min="1" max="1" width="4.625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="25.625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="52.25" style="25" customWidth="1"/>
+    <col min="4" max="4" width="37.625" style="25" customWidth="1"/>
+    <col min="5" max="7" width="14" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.5" spans="2:2">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="25" t="s">
         <v>288</v>
       </c>
     </row>
@@ -8024,76 +7998,76 @@
       <c r="C3" s="27" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="47" t="s">
         <v>291</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="49"/>
     </row>
     <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="50" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="F4" s="56"/>
-      <c r="G4" s="57"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" customHeight="1" spans="2:7">
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="60"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
     </row>
     <row r="6" customHeight="1" spans="2:7">
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
     </row>
     <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="54" t="s">
         <v>301</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="60"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="56"/>
     </row>
     <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="66"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
     </row>
     <row r="9" ht="13.5"/>
     <row r="10" ht="13.5"/>
@@ -8118,156 +8092,156 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55" t="s">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="G14" s="67"/>
+      <c r="G14" s="63"/>
     </row>
     <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="55" t="s">
         <v>312</v>
       </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59" t="s">
+      <c r="D15" s="55"/>
+      <c r="E15" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="55" t="s">
         <v>310</v>
       </c>
-      <c r="G15" s="60"/>
+      <c r="G15" s="56"/>
     </row>
     <row r="16" ht="68" customHeight="1" spans="2:7">
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="58" t="s">
         <v>315</v>
       </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62" t="s">
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="59" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59" t="s">
+      <c r="D17" s="55"/>
+      <c r="E17" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="56" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:7">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62" t="s">
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58" t="s">
         <v>320</v>
       </c>
-      <c r="G18" s="63" t="s">
+      <c r="G18" s="59" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="19" ht="78" customHeight="1" spans="2:7">
-      <c r="B19" s="58" t="s">
+      <c r="B19" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="G19" s="56" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:7">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="58" t="s">
         <v>328</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62" t="s">
+      <c r="D20" s="58"/>
+      <c r="E20" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="F20" s="62" t="s">
+      <c r="F20" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="G20" s="63"/>
+      <c r="G20" s="59"/>
     </row>
     <row r="21" ht="14.25" spans="2:7">
-      <c r="B21" s="68"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="66"/>
     </row>
     <row r="22" customHeight="1" spans="2:7">
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="67" t="s">
         <v>330</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="68" t="s">
         <v>331</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="69"/>
     </row>
     <row r="23" ht="13.5" spans="2:7">
-      <c r="B23" s="68" t="s">
+      <c r="B23" s="64" t="s">
         <v>332</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="66"/>
     </row>
     <row r="24" ht="14.25" spans="2:7">
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -8314,34 +8288,34 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:3">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="42" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:3">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="43" t="s">
         <v>334</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="44" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:3">
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="43" t="s">
         <v>336</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="44" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="6" ht="15" spans="2:3">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>339</v>
       </c>
     </row>

--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13845" windowHeight="11790" tabRatio="769" activeTab="9"/>
+    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="878" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -3047,10 +3047,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3106,61 +3106,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3174,31 +3129,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3220,8 +3158,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3282,7 +3282,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3294,19 +3402,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3318,19 +3438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3342,121 +3450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4109,20 +4109,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4142,27 +4139,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4186,8 +4166,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4214,10 +4214,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4226,133 +4226,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="55" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="55" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5242,7 +5242,7 @@
   <sheetPr/>
   <dimension ref="B1:I62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -5799,7 +5799,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7b802794-9793-40e0-9f7a-b6f076629425}</x14:id>
+          <x14:id>{440c1aff-054b-4ab3-88ec-409d7ec83735}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5813,7 +5813,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{dcc34a63-ae9e-409d-9453-f07546008bee}</x14:id>
+          <x14:id>{9fd8760f-ad9c-49d0-b880-a836ba6f045d}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5827,7 +5827,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2a42063f-3090-447d-a2e2-d9365f52101f}</x14:id>
+          <x14:id>{1722fcc4-0254-4c67-ab90-0827cbf8a4df}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5841,7 +5841,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{283a7bbc-2592-4230-be0f-6789b775ca18}</x14:id>
+          <x14:id>{f2cd69ab-f38d-4d23-ad44-ac99f7fca221}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5855,7 +5855,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d2f0ee25-a508-452c-b8ca-de732cd758ec}</x14:id>
+          <x14:id>{7904693a-24cb-4530-8de2-902c83e65d37}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5869,7 +5869,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d53fb3e2-9e60-422d-adae-404cd8044fb0}</x14:id>
+          <x14:id>{d6a27d98-bfa4-469f-b547-68c1dacb5938}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5883,7 +5883,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{76a9c596-6b5a-4f20-b92c-d50e78779012}</x14:id>
+          <x14:id>{b5429591-f828-4fb3-b9b5-6000117cc267}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5897,7 +5897,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d4afb05a-529b-4bbb-9a02-14bddaece665}</x14:id>
+          <x14:id>{48bb8d78-a5d2-4912-87fb-aafb8a1998b7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -5909,7 +5909,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7b802794-9793-40e0-9f7a-b6f076629425}">
+          <x14:cfRule type="dataBar" id="{440c1aff-054b-4ab3-88ec-409d7ec83735}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5920,7 +5920,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{dcc34a63-ae9e-409d-9453-f07546008bee}">
+          <x14:cfRule type="dataBar" id="{9fd8760f-ad9c-49d0-b880-a836ba6f045d}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5931,7 +5931,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2a42063f-3090-447d-a2e2-d9365f52101f}">
+          <x14:cfRule type="dataBar" id="{1722fcc4-0254-4c67-ab90-0827cbf8a4df}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5942,7 +5942,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{283a7bbc-2592-4230-be0f-6789b775ca18}">
+          <x14:cfRule type="dataBar" id="{f2cd69ab-f38d-4d23-ad44-ac99f7fca221}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5953,7 +5953,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d2f0ee25-a508-452c-b8ca-de732cd758ec}">
+          <x14:cfRule type="dataBar" id="{7904693a-24cb-4530-8de2-902c83e65d37}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5964,7 +5964,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d53fb3e2-9e60-422d-adae-404cd8044fb0}">
+          <x14:cfRule type="dataBar" id="{d6a27d98-bfa4-469f-b547-68c1dacb5938}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5975,7 +5975,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{76a9c596-6b5a-4f20-b92c-d50e78779012}">
+          <x14:cfRule type="dataBar" id="{b5429591-f828-4fb3-b9b5-6000117cc267}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -5986,7 +5986,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d4afb05a-529b-4bbb-9a02-14bddaece665}">
+          <x14:cfRule type="dataBar" id="{48bb8d78-a5d2-4912-87fb-aafb8a1998b7}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -6007,8 +6007,8 @@
   <sheetPr/>
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -6389,7 +6389,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" tabRatio="878" firstSheet="6" activeTab="17"/>
+    <workbookView windowWidth="28800" windowHeight="13500" tabRatio="878" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="SpringBoot" sheetId="18" r:id="rId16"/>
     <sheet name="cls" sheetId="21" r:id="rId17"/>
     <sheet name="mid_econtract" sheetId="22" r:id="rId18"/>
-    <sheet name="blank" sheetId="20" r:id="rId19"/>
+    <sheet name="blank70" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3095,7 +3095,7 @@
     <t>2012年</t>
   </si>
   <si>
-    <t>基于长轮询的拉取方式，兼有两者的有点</t>
+    <t>基于长轮询的拉取方式，兼有两者的优点</t>
   </si>
   <si>
     <t>RabbitMQ</t>
@@ -4765,9 +4765,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -4817,24 +4817,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4848,52 +4839,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4907,9 +4854,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4923,11 +4877,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4954,6 +4931,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -4962,18 +4962,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5000,7 +5000,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5018,43 +5072,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5072,7 +5090,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5084,31 +5126,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5120,73 +5168,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5846,45 +5840,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5917,6 +5872,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -5930,16 +5933,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5951,10 +5945,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5963,19 +5957,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5984,112 +5978,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6481,16 +6475,16 @@
     <xf numFmtId="57" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="5" fillId="5" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="5" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6499,10 +6493,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="5" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="5" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7024,8 +7018,8 @@
   <sheetPr/>
   <dimension ref="B1:I62"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="13.5"/>
@@ -7581,7 +7575,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{f7fd4f18-9522-4233-bd49-4c10f42cbf66}</x14:id>
+          <x14:id>{30e47e04-647f-4112-9fc7-b48150797b27}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7595,7 +7589,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86bfd0d9-9ce2-4d11-8dd2-a6c1294facae}</x14:id>
+          <x14:id>{050e7b9a-5ed2-4edc-bd59-9a567eac422f}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7609,7 +7603,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{38381900-2ebf-49e8-aecd-4d48fd888bbd}</x14:id>
+          <x14:id>{06d58814-fc1d-40d1-aae0-f086281d4252}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7623,7 +7617,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8b73046e-6487-4bcc-aa5f-d7e7f35a1017}</x14:id>
+          <x14:id>{0b5ad2f7-8bf4-4c2f-bb4f-19a06c1a9a31}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7637,7 +7631,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0b7fa548-7496-4bc6-8480-5b20cd4aea53}</x14:id>
+          <x14:id>{397c5e80-9a81-4cc2-a51f-5aa5224878e2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7651,7 +7645,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0e716e49-5254-4754-87e7-48536bb7eee1}</x14:id>
+          <x14:id>{15e8f529-01db-4ac4-8e29-8e52ecca77f6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7665,7 +7659,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{d1f6c70e-1f6d-4a14-9cc1-61ffa1cf1ee5}</x14:id>
+          <x14:id>{3290fe9c-d8ca-4ad8-b56a-abec806caef0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7679,7 +7673,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{fd823430-2687-4fde-8a65-a24ff5bd03a9}</x14:id>
+          <x14:id>{77b20845-7ba6-4b9d-8cdb-e933dcca85ae}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7691,7 +7685,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{f7fd4f18-9522-4233-bd49-4c10f42cbf66}">
+          <x14:cfRule type="dataBar" id="{30e47e04-647f-4112-9fc7-b48150797b27}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7702,7 +7696,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{86bfd0d9-9ce2-4d11-8dd2-a6c1294facae}">
+          <x14:cfRule type="dataBar" id="{050e7b9a-5ed2-4edc-bd59-9a567eac422f}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7713,7 +7707,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{38381900-2ebf-49e8-aecd-4d48fd888bbd}">
+          <x14:cfRule type="dataBar" id="{06d58814-fc1d-40d1-aae0-f086281d4252}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7724,7 +7718,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8b73046e-6487-4bcc-aa5f-d7e7f35a1017}">
+          <x14:cfRule type="dataBar" id="{0b5ad2f7-8bf4-4c2f-bb4f-19a06c1a9a31}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7735,7 +7729,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0b7fa548-7496-4bc6-8480-5b20cd4aea53}">
+          <x14:cfRule type="dataBar" id="{397c5e80-9a81-4cc2-a51f-5aa5224878e2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7746,7 +7740,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0e716e49-5254-4754-87e7-48536bb7eee1}">
+          <x14:cfRule type="dataBar" id="{15e8f529-01db-4ac4-8e29-8e52ecca77f6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7757,7 +7751,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{d1f6c70e-1f6d-4a14-9cc1-61ffa1cf1ee5}">
+          <x14:cfRule type="dataBar" id="{3290fe9c-d8ca-4ad8-b56a-abec806caef0}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7768,7 +7762,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{fd823430-2687-4fde-8a65-a24ff5bd03a9}">
+          <x14:cfRule type="dataBar" id="{77b20845-7ba6-4b9d-8cdb-e933dcca85ae}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7789,7 +7783,7 @@
   <sheetPr/>
   <dimension ref="B2:F24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -8044,7 +8038,7 @@
   <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -8155,7 +8149,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8171,7 +8165,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8187,7 +8181,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8203,7 +8197,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8219,7 +8213,7 @@
   <sheetPr/>
   <dimension ref="B1:H343"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -15361,8 +15355,8 @@
   <sheetPr/>
   <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -15932,7 +15926,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -15948,8 +15942,8 @@
   <sheetPr/>
   <dimension ref="B2:H7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
@@ -16115,7 +16109,7 @@
   <sheetPr/>
   <dimension ref="B1:D83"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A25" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>

--- a/JavaProject/tech/20190823-Table.xlsx
+++ b/JavaProject/tech/20190823-Table.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13500" tabRatio="878" activeTab="18"/>
+    <workbookView windowWidth="28800" windowHeight="13500" tabRatio="878" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Timeline" sheetId="1" r:id="rId1"/>
-    <sheet name="MySQL" sheetId="8" r:id="rId2"/>
-    <sheet name="Redis" sheetId="5" r:id="rId3"/>
-    <sheet name="MyCat" sheetId="19" r:id="rId4"/>
-    <sheet name="JavaAPI" sheetId="10" r:id="rId5"/>
-    <sheet name="Iterable" sheetId="9" r:id="rId6"/>
-    <sheet name="Netty" sheetId="12" r:id="rId7"/>
-    <sheet name="GC" sheetId="11" r:id="rId8"/>
-    <sheet name="Spring" sheetId="2" r:id="rId9"/>
-    <sheet name="JPA" sheetId="3" r:id="rId10"/>
-    <sheet name="Tomcat" sheetId="14" r:id="rId11"/>
-    <sheet name="RocketMQ" sheetId="7" r:id="rId12"/>
-    <sheet name="ActiveMQ" sheetId="16" r:id="rId13"/>
-    <sheet name="ZooKeeper" sheetId="13" r:id="rId14"/>
-    <sheet name="Dubbo" sheetId="17" r:id="rId15"/>
-    <sheet name="SpringBoot" sheetId="18" r:id="rId16"/>
+    <sheet name="JavaAPI" sheetId="10" r:id="rId2"/>
+    <sheet name="Iterable" sheetId="9" r:id="rId3"/>
+    <sheet name="Netty" sheetId="12" r:id="rId4"/>
+    <sheet name="GC" sheetId="11" r:id="rId5"/>
+    <sheet name="Spring" sheetId="2" r:id="rId6"/>
+    <sheet name="JPA" sheetId="3" r:id="rId7"/>
+    <sheet name="Dubbo" sheetId="17" r:id="rId8"/>
+    <sheet name="SpringBoot" sheetId="18" r:id="rId9"/>
+    <sheet name="MySQL" sheetId="8" r:id="rId10"/>
+    <sheet name="Redis" sheetId="5" r:id="rId11"/>
+    <sheet name="MyCat" sheetId="19" r:id="rId12"/>
+    <sheet name="Tomcat" sheetId="14" r:id="rId13"/>
+    <sheet name="ActiveMQ" sheetId="16" r:id="rId14"/>
+    <sheet name="RocketMQ" sheetId="7" r:id="rId15"/>
+    <sheet name="ZooKeeper" sheetId="13" r:id="rId16"/>
     <sheet name="cls" sheetId="21" r:id="rId17"/>
     <sheet name="mid_econtract" sheetId="22" r:id="rId18"/>
     <sheet name="blank70" sheetId="20" r:id="rId19"/>
@@ -509,125 +509,6 @@
     <t>2013年12月，Spring 4.0发布，支持Java 8</t>
   </si>
   <si>
-    <t>默认状态</t>
-  </si>
-  <si>
-    <t>启动配置</t>
-  </si>
-  <si>
-    <t>默认配置</t>
-  </si>
-  <si>
-    <t>查看/删除</t>
-  </si>
-  <si>
-    <t>记录内容</t>
-  </si>
-  <si>
-    <t>老版本启动配置</t>
-  </si>
-  <si>
-    <t>错误日志</t>
-  </si>
-  <si>
-    <t>默认启动
-无法关闭</t>
-  </si>
-  <si>
-    <t>--log-error[=file_name]</t>
-  </si>
-  <si>
-    <t>缺省日志名：host_name.err
-缺省路径：DATADIR</t>
-  </si>
-  <si>
-    <t>错误日志，记录了mysqld启动、停止时，以及服务器运行中发生任何严重错误时的相关信息。</t>
-  </si>
-  <si>
-    <t>二进制日志</t>
-  </si>
-  <si>
-    <t>--log-bin[=file_name]
---binlog_format=STATEMENT、ROW、MIXED
---binlog-do-db=db_name
---binlog-ignore-db=db_name</t>
-  </si>
-  <si>
-    <t>缺省日志名：host-bin
-缺省路径：DATADIR</t>
-  </si>
-  <si>
-    <t>查看：
-由于日志以二进制方式存储，不能直接读取，需要用mysqlbinlog工具来查看：
-mysqlbinlog log-file
-删除：
-1、删除二进制日志：reset master
-2、purge master logs to 'mysql-bin.***' 命令
-3、purge master logs before 'yyyy-mm-dd HH:mm:ss' 命令
-4、设置 --expire_logs_days=#</t>
-  </si>
-  <si>
-    <t>二进制文件(BinLog)，记录了所有DDL、DML语句，但不包括数据查询语句。它描述了数据的更改过程，此日志对灾难时的数据恢复起着极其重要的作用。</t>
-  </si>
-  <si>
-    <t>MySQL 5.5中，二进制日志的格式分为3种：STATEMENT、ROW、MIXED，可在启动时通过 --binlog_format进行设置：
-1、STATEMENT，MySQL 5.1之前版本采用的格式，日志中记录的是语句(statement)。日志记录清晰、日志量小。
-2、ROW，MySQL 5.1.11之后出现的格式，它将每一行的变更记录到日志中。日志量大。
-3、MIXED，MySQL 目前默认的日志格式，混合了 STATEMENT、ROW 两种日志，默认情况采用 STATEMENT，特殊情况下用 ROW 来进行记录。</t>
-  </si>
-  <si>
-    <t>查询日志</t>
-  </si>
-  <si>
-    <t xml:space="preserve">--general_log[={0|1}]
---general_log_file=file_name
---log-output[=TABLE、FILE、NONE]
-</t>
-  </si>
-  <si>
-    <t>默认文件名：host_name.log
-默认路径：DATADIR
-若保存在表中：mysql.general_log</t>
-  </si>
-  <si>
-    <t>查看：
-查询日志记录的格式是纯文本，可以直接进行读取，如 more localhost.log</t>
-  </si>
-  <si>
-    <t>查询日志记录了客户端的所有语句，而二进制日志不包含只查询数据的语句。</t>
-  </si>
-  <si>
-    <t>在MySQL 5.1.29之前，使用 --log[=file_name] 或 -l[file_name]。</t>
-  </si>
-  <si>
-    <t>慢查询日志</t>
-  </si>
-  <si>
-    <t>默认关闭</t>
-  </si>
-  <si>
-    <t>--log-slow-admin-statements
---log_quries_not_using_indexes
---slow_query_log[={0|1}]
---slow_query_log_file[=file_name] 
---log-output[=TABLE、FILE、NONE]</t>
-  </si>
-  <si>
-    <t>默认文件名：host_name-slow.log
-默认路径：DATADIR
-若保存在表中：mysql.slow_log</t>
-  </si>
-  <si>
-    <t>查看：
-和错误日志、查询日志一样，慢查询日志记录的格式也是纯文本，可以被直接读取，如 more host-slow.log。</t>
-  </si>
-  <si>
-    <t>慢查询日志记录了所有执行时间超过参数long_query_time(单位：秒)值、且扫描记录数不小于min_examined_row_limit 的所有SQL语句的日志</t>
-  </si>
-  <si>
-    <t>在MySQL 5.1.29之前，使用 --log-slow-quries[=file_name]</t>
-  </si>
-  <si>
     <t>rt.jar</t>
   </si>
   <si>
@@ -3056,6 +2937,125 @@
      TransactionProxyFactoryBean</t>
   </si>
   <si>
+    <t>默认状态</t>
+  </si>
+  <si>
+    <t>启动配置</t>
+  </si>
+  <si>
+    <t>默认配置</t>
+  </si>
+  <si>
+    <t>查看/删除</t>
+  </si>
+  <si>
+    <t>记录内容</t>
+  </si>
+  <si>
+    <t>老版本启动配置</t>
+  </si>
+  <si>
+    <t>错误日志</t>
+  </si>
+  <si>
+    <t>默认启动
+无法关闭</t>
+  </si>
+  <si>
+    <t>--log-error[=file_name]</t>
+  </si>
+  <si>
+    <t>缺省日志名：host_name.err
+缺省路径：DATADIR</t>
+  </si>
+  <si>
+    <t>错误日志，记录了mysqld启动、停止时，以及服务器运行中发生任何严重错误时的相关信息。</t>
+  </si>
+  <si>
+    <t>二进制日志</t>
+  </si>
+  <si>
+    <t>--log-bin[=file_name]
+--binlog_format=STATEMENT、ROW、MIXED
+--binlog-do-db=db_name
+--binlog-ignore-db=db_name</t>
+  </si>
+  <si>
+    <t>缺省日志名：host-bin
+缺省路径：DATADIR</t>
+  </si>
+  <si>
+    <t>查看：
+由于日志以二进制方式存储，不能直接读取，需要用mysqlbinlog工具来查看：
+mysqlbinlog log-file
+删除：
+1、删除二进制日志：reset master
+2、purge master logs to 'mysql-bin.***' 命令
+3、purge master logs before 'yyyy-mm-dd HH:mm:ss' 命令
+4、设置 --expire_logs_days=#</t>
+  </si>
+  <si>
+    <t>二进制文件(BinLog)，记录了所有DDL、DML语句，但不包括数据查询语句。它描述了数据的更改过程，此日志对灾难时的数据恢复起着极其重要的作用。</t>
+  </si>
+  <si>
+    <t>MySQL 5.5中，二进制日志的格式分为3种：STATEMENT、ROW、MIXED，可在启动时通过 --binlog_format进行设置：
+1、STATEMENT，MySQL 5.1之前版本采用的格式，日志中记录的是语句(statement)。日志记录清晰、日志量小。
+2、ROW，MySQL 5.1.11之后出现的格式，它将每一行的变更记录到日志中。日志量大。
+3、MIXED，MySQL 目前默认的日志格式，混合了 STATEMENT、ROW 两种日志，默认情况采用 STATEMENT，特殊情况下用 ROW 来进行记录。</t>
+  </si>
+  <si>
+    <t>查询日志</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--general_log[={0|1}]
+--general_log_file=file_name
+--log-output[=TABLE、FILE、NONE]
+</t>
+  </si>
+  <si>
+    <t>默认文件名：host_name.log
+默认路径：DATADIR
+若保存在表中：mysql.general_log</t>
+  </si>
+  <si>
+    <t>查看：
+查询日志记录的格式是纯文本，可以直接进行读取，如 more localhost.log</t>
+  </si>
+  <si>
+    <t>查询日志记录了客户端的所有语句，而二进制日志不包含只查询数据的语句。</t>
+  </si>
+  <si>
+    <t>在MySQL 5.1.29之前，使用 --log[=file_name] 或 -l[file_name]。</t>
+  </si>
+  <si>
+    <t>慢查询日志</t>
+  </si>
+  <si>
+    <t>默认关闭</t>
+  </si>
+  <si>
+    <t>--log-slow-admin-statements
+--log_quries_not_using_indexes
+--slow_query_log[={0|1}]
+--slow_query_log_file[=file_name] 
+--log-output[=TABLE、FILE、NONE]</t>
+  </si>
+  <si>
+    <t>默认文件名：host_name-slow.log
+默认路径：DATADIR
+若保存在表中：mysql.slow_log</t>
+  </si>
+  <si>
+    <t>查看：
+和错误日志、查询日志一样，慢查询日志记录的格式也是纯文本，可以被直接读取，如 more host-slow.log。</t>
+  </si>
+  <si>
+    <t>慢查询日志记录了所有执行时间超过参数long_query_time(单位：秒)值、且扫描记录数不小于min_examined_row_limit 的所有SQL语句的日志</t>
+  </si>
+  <si>
+    <t>在MySQL 5.1.29之前，使用 --log-slow-quries[=file_name]</t>
+  </si>
+  <si>
     <t>组件名</t>
   </si>
   <si>
@@ -4765,8 +4765,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -4817,6 +4817,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -4824,8 +4839,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4840,7 +4885,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4854,37 +4899,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -4893,23 +4915,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4932,24 +4939,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4962,12 +4962,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5000,7 +5000,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5024,61 +5102,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5090,13 +5138,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5114,43 +5162,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5162,25 +5174,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5840,36 +5840,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -5909,6 +5879,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -5929,6 +5914,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -5945,10 +5945,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5957,133 +5957,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="56" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="55" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6212,6 +6212,51 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6220,33 +6265,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6391,12 +6409,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6412,9 +6424,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6439,16 +6448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7043,7 +7043,7 @@
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="82"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="122" t="s">
         <v>2</v>
       </c>
@@ -7061,99 +7061,99 @@
       <c r="B4" s="124">
         <v>33329</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="78"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="84"/>
     </row>
     <row r="5" ht="40.5" spans="2:6">
       <c r="B5" s="125">
         <v>34820</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="71"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
     </row>
     <row r="6" ht="27" spans="2:6">
       <c r="B6" s="126">
         <v>35065</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="74"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="125">
         <v>35462</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="71"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
     </row>
     <row r="8" ht="54" spans="2:6">
       <c r="B8" s="126">
         <v>36130</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
     </row>
     <row r="9" ht="27" spans="2:6">
       <c r="B9" s="125">
         <v>36647</v>
       </c>
-      <c r="C9" s="70" t="s">
+      <c r="C9" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="70"/>
-      <c r="F9" s="71"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="77"/>
     </row>
     <row r="10" ht="40.5" spans="2:6">
       <c r="B10" s="126">
         <v>37288</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="74"/>
+      <c r="F10" s="80"/>
     </row>
     <row r="11" ht="40.5" spans="2:6">
       <c r="B11" s="125"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70" t="s">
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="77" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7161,23 +7161,23 @@
       <c r="B12" s="126">
         <v>38231</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="80"/>
     </row>
     <row r="13" ht="54" spans="2:6">
       <c r="B13" s="125"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70" t="s">
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="77" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7185,38 +7185,38 @@
       <c r="B14" s="126">
         <v>39052</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70" t="s">
+      <c r="B15" s="75"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="77" t="s">
         <v>28</v>
       </c>
       <c r="H15" s="40"/>
       <c r="I15" s="40"/>
     </row>
     <row r="16" ht="40.5" spans="2:9">
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73" t="s">
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="80" t="s">
         <v>30</v>
       </c>
       <c r="H16" s="40"/>
@@ -7226,14 +7226,14 @@
       <c r="B17" s="125">
         <v>40725</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="70" t="s">
+      <c r="D17" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="71"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="77"/>
       <c r="H17" s="40"/>
       <c r="I17" s="40"/>
     </row>
@@ -7241,25 +7241,25 @@
       <c r="B18" s="126">
         <v>41699</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="74"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="80"/>
       <c r="H18" s="40"/>
       <c r="I18" s="40"/>
     </row>
     <row r="19" ht="40.5" spans="2:6">
       <c r="B19" s="125"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70" t="s">
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="F19" s="71" t="s">
+      <c r="F19" s="77" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7267,110 +7267,110 @@
       <c r="B20" s="126">
         <v>42979</v>
       </c>
-      <c r="C20" s="73" t="s">
+      <c r="C20" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73" t="s">
+      <c r="D20" s="79"/>
+      <c r="E20" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="74"/>
+      <c r="F20" s="80"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="125">
         <v>43160</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="70" t="s">
+      <c r="D21" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="70"/>
-      <c r="F21" s="71"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" s="126">
         <v>43344</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="74"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="80"/>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" s="125">
         <v>43525</v>
       </c>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="77"/>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" s="126">
         <v>43709</v>
       </c>
-      <c r="C24" s="73" t="s">
+      <c r="C24" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="74"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="80"/>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" s="125">
         <v>43891</v>
       </c>
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="81"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="87"/>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" s="126">
         <v>44075</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="74"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="80"/>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" s="127"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="81"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="87"/>
     </row>
     <row r="28" spans="2:6">
-      <c r="B28" s="72"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80"/>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" s="127"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="81"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="87"/>
     </row>
     <row r="30" ht="14.25" spans="2:6">
       <c r="B30" s="128"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="77"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="83"/>
     </row>
     <row r="40" ht="14.25"/>
     <row r="41" ht="14.25" spans="2:4">
@@ -7575,7 +7575,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{30e47e04-647f-4112-9fc7-b48150797b27}</x14:id>
+          <x14:id>{d460116a-56eb-4f01-8db6-26b7b45f662a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7589,7 +7589,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{050e7b9a-5ed2-4edc-bd59-9a567eac422f}</x14:id>
+          <x14:id>{3c472c02-9f91-4347-b3c8-c9d8566c6a33}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7603,7 +7603,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{06d58814-fc1d-40d1-aae0-f086281d4252}</x14:id>
+          <x14:id>{635d6be3-f5b9-4d90-b15c-f7cd08eb67ad}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7617,7 +7617,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{0b5ad2f7-8bf4-4c2f-bb4f-19a06c1a9a31}</x14:id>
+          <x14:id>{4d737ff2-218a-4516-a6e1-9dcf27a8b88b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7631,7 +7631,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{397c5e80-9a81-4cc2-a51f-5aa5224878e2}</x14:id>
+          <x14:id>{8c7cc5ba-e712-42f5-9484-fb9660ebb3da}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7645,7 +7645,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{15e8f529-01db-4ac4-8e29-8e52ecca77f6}</x14:id>
+          <x14:id>{745ca7d4-d4a3-4e76-9ce9-91781e2d6dc3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7659,7 +7659,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3290fe9c-d8ca-4ad8-b56a-abec806caef0}</x14:id>
+          <x14:id>{29394c1c-8bb8-4387-a2f6-887469f405d6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7673,7 +7673,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{77b20845-7ba6-4b9d-8cdb-e933dcca85ae}</x14:id>
+          <x14:id>{914281e0-e742-4f55-8e41-27015aed8ca2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -7685,7 +7685,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{30e47e04-647f-4112-9fc7-b48150797b27}">
+          <x14:cfRule type="dataBar" id="{d460116a-56eb-4f01-8db6-26b7b45f662a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7696,7 +7696,7 @@
           <xm:sqref>B3:F3</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{050e7b9a-5ed2-4edc-bd59-9a567eac422f}">
+          <x14:cfRule type="dataBar" id="{3c472c02-9f91-4347-b3c8-c9d8566c6a33}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7707,7 +7707,7 @@
           <xm:sqref>C24:D24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{06d58814-fc1d-40d1-aae0-f086281d4252}">
+          <x14:cfRule type="dataBar" id="{635d6be3-f5b9-4d90-b15c-f7cd08eb67ad}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7718,7 +7718,7 @@
           <xm:sqref>E24:F24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{0b5ad2f7-8bf4-4c2f-bb4f-19a06c1a9a31}">
+          <x14:cfRule type="dataBar" id="{4d737ff2-218a-4516-a6e1-9dcf27a8b88b}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7729,7 +7729,7 @@
           <xm:sqref>C25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{397c5e80-9a81-4cc2-a51f-5aa5224878e2}">
+          <x14:cfRule type="dataBar" id="{8c7cc5ba-e712-42f5-9484-fb9660ebb3da}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7740,7 +7740,7 @@
           <xm:sqref>C26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{15e8f529-01db-4ac4-8e29-8e52ecca77f6}">
+          <x14:cfRule type="dataBar" id="{745ca7d4-d4a3-4e76-9ce9-91781e2d6dc3}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7751,7 +7751,7 @@
           <xm:sqref>D26:F26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3290fe9c-d8ca-4ad8-b56a-abec806caef0}">
+          <x14:cfRule type="dataBar" id="{29394c1c-8bb8-4387-a2f6-887469f405d6}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7762,7 +7762,7 @@
           <xm:sqref>B28:F28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{77b20845-7ba6-4b9d-8cdb-e933dcca85ae}">
+          <x14:cfRule type="dataBar" id="{914281e0-e742-4f55-8e41-27015aed8ca2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -7781,238 +7781,134 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F24"/>
+  <dimension ref="B2:H7"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="40" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="40" customWidth="1"/>
-    <col min="3" max="3" width="69.625" style="40" customWidth="1"/>
-    <col min="4" max="5" width="53.625" style="40" customWidth="1"/>
-    <col min="6" max="6" width="52.5" style="40" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="40"/>
+    <col min="1" max="1" width="2.875" style="40" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="40" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="37.375" style="40" customWidth="1"/>
+    <col min="5" max="5" width="29.875" style="40" customWidth="1"/>
+    <col min="6" max="6" width="49.375" style="40" customWidth="1"/>
+    <col min="7" max="7" width="40.125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="48.375" style="40" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25"/>
-    <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="41" t="s">
-        <v>340</v>
-      </c>
+    <row r="3" ht="14.25" spans="2:8">
+      <c r="B3" s="41"/>
       <c r="C3" s="42" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>343</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="4" ht="81" spans="2:6">
+        <v>345</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>347</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="2:8">
       <c r="B4" s="44" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>82</v>
+        <v>351</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>347</v>
-      </c>
-      <c r="F4" s="46"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="47"/>
+        <v>352</v>
+      </c>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="H4" s="46"/>
+    </row>
+    <row r="5" ht="135" spans="2:8">
+      <c r="B5" s="47" t="s">
+        <v>354</v>
+      </c>
       <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="49"/>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="D5" s="139" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" s="48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G5" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="6" ht="54" spans="2:8">
       <c r="B6" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>350</v>
-      </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
-    </row>
-    <row r="8" ht="135" spans="2:6">
-      <c r="B8" s="50" t="s">
-        <v>351</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>352</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>353</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>354</v>
-      </c>
-      <c r="F8" s="52" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="49"/>
-    </row>
-    <row r="10" ht="94.5" spans="2:6">
-      <c r="B10" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>357</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>358</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>359</v>
-      </c>
-      <c r="F10" s="52"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-    </row>
-    <row r="12" ht="121.5" spans="2:6">
-      <c r="B12" s="50" t="s">
         <v>360</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="140" t="s">
         <v>361</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="E6" s="51" t="s">
         <v>362</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="F6" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="F12" s="52"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="49"/>
-    </row>
-    <row r="14" ht="81" spans="2:6">
-      <c r="B14" s="50" t="s">
+      <c r="G6" s="51" t="s">
         <v>364</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="H6" s="52" t="s">
         <v>365</v>
       </c>
-      <c r="D14" s="51" t="s">
+    </row>
+    <row r="7" ht="68.25" spans="2:8">
+      <c r="B7" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
-    </row>
-    <row r="15" spans="2:6">
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="49"/>
-    </row>
-    <row r="16" ht="94.5" spans="2:6">
-      <c r="B16" s="50" t="s">
+      <c r="C7" s="54" t="s">
         <v>367</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="D7" s="141" t="s">
         <v>368</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="E7" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="F7" s="54" t="s">
         <v>370</v>
       </c>
-      <c r="F16" s="52"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="47"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="49"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="50" t="s">
+      <c r="G7" s="54" t="s">
         <v>371</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="47"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-    </row>
-    <row r="22" ht="14.25" spans="2:6">
-      <c r="B22" s="53"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-    </row>
-    <row r="24" ht="49" customHeight="1" spans="3:3">
-      <c r="C24" s="40" t="s">
+      <c r="H7" s="55" t="s">
         <v>372</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8021,7 +7917,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8035,111 +7931,16 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F8"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="3.875" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="44.125" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="14.25"/>
-    <row r="3" ht="14.25" spans="2:6">
-      <c r="B3" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>379</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="25" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>386</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="2:6">
-      <c r="B8" s="35" t="s">
-        <v>389</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>390</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>392</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -8149,7 +7950,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -8179,14 +7980,110 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="44.125" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="14.25"/>
+    <row r="3" ht="14.25" spans="2:6">
+      <c r="B3" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="20" t="s">
+        <v>375</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="2:6">
+      <c r="B8" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="F8" s="39" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -8197,7 +8094,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -15926,7 +15823,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -15938,173 +15835,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B2:H7"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="40" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="37.375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="29.875" style="40" customWidth="1"/>
-    <col min="6" max="6" width="49.375" style="40" customWidth="1"/>
-    <col min="7" max="7" width="40.125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="48.375" style="40" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="40"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="14.25"/>
-    <row r="3" ht="14.25" spans="2:8">
-      <c r="B3" s="120"/>
-      <c r="C3" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="117" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="117" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="118" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="2:8">
-      <c r="B4" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="46"/>
-    </row>
-    <row r="5" ht="135" spans="2:8">
-      <c r="B5" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="139" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="2:8">
-      <c r="B6" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="140" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" ht="68.25" spans="2:8">
-      <c r="B7" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="102" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="141" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="102" t="s">
-        <v>79</v>
-      </c>
-      <c r="G7" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="108" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:D83"/>
@@ -16125,748 +15855,748 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" s="40" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" ht="20" customHeight="1"/>
     <row r="3" ht="20" customHeight="1" spans="2:4">
-      <c r="B3" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>85</v>
+      <c r="B3" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="58" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:4">
       <c r="B4" s="44" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="C4" s="45" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:4">
       <c r="B5" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="2:4">
+      <c r="B6" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="2:4">
+      <c r="B7" s="78"/>
+      <c r="C7" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="2:4">
+      <c r="B8" s="78"/>
+      <c r="C8" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="2:4">
+      <c r="B9" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="2:4">
+      <c r="B10" s="113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="2:4">
+      <c r="B11" s="113"/>
+      <c r="C11" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="2:4">
+      <c r="B12" s="113"/>
+      <c r="C12" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" s="40" customFormat="1" ht="27" spans="2:4">
+      <c r="B14" s="114"/>
+      <c r="C14" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="114"/>
+      <c r="C15" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="2:4">
+      <c r="B16" s="114"/>
+      <c r="C16" s="51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="2:4">
+      <c r="B17" s="114"/>
+      <c r="C17" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="2:4">
+      <c r="B18" s="114"/>
+      <c r="C18" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="2:4">
+      <c r="B19" s="114"/>
+      <c r="C19" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="2:4">
+      <c r="B20" s="113" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="2:4">
+      <c r="B21" s="113"/>
+      <c r="C21" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="49" t="s">
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="78"/>
+      <c r="C23" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="49" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1" spans="2:4">
-      <c r="B6" s="72" t="s">
+    <row r="24" spans="2:4">
+      <c r="B24" s="78" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C24" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="D6" s="52" t="s">
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25" s="78"/>
+      <c r="C25" s="48" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="7" ht="20" customHeight="1" spans="2:4">
-      <c r="B7" s="72"/>
-      <c r="C7" s="48" t="s">
+      <c r="D25" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="49" t="s">
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="78"/>
+      <c r="C26" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="52" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" ht="20" customHeight="1" spans="2:4">
-      <c r="B8" s="72"/>
-      <c r="C8" s="51" t="s">
+    <row r="27" spans="2:4">
+      <c r="B27" s="78"/>
+      <c r="C27" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="52" t="s">
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="78" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" ht="20" customHeight="1" spans="2:4">
-      <c r="B9" s="69" t="s">
+      <c r="C28" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="48" t="s">
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29" s="78"/>
+      <c r="C29" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="49" t="s">
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30" s="78"/>
+      <c r="C30" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="52" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" ht="20" customHeight="1" spans="2:4">
-      <c r="B10" s="110" t="s">
+    <row r="31" ht="20" customHeight="1" spans="2:4">
+      <c r="B31" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="73" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="52" t="s">
+      <c r="C31" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="49" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1" spans="2:4">
-      <c r="B11" s="110"/>
-      <c r="C11" s="70" t="s">
+    <row r="32" ht="20" customHeight="1" spans="2:4">
+      <c r="B32" s="114"/>
+      <c r="C32" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="49" t="s">
+    </row>
+    <row r="33" ht="20" customHeight="1" spans="2:4">
+      <c r="B33" s="114"/>
+      <c r="C33" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="49" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" ht="20" customHeight="1" spans="2:4">
-      <c r="B12" s="110"/>
-      <c r="C12" s="73" t="s">
+    <row r="34" ht="20" customHeight="1" spans="2:4">
+      <c r="B34" s="114"/>
+      <c r="C34" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="52" t="s">
+    </row>
+    <row r="35" ht="20" customHeight="1" spans="2:4">
+      <c r="B35" s="114"/>
+      <c r="C35" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="49" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="111" t="s">
+    <row r="36" ht="20" customHeight="1" spans="2:4">
+      <c r="B36" s="114"/>
+      <c r="C36" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" s="40" customFormat="1" ht="27" spans="2:4">
-      <c r="B14" s="111"/>
-      <c r="C14" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="52" t="s">
+      <c r="D36" s="52" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="111"/>
-      <c r="C15" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="49" t="s">
+    <row r="37" ht="20" customHeight="1" spans="2:4">
+      <c r="B37" s="116" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" ht="20" customHeight="1" spans="2:4">
-      <c r="B16" s="111"/>
-      <c r="C16" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="52" t="s">
+      <c r="C37" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="49" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" ht="20" customHeight="1" spans="2:4">
-      <c r="B17" s="111"/>
-      <c r="C17" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="49" t="s">
+    <row r="38" s="40" customFormat="1" ht="27" spans="2:4">
+      <c r="B38" s="113" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="18" ht="20" customHeight="1" spans="2:4">
-      <c r="B18" s="111"/>
-      <c r="C18" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="52" t="s">
+      <c r="C38" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="117" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" ht="20" customHeight="1" spans="2:4">
-      <c r="B19" s="111"/>
-      <c r="C19" s="48" t="s">
+    <row r="39" s="40" customFormat="1" ht="27" spans="2:4">
+      <c r="B39" s="113"/>
+      <c r="C39" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="49" t="s">
         <v>113</v>
-      </c>
-      <c r="D19" s="112" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" ht="20" customHeight="1" spans="2:4">
-      <c r="B20" s="110" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" s="52" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="21" ht="20" customHeight="1" spans="2:4">
-      <c r="B21" s="110"/>
-      <c r="C21" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="49" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="72"/>
-      <c r="C23" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="49" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="72" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="52" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
-      <c r="B25" s="72"/>
-      <c r="C25" s="48" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
-      <c r="B26" s="72"/>
-      <c r="C26" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="52" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="72"/>
-      <c r="C27" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="72" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D28" s="52" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="72"/>
-      <c r="C29" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="72"/>
-      <c r="C30" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="31" ht="20" customHeight="1" spans="2:4">
-      <c r="B31" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="C31" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" ht="20" customHeight="1" spans="2:4">
-      <c r="B32" s="111"/>
-      <c r="C32" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" ht="20" customHeight="1" spans="2:4">
-      <c r="B33" s="111"/>
-      <c r="C33" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="49" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" ht="20" customHeight="1" spans="2:4">
-      <c r="B34" s="111"/>
-      <c r="C34" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" ht="20" customHeight="1" spans="2:4">
-      <c r="B35" s="111"/>
-      <c r="C35" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="49" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" ht="20" customHeight="1" spans="2:4">
-      <c r="B36" s="111"/>
-      <c r="C36" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="52" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="37" ht="20" customHeight="1" spans="2:4">
-      <c r="B37" s="113" t="s">
-        <v>139</v>
-      </c>
-      <c r="C37" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" s="49" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" s="40" customFormat="1" ht="27" spans="2:4">
-      <c r="B38" s="110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="114" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39" s="40" customFormat="1" ht="27" spans="2:4">
-      <c r="B39" s="110"/>
-      <c r="C39" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="D39" s="49" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="40" s="40" customFormat="1" ht="20" customHeight="1" spans="2:4">
       <c r="B40" s="50" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C40" s="51" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="2:4">
-      <c r="B41" s="113" t="s">
-        <v>146</v>
+      <c r="B41" s="116" t="s">
+        <v>116</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1" spans="2:4">
       <c r="B42" s="50" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="C42" s="51" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="2:4">
       <c r="B43" s="47" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" ht="27" spans="2:4">
       <c r="B44" s="50" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C44" s="51" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" spans="2:4">
       <c r="B45" s="47" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C45" s="48" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D45" s="49" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="2:4">
       <c r="B46" s="50" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" s="40" customFormat="1" ht="20" customHeight="1" spans="2:4">
       <c r="B47" s="47" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C47" s="48" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D47" s="49" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" ht="27" spans="2:4">
-      <c r="B48" s="110" t="s">
-        <v>160</v>
+      <c r="B48" s="113" t="s">
+        <v>130</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" s="114" t="s">
-        <v>161</v>
+        <v>57</v>
+      </c>
+      <c r="D48" s="117" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1" spans="2:4">
-      <c r="B49" s="110"/>
+      <c r="B49" s="113"/>
       <c r="C49" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="112" t="s">
-        <v>162</v>
+        <v>73</v>
+      </c>
+      <c r="D49" s="115" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="50" ht="27" spans="2:4">
-      <c r="B50" s="110"/>
+      <c r="B50" s="113"/>
       <c r="C50" s="51" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="2:4">
-      <c r="B51" s="110"/>
+      <c r="B51" s="113"/>
       <c r="C51" s="48" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="D51" s="49" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="2:4">
-      <c r="B52" s="110"/>
+      <c r="B52" s="113"/>
       <c r="C52" s="51" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="2:4">
-      <c r="B53" s="110"/>
+      <c r="B53" s="113"/>
       <c r="C53" s="48" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D53" s="49" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="2:4">
-      <c r="B54" s="110"/>
+      <c r="B54" s="113"/>
       <c r="C54" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="D54" s="52" t="s">
-        <v>167</v>
-      </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="2:4">
-      <c r="B55" s="110"/>
+      <c r="B55" s="113"/>
       <c r="C55" s="48" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D55" s="49" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="2:4">
-      <c r="B56" s="110"/>
+      <c r="B56" s="113"/>
       <c r="C56" s="51" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" ht="40.5" spans="2:4">
-      <c r="B57" s="111" t="s">
-        <v>170</v>
+      <c r="B57" s="114" t="s">
+        <v>140</v>
       </c>
       <c r="C57" s="48" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="111"/>
+      <c r="B58" s="114"/>
       <c r="C58" s="51" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
     </row>
     <row r="59" ht="27" spans="2:4">
-      <c r="B59" s="111"/>
+      <c r="B59" s="114"/>
       <c r="C59" s="48" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D59" s="49" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60" spans="2:4">
-      <c r="B60" s="111"/>
+      <c r="B60" s="114"/>
       <c r="C60" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="114" t="s">
-        <v>174</v>
+        <v>83</v>
+      </c>
+      <c r="D60" s="117" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="61" s="40" customFormat="1" spans="2:4">
-      <c r="B61" s="113" t="s">
-        <v>175</v>
+      <c r="B61" s="116" t="s">
+        <v>145</v>
       </c>
       <c r="C61" s="48" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D61" s="49" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" s="40" customFormat="1" spans="2:4">
-      <c r="B62" s="110" t="s">
-        <v>177</v>
+      <c r="B62" s="113" t="s">
+        <v>147</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" s="40" customFormat="1" spans="2:4">
-      <c r="B63" s="110"/>
+      <c r="B63" s="113"/>
       <c r="C63" s="48" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D63" s="49" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:4">
-      <c r="B64" s="115" t="s">
-        <v>180</v>
+      <c r="B64" s="118" t="s">
+        <v>150</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="2:4">
       <c r="B65" s="47" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D65" s="49" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="2:4">
       <c r="B66" s="50" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="C66" s="51" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" ht="40.5" spans="2:4">
       <c r="B67" s="47" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C67" s="48" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D67" s="49" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1" spans="2:4">
       <c r="B68" s="50" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="C68" s="51" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1" spans="2:4">
-      <c r="B69" s="113" t="s">
-        <v>190</v>
+      <c r="B69" s="116" t="s">
+        <v>160</v>
       </c>
       <c r="C69" s="48" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="D69" s="49" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" ht="27.75" spans="2:4">
-      <c r="B70" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="C70" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="D70" s="55" t="s">
-        <v>193</v>
+      <c r="B70" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="D70" s="61" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="72" ht="14.25"/>
     <row r="73" ht="14.25" spans="2:4">
-      <c r="B73" s="116" t="s">
-        <v>194</v>
-      </c>
-      <c r="C73" s="117"/>
-      <c r="D73" s="118"/>
+      <c r="B73" s="119" t="s">
+        <v>164</v>
+      </c>
+      <c r="C73" s="42"/>
+      <c r="D73" s="43"/>
     </row>
     <row r="74" spans="2:4">
       <c r="B74" s="44" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="C74" s="45"/>
       <c r="D74" s="46"/>
     </row>
     <row r="75" spans="2:4">
       <c r="B75" s="47" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="C75" s="48"/>
       <c r="D75" s="49" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="B76" s="50" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="C76" s="51"/>
       <c r="D76" s="52"/>
     </row>
     <row r="77" spans="2:4">
-      <c r="B77" s="113" t="s">
-        <v>199</v>
+      <c r="B77" s="116" t="s">
+        <v>169</v>
       </c>
       <c r="C77" s="48"/>
       <c r="D77" s="49" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="78" ht="14.25" spans="2:4">
-      <c r="B78" s="53" t="s">
-        <v>201</v>
-      </c>
-      <c r="C78" s="54"/>
-      <c r="D78" s="55"/>
+      <c r="B78" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="60"/>
+      <c r="D78" s="61"/>
     </row>
     <row r="81" ht="16" customHeight="1" spans="4:4">
       <c r="D81" s="40" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="4:4">
-      <c r="D82" s="119" t="s">
-        <v>203</v>
+      <c r="D82" s="120" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="4:4">
-      <c r="D83" s="119" t="s">
-        <v>204</v>
+      <c r="D83" s="120" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -16895,7 +16625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:K21"/>
@@ -16923,212 +16653,212 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:11">
-      <c r="B3" s="93" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" s="94" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>208</v>
-      </c>
-      <c r="F3" s="94" t="s">
-        <v>209</v>
-      </c>
-      <c r="G3" s="94" t="s">
-        <v>210</v>
-      </c>
-      <c r="H3" s="94" t="s">
-        <v>211</v>
-      </c>
-      <c r="I3" s="94" t="s">
-        <v>212</v>
-      </c>
-      <c r="J3" s="94" t="s">
-        <v>213</v>
-      </c>
-      <c r="K3" s="105" t="s">
-        <v>214</v>
+      <c r="B3" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="100" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="100" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="100" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="100" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="100" t="s">
+        <v>183</v>
+      </c>
+      <c r="K3" s="109" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="4" ht="81" spans="2:11">
-      <c r="B4" s="95" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="96" t="s">
-        <v>216</v>
-      </c>
-      <c r="E4" s="96" t="s">
-        <v>217</v>
-      </c>
-      <c r="F4" s="96" t="s">
-        <v>218</v>
-      </c>
-      <c r="G4" s="96" t="s">
-        <v>219</v>
-      </c>
-      <c r="H4" s="96" t="s">
-        <v>220</v>
-      </c>
-      <c r="I4" s="96" t="s">
-        <v>221</v>
-      </c>
-      <c r="J4" s="96" t="s">
-        <v>222</v>
-      </c>
-      <c r="K4" s="106" t="s">
-        <v>223</v>
+      <c r="B4" s="101" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>188</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="H4" s="102" t="s">
+        <v>190</v>
+      </c>
+      <c r="I4" s="102" t="s">
+        <v>191</v>
+      </c>
+      <c r="J4" s="102" t="s">
+        <v>192</v>
+      </c>
+      <c r="K4" s="110" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="2:11">
       <c r="B5" s="47" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48" t="s">
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="G5" s="48"/>
       <c r="H5" s="48"/>
       <c r="I5" s="48" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="J5" s="48" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="K5" s="49" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:11">
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="55"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" ht="40.5" spans="2:11">
-      <c r="B7" s="97" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="98" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" s="98" t="s">
-        <v>229</v>
-      </c>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98" t="s">
-        <v>230</v>
-      </c>
-      <c r="J7" s="98" t="s">
-        <v>222</v>
-      </c>
-      <c r="K7" s="107" t="s">
-        <v>223</v>
+      <c r="B7" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>197</v>
+      </c>
+      <c r="E7" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>199</v>
+      </c>
+      <c r="G7" s="104"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="104" t="s">
+        <v>200</v>
+      </c>
+      <c r="J7" s="104" t="s">
+        <v>192</v>
+      </c>
+      <c r="K7" s="111" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" ht="67.5" spans="2:11">
       <c r="B8" s="50" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="E8" s="51" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="F8" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="G8" s="100" t="s">
-        <v>234</v>
+        <v>203</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>204</v>
       </c>
       <c r="H8" s="51" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="J8" s="51" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="K8" s="52" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" ht="14.25" spans="2:11">
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="108"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="55"/>
     </row>
     <row r="10" ht="40.5" spans="2:11">
-      <c r="B10" s="95" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="96" t="s">
-        <v>236</v>
-      </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96" t="s">
-        <v>237</v>
-      </c>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="96"/>
-      <c r="J10" s="96" t="s">
-        <v>238</v>
-      </c>
-      <c r="K10" s="106" t="s">
-        <v>239</v>
+      <c r="B10" s="101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102" t="s">
+        <v>207</v>
+      </c>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102" t="s">
+        <v>208</v>
+      </c>
+      <c r="K10" s="110" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="11" ht="27" spans="2:11">
       <c r="B11" s="47" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D11" s="48" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
@@ -17136,107 +16866,107 @@
       <c r="H11" s="48"/>
       <c r="I11" s="48"/>
       <c r="J11" s="48" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="K11" s="49" t="s">
-        <v>239</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:11">
-      <c r="B12" s="53"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="55"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" ht="108" spans="2:11">
-      <c r="B13" s="103" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="104" t="s">
-        <v>87</v>
-      </c>
-      <c r="D13" s="104" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="104" t="s">
-        <v>244</v>
-      </c>
-      <c r="F13" s="104" t="s">
-        <v>245</v>
-      </c>
-      <c r="G13" s="104" t="s">
-        <v>246</v>
-      </c>
-      <c r="H13" s="104" t="s">
-        <v>247</v>
-      </c>
-      <c r="I13" s="104" t="s">
-        <v>248</v>
-      </c>
-      <c r="J13" s="104"/>
-      <c r="K13" s="109"/>
+      <c r="B13" s="107" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="108" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="108" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" s="108" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="108" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" s="108" t="s">
+        <v>218</v>
+      </c>
+      <c r="J13" s="108"/>
+      <c r="K13" s="112"/>
     </row>
     <row r="14" ht="27" spans="2:11">
-      <c r="B14" s="103" t="s">
-        <v>249</v>
-      </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-      <c r="K14" s="109"/>
+      <c r="B14" s="107" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="112"/>
     </row>
     <row r="15" ht="135" spans="2:11">
       <c r="B15" s="50" t="s">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="E15" s="51" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="F15" s="51" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="G15" s="51" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="H15" s="51" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="I15" s="51" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="J15" s="51" t="s">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="K15" s="52" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" ht="40.5" spans="2:11">
       <c r="B16" s="47" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="C16" s="48" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D16" s="48" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
@@ -17244,10 +16974,10 @@
       <c r="H16" s="48"/>
       <c r="I16" s="48"/>
       <c r="J16" s="48" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="K16" s="49" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -17263,26 +16993,26 @@
       <c r="K17" s="52"/>
     </row>
     <row r="18" ht="14.25" spans="2:11">
-      <c r="B18" s="101"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="108"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="55"/>
     </row>
     <row r="21" ht="67.5" spans="5:7">
       <c r="E21" s="40" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -17293,7 +17023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B2:E12"/>
@@ -17313,131 +17043,131 @@
   <sheetData>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:5">
-      <c r="B3" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="86" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>263</v>
-      </c>
-      <c r="E3" s="87" t="s">
-        <v>264</v>
+      <c r="B3" s="91" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>233</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="2:5">
       <c r="B4" s="20" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" s="88" t="s">
-        <v>268</v>
+        <v>237</v>
+      </c>
+      <c r="E4" s="94" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="5" ht="14.25" spans="2:5">
       <c r="B5" s="20"/>
       <c r="C5" s="26" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>267</v>
-      </c>
-      <c r="E5" s="89" t="s">
-        <v>270</v>
+        <v>237</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="2:5">
       <c r="B6" s="20"/>
       <c r="C6" s="31" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="E6" s="90" t="s">
-        <v>273</v>
+        <v>242</v>
+      </c>
+      <c r="E6" s="96" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="7" ht="14.25" spans="2:5">
       <c r="B7" s="20"/>
       <c r="C7" s="26" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>275</v>
+        <v>242</v>
+      </c>
+      <c r="E7" s="95" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="B8" s="20"/>
       <c r="C8" s="31" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>277</v>
+        <v>242</v>
+      </c>
+      <c r="E8" s="96" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="25" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="E9" s="89" t="s">
-        <v>281</v>
+        <v>250</v>
+      </c>
+      <c r="E9" s="95" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="25"/>
       <c r="C10" s="31" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="E10" s="90" t="s">
-        <v>283</v>
+        <v>250</v>
+      </c>
+      <c r="E10" s="96" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="2:5">
       <c r="B11" s="25" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="E11" s="89" t="s">
-        <v>286</v>
+        <v>250</v>
+      </c>
+      <c r="E11" s="95" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="12" ht="14.25" spans="2:5">
-      <c r="B12" s="91"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="36" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>280</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>287</v>
+        <v>250</v>
+      </c>
+      <c r="E12" s="98" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -17455,7 +17185,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:G24"/>
@@ -17476,261 +17206,261 @@
   <sheetData>
     <row r="1" ht="13.5" spans="2:2">
       <c r="B1" s="40" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" ht="14.25"/>
     <row r="3" ht="14.25" spans="2:7">
-      <c r="B3" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>291</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64"/>
+      <c r="B3" s="56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>261</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" s="69"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" customHeight="1" spans="2:7">
-      <c r="B4" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="C4" s="66" t="s">
-        <v>294</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67" t="s">
-        <v>295</v>
-      </c>
-      <c r="F4" s="67"/>
-      <c r="G4" s="68"/>
+      <c r="B4" s="71" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73" t="s">
+        <v>265</v>
+      </c>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" customHeight="1" spans="2:7">
-      <c r="B5" s="69" t="s">
-        <v>296</v>
-      </c>
-      <c r="C5" s="70" t="s">
-        <v>297</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>299</v>
-      </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="71"/>
+      <c r="B5" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
     </row>
     <row r="6" customHeight="1" spans="2:7">
-      <c r="B6" s="72" t="s">
-        <v>300</v>
-      </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="74"/>
+      <c r="B6" s="78" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" s="79"/>
+      <c r="G6" s="80"/>
     </row>
     <row r="7" customHeight="1" spans="2:7">
-      <c r="B7" s="69" t="s">
-        <v>301</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>302</v>
-      </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="71"/>
+      <c r="B7" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
     </row>
     <row r="8" ht="14.25" spans="2:7">
-      <c r="B8" s="75"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="83"/>
     </row>
     <row r="9" ht="13.5"/>
     <row r="10" ht="13.5"/>
     <row r="11" ht="13.5"/>
     <row r="12" ht="14.25"/>
     <row r="13" ht="14.25" spans="2:7">
-      <c r="B13" s="41" t="s">
-        <v>303</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>304</v>
-      </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42" t="s">
-        <v>305</v>
-      </c>
-      <c r="F13" s="42" t="s">
+      <c r="B13" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="2:7">
+      <c r="B14" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="72" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="84"/>
+    </row>
+    <row r="15" customHeight="1" spans="2:7">
+      <c r="B15" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="C15" s="76" t="s">
+        <v>282</v>
+      </c>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76" t="s">
+        <v>283</v>
+      </c>
+      <c r="F15" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="G15" s="77"/>
+    </row>
+    <row r="16" ht="68" customHeight="1" spans="2:7">
+      <c r="B16" s="78" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="79" t="s">
+        <v>285</v>
+      </c>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79" t="s">
+        <v>280</v>
+      </c>
+      <c r="G16" s="80" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="2:7">
+      <c r="B17" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="76" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="G17" s="77" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="2:7">
+      <c r="B18" s="78" t="s">
         <v>292</v>
       </c>
-      <c r="G13" s="43" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="2:7">
-      <c r="B14" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="C14" s="66" t="s">
-        <v>308</v>
-      </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66" t="s">
-        <v>309</v>
-      </c>
-      <c r="F14" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="G14" s="78"/>
-    </row>
-    <row r="15" customHeight="1" spans="2:7">
-      <c r="B15" s="69" t="s">
-        <v>311</v>
-      </c>
-      <c r="C15" s="70" t="s">
-        <v>312</v>
-      </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70" t="s">
-        <v>313</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>310</v>
-      </c>
-      <c r="G15" s="71"/>
-    </row>
-    <row r="16" ht="68" customHeight="1" spans="2:7">
-      <c r="B16" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="C16" s="73" t="s">
-        <v>315</v>
-      </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73" t="s">
-        <v>310</v>
-      </c>
-      <c r="G16" s="74" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="2:7">
-      <c r="B17" s="69" t="s">
-        <v>317</v>
-      </c>
-      <c r="C17" s="70" t="s">
-        <v>318</v>
-      </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70" t="s">
-        <v>319</v>
-      </c>
-      <c r="F17" s="70" t="s">
-        <v>320</v>
-      </c>
-      <c r="G17" s="71" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="2:7">
-      <c r="B18" s="72" t="s">
-        <v>322</v>
-      </c>
-      <c r="C18" s="73" t="s">
-        <v>323</v>
-      </c>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73" t="s">
-        <v>320</v>
-      </c>
-      <c r="G18" s="74" t="s">
-        <v>321</v>
+      <c r="C18" s="79" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" s="80" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="19" ht="78" customHeight="1" spans="2:7">
-      <c r="B19" s="69" t="s">
-        <v>324</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>325</v>
-      </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70" t="s">
-        <v>320</v>
-      </c>
-      <c r="G19" s="71" t="s">
-        <v>326</v>
+      <c r="B19" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="C19" s="76" t="s">
+        <v>295</v>
+      </c>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="G19" s="77" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:7">
-      <c r="B20" s="72" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20" s="73" t="s">
-        <v>328</v>
-      </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73" t="s">
-        <v>313</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>329</v>
-      </c>
-      <c r="G20" s="74"/>
+      <c r="B